--- a/Cookie/After_Check.xlsx
+++ b/Cookie/After_Check.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -446,10 +446,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
@@ -457,1507 +457,1470 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>bwrit3499@inbox.ru</t>
+          <t>gl0054qxhd@mail.ru</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>dGiiZ2BaJPU1azWuadMU</t>
+          <t>urMvGDG0v7PBh3BJt7KJ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI0ZjliNWFlMi0xODE0LTQyMTAtYTcyZi04ODZlMTZmMGVkYTYiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjY5NTI4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjFkNjE2YmQ5LTU0ODctNDQyZC1iYzFhLTcyODE3NzI3MTVhZSIsImFuUCI6IjMyNjYwNmEwLTNiYTQtNDM5MC1hMTcwLWNhNTRmYjZhYjVmNiIsImFuVSI6IjEwMDAwMDAwNjAwNzM2NDk4MyIsImNhblAiOiJBSUJ5NnpJem1WWUFmTlJzRlUxS2NhTUpRSUJTTkFYNEg3Qy9lb0t0ZkRKNWQ4b3BtVURYaEM4YWFRd01JeUVOSWNQeEdMMG1lcFpsQUpkNHpjNnFYRHJXaFR5ZUJBMVAybkhCeHZGOW1XbCt6RlNTdnN6UVpSYTU3MjFqM1FwQVRRQ2wzQ3JUNXZleVFTeGFxZC9nZUZuODQ1MFNybkg2ZUZBWjNaT0xFUFBpMjNhR3N3ZWE2TG5wWDZCRTN4ZnlDMlRiczZILzVXeDZONzV0N3dwV1o4T3FPZ3BlaGdyekVpSFdDbjJTQjRBbVBGdDFDMlZSNkVySk8zQ3d0dW9nTzVJPSIsImNhblQiOiJBSUFxMVI4L05UQnRxNjZrRXZGaVhFUXNBTDRuL2Jva1o3RkxEdzUzcVc2S0tJYk1PWGVyd3VtRGwvU0FUek9Wc0NyUUZQMUN3L2JNN3BBdk1OSVVjRUtRRXU1L2gxa3VTcUtwcjJ6VllTNUkvSEZHNzdzQ0tSVFlJcWhmZ3MwQUxDWjVsbTdLQ3NIVElUMDAzNmJHbGxiUVRpR1Nld1lEUklUWWZBOTRodXcreE03d09VQmpheWlNM3k2L2Z1djNualorSXFEZWkzMEZhTVVCOGhrdExjaHZlWWtlVHlnYVB1Y2pRb28vVTcxcG5HVTNCaW5iRktKWEtRV01nQ1RjZ1VjPSIsImF1VCI6IjMzZmIzNmVjLTBlMmMtNDJlOC1hYmM5LTMwOWE1MWMyZGZmYiIsImF1UCI6IjEwMDAwMDAwNTMwOTAyNTY1NiIsImNhdVQiOiJBSUNXbXRvR25tUWhvMWVBM3FkQ0pINTZZQUFVbXdSYUJNbDRaVDJvZjNCbWl2V0xmYThRbDlPNjFMeDlEVThQQWFSbFYvUGdCSXU5TG53Vjd1UDVMVVBld3QvUEx5ZU9IZlpqYjkwL2duaHpRODBTZ29nUEpHTkswdWt5S2VtSzRma1lDT0YrSy8yZ3dCSnVKNzdHY1NjQUtuckE2QTdLT0dWVWNUL2Q4NGpLZ3R4a2RpeVJySVB1Mm5veGlSK3JQTFZvUnZGYytuODVJVkEyU1hDT1hCRU9DRWFwanZEUktuWjdWcVRyL0pBdVQvWnRpbFh1VU9HcmlsZFp6L0FWTXIwPSIsInYiOiJWMiJ9.RxUbPLCdOAtkP-WxuohJNiQ_JC3ZGNf9T3DNhLHmC11mBMNkJeWfmqp5MfHMn_py70HTRC9vwjSUpviSYXqDVvaR-GZrF5A9L3RKagtwfYh8AeWhe7WiGaxKQOGcubn8ju-tCPFmBon6FWKg2ezcQR-MBX96aLq3rjhfFCe7-bAUTZ3v83WvQyFTlEif2ecTbq4UUc9-4a1OEfCQ66daezeJWDpP9oj8GyJmmSQNeycXO7b2lfFc-8M3gVK19c6kJHTxwcITj201-FafDR8EXD8JD44iW2238Av9PSwa0UGuuW9brdMwCH6C2d3ZbjFZh18n4NLYADq-nvxDN2_MTA"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI1MWU4M2E1OS00YjMzLTRlMmQtYTk5MS1lZjA3MTU0Y2Y5YjIiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTcxNDY5LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImVjMGIzNmE0LTVkZTgtNDk2OC1hMjEyLTk1ZDdlOTNlYTYxOCIsImFuUCI6ImM5Mjg2MmFlLTUxZWEtNDIwOS1hYjlkLWQzNzlkMDUwZmEwMyIsImFuVSI6IjEwMDAwMDAwNjI5MDU4NDU5NCIsImNhblAiOiJBSUFaQjQxM25wdmp5MHYyT2RVVG55a3VEeGkySThCR2VEL0JZRC81M2Nkc0xqWGZoejl3SWRaRmI5cVlJa1JzTE03ZUhNUitlK0VSN3NCaUluTERlYnJUcHA4akJweFJoTVRCOVg1VDJnU21mZW5YMEdUcnZISllrVEkwMGQwSnUzaVlWR1VzL1UrcS9KVzVneUFpSlFHOFYwMVFBTDBXYkEyRmtteW80SGdaNWNvenJSU09FeS84cXVQSzRUVi9EQkR0N1FCME1UTHZhWmt0VkZ0dEVabkNjVmt1Vnprd1EydDZWNkJpdHBwbmMwSkZoMVR2WlF3M2wzKzFoR0NrcTlFPSIsImNhblQiOiJBSUJralR0L2F1WU9xVU1BajVTbUZiWWdHb3l1dWZIUFZMdTN1ZWdYUkdMek1Gd1c3VXdvMTgvRHNTRHA1UXNieE9Fdk9hYnYvb3QwUXlKK3VudytHOUl4cjZoOUkrb1VTMXlUMmNUUDZsNUNWRlhHYk95bXRsT21ad3E0cERuRG05RnVFQ2VFRjVEdUVaQnQybjVqOU8zK0NzRDhOQTNGZndBV1lJd3BKWnpZSDlEUWJFVC85UW5kc0syc01lZEt2aWpHWG5zM0NUTzRzMThwTFB5UDlYNCt4S2lOdEhjdjNFTFN0Z1ZSdnNzak5JVzQrTUErMUJUSnI3V0FJb0RDTjlBPSIsImF1VCI6IjhmYTVjNDJlLTFjNDUtNGE4My04ZDA5LWUyNzAxMDU0NWQ0NiIsImF1UCI6IjEwMDAwMDAwNjI5MDU4NDU5NCIsImNhdVQiOiJBSUI1RVlTdDRMbEV4dUR2aWVpYXY2alRIa1VBN28rcWRDQk9NbVZxWlVPNEZjNWU2ZHlWQ2N2alRvT1pQTkRrbDJIdHNsTml3TzkrSmE4Mi9JNjdoQUw4cmtQMWNaN2lIVFFNZ2VUTy9jMGpTSUlwTmlvRGtCRlMxSzk3bTB0WHgwNTllZzE0QkFITEVMcytwTm1MUFVnemRJbFhFVnVWZmhWaEpORWt5azFHMGhYZ241UC8wNkpRemZDMG1Vc0ZtM1duMHorN0d1M3FqdlRCT1E3UGh6QVg3NXVCNk00VHVBKzdkeGlWcUMzekI4TnQ1R0lzS0x3MEVYTHVYcm1CL01nPSIsInYiOiJWMiJ9.b7cyYiAZaaknMfGYZl58o7n2PQUuChqT6noCJ3vNTAI1_sHCU4fVCOziTZJW8j91R2fciYnD2d-0yYdP_lVKZkEMBCOSzLrLepGOTsXv2A4qcuT31-avU4gtm9BCiqD1HJW3jv7NDqJew6JrDvx3OtlvfP-HpfmDqgAGRcWlpEnND84NC1UT2rKAGBdtrrVr7Ys00QKgwZtiWJXFITyieFo9w9DE7fuy2MVADskXf4M412apWoN0L2bcZSu4I8JG4Pw1kfdaQckI3ZiFbnyJqrcTp1NsNJjX7vUhplAeSjPgbck1TOPiM0IM9lKo0P6jjXpKIImuiIpWgdNXLExF3Q"}]</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.BP1WoLaHqhwJ0NHQJhpzLYHsnwqjKvokZzZvWT_4mlYZD3A9vnB37BsbYCOYqasax-339qGc6Sncfj75HbiN7NuK8Gvaw2B4abYEZFcuh0ofDexU9K49POid-PuSptKaBDi2R5Qzlow-EiedmnGlPVgGU7m5IHT0BrGByls5EJFNhtHKqrjxxWIvd7AJDQxSDtpk9uEvXt4PxG48CZvfUl0ETbIWEeDilxDgaxE3bUFJCPugv2CzOguYXk7KfZtqrcOiWGZvAQCZY4Q6sun4F5cZFGVP00DdHhMrYblz0wSYwrBRzvXojYdKTXumLE5H-dQsc1AsONIGaZ75y-8bwA.tjR1q2X-1MHvZokz.UCz2Vr6cQFdT3b2PqAWewf2MYrH6gbYmG29LBtCATg4zb1SK4fZxcD8A17rmQ0TI9OFM_F7IYNR07hw0jrsDtZWu1WQhQdnHZLpt2qVdl46wNsFXBobjw73LD3ySvp6uUQjpHvg-zNkMGFQFGh-kc86i9PM8OJXhxf77STdHuTFEpiENaMDNrsU7-H0oAEzaAZVDzXWRbnnO8tg-xKYJ8f9ezDK0xY25jY5y5m0.kXh2DeKDag0HLdJYyuTKYA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.hBy1RKOeK3khhOu1iAEOyBNMmQjEQzZwKfSymZcyNTJ-kZlwL9vTBORBZJXk20HAkRxpp4Y81RjUcyo90mE6IoRzKAor4co8x5Jir-61mIcxogRSRHQvCoudwElU0nOHCgHy-KqM1jr4glFbLIR3eXTz_Nb86wbfo5bGRfYksEW3QavckBVt6UDeCHmIdiD7Eay021LpiPeNV5LqiKLTJPdvmz-NoWBTOYQySmkXxFXZtmTbbYR-K9bZyc0HZdIMhkzTXqp_RGWpFl7NrEaa3oQEdcIGWd37nsqItxlKGlqOL2GlpRetrq6mXSSQ_ZhbMniIyGLK_6n3vLjG435lPA.qkhtDD0nlflU1xCS.yERYcPt8kuQXLLp02BNkpXkBLqrmEBiOdzd0N9fUfiZ1nbQ_kmPV4tVTudb5gXWHJqvs88WYp1cmsWDb1xrsGSDy3fqJ5zGbh1uObvb0aOa88P0k38cxLtc1BT979N2o5djLig6YDpDVxYpHxs3xTbw47_Yx2skb38N-eC16kc8LKBWA065hPhQFgUWW0YBX3JdCG_te6LfGQxQTUcRfk3ITV7dp2q7d5NTwsQc.BiABGGaAZVW76fgke5XuRQ</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Pv2XVe8AKjlXRAnVL-AzsB4kLEhgTQhJ-duWk1KU93JncnFfYX0ar6gYtIN66OKb8XcsRiYVRRB35YHlHXbhsJG12v16w3GDZzI8U5vZEMeduSAdFIPXCtJLxPnn7iJNQyWxLxONtxCL6GU27PNRSS3hy6tftoeJsAlfC3_kCKpWo--4vGX_b7aucx2oK_1aLFI6_6aMOss4e1dAbfWhI9gBx9x09EJb5CGR9G_VIHjIqLSE8hnlfBXnK-v1OefFoLRMBNpEAwT_s6Fc46XTQurb3XrBEy23ix8uZ7TpoaW4tg_dShHmRDYqBm8fJnfum8njRWiGV8ZdVWmaS8dx6A.IAsdDgG4XKN2LKsD.IMyRTQ_TiejpcPq2hOgauwg_Ojj9C6UxX6n5Kq6M2PG_kRX42MloBsgTS_zP2h3xHXeYk8Vj9xfA01FRAENrhbvAWcYiywsW7dIOfOCz9rsPbaYUhT9kfw5SAGMvm7FqBCoV-eCQYIHpwVzOyGDEXE4c3VvOAhrltKCzBZ5ottupyCPKLjzPqqpCjtvU4jaqQcUJHm6aOpl-bY3MIOoaO9Ja9iPJ0FK1Hi0CxCGe.q-zi1WCNOXtsfqn5MUG8cg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.fHS_AT399Tbjh-XnE0El8I_tAorZ-XUCxmFD3VyoNqt6wg3isgGkLkbXLKZZgBFjeqEwA0GZkOuBRzrh9mn4XFarRWwFxi3KkJLh07TVhSNJxvCTcOzqGHczxbBZQLdQLZ5NiFMlu5XoE1kFMsM4vRz1K99IIPN9n2V2nmrCD0A8LA_R7-JkjeHEGy_8t0SjA2WXAyGGiNHd37qbKDajsXnFR15fv2u0P43oycGUtdRLwxaDYX1C8NMMjbXMjdTMBqnzPZCNWwl31JB6EN3wZXdNQBphAdR6DEZF6jMQNcN76xls_jYHH6tyB1zockH0LBfGeZWX8_CDe_I2e_r2mQ.ZIGZcaakNrOucK1B.7ycTLNzYNN-gQBX26-gEPnCI4cTwBgR_DojhPvCkxyRv2D9c654u0TP6xW5Md2btR9f56Cxy91xLTrTdSqvu_x9OMUtUOUiPiBRx-N2VV8VjtgiaZg55m6cfzfqJEYIvla01XfjapiZP16SiHB_aOlsk0BkzgvrE7xbeDivKiDgNFYDx48G5o3JXX0zXm6Lk40k4Oc3_vj12yn7CgDLHLpZhqOUrk8n7i1eCLfpi.KAhrFfIq-S--rihQ_h5iGQ</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>A100000005309025656</t>
+          <t>A100000006290584594</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>7e0d6d8d-40fa-4943-927f-e54bc93127f3</t>
+          <t>e0e0b88c-192c-400e-bf8a-2f809235b55a</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>CB436D32-493D-4FA3-A61C-9A6CB7CD02B8</t>
+          <t>0B7050EF-4A07-4941-A932-9ED2A68F4D95</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xfwoqotx@mail.ru</t>
+          <t>lyusen.galkin.92@mail.ru</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ViWjWRBeKq0VHUb0PK3d</t>
+          <t>eUzeQm4twMumEydyiaW8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJkM2RkMDA2Mi00N2QwLTQxMzItOTBiYi1mNDMzZmU3NTQzZTciLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjY5NTE4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjVkOGQ4ZGQ1LWE2YjUtNDFiOS1hMzE4LTc5MTQzN2I1YmQ3NyIsImFuUCI6IjM4NzI0YzhhLWU4YzktNGVlMC1hZDdiLTVmY2E5YzhlZmUxYiIsImFuVSI6IjEwMDAwMDAwNjAwNzM2MzU3NiIsImNhblAiOiJBSUNSRXROZ3FtdWRhK3NuZlgvamtNeVdrZ1lkVlpWZGkra0xiUk96WkRLalRvd25WUHZaajZCVHZzL0RKZ09iNzRuVnRXSlloN2I2Tk1ZTytkZTJ0ZC9RWnZyZDlleVN5Z2d0V0JnQ1FvcVkvaWRiVlNqWllscUh3clppYldoOUJIWjlYaUZnaTV5OUp6akJqbE5HY3FnVjRrb25OVGpyMDA1R0g1VGkrZjVRNUxKK01hVDRmZEFuQnVmaW96QnZ2WnJRKzh5RGtBUWpHb0s5TGFmYlNHTi9icUZVSEpUeEVoSkI1OEZ4dndIaEdMYVFVTkZiT2szd3hDZGEzWWxsWVUwPSIsImNhblQiOiJBSUE1YjBCTFlpWUR3bjVnRkhQWkZHdlIxUUFBalRDTEMrRjhrV1N6clhDcCs3aXhuOWwybkFLNU1qdWdMWThiWTNNbmZxZDJETnJCUW1LRmZjYkdDY0ltWkMycHRPS3NxeEsxeHNvTWdVYWcycE5EdUl3bWxIc3NjbU9uMVNwQWpvb1FQcERBWUppT1BIVlBNZ01vZmhPeitBdFdWdzR3cFlvT2xhMlVTVW4wN0ppTEdlbjNpNDJlZGxoRExJWWU5NG9INkl2bmxmd21BWG5GZWU4Uml0VEZoTFJCMmkyNHlUbDBQdHhadTVIV2dMaUJTaThWR3ZSeDVBUEY1cVY0Z3gwPSIsImF1VCI6Ijk2Mjk3ZDJiLWJhMGYtNGZkZC04NWZkLTNkMTg5ZjEyODU1MSIsImF1UCI6IjEwMDAwMDAwNTMwOTAyMzc2MCIsImNhdVQiOiJBSUFVbURhWnJVTnhjSjZ3emVJbDFYSndQUnJhV3JLd3ZGbitua1YyaWpuWDhLdm1VblBkcHQ2MHFlTVlSY01HUnhGQnhxSWZ5V2tkNmZreTdvd09zZlJnbCtxVmZuOE81WnRrSkpoMmdJSS9EUjc3cXpCN09XeFVaUElhWTVGVlpKL2wzRWVKeVVzUmQyZHFSWlIwc2dGbkE3TWNKYXd6ODZqKzdiSUw4djlTTmw2RWNiREZnSTQzVk90U0grVndiY040WnBXVUdhbUNUVTlYMW04akRkNXhjSHFGSlprWkFOYjRXaEFoVnpmc2JLR0Fhd1dwL1VnR1pDeWZtMGxOTXFJPSIsInYiOiJWMiJ9.OzljXz-suV06NkFyLPF_7s7BrNjtulDch0nrdzYwt0OoWqol0FFG1T7JBPXiRoQl1CF_0QV15DPlaLf7greOwCxtKzNsZbKfzIoZUYVAG0G8UtO6-aIC56VT-HtPJi1PrSalc5XlBiZNV2UbSlpwNOcM15QoFi3HHiiON5uZsuGp6T85FZ4yqYap-2ef1b8cMinz0YsH-HOS_ce4EF3-PxWREqXDL8457qtMjZMy9Pf8Wgvv5vYSDxxYWOQlsFD-GR5d3lfz_-A96AWuLDa_8zBMEGlC3GaoSCJv7LxyUBERZoF85-q-qIArZVcBC5_wQQXEJ1xbEagFcyZ-yRe0rQ"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIwNTAyMjI5Yy0wOWM1LTRjMzctYWQyNS04ZjI3ZDdmYTk0ZjIiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTcxMzk0LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImZkNGI3MTQwLWJlYzgtNDUzOC1hOTM4LTQ4NDljYTRiYjMwOCIsImFuUCI6IjQwNGZkMDgyLWJhMzAtNDY5Zi1iY2UwLTIwMjczZmU5NTUxMyIsImFuVSI6IjEwMDAwMDAwNjI5MDU3MjY5OSIsImNhblAiOiJBSUFTcWUyM2ZlVlp4c0VLaXpkaHVld3R1d1VOaHA1QTE2cmFESWpHZjY4VnVldXFGa2phL1lsemhnYjRtRGdrLzBqSEdqUmQwZ3ZOMk9ySFE5Z1NiblFmeTBGWUpqYUxRRUlUU2Jld0YvQnpIVVVPcUM2c3VpZGRoekJoclBVYnNqTUJ1QUFSVWxpbHpVNmlqSXpUS252dGw2QWhzdWVnZCtCV2ZSY0doQ1kvc2praC8yYkNNeDFJbXlsTUNSMDR6NFc4YVRIWlNXa3kxNFNmdUQ1OCt2Q0kyVHpCcDBVaUxyaFJTZTErZm1KZENyZGVsUU14Tmt0OEZtcFZWVy9SdFVvPSIsImNhblQiOiJBSUNNa080WkVDUnVEZ2pzK1dMWlhheW1MMWlUT3FNTmFvRHZNVTVuSFpWUnpzcldoKzlHUndUN1MzUDVBSEdvYUR0RDVjSlcxeGExZGdnSHdOSjF3K0dIYlBIZjJla2RJaTV6RCt1NEpGT2FJd0F1ZVk1OCtuVmNZQ1F3c2tKRmQySG8wSUp5S0duRjdQeGxEb0ZWaGZLUml5QTZKMWJIa2krM3J1dHFiTEJoU2NOaHpzM3RyOGh6QzFzWlhmTlc4VDlrUGcwWGNHNEViSzdDaG1kak1ZbWVZNVRid3V4ZElSNisrMnBlRDRWaEdsdUVTalh1Vk4vbzFDVHFnSm5oSUVJPSIsImF1VCI6IjQ3NzhhNzVhLTIxZTEtNDljMy1hMGFhLWEwMzJhMWNmOWIzZiIsImF1UCI6IjEwMDAwMDAwNjI5MDU3MjY5OSIsImNhdVQiOiJBSUFMZ1FRbkRZdzBEQzYwdnJST0Roc3dlUUVLSUZ3YXlIK0l3dTVCdnQzcHJSKzQ5YU1aeS95WnN1R01EdC9nOWVmRXFzOThPKzFyNEs4cG9hd09JeHExOHZqblQ3U255VVNSOE5TcHUrUVlpc2lDdlB6aUY4UFMvelNXSCs2ZXYxUlg2UkEvYWFaNWpMQi9CSHhuSWQ4SGhHbG8wemtQbkpFcGIxZDFETmRRbFRPZlk0NGpPYlJSbXZkSlpvUDl3Y2FJUUNHTVRCZjlBN1NuQm5sYmVMVDR5MDJsWG9VcmFGUXpFRGVtUzlzU2FVTVZEWkxCa0FQM2tGZVZxSnZ2cFFrPSIsInYiOiJWMiJ9.lZBBmQZMYRc5CSwdtiYFU9M5svN2rLu3cIjp-11938q3vMaWOFakx2ScSJTQiCoeIwkcpL7Uy7kIJSU89YUvwY91yrCi7cA8GMp5o29qcLQqUuGTq2KKJyRNMrq1ZsAFL0gdkb5SA_ZAh2McvRFytmqm0v1yUH9aqnW9aehXmq5wk-4rbhXg_2ib7D0Wo68mKvlEZAAsWc0fA6y6eLBIC2sbqufI8J85YyaYRGMIjAFzsYIYR-9cMq8aLpVn942pgtPSa7RjqKkdXxtqRvH7zFU8aJ1AO62w3Z1sz90tZ3Yqqma1rOMPPl__K1iAAvF8EoX0AtDemx_HA5aFNOJK2g"}]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.HcHENqRFWlnpRMMwmgdV6Fh3fAmclyie2cYd518d-z1arUIB8f9k0MjHtY47F_odFmUNvEFor_Ot5kZ2DYcjNloL4z2cDa58tkd9aNXoibJwjPFTkxtrlZMQQ7Z06D7PmJfFi8AvaLfx0S7E17VEWdAmzgBbnweL3cMNGMb00vi9JKvZCL6wm38tRe2HhrlgWUvmB5xnE_LuamwJ2MBGQ-nBdZItJ84OYWEiHipoHLXFZekUUA_E6VAmQY9izEVjvYeI967yUc41sIvKUE3lf_GA6F8IDgtNRbemyT865ImymGToAo015kOimFh5AOQFlvE2kYuwwhbePLwZya433w.kwZht_leoTPoXbaG.3q1oSffMR-EK6XdSvoMSMnQonIxXozDzBMo8lrHv9vbh1_EiFpJjq1DBNLVhK1DmRKSEsmkJoXmdeO3wX1ulwT731CscxHk9_iaa4MphHxFcE6kb3sUwlQvsb9oGqMWd6RC-lN7TBuqfkGVyMXTUYbPGusq_H7i508dAaDDGcHsy1mydp6Pjdcajn5FRBCG7jLoPmYWsjIHbt3-mzf0jKNHWLG7zjqvU1rn_mhA.j6Bg0AuCmYabzfPcbpJWAw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.P9k88K-g3QBtp_eyJxqAakRSCcNqq7XyoocI27o_Omc_bGnkco3ikJfvCcLmAVaKgKddNsT-1UYMlOs0Tg8bfKEUwaWcSsDjbIcVigsoG5QXLTbq2gExOh-bqEdeCfXNHWiTezxS05eT3XgXE2Oed8ClDElPyYOiiomRiALViyZd_NHoi194qnNArU-wSAhSIeet8rR1gZAKhj8eEEipuFCbChKDzUXtdidGpSC9vRPKIEXhUJBp1XGUV0ml_K7ZZcRDIQFnjvFk4WJkBu5gObSt1zQcva-3HJvcZmOOdM5i9DdcqnQOvaDzeS8zMt9AINM4lr9gaAaPN5qBSN-YvA.SqlGioNnV2DvBgQE.ojkBV0vTwW3Zn3dNyosnlItGwiAu9K6eEgUIJ6Wj3D6EC9sigR414M5y5ReQDYR0gQqG-dsapJm7vAh33BV4e0bO8TuAfglhaTGnHmgxuQkuyEX9O_okYvyRDfHvTlT6QLlK9IDPUDlHrBb8-AgsLuPGj6OVxNo_XitS4Dya86lBhcTjAYRC8v41B_Pa_MmOeAXiCw5BDYfwDfxwzHd6mOX6Xd97Hei_saAlhD0.V_HTNySfK0a_vT07-AZCmw</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.dfqXeLwvgaFfdb4D7alpDKXZGUsWk-S3gQOAwMOnC5FPGfaGuqvjcNvT7WvUmpEkYHT324giLyeirqou7nIBLud9GySCCrXBLtZKEjzadE5BXbViuj7iIz_Pl9ynOsRjsjzkAW50p3TsVQ7pFC6YF60ZfLLenQQJxgAJrPtYlEAicxfV2K1rSCpMDF4wfxhiaS51lp-i3k3GUpFwfpu7Sxd26USI1a5khjtBc7KMiJqppjF1VwwhgLa9hqYb5irb1y8A6eW35e_Rli21muAPcx5onhjxVq-RGtnEBkMpYOuZv0jjXhVs1ylpK0BOwpQeA_cy6GRfj9iv7Qh6GutJPw.WXc3HMgmPhqXeo_m.xtiToDcxDgBm2-NzFQKy-eHxYWtc2gQwy207vpIlNsHin3vRWzoA0jPRKa2f-OO1DdmR61_SvCZTxUcA_swbqApn0ay6onbPl6n-KTgm5cIg7DeCouAYTpa1ucYTX-lvgVQuZkhng0feSD8Y1sbVTU220R3irbVNLt0q1jxeQFDu4LfDnxAIZL9Zs2AaQvGmy17jGwEslcMjf4TVRDE6m4asCBi8QXnuAXdX8-3a.KIItF_5ESMfh-4jKDxIFiQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.LATC2UPmzWMg6pYlAdGQziCejt0ZcktHssqbwN_Qdqu2s4GFV7pKwu86OVxWZVJKqn9KRpzH9vFEpb1e7IOly-uCEKNSAIuT7uay4Wr0D6aS1t7Jldi31wjc_0yjHEa6o54fs6mZ1UnGuAGNcqNRKbnQBrNlTY2wonlcz0bqqffYe9n_tVpOo8FDOJSx55pAyqv2zU-9eLroZwN18xuQ3eyCq0cQUF27mjJQktTxhPaEV9dYG6GAaHES9-BbjZ5rusveIvkIGT96e3BZnzia4heX8xmDn6B6oSwUDzi8RERh2ZHQkAW5c83Dvo-nO9228yk-4HBNBudQCBUYotUiXQ.Ma3QcNL049KUhLyI.ma8gRo6OxPldNkmMz4rIMq-iNS1VA7Y1ZNm0ynBwz-rV-aaf7ieh-tfQZF-rMeY1BYqv781xGToM9tMucBSUOh5uu6v2o_jwcfvpu5CUP2eQYcu_RbPNL-VAEP2Q4XPRU6jwHfqcynk1gInnpkXkWluy-aj41mCZ3s_Kgr2-b1yPVAFokQCAfhy5c041aDV4xnHKVlHVXeuYAlMULhtbL0-jLJ8JoJCaKfTAzksl.HRXDSDaejfIL4sei9JN1hA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A100000005309023760</t>
+          <t>A100000006290572699</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>71cb3ac5-ade9-4e97-8c26-0cfed4ba32a1</t>
+          <t>e6d6ff00-bbf3-491b-ad13-3341d0557ef4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>F382739F-48A9-4660-A64F-3AFCA2504DCE</t>
+          <t>A4E553C1-4953-4F7A-A944-D3F5E4AF24F1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vasiliyhxu@mail.ru</t>
+          <t>kovalyovafgq@mail.ru</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>j0usQJvA2WHfjkZUQAQM</t>
+          <t>zTbSezGSQJkYbGE93KSG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIwMGY2ODY4MC04MTliLTRhNGUtYWU0Zi04NjQ2OGVhNTBhODIiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjY5NTY1LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjMxNTNjMTkwLTRjNzYtNGQ3ZC1hYTEwLTE5YjFlZDVlYjY5MSIsImFuUCI6IjhkNTQzYjBjLTEyNzAtNDUwZS1iMTMzLTE2MjQ0ZmVjYTk2YiIsImFuVSI6IjEwMDAwMDAwNjAwNzM3MDExNSIsImNhblAiOiJBSUFOTGFUTm5KWmdYUi8rSldZV0RESHVleTRZVm0rZnRSSUNPNHptekx5d3pMaXZid0dyRXJGUExXcjg2M0ZkV3doMnVUQmltZ04xWTJiUHpCWjNRdk90VWhtNFoyY3lQb1BOUmJITmwrT1ZMQm1nQUJOMU5hQTdRVFZtQkg3MDhHMVRZWCs0UlRDYVZkWlNUOVAyMVA4eXJvQXl2d2FqTGhZQnBHQkRDT1dLb3E2NG10SjgrU3RiY3NHVVZvdS9YbXZQWGY2TzFaM1l2aC9VOVEzdFhMLzZnQXRoZDc5UVFUZlZEOEZmb3RHaG9CUFNQcnhnQllnZEpHSlBZZDFuTWtjPSIsImNhblQiOiJBSUE4d2FLOEJwMjBBQlFwRkpQblQzSlRUdWZzVlplUDZDZmtNTUVLR2trREdWSmhjZkJaTEIzVGlKR2hvWEZHeEkrSXdwRzBYZ205bnV3TWJ4aG53dC8wamt2RFJEMTIzM0lzREN0TVFXUTNhaytobDVqZTRFUFJpcE5vOVE1bC9LT041ZzhkckJReUxPOGxTUDZUWnlqVmQ1SGlXRGRvdDQ2Tko3amFoWlF3enc5S1M3MHdaYW11ZGE0amxxQmVubnJSUHI1Q2l0VXZaZzZvaTRWbUhzSDI2c3QrQmo3a21jSEpHbUtJbWhlZEhwNXJOMW1KRTZuT1B6SWZLZnRYWEU0PSIsImF1VCI6ImY3ODM2ODUwLTQ5NzQtNGI0Ny1iZTI3LTNhZjYzNjc4OTA3NCIsImF1UCI6IjEwMDAwMDAwNTMwOTAzMjYxMCIsImNhdVQiOiJBSUFtcFllWHFFUWhEZ05ERDBlM0x3d09kb2JwV1l0L1ZOczR3cm5SbjFtSkl6QlBpa0JlN3FERHZJdUs2K3NaQmJ0Mng3cDdwSW16ME9vUVRBbGltakRBcE14QktXZVplM01pNU5PbVhsdzdDMjdCUjUxaktpeFIyaTd5aHU2eVFWVHlnUGFNT3lldlh5b3JwQVlZWTMvZ0xLQkprVEk4aHU3VjhqWlllOWhua3ozV2xZQkdKK2t1YlNVUWpLOG5SeW9VMHlBQ1BWVTlxR09hczR0ZG1WeVdVcENSdytHcTl1Nm1TNk9ZNEVSbUgrV1ZJWE5xaCsySW1UQ3Z6alNuQmRRPSIsInYiOiJWMiJ9.X5luHVRGMkwTUOp0VhniaIi_iS9PUxu6jJnjcMP6DrwNOAZcyI67LCz0bPf2i9Yy5YV_mepifsSAeLyjE_hNXlID8QH2JhBupG04kjP_j7xieDFzrOH_Pc3qMWQeWvl4G_X_1aCLsyiOmLRF26mydVavcWU8jH53OSZaHr2cJYTNqgnjOq8LpvdoNFDn1zrRnPhJ_Kv8LElBzPq1poOCWOvLrjAVe5E_I9IcEowzyuC67ctBLN5opW1s8OunoqgTolHwuyK33d8thzPloCRDNFQ-3gH2yfLYHOBKphbCYQSTsUdOM71qRT6jkdCOSTHyHZGyn1SN4s-0GX3hBU0bpQ"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI3Y2ExNDJhMS04NjQyLTQ5OWEtYmVmOS0wMzdjYTE1YjIxMzYiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTcxNTg3LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImE0ZWYwODIyLThiZjUtNDVmNy05MjhmLWFhMzNlN2U3ZjgxOCIsImFuUCI6IjMxN2VhYjEyLWY4ZTktNDcxMi04MTk1LTNkZDFhMDI1NDc1NSIsImFuVSI6IjEwMDAwMDAwNjI5MDYwMTQzNyIsImNhblAiOiJBSUJxck51enRTanl5YkRQWEhjV1gzbW15MUJPTjk5SEZiYjVUd01NQ2VSNTYxelhocXdCV2J1SFVmOEFkekxyM0xxVUR2UEUxU0RPN2NmRG5NNUc4UGdJekFkZGJ6V3owdVM4WERQWi9KbXh0Y0FIaXQ0d0NEQ3k3NFFpNkdGTGdWZHp5SFlJOGxHZm51VGdnRlUrSWFUZ2NhZWJsSkkwSFRmT0FtMWkyNjBETjZnMERiMHVzdS9tQlREYmNLbEFiaSs1ME1VM2dqazdHSXFEMW0yV0M3eHJ4V3NuK1l3SzlmSW5HSzkvd0VYN09VNVB5akZ6amlmRmVHbHFNL2lhRVk0PSIsImNhblQiOiJBSUEwSElMWjJWTmpHOWNtVnd0NE5jTWNyZXZhS2FIekUxbnRBQVlMN29pUVdvSjF6YWNmVTRDNnFTSE9YQUtoN29IM3JMTWdtNENYSlZBZ2ZLZ21BcGNHZ0Y2U0M1U0ViT1hoU1pQcjF0YXNnNmdDRVdOVHhuZXU1NXZmZ2psbmlzU0FaZEdPTU1ObnVMWGh2RE9zeWdPSjk5MEZ0bDRadVZiVUgrc0hzTDB6VFUvdGlOZ0dGNFBDUkh2dEVUeWFHNkdVTkdUNGMwc3R1ZFVGUU9RY0d5MXRSRG1IWm1aQWNhZ2kzazV5ZmJiRVozYzJoZ2k1NzIxM3pDMWpzbGM2UVFNPSIsImF1VCI6IjVhOWZkYmU5LTcyZWQtNDQzNy05ZGIyLTdkYmVhM2YwODAxNSIsImF1UCI6IjEwMDAwMDAwNjI5MDYwMTQzNyIsImNhdVQiOiJBSUJON3R4SEVFWSs5M0lSRGZmOUJQWUFXZUdCcFlZemJUQWsreWFvUjJIcnN6TmJpczZrcWk4WEUyZjRiK1FmRlRYSzlXc3FNaXVlZkpkdkNKT2VsdkZsWEQ4dDdFV3h2a0hLWmIxYXVxWXJHbWVLYnlXQWpKQ3ZiMFJtV01PM2RWdHlXV3Uyd0tldUhCUlFhQXJrT05jSHNVdjNqK0plb3U0VnNoWFFwUTZZZ1RXYTNOY1N0TlRtRU1BR052RFQzYUtPN1pxUDlabjVVTmcrZHNBY3VRSWYxU2JWUFdEbGFKZXpPUjNEcW9mQ2toSGZkb1NIWHVXN1kyVU4xMlhFdldjPSIsInYiOiJWMiJ9.NRfoag9yYgKBqIYnd1SSbjq70VdCMuAEsUNmK8_XbXExEth9bVYofeo1b2IzAmpIgkTDPpDFbA4JY9f79k2diFOYJb8f8tPS73d4lIHD0FO5ck4vTTYTIAujezt4g11ajhZ-qG6MECmFMFGimpXzp5xSoLakRhWS6z-vlQuWJH8bkl9Umq3_qKZRK4qlNiRh8ohbXR3DLlcACWPbRraFFJ7V_P0OfVYqQiluQ8PHJzIlOMgG5ggHjulTUGJIIrGbIpgbRzAftbZTjmeFW3B6nF2tOlzmX3nDHGNGyKs0cW_-6ZPIoCnVCTseTD55NOjECBV518rqxqONFnzt8odz8g"}]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.MAngdEGU9nLoBdejbTl-9E5wMY93uPUhwoUsAeOkoknX_XZnxLoW8RpGaAjTX_JNCz-X9tXqjCo9bplXBU4izryAZlXXHPo4kmXedJlubFUhPBsy36twZre4U8q_dPzWZ84HgCThrQDCfmJ6SGgYvqmUNcEEVM4tejxPJhyDMthu7V-OKG5R0gDLR1Mnd_7OeYXBVKH7KSOtI6pPZI-JS-vP-NSP0uNKW8HkAKwjMlpCdLexcaStzj0dGFAqYmspdd9okLtD1FLQSYi9jrn1VvVghC1EyxKjy4v1oH2PmshuctPMazCCcBcAXjZMgSkTSsb468URQ6LVWfqzGYvrlw.LJrEEafJ-_OtDebD.UQGvZKxFgUaxfm8s0Gk18XitwT3FrnjYC3-7BVaLQkrNebelkUndmrZaC4zGQ1hgdtRgt-uHzOz3kQZ7sFzM84Xsb4S5RYbjj-xWspZE6-PO39J1ZiWzUP50JXSwZzxF53adVR0HtTPLz1-_5rNo7-D5-29OOaIhTkiKtq0QKQi1kDR8vWNa3mq3D6TYN3h1uSc9LS-WF_T9f71uAhspU350-j2R8tAWUmmeMms.kOK9vEVwP0HQ6FCoN-U6wA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.K-TSsLFhtRWZSWA8QeJEH4fTrHLGpekLnp3VONc0q9aNj7j5Jmy8I41b5XH4DB-HB3SDtf-_ZrDpr2OH1ydgCv3U_CkuZvbt9SNZB_p-GF2PFqOe6D_jIZ6AkxCt2J7oYl3_9h_7fGgJEoLfB8_kwe_nEawSsEIP8vGWI8fCyvdjAMAMkabfuMVqVwIwd4qwj1iCuhc4jiGI3xQBKssZt-AVzmF2Hin8EsgIxs6NxatIXAjWfoMhTk38Xn6wo7-Ba7hneb3xt1fqnfDOKxo1dWr1RL4AYbodbSWfdGIyq-XSAUomQ2eE8Ol2C4OymS5AONc9M5yhqV-F3UJ-OfyuDA.DvUNuR7yFBGRp08G.lQzzgSlkgyLjRqI7HRVHlxWwdmMlrPJoey3DoxdTczRGkz4WCd5ltftvDk0KMij3QmCBUV2BEcIo_k8ygIQ2_g_jQtItxA-WnZQhawRdmsiashukR6bvTlxxclLNZiMAjJxp1DtwRlR5lUZmyBsegv5Yd8j_-_AfrVS7UygqoI0xAN90Nlt3VbVhSGf-Gubnr3AOMG3JpK3J7y_CL29IQOrJ9F3fAljVzhUPByE.THOCREIggI4AD38ZoWo4RA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.U-jxEW6Du1raiOIuDutpi8eRzQ4-lunuMBARrb9PW4An9M6PAz2o_Lv7bS50iWUActDBo7TY_TONats1z7VIqSz6uGXCDIShjb6ZcdOTUZ3VzhPTCmNLevZkU_mCaKAAr8Ri2jlZLmZZRBY-ss3QIdNx6dvwRcoiCCgF-ewOYlG7hFedKeSjvwsyxJJ6bn34yM1eIK-DfFANCZNJljq-xa_G0IvvNRdu-a-GJmb7-I_eddISysdNIZ6IatcNwyFdA4SiPSMyaJbO9Gkpeoz5FBdirDCG4w0oQbYQ_A6u1KplwZ7YuKomVMC348226m2xg1azbteICxjrogLkOwjWsw.EEomdSaIQM8WkEn8.Sb7NluB3jtreqZqbg47Wr-gMvVlnYVp_oUNYxnXRMrlMN-uekDY474gZ_YCaR7Y3oEifehy9QATgF8QJ4iKnMUqddqjwrh3yGs_fqX5noZWcxZa7hPGxPeueLDKZZvFaGGkO7UBsvdWWFnOfSViELDcOIrMY6eDnEP5RMJYh-vGUOFe8Lt3xY6p3R61XtTLQSS4UQIGcivGcYnA30ZJR9Do5kkMc1mAsnYP6zH28.CGLo9872qCVq3Qun2zIeCQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.ZphotWA3NnGldS1Xq06APl3HGosQR0DDejwBUj3v1AlgltkoMOb0oXrH_xGkChE5KBT50wv3Tk6HL8Q-xZh5YYQS5sakmu0k5RPHjyDEM1yPs7zjvkeml6LKVGkCWDQdUx_ZCoRjyohL3EUyrZmLylU5sLAjUHhnQIW3qmk7qv7ZNB8nlLIhgwl4IX9fURm2Hs0BZ7JFUMM6n8PIw760iK6YKbSDW9T-PFgjo4v0GC-YIe6jHHUUDniQxpv_u3HG8_dg7_l5dbOXtvDBxSh-p1KVAEG3zwGe5JAm2lvgtvsSr2PQOJlagOgr_r_hD8PBhg4gu2rkgmm4GCHQnATEMw.4rjlc-88pLaQ9bCg.bGbV3fe7LZkaC9qJpbyV_hMQREV1ewFRSoIVAyPWLr87r9M2zZECIIcySjrqLCXBNb3P4pgRXaPt07pgoiHJpNxy_RNb_4rVRLB2tqpNidOGB_t2Y0uah70Md2LIEMhZa23DtM41MhFweSM8Cq_xc7Is_qCFBpu3yJYqGz5r_da3nsIBHJ3-mZUXUa04D4LN4LwlhC2XjJJalQe1tt64orjVHljKYetYyUmexVyP.xePxp7zU54MbFo0P-KRotw</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A100000005309032610</t>
+          <t>A100000006290601437</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>212d7475-4a91-4a94-8c86-285270a4da5c</t>
+          <t>842a5382-0ed1-4fbf-b212-6f5d0caced68</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>D1E23C13-AE59-45ED-BD60-395F645A0824</t>
+          <t>662B0D78-DE07-4D70-B0C2-FE14B2009CC2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rjhxc3ggx@mail.ru</t>
+          <t>RusakovFaddei19978202@mail.ru</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jySdsEG9tenpKBB2g4be</t>
+          <t>GS79YakHjWZLsVpmiurC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJlODAxYmM4OC1lNWVhLTRhOTItODM2OS02MTg0MGQ0Y2M2YzIiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjY5NTc1LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjhjOWI1ZmQ2LTI0NTktNDZmYS05YTU4LWI4MDk3MjdiZTQwYSIsImFuUCI6IjI5NzlkZjE2LWIwMGEtNDY4Zi04MTA5LTFlY2Y3ZDJjM2FiYSIsImFuVSI6IjEwMDAwMDAwNjAwNzM3MjEzOCIsImNhblAiOiJBSUFPT2dsaWpMZ1hLYmxYNmh4b056eVZobzRyZmR3Y0ZIcWRLL0FtSnliZTVGc0t2a2x1bFRsODhuVmJkZVpoU2k2OUVhNW15d0dnMHUzZGIxTW9HUUYyaGZNT3Y5V3M5dTljOU9QcWhJV1lvTE1NK3RtclVTU1dvcDNKandMYkROYXRkNnJySmVrU1h1QU9ScjNKOTdpVFRXcGNxVitPZno1ZytlL0N1K2h3LzhtTWpsMEVTR1lyZTMzWm1BejZrTlI3dit2dVNqN2dmNVU3RW1sZkN3K3NBNHJHOEJyZ09QeENLb2hFQldTNmRJbDd0SzlzbHNNbmw1VnlnOTFsQ3RFPSIsImNhblQiOiJBSUNCSEgwdVc5MDlpdFd5Y0dEV1FJYzJEOTJncVArRzdjYVd3cHRnOCsyVEtUanJaaUhVdVIvajIzNXlNVXhBNCtNTVYxalFzRkRIemRFbnR0WHBaNmlhRTRaT0J1MUxnNGoyZ0V0TC82Tlg3emN5d0dzSmpNa2ZLeFg4eXRpMFBMS3RibHRzdDBFQmtiWmRqR25TR291R1orK2FhQ2VCMmpZZkZrSGY3TmVJZFR4MlF3OTc1eTliYS9IQ21QQWJjQk1WZllvWTVERDlrUzcyWnpWSFJGMW5ta1M0K1F0NkRpb05CVVRVNW54UFpBWFFzWmtEQ1JjcFhWbVgzN05MclJvPSIsImF1VCI6IjFjYzZlODIzLTk1YTMtNDVlZi1iZmMzLTBlNDA4OWE4YTcyNCIsImF1UCI6IjEwMDAwMDAwNTMwOTAzNDc3NSIsImNhdVQiOiJBSUJDbjlXd2RXUXl2b1dOZ1M4NDFzT1VpK29lZjVjMWpDT05WQlNSS1BmbitvZlhTQURXMXRVeXlxVUtiT3lTVzMzd0lVeHhDNFMxWFJ0Q0hCWkxGbkoyWkg2S1RHN2s5UE5jaTJKNDlEWWZFSzFjLzdyaUJaV1hMd2hBeDU2WW1sVXExYUMvRG4zL1B4STlsdkdxS1QzRWVMSXFGUFJzNjl2VmJBdHJIcWtLYVhpbUZpYmFQNDRsSHlGZVlBbWp3ZVdyTUZRcTY5cS81NHBnYS9aM3FrUUxmSndiS20zdFQraTBwaWlhUjg3TG5sTXUyd0lCK3ZIVmlWTUp2YlNvMmNZPSIsInYiOiJWMiJ9.jkuo_N0urRuRn5I8K-HikfdjUizM-7Hk2_5AiJGq9yqgS1m3uzWOa7VvGW_ZinMUZXR6cPWBdeF_0OxGlAZucQ9x4BqNXoLywF0NZvT6d1Kmth8yHmqkMGFzwQ3pxisifkzrm2rgokBRPkrKrX5Hq-KZuWryDv1XWYquFtVEemmCt_GxPm0YjK602EXACINFp5LvzeiAuq8eNZ8updRmaxObjJ3QhNDA-y0B2-inI5-fmpZ8Z7B0X-I3pn-K1JKM5CJRy4oE3GOzHfKisnQLna3Nrykhe42AtFeYFQKWGX6izMzUifBcTA4K6Ajn8MnzJg3f850RpBcRSEsnmP72Jw"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI5MGMwNmVkNS1hMmQzLTQ0MjgtODM0NC0yZjJkYTE1YTJjMTMiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTcxNzczLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjhlZTc4YjA0LWExOTEtNGFlNi1hNmIzLTNlYzU1NmNlNDZkMyIsImFuUCI6IjE2MGI4OWFjLTIzOWYtNGNiNi05MmM1LTUyNzIyYmEwMzBjYiIsImFuVSI6IjEwMDAwMDAwNjI5MDYzMjAzMSIsImNhblAiOiJBSUIzamt4SUVCSE15UG1nSExZM3JzOE1QUndsRUVBRGxFaEVrVVFJQTl2VHlEb1cwdDY3VmRRYk1HcXZSRGpONGlvcjJINkJZNXlZMkNpZVplcmRTK0lHOWRaeE1NZnNVdzVqWDE4SDdPZFhteWNBckhEV0ZxZ2ozYTladmlyam1LR0tSVHRta2NqM3ZFUG1xaVN4RUMySENrTis3VGc0WEVaVEVxanFETWc4czdPWnR6VVFjK3JkOGtsVDJHZlFkdmEzTEFlanJ4UnU1UENtbExJN21IUFBIVWNYVVNqcGV5SzJyS2E0Zm9JZTBHWGdZZTJ2RjlZV1FuSjM1UEdQbmpJPSIsImNhblQiOiJBSUJiclE3a3c0YlpCYzA1QVYvL0F5bVZ2VUhZT1NxRzREeFBJRGs2MjZRMWVWbDF3UmdKSDhPUlBmblVKcUUwZ0tFQmxnS0R4OEpqRk5NYm0xYllhWVFnOUJJZllOUkV3YW1UcmtWTElDQi9xNWxNd3oxYWViZVovWktkTGlTeHFRS0VUNHRUOC80dWJWZk0weU9ndSttTExyVTF0NTZ6TjZvK29FdHRvM2hXSGFBZXBYbXRid29YSzRaSk5wOVpQUlJpcE5xQXdkYk15dCtJMCtQWGlGZURkOFJmbVJTYXNxenMwZnp3MjQvcmM5KzVmRWcwZ0w1bUNwTmlORnpNczVJPSIsImF1VCI6IjM1YTQzYTYzLWNhNWYtNGE2ZS1hMzA0LTk0MTI0ODVhMWY5OCIsImF1UCI6IjEwMDAwMDAwNjI5MDYzMjAzMSIsImNhdVQiOiJBSUIxNnpDaEljOXZyOWh4NTNqKzRyY21xQ3dHWjMrMlpsdDJOYmwxTVR3S3NzS2Uwb1hrSUFSTy9KcW1iSUFaSnAwY0t5aDNKNUZlKytDRCs1ZGE1aFFoVHczSDMyYUMvdTdtU1o3emtFbWNpT0gwSXlTQ3NzV3BCZXQyckp4ek5tc2VFdE54UEZFMExuMlNPWXA2aDhjZHIvdWtPamdyaVZZOGVpRXh6QVM0S2l0MnJGb0phQ0UveHkveDcxbWtXVU45WEFqeFUvMVpLSW0zRDFRUDVEbERMZnZadStYQkdNM2Rmb280YzBwK2Z0TVd1MTdObHJhTXpiWEprektHeFpZPSIsInYiOiJWMiJ9.VYCetIrE0Q1M2Llzw7KnnAkfSRriGMjlsPaHllIxApd9-aHb62Q1p-NQWixK7Cj8Z8WJKWcaq5_7agFzhxc8okpmjTUCjh6lE7TjyEuVZdRdJsI_DzgH0kMjaq30G836sd6_n84nPqv-mxYMUlpy9tMVBT9OD04gQuNZVCCzY7aYCkURQh6dqxafZIOra5POIZRB0q-4UdHgaOoR4AkhCFSUpis7KMiZ1_TsnXUqxBTSgWjP1Via_wiTe10J_hDB_GasrJ8-PnNK66CIMFAORcDkBiZztY_pn8-30hRPDgb4XWlJKjJv6FWqyGvYJVTPcjLCY-ZIZVieCGFu0VtldA"}]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Ayn_3c1hnzbU4fqoNvU5KWSLB83nyNvruMrBSFjRxRqv0t58ecYpQYrXqpMkSn9FyhhbLS8-VybuvyYx0gCPr1qEMj9n8gA4dwXKXl2XErs2qxFEB7rwnU41tVANnzxp8K1XIpHd5GzFJEgtd0_yv76yPriyyojrFQJFj8yenH8JiKNrGg7mrJ20DR6iq4AyZAC-CEYYbVoQChDH5SJ9sQnD9r_LIAmgp2oi-GXD4-Cp-s-b6DDWUi2QAmtcdgjvMZf0VXEQydqrgeRAy61F3d7PEICAfssuSOyXN3-Tt2YsyvF9XnII4jwD72xUrReyyjsTkiDb3XtnL7qgtXn6sg.QK7iykf9vMc-T2LC.1hIX5XdU976-d5Gymw-GX5MrD2VVwl9V9SVxMOepOFjTrpKFj1DaXQHGzTkHdBySK6UMjPw91gXpn5SGpmLNpDBJxoKQAEG67cfUM-MPYdydjdt4gB07HPIgvzjsxHQ_dbOQfkmljbk-4P1vOWCM9C8RYaonrMlZ392OrpIqcVamq1zwbjEHhNW8kn5iAppgWmrwGomToWGRPkg3h3-X4faLvZl9J8KDl2nj2FE.t7fr2VTJPRAgf3C1DbPYEA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Yvj25fBfkQHNnC8gqBMO7f_qOBY5z9EAgXn3bYrWMQpwk1A1CQbYtUMqrHhypEP4qbyTwnlw-jyhIi7cPlVCm1gBWy5odTwLBNQufAm3AleGZBdJNC-W1mWmtCNfXTEjudbNsrM5KiZN1RXYSQfH0O20H5z8AKIAq7F0EBrtf3Oc3_M1OwbWLOtcOfQTUMv113yXKrCjW9IZHGVNatcNUy5BzdglILIdUdMh_3yg8AetNZRwYq-2NKDON_WJS5-_OgPLDSwUK-7xG1l5ojj1Wx4ttt-vdJ0uUIk19Ctd3_VmLVja1lk5uPBcPuR2K8CNkYEyd5xOPCkR3GhaUnBnCA._qmWSI2wyjA5_AmF.m7wxbJdnOU7nDQNBB0McM6hk_6BjP68fYD7a2RIfEDJi6hVnTQbV5wH7gP1N8u8NrPsxB7spkk_EuOC9Tjqr6RKpdhllvC7RbkidxYRhPOcEhbFg2d2Qluul9uTyTyHE3suTbzdL4fjTmOsNGeqBJEchJAuIoqMw3y24qP_Zza2hKEP2h3RKfVUj4jEHxuO46Ic82LEtsc2ep7AdSNE7J-TdAb2vY8Np8cEZybw.xAF8BLIQcDojKwHJJ4qz0w</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.V3Okuq4yagKabVg7o7JU-3YSwvDgauFVtDjV-2RzUeQn8tDgbITgkgi5f1Op0BAy2_COuQHdYVQ5IbS0RreiP1aXYZ7_Quc5gXZQc76C_HEw4RGus8IEbHsDsXs2pFz7_DsKUbz3X8hJhJu7mGOVC1GKQgQmJe6lAL5vTq_wvuQFB78cZG8sVgf9KX9GGYiwvBUVzs2cVA4HkKnVeSr9VB90NIpHlqMMBR3aBZ_7hBSTg8ea4zU1fvAXk8CcRBUNO1rXB_pe58Rq8yrEiJWPtbVEUHsYR4K9ZFXZSCjAIxeAbvdex-AUhzgNJfjyr6VrZiL59URafap7K5qCZwF8tw.Yisuf5z0-M41QyFN.ycsWbWSm9raYqFPkZig7fgjzvlzPE7n_7MGh3xXaZIU5WRPhwdnJyAWgvYmS4dabWNWfXW2-9JwLrwE8UVszBResbGbAgvwTx95xeWfCFnXh1WkLNfmNzgYlCZRTc64czzZ8Z-D4I-z7u1f69zTZpBbOzKLDl9_bIGaAj-JfVdq9crfLRSfIpoVRslgw7pGXxkzR4sQvwYzEl35SjbrepDMEWN993_Bluy8TLVEc.Hei2YEDWVo2RRYE4hz07Ow</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.DSbxwqiSqBW81QItmG0GJkEDEe_eSOyD8Ru37uqUwYrYLYqNZ_9nJMxIsdjPA-ly8EiKbbVIKavBn2yQ30OgeJHQI7EKZYHPIIYGlRnrK-pOdBIiRsAO4fh14ZAmgPnGud3DgFwADZ5FmqX1OGBP8UteL75Yoo8U4_uVfubC34TVt5YteaI7vOdt6lpIfoMC0I0Kfc_XI009ZXntS42dX3sq2MQ2o3n9WHDLc4fm2DwlchoEKzvuotzqwdBU1LnbuyOjIL-8A9u2OdW3DQOViK1LEewNpD0DuaxF_8D8NE8n-_rwXljpFZphGHN3mYuz0cz4pKg7hsk2-pUXyW3H2Q.oHTD5Q57c8lUljd8.B7Av3IsQP4RTvYKEPH3Lk4hjPmWW8rYwAByqyOyUil1O8B8_Xp3-aKJgB6KbumZ5zMfRHdF5Axkvz4CcViLGdbnipXQiqIaGSZCZ0Kd8YxZ73IS4wNGPIsHNTCWwyJCn95IPolhwauizBcoT0W9MAZAbFFtasYE67Iq4SXpqqCt2RGd-6CCMmbvQCPwbMfqyyq5SejznvExrRGkheuSWdyksRbPpr43-fWMEg6ih.FYMb8164gl9EK6BssV0iDA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A100000005309034775</t>
+          <t>A100000006290632031</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6908f4dc-4c98-4e7f-9d89-41f3e7eb7ecd</t>
+          <t>86bb98f2-e600-4f3b-9974-2229e3c1a7f9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C5B94417-F6C6-419D-AEFA-9D360027402D</t>
+          <t>F13BF6B8-D8D1-4B46-AB8D-982E85A18556</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vhavelyteczxe@bk.ru</t>
+          <t>bacelder-376@mail.ru</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nKrHsHXnqREJq1rQbCUg</t>
+          <t>6tN7MSXsVxPBaKj6854c</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJkNjUyY2RkYS0yOTc0LTQwMDEtYjk2Mi1lOTM2Njk0ZDQ4MjIiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjY5NTExLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImVlMTk4MWRhLTE3MWEtNGE5MS05YTFjLTA5MGE3OWVlMWNjNCIsImFuUCI6ImU3ZTNjNWMwLTI1NDMtNDM5Mi04MTIyLWQzYWEwYWZkYTVmMSIsImFuVSI6IjEwMDAwMDAwNjAwNzM2MTk5NCIsImNhblAiOiJBSUFKUnBCVThxQlpnVURiWm1mNnpZSW5EU1BWM2k4eldyWjJNY0Z3Ujd0Q1hEcHMwUDhkcE52ZEhZZVZVd05vTVJGSWxwbmtkUW55QTM3MUluZjBINnF6K1RTdjZyK1BTWFEvcDhWTEtNUnM5NWh5RHJmMTFhN2lCRWdBblpvajNTcUc1QzIzazdyQUdqRFVWODJDaldCWTFqdWRRMTNKcTM3Z1BjNmxJSVFEU0Q0d2wyLzN6V0wvbUpOWFd6K2pQcjZOVVNGOFBOckhrRkFVRU93VEd0a2hZeG03ZXlLRUx0V0hKNHpVdUErQlRaZHErMjNsOHFndGJuRkg3aC96cmxBPSIsImNhblQiOiJBSUFUS281SU45SC9mT1JsN2RNYXhtYnVzTmlRMERRamNsUVhsTVkxdXROMURHYWZFOW94cHptOHlqRTRydkhaRElyQTVTenduUWpkOEw0MUp3S3Q3dC9lVHMrREZ6OEEraWs3b2Y3TG5oSHZJV2tTVkJsMDk4V1VRRDB0QmUvKzkreXRaNnlVRkxodytTSTl3akNRUTN2TUI3QUVSWTFCclF5NUx6QjJ6N0ZSRVJtcFYweGQwQkhpeG9XRExQRVAwdnJDdytYWnFuMmFRdnp4aXRFUHRpTzgrV3krSjFGQ0JUU29SeVJXQWxpSk15c1VEWldEWG0wei8yUkxzTFIxVDVVPSIsImF1VCI6IjZlNGQ0OTA0LTUxYzgtNDkzNC05NWU5LWVhMDlkZWI1OWFkZCIsImF1UCI6IjEwMDAwMDAwNTMwOTAyMjIzNiIsImNhdVQiOiJBSUJ6SUE5cWJNVHphNWs3Z3U3Vm1IMDZGemFRS2xvcHlIaE1oSjFkYkVZWFpiWFlvMTZqMzhxUnkwUSt3MXpOanFvOUdxVGR4Sy9TbFA2TVBvQnViend3QzRCeTRreEI1S2NNRWZXRVdueEovc2ZvK2EySzFrckEwaUZXVEVERitkaG5CVW9EOXVOVFVKeWp6MkxVZEZ1amJmaFJnUmZFNDQvMHg1NldQYjJoQlhSZWhiSmhxVjRrNUMxcGdBaitsSHJQLzkvT0J0NS9zcnJVM2piRmZpZjQ4Ukh1bzNXVTFVZFNrRUJIOWVBb2hmNklibHNGSzdPbU1GNlNvbVVqZ2RrPSIsInYiOiJWMiJ9.RIabg-bNLGRYfbosHCeflZfAdhXzeVQh-uZ3P_wP8TMvHuGgbutJ0yJUbW1Q_cKnOopuH-dy9c6W1M55kinFjjihrBhfz79QyYor8B0XChGf2NFwlIuxyWGsbd774taFE8Omvnbmtx1KVqylUcc1be3POUu4Zg083JFwbo5UbbW6lNwZB6__QIN3jfTxBmfejcz5DTD2kseq2FePFvt9h9KM3Om5p7FUKgX4pg3MBDgmxy_Et3rF8BUb3zeebK8XHiBNIGhUmdYlIGU363Q9egQhFYwIfAuuYdlPkPz7-hSqFV0reeJXqko6ecaxsMYLSnW0rGe_fgzYWijc1cH9Eg"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJhYmYxYWJlYS0xMjIwLTRlZDUtYjQ5Ni1jMzIxNjg0ZjdkNTciLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTczMTU0LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjQ3YTFmNjFiLTMzYWUtNDZiZC04MjBiLWNmMTc1YTI4ZDdjMyIsImFuUCI6IjQyODlmYWJhLTUwMzMtNGU2Zi1hMmQ2LTAzZWQ1Mzc4ODM3ZSIsImFuVSI6IjEwMDAwMDAwNjI5MDg0MDc2NSIsImNhblAiOiJBSUJqNnFRNjU1UmpIaFovUkFSZlVwZGl1bGRaV0M0KzNRL3MwUjdXQmkrUUhBcDZ0dFQxeVRKTXZqOW8xdnNZTFV1UGlwbUtWK2Zja3YrVE0wWVVlaEpIUDZwd1g0ZzcyK3hjRThqMENpZldwbHNvaW1rdEphbG9talhyOUVxMlIwUklGTkEwVE53dDIwVkVFcGNBMUh3SVVhZ2JubFlObk12KzVRajc4bEZES3JMdjJtcXhncnUyN3JUY2pDaXZsUmo2KzgvQ1l3ZXM5YzJjNW1Ra05VVXBRY3lOUDJ4Mi9YWWgzNUorL3RHelZuVTRMK3RJMjJwTGpMN3MzamRRZ0tBPSIsImNhblQiOiJBSUJ3WEVGU1BsbTJIRWE4T0ltb29zbytacEtUM2dnSXBwS2FETXdEaWhQbUt4cSttUnVRakFMYlZCaEVrTkxOamk3Rit5eHJBeGNzUExFcVZjY2ZrNzd0dUhlV2Y1QXd6UDJodTNGK1JLNFljeVRaTStJZnlJK3pzWHFGSGNLL0V5NDc3UjM3UE5mSkxxc2tydXQwbHVib0h2dkpObTNzL1BpNDJXRHZiNTZRL2Z1dlpsaEd6ZUxGNjVyc2JYbCsvcjM0NjdVQ2dVVjNNc0JXd09GbVEwL0xrTlk0bXhjMGUvcGFjYU5rRW5xS0ppTjkrbUhjb3MzYUpHR1NlRStvTFZrPSIsImF1VCI6IjljZTAzOTJlLTg2YWMtNDIyYy05M2RiLTEwOTkyNWU0OTg3MyIsImF1UCI6IjEwMDAwMDAwNjI5MDg0MDc2NSIsImNhdVQiOiJBSUNIU0J5VlRjeXBubklsZ0RGZDBCZ2xZZ1BkdllUUE9QZXd1Zm1ra1NHVVZLTUV0SlptZlk2VTZNci9HRG5WWTYvYkdORzFuSlpGc1VKZENPSERpbVc3SWNLYVNxZGxwN0l1elQvVTZuWG5mZCsyVW12dVo1RHhmaFBFbVJVMTEzQXRlUTZKMGU3Q1FDVlkxbGk4UmI1MFJLK1JUVzloWnJpN0VDaGo1RkkvM1VCWCtFenViSmxDandSV05uL3A2RCt6Q2JJa2k2eWpkeVlKMHExYjNibHVtV05zV0JaUlBkRWJYUHZVNFlNVm1lM0pCUHpQbDBDUm1XSU9COUNhdXJnPSIsInYiOiJWMiJ9.oWdCrd56Kd55CULKMnUajS-etw4mSiLf5VmAMCMvYqsZyUbZYr0AfUBsrj_lpOUV6dps7ZxD9sPJ-UQDXEJeCg3KcO__V1mGtemvQ0_a9JR-ynqbht7D2f1d4p-_94YvDiuITOFEr_qOiYP1keRIkXiLej8z-BFKLDqF6mvxFMtzZhaIVp4k_aluU5sWqBgvtZk9Ceddg1fGv144sn4i15RNfyMY_A04as-xPkUUGcKQsQkN8K7lH1DY0O_x18HBkWNVWaXF2-1efnuFNYjJdNkZHwsd9mHs6vVwy3OXUwZxKus1hVJBQ4JPwZfyq3gQsHUSax7bLq2YhUM2cz80Pg"}]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.AgHQLIwaNZwYL5ofiwVlbzmvQ4jSyol2EYjDMVambdo1_m5B_GOoPZnczZUe-yK037p2VxeEqEtmz47xXtbsFW92juDRvBNlsiMI4xi1TcCDnSTni2gLdS0veDLpuCz-lxEoc9ZeWe90F_dsBl2ETbe1ARPLxNLEz3tpclcwQcCJvXMoxZneK7rllZa9Sk4DXA9TtXUjD5JvenGTH-pMpkcABMLlCDRonxMsSYYkrcs0_cmRRRuyzF9bTgzrd07eZ98KUaaY6fUx5zLT6VtEpwcTSjZoA_RI4Oi1UNMOaJi0NCQlF3IOHTZV3p3xqx3B2QxiHWGrzePWeLYVhwn0lg.PRQSp_RjvQucXaji.iyJdcbT1v8275oXVOBMHmIBciMEfRHdPdhasmZg4j8y4hLHZ5iClcuEHIPXtZ_H_xNIave4mWeYhtCAGPObbyEjku31Be8OQ1CIGI5SAc1m-Dh4VPHLx-7NINu1e3_Lz0essfH9kDpsLNNdDuKS7MYI2Y5FFHm92E4QDD8AbglPtGgOXiSiFp-6WWnIfTt7K38hAv42jcdImS6RkbNLMCxagAYFy_bcwDJqVdUs.ay4jj4yQrC_dyHqJqGFXRA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.JgHgM30VIW1i3nliyxoAS4at8oB7zXANLYXxIMLXRJukJ1BR1SM5DhhrfIFi_xlzE4W-rOCez7fReizHUuPvr6R17zRMFmpJvz31E561VHXzq6PUv695_Sl35x-VWfEfF9fzn7XNKFS-nNQYVUisCjLhL9tW3gAbFsVjEIH__pfylOASWJseBYNVAIWAtTfiq-96M7eBy5V_5Gz5Bkm76lMVLnnTIry84zMLI20vil2pLcwvWbT669Q_c66gtC67jJ11FvfN5_uqku4yuqet6WfzbwvxAscNY8dCgiVZRvIRM8oMq6H1EawWC8R2ZkNimQZ8AX-9sPOcGv3pKIzSaA.VIKTK1amo73Jc-Cc.zbTbhwM86HoYeC0EnpoCRCqHOcH1gTiKt9Tww83zoUtlmpSCKPzFfO2O5diPfeWX3Vw2vfRUxThPbvZkfh6h-q-qYEw2x4CWT5Jm8SKBRnwtBjNufoTCfePlBJHSDTO42NZKIFSyFnHftEur4cSi2jXeCWmbCKRgS2YdX70_AbG1Z_8b2tcygQrJaOCzasz05K0pRS4GCxywKXMlO98TOuA5fXPPC8dB6w7fF3A.5DYRNwlawwQcLhHBrmrTDQ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.bqmEkjDk2B9J7U16T_dcx7dR3stjlGU-6T3CSnsUdqvDI1Lu8JWEEBa6p2WYZfEabo6PuYYIAeKTJVSWdo9_CfX0jdRUvkZR4kYHJS6-qCFIkiIiws8dEYkIp1XFTEqpNWzdAbgsm7G8iWYPIYTSkW7utV-GVmKuhOK7Z71q-yfst5AKrBzlxcG2kLvFgD5ajfrwgCp9fc8_XTY1miFPCar9z3KBKMIaxBuoh9vQX62ZwQ49DJ5icKU_lBix7DfSXxhudTci9SOuH00MxZWQ61-knD5YZHtTPXaBgZnxEb7aMsCT4E7MqUPNeTaSbrTsPdM40Yie2GfC9nLtGcBAPA.gsUFUninA63adb_U.RzZMatdffzgRnlSRxF4Hf-mDkYhCFfLEm3pcllAu97ZcYCGNf7xRBbttxyA718PH4R9IX_Q9jbYiVmwxU8k0Dm06ZzVafxpa_Z3SxZslKL8fhbs-3elNWwPn89bdgHs-n-rLi7aLcxc9Kh64pzb-zoFpsSCYUGMb_j3XUOJQLmFT9O87uNkUe3M8dx9ptgvaxYRCX-NAme2hL1GwbfmP6NQzLLBRdqH5-9bojB_z.5_HQfvo-rm2550nScBr1bg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Ys2BayofAu0tsGRsLVMIY7QsG_2Q9uu6k4uWpQhKv1oJT0cbb9OmGuZ7_211Q_jFUBEdO7ZzoAAeL9QVoBnGRNTZeQ7drw1Pj5UXzpKq_e1Fihjex762NZ1oNafEmXyuoPhV2CNFyMOcWhFWj8kSDu5J4d89yJqIAmUsCRRiO13zccbHvrennsKMadDiwA2kSKP8tj4uNz_6ENq8rIdoIS4_W-IbhOv5lfA2oFCdpOt_YtVUirEqNpWPTanDhnWWrzj8c_xntRY9XKBWiK5QAZeVe3E07dccSfllxmCZzK01TT9NS3MZY2PNS723PYsnOugkjhjnDtgpB2D7R7yroA.6KrXpGj_-gKmxQ4t.54-4nqIUviZBdaPaJDz5foI1iIHajPVBU9GCSRYHcuO3tQLspGurnyu7Jn5RyXitKAQkxqM6HaAPcMUiI0N627tBWeskOKMD8Ps_cBZ_af_nGiqz56kAkdCTDznNYLPUJ9M5K2R0tkZYVaGupkVRqsk_dK4cfat170fhMVLl9LrcxeFNVMsVicHsuQvXbjIKpf51pOhdp_h_KXWCJH9_M3AnSuUeeuzxWmatS2K2.aQWMVJsQC9-M4FU0mxFAcA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A100000005309022236</t>
+          <t>A100000006290840765</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29f47468-8482-4c90-bdbd-9f70a74023a5</t>
+          <t>6ea45a54-21ba-40f2-8660-a988081eeba1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>60BC212B-DA9D-4C4E-8003-6E3BFFDE828E</t>
+          <t>FC022304-653C-4976-A4D6-92F2E2394939</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tjqvxmexb@inbox.ru</t>
+          <t>LarsonBarbara1983@mail.ru</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RRyeWzZbsSWghMLM9CUa</t>
+          <t>WZAKJtAHY87JPexbigSz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIyZjQ3YzRiOC00MmM3LTRlYTYtYjQxMi0wYjk2MmFiNGJiNzMiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjY5NjA0LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjNjZTNhY2ZmLTJhNWQtNDg2Zi05Nzk2LTZhZmZmNDEzNDg0ZSIsImFuUCI6ImQ4MWU5N2E1LTE2MDAtNDZmNC05NTcyLTI0NDYxMWRiYjRkMiIsImFuVSI6IjEwMDAwMDAwNjAwNzM3NjQxNCIsImNhblAiOiJBSUNNL3hIdnJHeGxDUTJmekhXTFdNK1NDajVlQzNBY1o2ZHNPL01sYzY5ekxVc0Q1cnVmWkpzd0h1eVBnS25manZ5SDRsVkZnYnVEV3c0RnR2VVVKaGtOdzNYWUhlaFZlVG51VjZQRXJqcy9XbkEyV005OEVoN0tRVWxZY3pieG1SbDdQSUQwVDJ5aDB2aVZOL3o1b2dURnpxem45ZHBNYnBrc3FjUGhPR0kyNVZwaWY2M2EyVUJ1NTNWVXpUUEZRZjY0dVA0aTF3eGtmNk54UWNwV2FEV0NtdStVSGVodWxzWmZBQzVEcFFPd1lKMGowandjaWcxSkVpVUxITi9KWFhRPSIsImNhblQiOiJBSUJOQi9Ic1BXVE4rWGg0YllseGJma3JJcE43bE9CcWFrY2cwcit3SnVCZHVrNFBybHh2RTdGa1NoQmkzcWUxdWZOTlJsY2dMUU9uZ1NsRmFGdnJ1bi9pbFFxbEI1WDE4NmFEM3c3aFZSYldEV3R4UTg2SWFSUFgySzg2Vis0VlE2NkZzN2w3QXI0ZTBHZS9QNXE4SWt4OFh1QXFKeUtLZXpqRStuM2VtK3JkczNUR2R6YmdEblMxTzhyZW1WTVFQMG93T0hEZ0tnTzVESzFKMUt3SEFyNjVPais4aldkMDV2VEdnTGVudU12N0JJL0Irc3NOQk9KZEJ5UnlDNXJjU0NBPSIsImF1VCI6Ijk3ODM2ZGI0LTA4OTAtNGI4OC04YTQ2LTBhNGQ5OTUzODZkNiIsImF1UCI6IjEwMDAwMDAwNTMwOTA0MjU3NiIsImNhdVQiOiJBSUJLVk5qeWtpNWtVN0xyVUFvTElzb25NQkpQUXN6ZFJuVXhLUWhTM3NtYU5tY2hYQ050K0x2clczTVQ4MVVYYVNwY2h5SDUwcFZVRHUwU3poc2VhdnlEV2JhV2RvcllObUhZZFVaSENrMUxPbGwzaTJDN1ZqQUZqek5wOWs2VkREN3doWHl1VmpFclJOSzgweDhRVlRKM0tFcVNzdTBQcmxkZ0VUcUR3Zyt2c0lkcWpkMHVmZFVONEg0aTVOQVZDTFlTVXBiWmZNaEZEY2tINit4ekk1TUV2UGdtSnc5UmQxeVVDNFlTS2xQM24zRS8ydUZEV01FOTRKTzlEY0JVbkVZPSIsInYiOiJWMiJ9.mzuyxBcZQHCp6mj2auL_JcSyQoaNOXCUGf3xl40gTNEg-xnIOlnCi6aAPiczY7j4gW_OUB37Oki8PHwmLba21hfhNJyD0iyB6ZHQreAkPonig_j7vFUNHyWtbP1hv2ZTfbhaZ97z6ThReD_EkpVp0lggigJgGi82KOmQ8wly_i_TGg6cGt2vgvCLnJYqdyus5tblEghc-3rD1EExJAsxTLxO4R0KuPNenFoLiSWAVivVmBy423Wgy0CUspjVoxJT9GogsossxTnu5C8zujFoYRka_td26R0KHmh8wvz9Iyna_oeF5OrLQKqe8NY4MuKpEzxtCAIfItc-j_Aa0i-_Nw"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI4MmViYTU5NC05OGQxLTRjN2QtYWJkMi0xN2EyNTQzNDYyYjUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTczMjMzLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjBiZGVjNjhmLTE3ZmItNDFhZS1iOWY4LTMyMTI2OTk1OGY1MiIsImFuUCI6ImFmOTBkMTMzLTRmZTEtNGIwNC04NzY2LWMwNzQ5M2ViOTk0ZCIsImFuVSI6IjEwMDAwMDAwNjI5MDg1NDE1MyIsImNhblAiOiJBSUNEaW9BeHVLTVQ4TC90bHpCR1RkYkJxZ0tXUXNXRmZzMkNhZFJKMmc1dnhnQ0NWU25zT0hzQjJYMmtFOVBmaUlXQXkzRDd3QlgyVnRuUWhYay9mS2c0RjB6bVhaRktUZW00SUloNTNVQkxid3pBUysvcjVESUl3S1ZiczVmdTFNZ3N2U2ZVSmdlOE1PVHBPNXpUVkdVK1BENjAzKzJScUVPRk9jbFVBN1Q1VkdobGlTUFk5Nmx5NDZaWCswZmIyVUpvZUpIWk1GeXZNMUZZYkRaM0VYdndtd0JpbjF6elgyQTJpOXBTK2RWaDdpdWNneVMwTTFpdTZnWktpRU1QdDhjPSIsImNhblQiOiJBSUFVd3A1YmpCZWFVd0l0WEpMK2JmZmlqVWFPbysyK1I2S0hDUWd3am5PNkZLTXBIWm5UdmJ0SUNNcVFSYkd4SllxTmlXSEg3cHA1Ti9PeVRmNEU4U1M1UVNYQ0FOTFJMNVVtWSt4VEFpNDErVFJ0citvTzlpT0FNdUVDdzVqWC9OMG54S2NXeDdoSVFaNXYyM3NaNUJYZHZFRUl6WCtiUytlelZ2b2trRG14Zzl2QjFwcVIyeG5HWnFBSkV3OUQxVXNWL1pzMy9XcmhQb3JKWVhtOCtQZmhJaWx4RmhSK1lob3kxenBBcmR5QitSc3J1dzlqOFIwdWFFQU5YOVp1My9ZPSIsImF1VCI6IjNjZDQ3MTljLTg4ZGYtNDY5Yi1hODhlLWQwYTZmOTdhYjkzYyIsImF1UCI6IjEwMDAwMDAwNjI5MDg1NDE1MyIsImNhdVQiOiJBSUFoc2JneEIyN05qU0hsc09Sb1YvUW8rYURzUEc1QkZLMFd2QTZmZUQ5c3V6TldWZkdPdCtveUhoK1dVOGt5am1uSEJGT2VaMEI4YWwyR0tMUGZ1cmlidFYxekR4YlNVU2NKYTRjTzk4RFc0dEJxdHkyOEh2RVVQc05nVVdIeTA0bEw1ZXIvOUM3ZW8rK2I5ODhNWThKTXcwUzF2R1F5SEJHZjNzNFdwd2NRd090Rm9mOStMajZScjlpSE5McE5rVm4wV2hCSjdLWHlMeG1LQkhPc056ZHo5NDcreFdjR01TMkdIUHp0Sys1VnloNGw2dGFNU3RNNWJnQWJxN1ZHcVRzPSIsInYiOiJWMiJ9.CWGrFaifbbMtqTIxjGkDmlbjRad2YK6Tr1-1l56uIzs8mWgJY6k4h4PztsVY-vLRGsBmi0qXzGvkDW_EWO6B_6sVFWqy9gw5dzdYIF4hiQNcKoOR7HdaMFl_QHo7V9J8RbZUZUykBalN1sZSLbxuGsGhk-o2I2cynDhlLp0ts3ZaNN3mT44ogoTu_AVZItjmAj7MhbAVwstmwg_14R4a7v7KAEEv8txWwrIBHVlYLKNnU_pzpYg1s3of34iL-R03yee0HqdSY1ivUNGOItJy7t5vnATkFhu5RMpgl-8rWLZn6RAPltBOcSOyTpKWZty-6PgZ4w1Wdlj2dkeA-RJ9hQ"}]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.R0L98SDLNUd4Dx7Me6_E8u9eeKX-uyCwX1ZQeLpU0jpjp_wQUUcYFtUnSWhR7K7oHSPscDVwCwG7RKv_ssoEInL5A4rFzWKpqdxm-Alfyj1QqpnB7AfeclXpTU3mjg8NLcab2ki6zW7JMBRmKyYizZo3ZhUqqyDeds40UnrzepVRaiWis1m8r6AUyNsJp7Z7PXwCpmtX8bWWylC4_OMCYpylgXIkyTd1RouLmYoE2hW8iV0pykjJa4OfXvhpxV3iIVRq1DmkwaIO_dslgNM27VHkXDv-SNnbMcsHR__AdtMtLFcvmOUuXHPOn1DIlKAyzjEeu99txpu3npJb4zk8ww._ya09dcfSfOrFfVk.ZuYZ9-aj9J6_bFDYMTpZL6IpGhaAAdm7zSviR_pA81esk5sglK4v7vuWSVmk_DAL7pMOsQoNHsERUAyINwtFRJA82abz-Ln3NFkcMxmvIk9sFnas3Hhzqsj9kkEj0gu2MV0T30B4N3paJlE3iWGHpTV0XjRn66Nq3hD7aGhWx6zY3j9IwGqXNhpMOCV-ecv9qWnOSTVuJBheHBYTz-8_I1iTDchTZGzKIfMI76A.uoUcB-tTzWUsBGLb8vUrlg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.eiFQu_4G8afUqhYs84EPKD13OMgVt63Js0tBRREuRlPIY1agLglUPKOGg8TzriEYo_w7Y8UQpUf2ZWtK_itXCG_ef40vd9HK51osq-lvZ3-N7tRyjEU1FBiSfrN2W4xZYqNEG-XCaL24oy7ssUyzUEP_NSaDkAWod8h2Z6FU6pfJHSjIq2Vl5GPlT2277Ndx5YmGXB8ozDUts-zT208T74D9tebxvZMZyiqY0w1Ek3odYsdl8K7qTPkEHBjvjxzNPLCyYPHFa_uGrbFRACnv6vIrAJ1scSEvRFWrjixefhWsY88kaqEAcrtvNlPX1KAH0jgGgR_ECIbXo_MO-dg3bw.6jluHN_t85vx4pwI.gon9WgfopopG_p16Wene1nt30WEueYF3QJzLDlkiEvi2gNvC3si4IAlUHywROiBgW7x6NBbknlH8iWVAh-LX_fwGlrOUBwh3maf1gC58M19QFqvtf3WW14JKFo81mvARS6Ibm5_uEJ02b3QeU3NfUnK4YaUxkyREuW7EOtwrUyxcdbF9tntary11JtfbOAxvHJXXPmvrxVTUdjFfO7EWpRyolQNpT2RowbFUmNc.qzrNgrZmYNKJ9fmxNOCcCQ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.JqlHueQKJ2IH3AGEYfLgRFXasL64MBnyIZ6v7mYJvBydzHAKuJMbSvREAYPA7ZEv8H-3Mj2l-De9Dt2DU7MOx_GuARjgS01N8_vN3TcTJT7LnFwo4AmORQ_4rOLfYuboWuPjFbCVp4JrPO-d1cHe3Zv6Q1fppoiK7GCeEsQEjpCg1q9ZGLQMoy3VgFmDOECRGGnz8jcGK5UuZTmMD0aWyD9FlNZ_034EZaMJJ0ftTJ3Sd68djv4gabhVicrKdG93qAU5CoD5_lM96hbSIZSa_OJoIOHdQtHHNPdJLx8JQZO36D-mc2yYegB91DWT-dAjzovdAi6txLul-UbKlqFuTA.Q1HcAmq0rq_IgJM-.NRYgHxiuYAC-LTQksz7O_WnOE4HI175JM9pyEML1dBGFHo-OdV1dTyKaiHKdcodbQF54pAexemHosoIX522A4TBw1DPKF0ddUPS_9RtwnQBmN1Zpt1wqCQ4_TQg7FS7-2xhMMw96dNVvfR6n_Rprc5UYOSZhu_6F6Qg5xTTropX5Oiz3OeZl56Q9UHi2L4PpnwheUzgrJGa6VvWt2fB_PXZfAD4c6raB9rkbM7eu.oOxd2zurQ21zAQ4K279O7A</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.gPlUTf3GCKJcJbgYtlCXaYuBBuFTFZCNN-i2rCeiq7SakeO-76hdtNpPnHtyGc-XXyoMuuzOlDvsbjeE0LGbE-Spw1uE5SrFZxr3v7gOSGOzT6cMn4jCqVXE5dzs8_P---Eq3Xw8YzAT-pqZPlQihW3vXT2lha3FYZiDr4Dlb3iM_o4d3353wZP2KIACiCaQSsWUGfAc06yOueHw5DQj-xvMK54cjs-C_5pY-mUup_l2ESEaGnfQIZ2kGqcDafySZywOHhWRbm4ly0a5oXOetD-VeRiGKTRUcBwfFp_O6QsvFzmMf5YUo5gZ6P7NIgxt4m0WeqiMVeOn4upEizCHSw.7hAhrs47bqIQMogj.J7ShMmmJ5jNo_YadRX3WW4ETj7wv8ahBZwic_NZb3DRODrvogNIgJT7rwDQT-QhD-8LSuuoUgusTrPLrONMt2VEVIRa_bBoAM_9O3BHu4wjJL365llNgS6gw1Tj6DW1q0vhruMO_cEQooumLxk_4pyGiPWDBWBgacqNPExN-g9f2pXV0sUzm7hGJxGnW-bkSBB9-Mt-6ufI1ydn-rR0_lunIQiqqeYdyAq-aqfwA.wKxgcO6orVi8eT0pr4R-jg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A100000005309042576</t>
+          <t>A100000006290854153</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7d6c712d-e478-4cda-8ee6-73d90774045e</t>
+          <t>90d6c8d8-f4ee-4435-9e1b-5b774777b06e</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>31BBA3D6-D65D-43C2-B79B-541215D7171A</t>
+          <t>D6EC71EB-2ECE-47E7-BFF1-5CBFE49DB3B1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>yanuarzimin19848288@bk.ru</t>
+          <t>RozinaKolesnikova8367@mail.ru</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dLMkxf9rLVEU2h9g121K</t>
+          <t>pjj3eFnHY289Qf2RFcpi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJmNzE1ODU3Zi1hOTI1LTQ2ODMtOWYzMC0zNzA1YjEyNDI1ZmMiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjY5NTkyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjQzYzZkY2NmLWMyZGEtNGE3ZS04NzA2LTYwMTcwNWI2NzU2NiIsImFuUCI6IjI1MzAzYjg0LWMwYjUtNGFhNi05MjVjLTdmM2M2ZmM5NTBlMyIsImFuVSI6IjEwMDAwMDAwNjAwNzM3NDg2NyIsImNhblAiOiJBSUJNM3pudGJZb0dDYmRHZ215Q0dmakRrS3R4aTlFVW9BMmJJV09xN3Z4cGx2YU83WmdpR0FFMFhTMTRFT2lVd1p6WnFKYk5mZndNK3BWRzViUUh4VWJIL3VWQzc3dllZVGtkUklJbjYxQVhFQnVnYmhVR01YOEhhU1hkTGhnMlRWZEtpQjlDL1RGOVp2OFhlU2dhMU1ndkdzenFRaDZtWCtjZExmeG94UkE2eVRUMEFLOTNVV25La2wwOU5jR3BucFdkeEFKd0tYbFRhMEppbHk2eGM5YllqbDV5TmxHeHppM1BQbWJmSlBYb2xtcHoxOFBXZDd4QlhWZ1lPNll5bUFvPSIsImNhblQiOiJBSUJzdE9rZTZRRXFjRlZEQlExWG94SVl5UEszci9jckhoNDVXeldjSlFNVElXeGdGdnBQQkwzSXhXZis4aEx1ZWN4a0dBbUZYY2k2SWgwTm1rWklaZXdDVnBiVmxzUGNFNlNRRlo0Y2hBMkNzbGFrVjlKUzl3ODM1TEEyK1lkTzdOT20vS01WSWdoL2lXWUNIVDBNbDVDS1Z5SEFKd0c5ZVZ6MHEwbUVCRllBR3J4NlZGK2hoNllKenRLdDBDUlRWMFM2ZlJFUEttcW8wNS9WaDZJUEFmK2JQRjNqcFNPN3BGQk8vK1VlYlJPbzk1MGJJTm1NWE1HMEN5L003dlcvNzBnPSIsImF1VCI6ImE2YWZlMzJkLTFmMjItNDI0OC05YjY2LWI0NzA5OTVkMTEwZSIsImF1UCI6IjEwMDAwMDAwNTMwOTA0MDAzMiIsImNhdVQiOiJBSUFTNmowR0RDakNjdHdFOTNXWW1aK3VUUCtMUjFINzdqQlljWCs1YkwyTmwvNEdQbk9rY1F5VElIWDlFdmdLUm0yak1BNDVxRzlhR3hBWEtCY3JpVlpYK0tjM0JEMUJBL2czK2xJbUtIZEY3Wmw1YW53VnFWUThxTFN6eE5TZEhpT0J1NVJvaW5nU2ROUGFTWm9ZRUVPeXFrM1pncW5FR1l3WUdSRFVWUG11TlM4MWZCbUtBMzdFUmZOMUhaSUZKWkNXMDV5b28zeWk0NitaTnZPdjg5ZExWMExoc0RGZCttbFlSM0ZpbE95Sit3WUVFODFlQXlxVk5TaEkyWGFlOUZJPSIsInYiOiJWMiJ9.Pz93tdZ8avsd80RDDSGQUFj5stNuuv6Z3Ty5sjGmpmprO00-l_79I4ETKS7c50WI5VHIGcY01Sxuif3gGltBZgP7Y3X9Fn0WrNs-mzJ2Cmh7E8P33o_K39drC416vAO4Rytjid8FdBNNecVCz1rOqhGMUsJL8oLYMY_nOJ3wmPm6zWGDf56b5P9nPlsq1Dbc0fh4sOPFvgghpQbtpEHXx81DwiyzlNMPwzyRLFhrWysfYuW0jXFINumuvNUixzygYRzdVCM2h5ssO3vWYT2RvQaEb13kAHqq8F1hkhMD8bd73OG8d_4xxzQD-egoqeK75Hc8MPbsGjj1RfXfxCmjSg"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI5YzlhM2Q2MC0yMGZhLTQ0ZTYtODUxYy00ODhiNmZjYmZiZjQiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTczMzA1LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjhlNjMwMmQwLWRlNjgtNDEzMy05ZGIwLWNmYzU4OGQxYWI4MSIsImFuUCI6IjQwZDU3NzE2LTM0NDgtNDUxMi04NzcwLWIxMjE5NDhkYjU2NiIsImFuVSI6IjEwMDAwMDAwNjI5MDg2NTc5NSIsImNhblAiOiJBSUNSckZoT1ZZOUwzeXRRVDhVMWhHV1BKbUxLMDFMdnB6WTZ3WDMvc1IvMEVTeXFENktGd3BOOWY2MzliaHNFeUVQNEZmeUV3Ulp5c1VtYjFVdzhheUJPR1VwS0dyaEhCOVV5ODVHY2N2NnVHZ0dHbE5zOTBLbmYrZURxSW1velBpU0JYUXF3WVh3aThiNVFPbXk0ZTVDRmhFdFFRQkdHSEY2NlZsZEFxcmVjcm9MbzcxcE9Yb2xtc3hqbm81SUVuNWhRMUlmbHFYVDJGQkF0cE9HSERxb0UyamdNZmZGNVZaKzE5MkdDdzJaNUxHcnFHb0tEUjBUL09QV1VYL0tOb0hBPSIsImNhblQiOiJBSUFuQ0svOWxmb21UVE9UaEtheTZHOGtWQ0JkbFd6dGtYSjVYaEdaS2p3aE1WdmJhTDVyMkVqQmlqR1pWdGFqS0xsQVg5STFLMkJCbjFVREM0eHluVzd5eEJKUzZ5cjJYQnFxRVlhZTJQVG1HblRZUjMrck5NYjhMTUsyZzVnY0lqeG9JcmVnLzZvTUc5d1hDVmUrTG5IYkFydWFJL2hZQUl4c2lhOTdGNzVYU1lXSEFRUEVhdHNXRk4xbWlWUUQ5blY3L1MvNGd2bjh0Z3dheVNOeDNkeHA3K2FhMnV1VVE3TzY2TmZvSFBnSDh2NTNCeVU4MVlIcWQ3dW1heDNPbkI0PSIsImF1VCI6IjdjMWFiODQzLTQ4ZGQtNGYxZi04MjM4LWQ2YzkyMzMzOWJmMyIsImF1UCI6IjEwMDAwMDAwNjI5MDg2NTc5NSIsImNhdVQiOiJBSUFnUjRudHZsMmRmT2lTNFhja3ZHWjFNQU5VOHFZUVBab1RhQmk1WUx5VWh4VnFXQTdDTEpzN2hVTVRKcG5ubS9XOHVaTENHWVVlWExuazhjVjJNaEJGMFp2K2NOVlpKTnFIc0N5clNqdkFqMGdiVldTSmV4WWswdmluWmszcWZHbkFEVW15aDBYaHRaNHFyczQwRU1jRmZDbHNTMjVnM2NHdzhPa3ZNcE45c1J0dHdvS2c0TE5aNllIc0NWRU12LzRBUUxicEJkV2xDemtYVzZWSVRFZ0Nra2xvNzE3R0d0SG9vUHJ0YmpTRnkvNVprbFV0V3V0YUFKSTFoZ2QyRFBnPSIsInYiOiJWMiJ9.JwFjXZbTZ3epXIAtBUG68uMut_VYtsLyYpiqysQA8Fa0BcAa9_S_Mz07NqETZYFXbnfNwz8awJ6LocSgTWcSC9mgDooynRDC8lIsDZlja3JYNSFLBrWbjjbiPQPso0cOidmm8y-JX_1phgVCg-GyipeMZFF-eOuM_nwGiSa3sY86c4J-a409NLeZelGl91CRdafUJ3gnU8TNKeYqEJn9_hd2lwNcXslSKbCghfe3SsBlBtIcA9MrxpCd-ThR9_YFcWm2TTY01iAphhmwNqNM7ApKP0joGXt7RUItfutXm2JWnD1OSMNuLKjpYABYNbBay2Ts8gMHQoaeYhvySBP1nw"}]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Wz1tJB9Tmu_4UOGur4ZZR7OXA0e5DAvkd2VQCEvy1xbq4j2oLOrXbv9425VVERhm2IKLyJfzTZXO4az4Y54zjCvEiwUbr1lqzJ6FI3GCQIFuaH3BZgohKJe6TV1cGBMxcNv3f2ixsdDFjxL21LkMgi3lG5tupR6BDUoqITlICkZnGSrsDWtuFhtIwhN9hIsgTDV0CvzNDd2e5DVN1DCc-zjXVGRsWTyWyqS7jWyu1KkqB2EOVkmA95A-2iPB9Aapv_wvodlO-iozNO-Xf_WyGYvWpXQy0TuDl5LXGxxhdq8bzAw6TOMuTiaER6VdAppN1OZeFJt0ni6b5y_W9TmSOw.FclcM8lZrIsnbltO.DxwGw8b_5ajK0e_xbcxaD7UW55oGAS7HgzQFrMOfMgjYyQD9mpS-8E4XAkdSFY1Pbx1jI-ghCpO-y1nHDKu_G6XWohvAgXJIYg12z4VMsa0IOFZeJ_POSMkQwHz3qoO9iRDE_qF8N4gF94MjGbZ5enxOKzO5u-LRxJYzxY_91-vbKEpTvmGEN0pFKU-c6NGiAGHqs06c0zItFJMeaDa9NBV9Pf_XIZbcQ0km0mM.NuJp0BSu7Q8hUddbw9jCbQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.AiUXBG_7WrAAwBDdiGdtdSm7inN5WwZpU6I8iloZBZAzzbhxEs3vStk5W2zMgJ2iSRdtmMy7ZGVZCGZ6aggDj3lg1DTx6Y2jWrJdFR4Y_iaG0EX0QzqF9hLFPHe8mQ0SVVQQwAZ5G23xYQFa2tlSFP_SzKEjvhulNdxZdjaKkpGu9w8VCtdduB06ouxdg1tgCV9tO2IY9PJm1YhoJuxfPYkQSp9x8bLV2oY_rB1VH9V0sTnHGp_M2DnJVj0vrusoIlRJyO9U0Yqsz7y9cRSyS0Ct54YVJXxkcQc3R-eFb4jOOQxu-77y4EvgR2dBedWI9HsB1J66-cLmj5S2Z_tf5Q.OibAN1Gg1at45APS.CPNtzZAhB0FUbWrCvfIPdmkdta8w5Ap1IMxoOo-eacO4OIXmwP55LL2bIi6nhSppQOkwEtSE86JcyGFcsXebTF87huhd1f90-kax-eyZu2E23O6GKQauGhqBD8lLmFNTpKqx7H1LUY0etOMW-ow5vsku7SZyjec0KI1uCluNJnXOTb5JE5hQYhSV7CcfR98IHDZRxEwBNq5sYD9bdZ0jW_lA1CQXVQC_9V-clj8.8p-gTbuVGR0MLQJ32xDgVA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Kd7hBa7p4EEoiLoj4DgGNDCP2D5ghPwt-biwuzRCcqYSQ0oMD3O_jd_6Mnm8jTaODvOnqjmUpK6RIaXMWvesYOmn4Sg6JXfmN9eu824qfte2JF--sY3CU80rlyxMANHT5bOS41-BH8w8DG7wrjBBqfJ5hQoOGjgi3u26edIxkL23Ok1iGSwYBI_wBIt2FOxH3Rskgzwm4FAYz_-RZTdmxwgC1caItvRp0EHFrQPoXgR04TcvrEyraNWxi3G5CHObaYmd4lpxVZn68YNwvWL4t-n_rYyOA2LneBcVgxm_HiB0tz0C-O1xGIuQn5iHKEZwXxGMLsh1e0Fw72WH5dxOcg.amrk4aHEICl4Ykxn.XpIOjlAOttQkjzfQ4sF8Z88uOnLeYkess-1K9PRACX6_bzGMefp9jSE50YuYIvI3Dc9lBkkzUaRbG99Fk068oUjPf5CvMukFK_bw6-vvbIbi8TZAOdGqnehAi7fhAzZVBKwJFMPI6eSOEOs15poWMfxg_JIxvqCpDz0GBnUTkvcmH-5NOAdjl6i7BKwnIetSav13vaL-z3fyI0Xhua9B55bUkom8k_6C1cdvenYc.4bkjDx21gKgoBqxLrMDKSQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.emHokjnFrjicGh-HOSZGAKmrzH6txGaSemFIrkffqg63fPSlJTKmUigGJsqTaBeySdHosxGIVi0L8FnO3GJNEie7-YKigds2iOsntZ9sgkiseLLxISSQaOUj2nRBrnvDMX2oYSvufX9HYm5MEtlzanQkRz9wspLgiKB-ivnLbGhNNnghx33cyMiONJBRIE-La89A2cxh9XRnncWSruBfZQgj4ggtlCdzo2INE0r6qXPpTvdStn_Ut5M8rmVqbzLWwAmhiTFCu2ixK8G50EVyTXn6izA6Y0Tux1cvUpEuxcxYDGuDNZhmFNRVGxc2Ohx-nRFJRIYdnkPcsaxjqLwsqQ.Res0qG9OFPS431SM.VMpHQrPqqZad7YvLgE7VSjN8G6WvoTeLwZJxt-PGbiw6F5RYF0XC2lZNJkf_sXqp21dpdJ6ZSy1ZqVt72a4SY_npE0QfF-hjtlPho0HMeoO-T62N0vdGKYEpgH4MPM3T1S5nML0c7WstjaAPW7zsPm4DslSjM79YYX2MiD7_WsUPZRBQeXunRLNDTPjWMqaLxWr2JBu9Lh-nvJBd6dmcSJSZWi2myrD3sjseSsIX.xMBbWULw3Gv3mb0clO3XAg</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A100000005309040032</t>
+          <t>A100000006290865795</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4c88b821-123b-4e06-9ff6-e6727a5127f9</t>
+          <t>409b9f99-8499-41b7-8f80-141aec0ca4ad</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FA565FE0-5130-4DDB-BEEC-AF981DD9CB4C</t>
+          <t>C1F30A7B-C20F-4F0B-AB9C-E28DA94C46D2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>panfilovaindira88@mail.ru</t>
+          <t>konstantin.fedyna@mail.ru</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JkPhVwa6Sz3a8s5CBR9J</t>
+          <t>Gn70QA3Z914rdP2PBHNk</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI3NDhkMzNlOS1mNGJiLTQxNjMtYjJlMC04MDE2MDZjMWZmOGUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjY5NjY3LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjdiZWU5NTAxLWZhOWQtNDVjMy05Y2ZmLWNlMGM5M2M0YzIxMSIsImFuUCI6ImY3MWRlMjk2LWZmMDQtNGI1Ni05NGZiLWJiODg5MGViZGNlYSIsImFuVSI6IjEwMDAwMDAwNjAwNzM4NTY5MyIsImNhblAiOiJBSUE2YUNzRC9YWVlYRUJzbjB6V25GUkJtZlMreXRIZVYrdTlUS1pJN3BQY3NXdm9UUzlWdTA1TSsvM3pIakNuYWRRcFBlOFo1eS9qWHhVWTM5YjFnc256TUVqZTM0R2lJdDBsRU8wbWZsVHJjUy9TRE9Fek9UZkdNbG9rWU5Jbnl3UGM5UGk5Tm9JVk5WSW44RUZrR3Y4djhHWnQ2V1o4akROWmUxbE9QSFlYSFhqTjFJSDM3UGFwbkRCRGZhZ1lOZXlyMEt6RGdndjBJN2JBWGFyd0FZYmQrYlcvOTZBQVZPaTRTNkQrWlZuaVk4ODhvTkZlOWNyY3BRMjAvVVU0VDVNPSIsImNhblQiOiJBSUJCRzFrRXROZGJEb2pHN0V5NFdYdGJMOHczVXZja2hvSlg4UCt3UzArZWpJYjZRRktuZ2RhVDRZZUdWQzNvZHo3QVZkZDdqaFUyelc5U3dMTERPU0VWK084dVlYT2I1a3VEY0FNSjVDbm9BZVdxanVlczJFNUl4blR0M1QzVm16REVZWW91b2xlVzBSZklBc25VU2lJenJEbGU4cmd4aUxueSsrcGlyMkJEVTU5UG5YSTh3dTUzOGJtVlhZbkFFbVpnWDcwSzhwekYrbis0bUVXNFlxZXE4VitDYm8vQVdpZ0F3NTVuL1Q1VXVrTWVHNXQ2RThWNGFhL1NPMEhXRjNBPSIsImF1VCI6IjQ2MzRkYWVjLTZiN2MtNGFjNy04NTUyLTU5MTgzMGZmNmI3NiIsImF1UCI6IjEwMDAwMDAwNTMwOTA1MDQxOSIsImNhdVQiOiJBSUFrdVloZnkwbnNDOEZtTEQ0SndYeFJTRW5FYjE2dUpDUmxySXpRR054eVRDa01IVnpjRGRGOU04VTVSaE5XK1hNajhUQWF3WlRlRU1iNytkYTlGQkdHSUpQc1puamcvQVNXNnJwUHlleFlGcFVwd3BBb3ZwbkM0Z05qWnd2VjdYTVhUd2p5Vnc2QldQRlBVQm41eDFqODVDbS9ha09zRFRnMnBlc2VqY2x0S1hTb29KVGsxaWdmYU90VkhnOC9kbHNPUnZmaHNXdlF3YlBCQzg5YlBuQk1jSVQ3WkFRTTVLbVJWMlhIeWJzU2xIa05oMlY3bGhudTBYdlI1S0h5aGgwPSIsInYiOiJWMiJ9.FyJUS6MBebRbQPiDdr6R7DCQgjsN5VGMt3i6tKrR62AhhzuiSV_lfUQ1aigSOfD65-EZRQ4ZWVxPHmrwVosSQZsnP9m-W2kTYTLPIaQ_pJzPesRVp8fytyz80quklPq0s4ewcxo9uwNdzQzTK0u89P-iYxF9m7stZGdHBi_3sGg8ctc2GMsiKinwBEIxoLFpBItgUsymqlElKgH8PVU-DSwcWkBzPYykguVXhX1dTYP_UB6FTcbv19fxD8VYa3-k7MUJzrjTyC1m6a5X4vNhhZyjj1A1KkdMo5ziI31MZ2URbaFr76leX2EbLwkX1popCmVZylk8iJ-WC2_i0hZrBQ"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIwOTIwNmM5ZC0yZmQ5LTQyMWMtOWQ2NC1lYjA4MWJkNDAzMmIiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTczMjc3LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6Ijk5MTMzNWI1LWE0ZDMtNDg5Yy1hZDM1LWE0NGVlNTRhOTZiNiIsImFuUCI6IjNlOThjYjVlLWFmN2MtNDIzOC04N2NiLWU0MzI4ODZhMTJiYyIsImFuVSI6IjEwMDAwMDAwNjI5MDg2MTE4NSIsImNhblAiOiJBSUFhUVQzaWJWYS9zY2QrYkhRUDhpdjlJZEJTdysrRUdjdllESS93NUNxV2dYaG1yejhlUEplWGRMQnp5Tk44RitneWdDaWwwNVpTeDQxMkw0dmtveVJFZ2FrRGUzUTdtN2FKYjAvZ0dFK3dkSmlJM3BoTWVBK1JMdWdWT0pSV1Q5Wm9vSnFKQzYxNHNId2FFL1BsZ3NVUVRTamFHWDRXUnZzRHBiakZGZE51QjF6T3lVWjVBSEowNUd0SWMrSEl0TFRmRzNsa3J5c3A4VUZlTHVTR05WOWRlY1YvTjNpOXVVNjF2L0ZjbkdhZ3o0R1BFL01waDZCNWJuUEhPSHdCRDNRPSIsImNhblQiOiJBSUFYeHhkQ1cyVnczUmVGRmFCclFPQ1ZBcHMzY3I4aWFoQ3ZuRVZicEhOMHhqL1ExWGJnMGJEQWVMQTZvR3VXUWtEQzV4RzE3alYvRnlabXNycWpiNitWRndKNnFNczNGYW5HaUtMbFpZMTFhcVE1NGRnQTNaR3pnbUJYVTlJUWNsUnR4ZjJIR3krdXNjSkErNlJNYy81d0VPeUlJa2FOTTlCdnhGekNwL0FkdVVLL3pqU1pkbkRMUXBIUDFKalpKNVh5UjlnSjc5YkY2eHh2TjNaRGJycGxlWUNUN3A0dVdlRGdmSjhXL3VvWmdEVjBib29uaEo1bjZEemZkeHRPQ0pZPSIsImF1VCI6ImVkNTZjYmNhLWMzYzgtNDA2Mi1iYzRhLTFlYjA1YWNkNjljOSIsImF1UCI6IjEwMDAwMDAwNjI5MDg2MTE4NSIsImNhdVQiOiJBSUFoQ0psb0hWcEFaVnI2RUhiSmorcVlQc1E3UzNIalhTM0I2OHBkakNxOHNtZ1lUR2VFcFBaYUFhYjlaYXhITmd6dTZxVEpSZVlaS3FReHQ4VFAzcDlZY1BWdzNBOVNoRXNubGU2TzZpQzJIbElDZWlKdHBmd0poZjJDa1oyY0I2KzcyVGVlQ2tIMFNOZlIyWG9URnF5eDV0VkZ4VllOaThEWDk5VHFrNGVEUXRHc2ppdlhraDhmRkxEc3RLZkJjSkg3RStXNnRWcnBISFVrcEZKRkJPM3dJcmF0bEZsME1BT2hwd1VDcm1VY25xNC9tenh6ekkxeXQyZmZFOEQxUVRZPSIsInYiOiJWMiJ9.hRWB_BJmcSPwFINO1sURQ3pkPszRD16y3hg2cf_hvt8zbDFO-EzETAbK1q5rOY2Qr3pTWYp8jc7kEFQja34_TbEOJ4Rv0BniDl9T0dzeUrpW5vbwrq7UWU701Fq8HJ8l7L0WdLmfLQIEB_PbPPgY0TCqyS_p7FlLAcxnNPxmhJb209nX2Fc3z7x8dUxPAtKoBeSBFXfth84HEugyNUTntlUEN5QxHkkySzuZFpDRBhwmy14JO4_ctCSgwxkHYJOiHPUWwtPWGaUN0kEN4p4gHv48yYk3s_ZDghE5ViN9a71R3AkTJqxG7-B_X5KpFNU8-Kzj9096x2Jo2eWjg5CeUQ"}]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.R3yzRU4nXCUsDzQX9uc4xh4ssUnYJuyDq3MPa1xyGRxBOQDNL-kDaw0AcZEAE8D7M19ZzDIa50Sfk93D9f_YnbkpjfJVmynY1NlOXgap2SFcVcHM5tYySIaZmZfG9kztdltLPUYLCajpMyT8WGYLlW5TlByCi6JIkfeKfIj4yJOPJiGhrTuStFkNDgU49WATEZM4K3N4TuVb_nf4nf3tTqsBJzBNaEcQXm4j4Trx6900NolVgYgq2NWpfa1J1-bSvXWbk1rSW9oK996tfFN5EEhYLIBeU-Y0xz6O6g3LXHYADHOG2soyOP98-xoengT0WDcN1F5QFOgpLzMCtLF8pQ._by68uFf5YKbCRMM.jSxsL1tkkNqVHanc-i95VhByIHiSZxP0WWM-kU_W8007tTlSy5HAdID4y5T5V7A7tcUPR5YdxXSeX8fx9AEKpr0BDqvPrkU6p649dmcmm_2sQNoDr8vt8YC1rwakxQFwY_uHlVYeCbfc4ArphwNH1Yrhznt54hmNkAzebjgFRoaTMhDwOLXHwx8wtxRTpCKce1MV-JtmSDiGiEjI_QfNhD1BohXfpdXl_d-QqB4.-6-sbW7MGVpcHDuo174h8w</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.IMSaQRgHghRXiYNQ0PKjJWKLVYmck7qJ0bvtF8bnL6DpfJIr1AZMXG8D3opm-zEE6AANSry_yjZQItUcSWcAminhSXlVMjWiFdUmfP-9WbCOKiSkAyaRF7uluA3QwONokarlMIAk8R2-DLLWnXwt4q1zNr8K-t2LBmTqTrF7U81aUiyZc1xoBgFwAw0qy8vXzsQez9pDKyoWZgKJe5qxE_r1pHdktXnxPu1CUv7mN5eEdWWya-n34GQ4XJqymBrsNaKx_4fSF_a508SJBAfpRn0OBEsv5wGkSDwatFdCUNm2C0TgPzWXr3pYXr7HX3KyMMd2u4458pDEYvdJ_dMT9w.XvoMQei_ByRHgm1U.oAU5fmvoINmArYSGg7e76qg6RVBgwgPgWq5NEmnoLYgOtHDVAGOs5613IMuzXiG_Jx8W_pneg7NS4GFIxFxRM5JD5skdJmwHh5VXzaexerGM3KRsCQa3rEQzy3ChF4g5FHrgyMTsJwbOAFcxOks5xHTHDk-o3Q6XlkakNGwRDzHjCxlRrxz-97_uzST2qQs2asT_5wuRoqyGngJ9LOIFYMQ8zqDVlg3sN6n3lqQ.D27EaP4gv1YKmyUdqWEPBw</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.XUR1DLcf1Os6iOUlomvHIojr3Y3le0Y23Do87CKVH_XfT0MZNPewsoaR_CexwH5e-vh-2VRDY_TdqEPa4GnEkKVVKFSP7gU80I1BFUWnf0Uhiyn7YSqZn8eeQXDrTYJ_uS5f46S3PVg1ew1vI6CASOC2qFjsYGOIQPjnKGghD3kxJCG7orcAGGomc22u-hw3Cuo3eQr06tnGY2v79x-KccEwIUU5ziSl0wIN2RRLPtWbI8EwbCcz1onGv9SDU_snOm3qLUK0bLZc6RjWpSc455zQ_lsoCCoJv3eT9a_6PM4RhPnNi9MuTM3RJ20QTJfeW0C70GokYV734O6RHEG3BQ.BlnuIaaKow4iUlPS.9ctK1DyGzCqichVZY8crxmJ_w6gOkPXxChZlAe9Dqjrr4sKxdN62nnQW_gQwHCfCGqMYE3MOhjGTSRxCnRr9qN4y8voM6KwuyPyfvJDZtrumyElQqLVr6hqQycBYqCim3edyOwXjxBvL5LFiscC4xI8RTMtDo-A432J_3neiSrvbjv1mtaoEJq6-b9Snc1_nXrIzYeZfaV-oPne9dQb_V_O6iHy5QtMM27mPrM48.zdMANsmmI6iphHwEFLQhpg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Zb7VYX2XdjVoFkFA4etCZ7-Seo7gF4E9VCXex99OWkAT2q8H4T4n7YjP5uQd7TuUHR8hL3I4PeBUl0aJJq2OeFtseOc92h4rkDZt45y0-y3fEXO6klNVPDqQNNpClG5YllbqjCYM6Le6JnhECeK18SoLiyzVXumGd0EZa6eIq8FRaCoXrSmZeQBlfBSG-vOLwEEEcYt5Z2tFW3GZ7iPxdRg9xKC3zImEy9LXPArjsRB18yFzBz3G_-Jka3R8ZAYRZeerjf6Wdh0s0IIc9XzwwnCVuX3yyfP9-DRhnVXmAzF2ZzYz0XXH9zY_1-KkwhvFOfuO0NKYZgdDX9EslmZR8A.WCHgY2DleAozL4ln.BchSOvsO4wtn1QrAePFoFsQkZPAjP9iMjl12BEjx6_DnLgPM0zXi0uRosnOQJ8rDDq1mvG3yMe1zLgmuLGlWgghyn7Ze2T4fhdjJYdeZ1D_Wdta509fjOgbhSh-_qhAM7Nt53lRECVUkWFkdlWmjJBAWoIFzH3GKebv8wSh4Xn2lx0ZtQTcfNo_S_rYPYqgyXW0KgmD87SB1YzLUg-1_xPJZY_BzS29xoJENkzUH.-io-XMd2MFv8Yq1fNuCZvg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A100000005309050419</t>
+          <t>A100000006290861185</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>db35e73f-1e35-405e-b08c-8e7eceb6e129</t>
+          <t>30758f17-a21c-4b5c-b35f-3ca7ff669ad8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E42EFCA4-E04E-4B5B-94CF-D9347F72765C</t>
+          <t>5A717ABD-B7A7-471E-9A2F-D0589F0CAF4B</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ivanchovarahel1991@mail.ru</t>
+          <t>scorinavef1982@mail.ru</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DzeMLws33BzFH2BzKCJ0</t>
+          <t>Vha3X8KrLWnnjpUTMNta</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIyZGEwZjY2Mi02MGJhLTRmOWYtYjFlZC0xYjBlZjMyMjViNDMiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjcyODIyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjVlYjJhZmJlLWVjYTAtNGY1Zi1hNzVlLWEwYzk2ZWNjMDk0YSIsImFuUCI6IjZmODMwZDE2LTNlYzQtNGZjMi05MTc4LWJhMTYxMjYwZmFkOCIsImFuVSI6IjEwMDAwMDAwNjAwNzg1NTUxNCIsImNhblAiOiJBSUIzM1RpQlBGckNaK3lFN1BmVU9CeUswaEk5NUZEUmhKclhBLzJkSkp6WUtzS2lnbEE4aWs5M1JQUXAxRlZJVEpxZWtkemdaWWwrY1JEb0RmY1NyMVJ1dE1jWGE5Rit6c1k0TnpaT2xGUHRKdXcxTXAwbFBwQ250RXRKamF3N2JSRVY5cGpqdDh5MTIvOWxBclFWL2s1MnYyTXVUNHl3akhSaXVBYk8zOExKdGZwQ1BrUzhVZFo1aElXY0tuUUVyeStzS3NzWlJEVE5hcTN6VFFPazgrYUlaeE1OOHVqMDJBR2JQdXcrOCtTdkxmZzNSVjIrTzM3UlJZUEtYWkZ4NjZjPSIsImNhblQiOiJBSUJyeUJWVEZQK3BxcCtxZmI4NGFwYm5TbFl1TEpkRGVxdXpPSlI1S3ZsSWlXK3J3VVlsa2MyRS9JbkNrYldNNU0vbzh6RHNiS0xLUUtrMC82Z25YN2cxeHo0N2Ixb0EveTk0VUl0ZHIwYkJ3Y1dReUVXcW94WEtuYURCYnNpRGQwb1ZtQnQrTXdWYUdYaS94dUNDWXJQenllUW05bCtBY3M3RWFwU0RjM0dySHRTcEFaTXhKeUpEZlh0bUlCQ2VUWk02ckpIZk9kaGY2aUhyb1dvcXJRdStXMmhQZnk5S3dNTVFLRG5JcENFLzVzTlRPUC96cG5kTGdSQ0JxWld4N0NvPSIsImF1VCI6IjRiMDM4MmExLWY3NTktNDFmZS1hNzAyLWY0M2FiMzIyODA0ZiIsImF1UCI6IjEwMDAwMDAwNTMwODg5NjQzNCIsImNhdVQiOiJBSUJSRi81UlhwalhlRHBDVXRKU2R2dDZTRU9TbnFtd21ySDIyMFI2TngrMDdXY093U0ZicDREbEY5a2c3TUgrYmp5VjdwbHRyMlF1bmlmc20rTjVGMy9nNFc0YjNiTUJMTy9uc1g5RloxR0I0S2lLRGlVTVE1ZzN4R0lWQjVIZ3A1dUJoWUk3UHRSL3pvQTA3ZlRvZ2FTRnQ4OGxBOWFOSEs2RFpTMHh3K1E5NkpTamFaWkU3cUJFNFVabDJPemdQL09OT3BHRTc3SEFNejhYcTA3VWVqTXJrUHJiQW1oVHo5MThlUE1VQ2JMSXF3dC8zTUlPTmV3TEdWa3FUdnFGR0I4PSIsInYiOiJWMiJ9.L9v8caz3McMruH-EynCjTAgI2CDLmXodAyIefvy5kO3JKsRWTJK9UUj7PnNrAOyGHEZE2Sor3fUX9Nu2XRZrUfoEG_RF-brYYB96xgsOlxh3DA8qIp5xNru_upcLYb8B78D_jFhsy9jyB3sMB3TXaBxt6yy6InR31ukSEW3w5SnXE3SmKaN0dMlvCLBv0IL3TiHKEg_8dvU0gieytds9WAN5BBKMqWul2ouwiF0hOk9q6IS-QAndLNRLVT0QhJirleJ0VOGz-8W2ymrgqmPSKG2Mttagg2ByZBthCs6PmCLci9sGGcIw_d-yL3a4vN7LiN9c87BG222tpvw3Zv51IQ"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI2MWQ2ZTY3OC0yODhiLTRiMzEtYTM4YS1kMmE0NjI4OThmMGIiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTczNTI2LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjBjYTUwNjNlLTQ2NDctNGQ0Ni04ODY0LWU5ZjU1NGY1NGMzYSIsImFuUCI6ImE1Y2YzYTZjLTBkZDEtNDg3YS1hMDJkLWE3NjJlNzhkY2U0NiIsImFuVSI6IjEwMDAwMDAwNjI5MDg5ODg1MCIsImNhblAiOiJBSUFPMVpuVXowdmVFZHdCc21GRVYwbXZHUGt4RVNnU0xiSjZUb0V3RjhneWlPai9aTmloWENXcWtPdVRya1diV0NFOXFncDVTejVDeXBFRDhLNXJFcC82dWgrZDhkeURweUJJUTFMZVNOK3UzQjdBZlV4ZlcyTXBUNjdyWVhyQ29sSXo5THhWS2FkQ2ZCSStCZHhqNjVqQkFnQ082ZE0wT3BPRnV6VklwbEttNDdyNmJKcERleXhPVTRYVitKSFdXeGM2VjZOQ056bnlMb1pObmkrSmgyZVpnS0toN0JLOWZhM0RDMkNsaTl3ak5id0Ywd1ArUTYwZ1B6UnNQYVgrYjhjPSIsImNhblQiOiJBSUJMRTRNOFJUcGZYMms5WjB5c3pOMGZOTmdLN2RzMUYvclVwdER5WGRJL3JucDQ2cm4xUEMyekFFbUNsWXNaYWxOb1F5NmVqOFo3d3NnVU5aZDlwRjk5ZmkwbkRSNXlmVTRXSkZkN2JPdkZnVU16clVMNjkyMkQwVEJ6UmhsYXY0NkJwQkw2OXJWZm9uaThJa3E1R3pNZXNPTkN3dmJRRjc1UWwzNXh1UWN4YzY3S0dlOHRvdUxTUlA5S21sSTVqWlVGOFh4bjdBZUp6a0hvNWg5SWh1amRWaStwbWNRUVd2YklVS2RqUzdYYXBBNU92cHZybUJQYm5OdGY2Q0FoR1RNPSIsImF1VCI6IjYzZmRiMzhlLTUwYjAtNGRkNC04NmNkLTZhZWQyYjU4MDY5ZCIsImF1UCI6IjEwMDAwMDAwNjI5MDg5ODg1MCIsImNhdVQiOiJBSUJaMG9ncG5PcjErM1ltUmZjRkZKTXd2bFNOb1hUSXg0dWlRTVUwQ2NnSTdHRC9iaGQ0R3lZMW5JSGxxS1JybFQwY2NuOUo4cTJUZU14clltYktNLy9CNm5BbFFOWTk2OGsxR0dXdVRRUTgzRnBoSjgrRFV0YVg0N1RxQ3MwYzdFM1EwcllrbmkxVDg0WmZVelUxY0NWOVk1M0REYXQ5OU0zUWdWRjlpTlgzNnh1WUtwWS9kWS9icGdwbm5mMC9JejkzWG5nc3FWZmxReHFZZVZiNDFqdlhYOS9zRzF1aXB2OUVCY3J1NmlPMWFKaHpPdTVyMFoxZ0lVY0lpY3dDSTU0PSIsInYiOiJWMiJ9.eDWXZtZ0cfQ8BrIrgo-nEmgp20aYBNz2XXhsF9CdO7stkMeCU2mKu_42FlD1M4ZOggaxDNa3K8sr5Zc14BGB6cwK-QX1P9yF3w6EZUDt9WbgOSrsTggiA5eHlMt3KwCRPuaWplV-UIaaA3ZeAT_Pwd2UYTTobkAqai_Ce7F3-QzENEAhnYE3JXkxhKpPCse_h6oAz5lOm7SWRQwG6xOxtk5kSlNFIs77iQIJokpwZfWdahdjfFytzwQcXKH3ZJ_7teEgD12wLM7Egvzv122Znw3UVYUvVk0rQvFHAgtoi8O4AGQzsN_0VysfBRWcuI_efnDHtWmWWT9WiHx4cqUIVg"}]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.fnILrgQvJbHL_pEPj8BrOKFzdVmwHGzbAxKGonTanPytsxDPaNugm2aZEs3MEp9Pf30trdCAaAnH-Hqn0tRIoD2YO2L9TEC1BojOdtnRUIk8ambeJ-wK9uZ357wJ84LwEyTcZPPDFqJ5MFDv9Q-FDywXDHCFoKIun8dpPVYl7uxlDpDjq_LfMSuhUSCAoWzWombUFkZWCJwra_ky4KFMIPddUy9pa2v3LvK5YIxEy00A9Go3fvyinwkKyKoXPeSRgMaMEx2_LpUPU2C3C-6GC3-Ed-xPtyR3qFn8B12gJ_fVwyRLh9gH9F5DRmrySxViSLeAjjyyoj6Hj_qSIeWPWQ.ulC1Uevdf_k-cQgr.WvCbN6wZhrMV5Q0dZs8Z8ZsnaVcKgqw4RyampKmAtKWPieaqVlg6tvAkRU1n88LBfDb83cfCUbeEesIYPOjmh9X7sJI5eVOeiLtq_fmXNomVdcjcChZVEMaYzYuwtNJBJZE8ykP6g7CKk2HmQcrFvFU9oU3JCIWV6W__z5xKgUTSyQ68PSP0KZnKojQS4_wZveVDHc7LwIXguNczJkLo7XN7emh9jweNBO7JcoQ.W8-Z_Sbk_mYjAO2KzkAyLw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.OCS9Kqw6rY9lGlpag80L9Fvcn0tYJy1zM4CZcqvWs2C7Ca0fkHLjvjvC6ITkAFXfjrRHC68BQhb3xF_21zAe02kPXy7xUbWps5-GSz5Su3PPl78UMvJeYBsHg3_uISkuSxghOxPlPaoIbUzje21iP1j1P6sxmojriTicYTdytkG90WAoHWReClmKyP2lSr9xaQjAsgkfevpXbFu0D0Wcmqar0yqcyUcFF-3WKqLk_BfcbvV5dBVdsj3upQR3L6pwzJfdkuftOF45kIaPKYnb3JEEcmLnrL7J-qI7cni70NjvXBU-tJ7oK0LMLQxP0y2nSyC4272WLcIkVMrmjSa4Hw.asHBudi7EbRiYScN.TCQdLhkjBlhF2aPuhrpcyP_hdvDvAGAeIeRPNDC9pQPL2YxkijUmIu6-VB3YlFK_MP5BtzHu8L9ZY50wd9YzcPc1YpG3pLabroTvH-yXmY44Be6bDMJv6nnocFeKgYHQuxuB5UZMoRhST09rezvTbQPt1c9HS_sPNc8j7rDXrh0hNkkjOxbRFQbDFcyWM2w22l7y8v7hOZpWNbYTy9JQBcl2jnHHjQkpMVLVoCs.uztc7Cmoq2BJpUpWBa11JQ</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.QW5xK5s6KIdx9PhM6hIhGC3dEv7s-vTgAlp98rQAspRIFVkT7f1FsNfINPkuEqS6Zf1gw_qN05_xFVjx5eQ_Lc6l4Om5yG59hSD0QKXvIRZ5nhNC3i3MmriHTO2K34h5Srkwvenvj9FjX95YmMoyQ2lCRXyRxfl1sfSrJq_yn6HYC2Z76QZ-pj4QhP6OE3DAG3-3oL46xgVQ-JoacbAwKE5pYZLQly77ciuzb4ScMcne-amIIvJ1Cd5wI83-zbw9W7I0aFEk8jU17HFNAyeFNX_BD17Bm3thzm3qK7Gz10MghtkaUINV_9tjDRz-_rx7V7a6lodxWQ619-zmwD-02Q.dPRp7PWnQFdX2bhT.tYAXsFzxOTdZfn47hbjpAvtjLIjwdfITNCjP_LmD7kqKen2ENpQNRYmdDRnx71So5m-bTGRRY_0oy7wGI6z6OPNtF1vIqnxDKyf4virS7Z9O2kDUL6milKLF_2WRW86f_8OQ3qWLDwo_JeHlFHKWAi2sPvd0VFqZdEDWpIATV2QjAWn3XZY5DjmRSlxjti4BUzMFsf0BV4QI8FSonR-ahCHhFgGiSXZxkBpcnoDD.AEnfPkbwMKMYxtifwkzvLQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.VvW_BSPHI-KFi4ugC6f0HOG35FQ1uTjuKI27T8XCF7F-QRIzYjmNife1oQUBa1YSahDm_BQPTAsaRRouBd0goekbOdqsNbjdj86v5XN9bdAS0-VQdlKTC-u9w9ThWi65YoAxzo_FQ7Gkz9LW9DqF_Hj8uWJYirOiI648MBB52sY9_oRnKU3U8cJ48NzIwyN7MaKmHeesptD_h6Qom4xxeV1KzvB_zfvQPoTE0je-pGyJAGv98UIIUalQ3vXec7BFZy_ISu6s0Kqa-lRTFZ0zEh9O-NA4iDtdSiOly9gRCkvHZbRxfg_L09rS9R66QdnegSRiq8yagsJ-RxVaxZ3N_A.EonvsN7oT3UHTLWu.4rjD6U9izaEv2ta86YJ8mYQG1mffUA0IHiiRJ5b5tEKKBYxAmKd3S_NikiBO0AyI_qoPk2vnf8bqlDlzF-Ral_ahsbdW7Q60djep4635QB0kcU7y-6CuCHZLBEZNUKbSdtVL1Njrxt1gM6HRyu_M_vNPH7VeqLlaE-FulIe0EBhmvUk9Gt914wrtenHXg3XRXAXvdaYAtoom-R4lNWY-nfRcaipg18sbYnq1qv8u.ln6sB85WwvkA4jEvfVsx7Q</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A100000005308896434</t>
+          <t>A100000006290898850</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02f5596d-5bc9-4d9e-84c4-515b92abb791</t>
+          <t>ac553b90-5140-400e-8f79-4c9296371547</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>209DF0E6-8DE2-449D-8FC2-154E85FFE9E7</t>
+          <t>AD876E11-88B1-43DF-A90C-7EAD6E1CDA5B</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>zinovevkiv@mail.ru</t>
+          <t>KarakhanGolygin@mail.ru</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Zj8vzcQzGyDsx8jXzJ40</t>
+          <t>UZJGX1jYtQrtYK6bC0V4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI3NTdiMDQxYy1jMGU1LTQ5ZjItYjM1ZS03MzFkMjEwMzJiZjciLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjcyODYwLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImI4Mjk1MGY4LTFjNGMtNDhiOC05ZWM4LTgwMWRmZmJmYmQzNSIsImFuUCI6IjM3NDhmNzFkLThkYjctNGQyMS04YTU0LTBiYTA0ZTU5NmZkMiIsImFuVSI6IjEwMDAwMDAwNjAwNzg2MTI1NiIsImNhblAiOiJBSUJ0TVBKNGFmSjZKdDF5Ky9QUlFMUUF0ZjkvemVmc21DWE53N3NhSlFJNllvS2pTYjRpaUhXcTdyZDJPSFVVMzlteUIweVcwSmo0L0I1UWhnY2FpNEhPV1VzbXpFUXcrTitVZndzek9JWStxWEtEMmd0YXE4ZS9oa1lLU2xVRmdsd1M1U21lNHVLRS9rcVdUY3cyOENjcWZDVVA3SzFVbXI0Ym96M01seGdsanRiOUprSFNCNG1sb3VFQU11SW9ManRvYkowblJvUXUycVNFenY5cmdiM2lnejNmN00rNHRxN2tCM3h2c2psYjYwYm1vNzVwWE1YNGtmZDBBWFdkZmRBPSIsImNhblQiOiJBSUNFRXZzZVZhN09Qdmp6L1pHVzR4TjFuTVMrbmJIUFZlMXRXT3Z4UHhPR2x1VmpvQ015bERuazROZnlvUmdBSVd3TW5WdENhQ0tFSGFxcUZiWGdqcXZEY0FnTjlleHNoeCtFY21Scm12RFRtN3NwRDN0TzNTWmZLZnQrMVpMbTNHTHlSeEkvUEhxQXV5RmJBUmVDVmJ2NStWT20vL3FvV0l5U3R4NTNmWUNIQWwzczNoVnl6UlNpMnJ5a3Mzc25CV2xQalNhYXdia05hck1yQlNoeXY4VEFESEUrREgwbUlmYmlMc3ZhSE96dUU1ZXNWYUtOYlM0UmhMeThCTjRNUTkwPSIsImF1VCI6ImMyNDFhOTY3LWUxNWYtNGM2My05NDBhLWMzMWI2YmU1NmQ2ZSIsImF1UCI6IjEwMDAwMDAwNTMwODEwNzI5NiIsImNhdVQiOiJBSUJXcDgrRFdtMmNlZTRGSVdIZVk1VHczMTFaUXpYWGNiT0lKNG9SZXc1SWhTQkNDY0xDU3BWSy9RdkRFK2JZbHZUakVjSDhQdm1DYUZoR3NJaWNSek40N2NJMnQxK3d6L0hycjJDUHRyS1BCL2xXKzFFQkdFdW1iam5xck0xdzZpN3ZCN0pWVnpBZFlMNHFMNVplZFhUUEVOQ2toYUFYZ0FxQmg4SkNCRS9BMXViTmlxYzNyeTVqV0czbGJ2Z3lrUG0zS3I3OVR6a1NRWmtWQlozT2JZZ0NaNC9wMU80bWc2MXNyWVhTT2VYNnFSTmhhRUc4UWRxOGoxUXM3ZUFCcERnPSIsInYiOiJWMiJ9.JY7a_Z0H8EH3RQcF66BxRuO64gj9ExdbgCHGpf4lm0OWEZDvAbZ_ms_XZKZ48Fh1TXqkL3dnlcPSPDfFXzKdSqhh12PGh5TZlwdlXyttRAb6ePxKySjHVD915uS5Z3j6bk-99epvp4O58Vj4t-nyVyNUonPxkXbLTqbewqsTiLLJsuUNacOrVQyrq4YRdMxAkbtbRgDTDRRRMezVWIBejdahbnHIboJdHe64qeskdKGEmarpdBFL7WWyGbDQVCnopUcWYNMB2XtMJcX1LF9-klvWeKXmGcseg9zhNS8Cq1kQ3UZkZWxjEge_ktbUHO99AS20mIYTTVJAJFpyzQuZWw"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJmZDlkYTRmNC03YzhkLTQ1YmEtYTQ0Mi02OTIzMzVlMjU2NjkiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTczNzk5LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjhjOTEzYzNlLTVjYzYtNDRiMy05NjA3LWUzM2VlYmIyMjRkZCIsImFuUCI6IjVhZWU5NGNjLTJjZjQtNGMxYS1hYTM3LWM0ZWEwZDdmNjJiYyIsImFuVSI6IjEwMDAwMDAwNjI5MDk0NTgyOCIsImNhblAiOiJBSUF5RmZUdG9JUy9zUHlmREFhbnVqWHNGYTY5dWZ5THJOSEJUU3czTWxwcEV3Qnh3blRvYTYwKzl6U1h0Nm1aRDBCUU0vTkRpMmM1UUdPODliUkROSkFQNmM0QWNDSmR2UGVVd1RGNUg1cnJrVzlHVlBEQ2hoS0NrZUVrQXIwRGpYdWZMUmdZdHdGb3R0Tk9WQjF2c3gzZ004MURMRS94VGQ3NW1nLzhWeVgwMGc0WHV4U3dROU11TmtPbm5Da0JIN0NldC82N3hNMTZXUlBQU2xFQnFjcGpSTkVNb1JzbklORytBRXBkZ0g0WllUbkh2aEhvWXZvUlBjNktidnFsM1k4PSIsImNhblQiOiJBSUE5L3lXTVRhL05KMFpBSnNSN1Q4T0s4aS9LNGdTS1p2bGFCQ1lkdXZ3Z3NiZjQyR09FbFQrL0w1WklFdWRFak1aQkhDRE9TbnpUSUdlczFtREgzOUFkQ1V6eWJCU1hQbFpIaTBEeWVFMUNiVE5xQTg2YmJEaGpkRU5RMmZCYkZnOWhITTc1TmhZcFR0OENqTEk4YjRGMDI4ZGQyakY2V2tnZXk4ZTltNU9XczlncG9wS1VWTVVkRkdZdmtYdjhCQ1VrM1lnY2Q1VmFNUExJMGQ1R3hFZGxwcE1wNHdUL01kUy9FZEpWbXBwOFg3OWN3dldUVkV4dGtCdkIxZ1FBb0JvPSIsImF1VCI6IjE3ZmZmYzlmLTQ0MzItNDc1ZS05ZDc2LTg5MDMzNmE1YmM0OSIsImF1UCI6IjEwMDAwMDAwNjI5MDk0NTgyOCIsImNhdVQiOiJBSUJvU1d6TURKajlkRVZrbWVZeXRncVQwNU5yVDFVMEFETGcrWFdabW5tY1ZHQmFIUkhUTGN0NkRYcnhlTkRWY0p3c0Zwb3ZqS3FWOXNQV2tCVjFPbjJEMzRIM3AzSmIyUCt6STV1dVJVTWZOcFAxUFpiZDdlZmk2SFJrb2h4dGRkQktDdjFMT2lQYllyTFIyVFBPc2xqVko3Z2lhM05iSFJmUnpDeVBjeHFBOVlnWmpmdWFBbW01UXhqUHdjTkxGYzl4R2xXcGV1MnBZOXcwSDVpand0eG9LYVVVZFVTeEhqdytTV1Q1KzBXMWVURXpudHRwSG1aT3JxdFU2c0FjZlJrPSIsInYiOiJWMiJ9.PpAyrsfhuMX_9AQXQMTX6SserJ2FfFI8Lz13NaB6vacg0jai7a_ZKSKg2kAYNmJtp4TIOFaOsCEbobda-rQkYtq6SkyN8NFAqopDv1XPvYuJJzXrqYpem84teuNmgV1WBJuWZYhiPOD3V5qxiwzAaGSydox0D9rwBCcILowL4G7EgtMzN_dH3hQgnoLAOAPulfabRCO4vttmHyQgMRBlZBN8_d2DwAkeDm0XMfo8rYcbQ6JnVxRp9U0xV3aodOpH_uzRRdsTxiIypymbskWmFjHoSsKfRrzP3mHMrFJXs2p0gwT10AYvnq8CaWhkGnHQfRuCCy6KJG82pWt3SnpWDQ"}]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.TGd1oc6b62g-fH4Np55aaB06sPU7RzJqTxcqHeTN8XM-NM-plMUxCnIHQAnR7GHLi4qdvz1b7okOr62MLVdphh8w9oxBuuwRHxyDP5Xu8tX9GA5cKNdBg30DP-7hhluiQkr02J7P2WgFr0hjUhj1XSJAb4Ynak8wozP3U2VkQ5d7x5eO1RH5c4YxzZF4zYnhsetqER1vAkBoSE35FEpLFdHjOew7cZ_-QSvAjPogYfPQAhof5ek-z0lyfaa9aWfEgVzCivcv8WO8hvJ4iRdBw6YiF_oWAad9FKvaZKjY5HajMFtWA5a-ZhLFdrqZDe5o4sh-tZ-i1Fgx1DVFpI1E3A.u7ztqakifndztoLP.M44cazZEyyWdz8EziGgt3EKN5DMjWuKX26kkJwaWYAfznt6xHCqGXS2Xt_8gi_utbAyLHGq3YpGANAVrE8LgIFMyb2x-wWNqUyeMA8AM7-MZ7GMrr9XC1L1uSN73NHwlnHyr6SPzjpajC0O-RqcCsW5656KznQX7fNvBy4_RVf4AYZJbuKwJZeoQPtrhyxNOWL9sJjwRcyCF6By3yrNDbPrZoHoRNkx41sFl3Dw.otCQ-bCZmwZtB3eR_bOoFA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.LAlzB1Ii7XJsK-VTl7QdyDbDGhFomsDRxyKwGd1E2VDPbwclNdoIJDhCbVEia9BLocjn79mhNSvWXbO3Pm9oO-_8k4AUfwKKScI_5KYuGEB1iWFOv3J8AKxOhZnZ5-SLD_Az8bQodZ2SlxQQLPd4DAB1oZrj3USZJ9kEFzU1E37ZIUmwCZlnAZ2G-TcW5G-yM69KJ6we3ZCPmUDZ4afyUc_bdxgXCU-zFeHBwQ8kboxDNqDXj5Ie1LOrhGZ6lwdJ89_eVYBBz8kUrfy8UB5qQbX9MlvC2eMYvqkaI4ogs7UIbpi86nWgHg4otTBWpQ1xVoy5eCwz9_ufq6t9XC6LqA.9WB95VjSoEHx9f22.3Pt6i0m6I0FKTjODM6dIWldm7Clv5rzREyufEkaVNBdan2AqYVWuqiGcx801MwGbyODbHwV5ICgTrI5qL2zOttgoNgRZnDcJQHVT8O4poeaRxJMCu1CT2qWlVyy6liVodxahuhyCtfO3dXVkaIJo3RfShcv3NrOQGxZ0QIHm_uFMSzcuw-frI9nMzVUZyoT65qRdyyZAwVloKflH23kxQqwLkd61U3BXQ1sS9BQ.worxxOE81LQjW-nPs8cmtA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.aAg8etWPXck8GwSCaqa9ZIlxPgNAnwG033heyGreB89BfSQOD_gv9aed1SUykQeM2p5jdhwj6B64dj8x755-ukiGjZiGPuI-9U23HH5RvJWyefWXlxauGuHoelfzYqjQTIcq4iwj8qFAQjm579jdNglRE8WNhhfVGppn7oo8xGZmy0KvtI7yS8qF61glsvV_KmvPnyV3KGHfilwjdaPb5mtdb7va_HaQify0K6vXXCLsuTNVoiFFqAfF0hoy4S8liea1x0WR8mhEgTC3_XmGWRkQD-T4eoMuFcqMswKB_k-wFjeZbUV2P7cboObL41Fw78wyDToB-vKYN6dXPuzm9Q.tsBiCt1HVk4f_8ep.jE4ZZTqPPz0Bn6knbmfssyoXcDYoVytv5e2CC4ntVzjENvnWf6egzLFTzG34wBucimtmYs_0zMZahGBnuiM_caHRyzE4CgIgblvcVqj2WSTRedAuG4z-eVsMXlFLzJt8sFkp8ACsbQfC0K5Gi8ilWgw9QiIt3WNQlF9un-WVfnh2W1nQI-RkKgAsgRkiRnMnlB_1YXqHcRFKyyiArdwLSc4SheLeog2zPZCz7cMM.BdyLv-eegfNw4VNpn5XU4A</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Unn3m_reL46EpAKdg1RjqNe9dtu-E9h59vGe812LkO8DzTetPIQHcKLlz8G2pVfQtLvNjBY_bqm24AUq5-rhNHsWHkLPDN5fxq-4GgpkhPAq2lhe7eguJVBZygtBhJTwBPc9Jd79dTbd5fW2Gzf8rn6N5UoU5d0LsMkQV-0QewCeVcDgucM0MomdjRgQO5tZuSmmADo12MCCkO52ffdyIecMVvrsKMIfeQTRBPkYmH2hqLAZROPy4z4dnv6bQCdKncjdRaKXg619KCqIPmiLBW_0CJBgS2hFacX1tAoIUOQy6XtytMRuKFFCz1VaD404xmx5NbcR9g0IsXtJYqGYVw.CNAIOSEhjf1XsBXC.CpG2x8basFjfDXJld3-gBs8wn2BzzJYH6qZjHWY8xl2T-6gZ4RfgwFWJDYYM-J89kMFAXjPK1Wciaf2Aj6jccn4OD-kfR8o1CKa0TWOLCPKs4qyli6djpt3hN6aaLTRqe5mK6J4tryMCetsR7bQTVwGM4tpyANCu40pLpREpdEoHBtOqHbTwbHj7y5N2PJK65trnGH063-I7f2w3R8D0GpAYOj0eYvcWavzkq0WS.k4_G7_dmzKZvtA1CWmMGaw</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A100000005308107296</t>
+          <t>A100000006290945828</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>c2a47ace-3229-452f-a598-33a3fa77c92f</t>
+          <t>c6b8cadc-a107-495a-9415-cee4a5efbc58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>16717B1A-975C-42A1-8D8D-9B82E01A387C</t>
+          <t>4C75355C-AA30-4396-9CFB-630DD1C90F05</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ugzwctmegl20bsmf4myc@bk.ru</t>
+          <t>lyuda.udeneeva@mail.ru</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SQKrRTGPAQG0RRTkLjWQ</t>
+          <t>5rtWGqRbnai40TGRQ8b5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI1MGU0NGExOS1mOWM0LTQwNjEtOWVjZi03YzU0NTRjZWZjNTEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjcyODQ0LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImM4ZjMwOWNlLTkxNTItNDg1YS04MTM3LWNlOWY4YTBlNzQ0OCIsImFuUCI6ImIyOWFiMzBjLTEyNGItNGJkZi05ZDkxLWY2ZDdlY2NiZjExOSIsImFuVSI6IjEwMDAwMDAwNjAwNzg1ODQ1NSIsImNhblAiOiJBSUJNTHVMQjlwZ2s2U3hqZTI5L3JoQXplWWRURmlrRXp0TE9XNWVLM3hUdSthbDBiMEhZNlNPMXhmWnZ0MXJLaDEyR3Ira1hJNWRjOTBvSFpsRDBKdW9oUXNIQ01rQUplRVlvSUcvYk9zYmkrT21ZNGc5N3BPSTAxcmtqTXBodE96TWpRc0gveVVCSEl2L3dvZzQ2T0pyOXlYTW15bUFnMGIwTUY0T0c0a0NhMGRFS1FVemxoTm9ZdGNSR1lUeXAxWEZoQ3ViMG9wK1hrWlRxMU5MdElwZWZwUFhkSUN5T1VSRmpjU2wxbzdETm5RZmQ0bzJCa2J6c2xJMFJJc1loOTZ3PSIsImNhblQiOiJBSUI4bkpITHJmUWZqSGZHTGRlWHpZVEV0d3NoYjQzajJ0Q1JKTmcwR1FUSmI1OUhMR1ZRU1VCUUtBczY0dXlFalRmWUZLbG1wWmF1Ky8ybGlpcjc2b0lUTGRYcllaYWZVK25kc3hxakhubmtGd0wzcEhEVzlhM0xqMU9nSkM5NmszTzloVkxCVDZUVlQxWmJMc3kxbGxXSGMwMzVPYXl3MzhVZ1hhTDU4Rk5ReE55UExNZzJTeHZ1eXJXd24xazZWdzN2MStXZURzaE9HWUQrLy8rZE5hMFlUakVnQzJqSEdDeFQ1dStUSXh1ek9lZ1JCVXFiTzgzZVRvcVRFU0lOSWxrPSIsImF1VCI6ImRlOTJjY2EzLWI1ZDMtNDE1NC04OTg0LTFkOTYwY2RkNmEwMCIsImF1UCI6IjEwMDAwMDAwNTMwODk2NDU4NyIsImNhdVQiOiJBSUFndjEzdHBxbHMxS2VlWWVuRUtaZVhIdG5ZWUxVbjlJVEJIdEhKUnNMTDB2UWFtSTZaRWVOYzdzbzRkcE5JOWJtbTJuT0hhSXdnQTJPL0J0WFBlb0Eyb1JWcWJEMGdYQTB2SkRIbW5YenJ4Ui9KOGZBM2lVYUFtaTcvUkJtZFh2UWZtd1FVQWNZVHcrUHhrWDYyRmFYU1EyNkkvTU9oV202QTBBR0xUMXJvSFdPL053dkdVRjgyeVlWbU1keFVSYmt2MEhBSTRDU2pLZnBSbXc3cnR2dU16ZVNjQmNZR2xISUJvU0lpeEc5WnQzZy9mYkdLZ2Zqa0Q3ZFQvamVmeWI0PSIsInYiOiJWMiJ9.iK4FQejGvd6TQxX7wyOASu9tupGSW3h6kP9qekSTQRcs_KM4ZLysN96kzhBDpfy0VCjxb6X51jTbJ88wzkZkpKHC_TVVMa6bJTtBnNwmY5d6AJ6S0RY9f8jLOSrJzKcH6-lAc1__0EYB-sfC_AEb6keuXCGWMWvMbYWCbuwzFsYSyru6-OiPo8fePIXv12gbT8n7dKOfpOnc-DAq53MuRjnGAs_3aNL8MIU69DxfH83cYPWB-Zy58-iWD_tgV-emXT6rs5mvBW1Yt9cEFVJsmLyvYs-95du7qRJH0nIbJ2_4OBzIUAYUWnzpzMwO9vco1FhfkMIokRV9749PLGZUhA"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI5NTJkYWNmMS1lZGMyLTQwMWUtYTAyNC0wMDBiZjRkNTIzOWEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTczODYzLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6Ijc4MWU0MjgxLWZjZDMtNGJkOC1hMTY2LTJiODRhNWUwMGU2ZiIsImFuUCI6IjJiNTI4MmUxLWE0YWEtNDk2NC04OWM5LTdiM2E3YjBjNjJhMyIsImFuVSI6IjEwMDAwMDAwNjI5MDk1NzIyNiIsImNhblAiOiJBSUJiWUdMd095MFQ5cTNEQklxODFydXhBSEJQVTI5bUNqNEVDNjhFWmtUMEhjVzN3MHNpSWNVTGQwb2xHVlN3VStCblFuN3loemNKWXNZVDZNMjhLY3dzZlBDMzBVMFhacGJFMHVoa2NwL1o3SWVWWTdLUW9VR1AvSnRxS1FLZ0lRVVpVU2QxWEFncXBFbGg2OEZFY2RsMnhUSXVadDlUWUYxYmpKb0RLS3JOQVYrTkt1bjJNano3SFpWbzJLU2JuR2kyZXFzUTRrcFlUbTdOQTBiaEhjMUZHVXpvMEVkM2t3ZzFmOG9jcnR2TEJlMzY4cHFDMkpxNFQyYmdzVDVKclBNPSIsImNhblQiOiJBSUI4Si9LaytLZVcvaGRXTXFJS1FPdHlCTlcrdk5FR1N6ZEtpa21mdUdnZW9CbmkwOWFhRUxrdXp1TmZZZE5td2NrM3dIUUhGS1dETHdOMUZlMkxOb1N5aWZIYkhHSi8xL1Rkd3U2YmVMcmdCQ1M3WStKMDE0TDBzUzNzMWJWQ3Z5SWJkV1Jqb1owaFZwRG9TajMrTW5HSTkxdEhsK0NnM29vVTVGbjJIMHhLR2xveXZVaG1ISW1vQks3dnNKUzloTklEZnRpejljMHJIUWlqbDl1R3djaHg1SHA3RXZXZVF4RGxQanNCbHVXUVc3cnI5eXM0Zk9nL2NvenA1YUwwSlpnPSIsImF1VCI6IjBhMzhkZDUyLWEwNDEtNGIxNC05NDAxLTcwYzI5NmNhMzY5OCIsImF1UCI6IjEwMDAwMDAwNjI5MDk1NzIyNiIsImNhdVQiOiJBSUJjYjAxaUMza3FVckN3b3ZqbllRK3VNWFd3cWg5VVFXYk1pWVdiYVlqOXVJQ0QvZ3hOSHhRbFl3RkpVUmUveHM4UXVMT3Rra2V2eTlTUGxXdFMvTkMrWFJ2cVhCUWZtWllkMXRXYnF3eVdZbnI3UUNJK0NmK3Y2Y2tqcWpqK2xMVyswVitpd0tkcUtWNlRldzd1QkVvNDcwRWpZc0ZLR29mMjE3Q01ZR1VjMmswTDJEdlBtenpRcTFXY2VscjAxUWtIdGk3WVRYTnZHclE2M3J1UzhaVy8wcGJBaVE5TUVBUW5RWVdSbCsxM0w2R1ZQank5eWs2N29HTERmK2NKRk9jPSIsInYiOiJWMiJ9.eAzsySVbY6xe2VxUzpMAhDmlTmr1WrtHPNNW3N62ul1EvtSbTtPWi4YgFVvf5P73KMJ7fhp6EtJycwV2K4lflGhHK92G_5CRVV3GE_BLiLAGs9rozn7ux1gs-teSh5vOH9rrcImjE64ZMqU4JdwHYLlmF-IXoNNsbXTo1GVdKweCjOjNR-QN6etuND3gyhcQmTq9YVvl16Bu3TBj3HQMj6E4a2RQ6_XDyNhuTcg4iL-umNmUVcwsmMBQkbPEI7pFsZdymnu1U3mblBPGPNrLF8d4F3C-sDJ4q1Z8EJr4WNPgNOZtFwag-r0JFxdGUuKgJQsAdblFDqO0F5FDL91CdQ"}]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.C3aSYioyepABygGAyEuOdJMFzBKIk1_B9WqVT0p7aUz00SNALIzCcI3GBk-arhTSsbnXg5DtfVtSn-P5OkZ6vr8juRSfQ-nTU9CjLH-KT3HCLvxm03VCn07zXKhNmWX74tgEAkNweKLoBkJZSh3TCBx8IdNgg7BCmksx_9v4RihJbIG2C_Nl1AZqxY0eY11DWLY_-YfbwuOGzYn9rMqNf8qU-Wh1-M2SSCZWwOscXxwXz17L_SuLbLsxUBLIXXeFIA9cAWvBfMOqcuP1UoksymFpnwmzHLkOElOwQFWWG3OZ0JTatDTLuctM-SW0I62FFDMAZnVw50we7X4a5C0g0w.GFboV1UISSyNftd-.jYOOHL4MHldcNV0Tmg05SYzQFjs8PDyThaPZ8L37zILmDM2oefykrSTKd134O4LoWpPkITpM_6qn8vbwAZyamSFc_32O96NysXPNkwNJZSREgtT0Y4wjVtfX9ORdLIlwpYkbKtEV1JvEjZzIEXHBXyQomW1dlrRzd1iqkqsEi7iCmEnh5UuIi9uydL_NlGWM2x4W73kQZ0MzYgHqlfJ8kxOd2-qKbIdC5OsuiEA.7ClYyUgLy-Yxol60F6ah9Q</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Mx7mV1ApNMoxj1VtpnII15pavl9Ozgn6_RCtdsGOBGtSflxs1RNmIKmy-RAbZIJfM5Fmxf0Af3sNJwG5FZk073Z1dFdY6ebRRrgb-JA7f6o95-lCPQxen8XLsByDWj0YpYsCM8cv-5Kq9z0MXz4L0-1YGLxJr0xXi474BeCeNZZgxd8u1oEZIg6kI8VSXZy6TTcD365BSX9phbZgRnbjdTr-aUGPuyiXqF1_k8q3SInsbo3UDLY2UFJ_5yuA8rC3oGITlFvwWwKSBjBAYcv4Az3-nNsuDfz9pZjkNeaRGw2aAdToQzxB6Z1xJho5kTDbQt8Gd7bZcRWSUVb6LlhHzg.5nsa-xVh5cooC8Jg.WPpdLdMKhmoDWZIph7SXFAyElVR-lJsTpqFOPc0a_irTu8Vie0MpSQz4CnQQ0oAH-6c_q5E_vmZHnmS__gEYw6fLU8Qic4UobjUoN55oYrW4LzkMH2w8FtYzHJVK1Nd3H3W9dqDqcwMD67aWGkpltpk8q8gEBcavf1PY02KzAecov8kMkVq2wshqfqUZrLT5KNQpkmFtijNGe6AbggRUT0NbAIEoLjbp6Ju7knw.aHTNHdYqihKVRIKB1BFIVQ</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.WDB0lP5FCiDVgJAnKYTyOTaB1giBznuspvuYKXMKtVA4yPH0Qs7qvnkCBG3HaxhC386tW_MVDHyw2_astu4UULWpYsZfClgwAw8zKeTpfmh56V3OFm9QCLWMWStfUdq1nZQjnSsM91ePmCi1AA25qxbicKOgvXkbo1dKra1M2erROIByLmLJeskfoCvwYknGyQ0Ze6UDcKvzAJ7AL2SAPBEWneiGon13cLh7rU7XNfJT4wYPZ-Bl74QiEoo6cY7JKY42oX0lvRj73UDhZ6JTn_lqEfgF1319orevhBGzw3fzc_pTMM4KjziXmeFXfbxNBRjshRzlvvcJQylyx9g2sg.VXYRKMvLljk4flnZ.I0vcUIUJgPXmmBSBm2_fGNuY3CmvbLuK9TnkNHPqsPxBjcx-myoXZvSriVWK-ovR5h41eMI2HdgaweL0WVTKp_xx0x430yJjP95FKSRq9014pCfGaszR0eghxl812HNW0ESDjeSLg9df4Otab4LSjOmvYUlvQnh_4Psnv3YtCLsjNC0qNf-CL6mJG1KuMs7qk-N7pNYk2PytiuEFxWB8tfaX7rWNZDRzZn16cuq2.brY0MBIE44X2hsl5opXKjA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.G5HgdBmKk0ZsxBKfwn29UYwvaKq26KUmY-CPFPY1mxa-00Xxk0dNZkp6uWaA6kIoB_iY82x3mjB_Fqo_yBk7F61vaBqZJ8L87lbGKa9PdXgvdKjtC1qEbQr1TybO5CW5_CnvZL8U8ggX_jwEuriyNhXQDi9HC7L-7uho5gj5_DfK0aCkAVepwwtBFU9Yk6R-hOScwmGl-GqSdQJPxGjfbLyIrxohZ9tdoQBnF9ebPNkavUtfubG-jgG-iy0i--hI9F1u-QQfWtOp5MZO9F2pVWenu2OYZJj_Zc4UDgAMCFCIolcf7TQDdckHGJxrEq8j1ljPj_na0sj9GW792ZnaUw.bMnOz03p4IeuGXVR.HIkxdbikZI-2aqRANL5Z-5fxkNDESFk7kNAAI5woAxIvnN6zR43RkDFSbBvOU-xAZQGhboQh-e5y1B4iEHPQC2jP-lCGpv8KbpMVw_HXmIUxiQcbkrhgZtImRv9V0-gXIoj1TxeykPg_vgtNMRMdVktDafNL6bluDRjQA71O05QdKzXY7ZOihwdIziVx3WJ9T3YkFRh3Y39t1hrAxOPgPlBAPp4bUBPa-MkDpC6p.TnyiaKga6bHjeAyuJmDnmA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A100000005308964587</t>
+          <t>A100000006290957226</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5eb01bc9-8701-4cfb-97af-446d7ceb690b</t>
+          <t>387bd71d-ed5b-4881-b093-ee560d670d0e</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1B4EE48A-EFD0-49A9-A99D-6DCC2034058F</t>
+          <t>2DD635F7-9C90-473C-80E0-7AEB4B1C2A98</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bobylevafotina764@bk.ru</t>
+          <t>iollamishina87@mail.ru</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SjfEV0b36jjs5jm5VCwP</t>
+          <t>vkGUEnYut2XQN7ndBqTK</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJmZThjYTQwOC1kODE5LTQ3ZDEtOGNiZC1kMzlhNTRmNWIwMjciLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjY5MzMwLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImNiNjM0ODZlLTlkNzYtNDlmMi1hYzNiLThiMzhlMDMwNDc1NyIsImFuUCI6ImM5OWIxYmYyLTUwYmUtNGE5Ni1iOGMxLWQyNDZhYTZiOGQ0OSIsImFuVSI6IjEwMDAwMDAwNjAwNzMzNDc5NiIsImNhblAiOiJBSUJWM1FweHp6cnNtZHNtQTJJRHZNSlZkVmhMUER6K3dZZXRrMGxINk11RGw1T1FBZjlVNW53WG5tYUFxb3B6R0lWUFE0dG85aVZHcCt6UmhvUVpCQXNnQXo2d3VwRnF4Vk1IQUlsMHJzOWNPS2Ztbk5qUm90a2N5OWxZTTlRYTJxYlQxdkVzNzdCdnFzaHUyWEs5MXZYYWxZVlM4WnhNRmErRHhzR1o1bThEc3RnVTl0bUY3VVVJdEU1b2JnbTJlTFZxS0ZkRDNNMVovNE16dGlTc2w1TTF0VGlITlFwMEltYzlRQ0FhOHhPVTlyTlpGRzNxeSs0ZDFLQlF5SFBXZkJFPSIsImNhblQiOiJBSUIrYXZHTitFaU5kWTR2djJ0L3FxNlJ6Y2Z0WndXYU5HbjJGZFZFbUxNajI3ZHNaK0dvMGRldVpMN0RNY3pNSjdaaE5UeFRldHh5L0RPYXB3Rk9XNFFCK3J0OUN6cWlTVm9NbWUyS29Yczg2NGtWZWlyK1VRTU1Sb0l1SXFLb2VPT2tkYWFVd2tLeDV2ZWNpay81a1FFeTZ2czNOSDBlWXhORmZRWDlVbXBXZGswWGZmMGJWb0R0b1lxcEZEa0J3dFhXbkt4ZmlPdjVqeUdwR0dSeVBNU1RlaUM3L244S1dmZlVjYVRWSHRPNHowWDF6TlVRdjhQQUJNTGNEYk5ScllrPSIsImF1VCI6ImFlZWNiZWI2LWY0MDAtNDA2Zi1hN2VkLWNkM2RjNjUyNDZjMSIsImF1UCI6IjEwMDAwMDAwNTMwODk2ODE4MyIsImNhdVQiOiJBSUFmNmJYNDh0eEc4TEl2WjNnSE1xK08wclpMcjJ1cHNabEJqME1keHBYYUVya085NXJpL2tIVkdNQll5T1lqNGhnTGZxd1ZqUVY0bkJqRFpFWk5NMDA5aG9La1R6V3I0VmVoUWtsTlpvbVhmT0tVYkxkYXMrSXp3U0Z5Y3BPb3NDVFkzVHVxbEgyck1FQXRxeVNQZDg5bkJSVlJuQjFNMWdwb1VqMm4wdENCU1pDSHJWeXNCekoyeS9MYnFhUHl4YWZYcm0ySXZid05TLzJXak9UY0hpbHBNN3BONG1pNVhlRHVyY2tXMW9IRFZjOVF0NVVLR0lHaVlrd3BIdzBaWHgwPSIsInYiOiJWMiJ9.NqmBgWcWnOZFkDOvN4tZD5XpjGuv__tRxzBv6iargt9YPMLnlQe8VLvZorFUGIUtWU_13YXFKal_wWl_DpBAG6oFTOzEl9LWp3JOnHoAk0YRx5vTO6Zan6eJeHH6BkKM86zflMyBEmgzFgYz61abDTZ3t-w7Lb71FjWsR3YNwZw4WnAkVWPXDKeGycgHZP8bOkrKZ1HYTEGCpGWaPJPysxDd-UeaIpFlxnpb9y8b3esfcfd61ftgMXncypbOQc0pQ1w3sjI_0hZeAk6HTSIdXCfIfHVmOHT_SdqOk_Bq8I6NvVOArlEoDdyyq8XI59cH6v2go7coBnkkr5BEkzDYKA"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJhNDU0NGQ0OC1iYzBlLTQwM2MtODkwZS05ODRlYWVkZjljN2IiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0MDQ2LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6Ijc1N2NhZWMyLTgyZjktNGFhNi05ODY2LTQ5ODQwMzNiNGM3MyIsImFuUCI6ImIzZmVlYjhmLTI0NGYtNGI5ZC1hMjI4LWZkOWJlNjQ0YjFiNiIsImFuVSI6IjEwMDAwMDAwNjI5MDk4OTgzOSIsImNhblAiOiJBSUJySVdmTW9YSE05SHhQbHlmdGdtN1VnR3k0N01ZdG5GL2wzdlpDUWNoaGRXQ3l0Wmo2Y3R3blIyb3dxMnFLMDN5aFNpRkdvTVJoOFBlaHA2RkZkNkh0WU1IWWIxMjgyVmU0b01EMXlveHJ1ZHRWckQxKzBabk1YRW9sY1lXMys2UnJpUFR4STMvOFlsanFXODRkRTNMZFdZeERncm1IdWNzRlVjK0oyTE03em5rL01uMkJXazlPWVVCN3JLeFpTVWtuWCtNdmtyS2xuVkhKeUNmVTRjcjJKT1o5TU1TQTJ1elE1US9WRTUvcEtZY1k2QUQwYkFpcjhab3A3QW5nQXFzPSIsImNhblQiOiJBSUFlYmI0d2FvZEgvQlc5ZjdCWTBxZ1hKSU5UdDY5YWRPTnVDL1p4ZGF1UHpuQ3I0V0loNTUyakVmMzlXTXhWQlc3MkliTU9KTGZBSHo4VjZzRkVzZGY1U3hhSmR1K2hDNGNhWXFTdnNRVE5LZGVrRTE2Z0xRWUZzVmphaTY3KzdheXdkakRQVC9GdUV1eTYvN1lkZW9TbTF1WHJQNW5hN1JleVRQTnhwTjJiWFdnTTFqMkRmZFMrdEVZNncxRXZCSWppZ2NVZnFCS3ByaVBSekxnZ1REa0x0UHdGdkpRQXZLWWdlUTBwcW42TFdYWkxQR0RsaXcrNlVMMTJ1U3Y3K2VVPSIsImF1VCI6IjczMmUxOTFlLTE4NzMtNGRlNy04MjIwLWM5NmNmMmM4NjA5ZCIsImF1UCI6IjEwMDAwMDAwNjI5MDk4OTgzOSIsImNhdVQiOiJBSUEvb1NpNmd5L1MwcnNFK1g3MUxYdHNHSlZaRGxHSkZVUkx2YUN0dHdpbGhNOG9uNEVGUDdIMmx3eit1SmltMHlxL0h5NWFjYlptZXFMT0tUOCtYT3kvblc0bWhreWFKM0RlbnRkK0MxUXd5MGdPZDRKVFljclZxRDUwQXl4aTlXeU5HYUVMT2QrTXN4dWZIZUtJS3ErVmJicDBWeFpZbVExeXgrSGw5bXFRNTBRTjFTT01wUG5GWksyeTU1VU8xaVBYU3JqVUluRUFmcmZoaG9HZnkyekxTTXJZSEpkL3dLZXg2WlNoQ0Z4eGVxTy9WNXFnb00wNEtsRXVBUUxQTE1JPSIsInYiOiJWMiJ9.paVXEoSsSEV1-LfWpDIIsToc52tQT7gVfZUgVHMufryH0mf3ltjVElKix8XB9ScD-qAzsPLM8hjlpDuFy_pqKOG0fSGem-tDx9sYmxuWTzYLYbXKePbb2QuDSQ8JdeV0zavHi8cpUr_y6Vx8lYU2TavtVZ9iJhFMeVhp4h8L5_zOjC7TnLB8eISgSA8OfUER0-ABf0krA0C1rsv9pqTso4O_gDZBec8BRE28OlK55NAy2gW8Bwf8MjxVxrLdunEjVOeS0mQx-ls25g0rVt-lizmkEURkfrsyqlqjwnbSdHPYiJJNl09z6DeR-GCKWGvuu3wvtni9QTcE2xJwXYhV7A"}]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.O8k_RNwr1am0jsLCVrwkYLpIITHPV5UNmh3Vs1F3eFALb2VC3_JlPzV4r5uDCyhdH9wwJW_72ZB8h_RmfiiIdHxEM9KMQj9eISjtJKZRP1c7PXHJI4Q03bNybKWeyCQXQl8Va0E1cuX6_cox4a7cDvuJpQX1a1lUCAZ1XAq-VdvB-f9bSxg50PEojbUhWJxAnG4lov1DDs6oLR0aNfnq8_1vfoX4QuyGbws4zMgVBUPcVqixQCyP_Rzc1u2D4BC7DvLX4iV9a8qfV7oPht7pC28fh2-O6pAZ0sOVbB-RJJQL30fNNpUXS9QEyaMFQ73MU8hLBrp5HRagOSqzfgE54A.xld9ExGZT2AEQgzr.ECFcbH2FNgzA3FLNH7Ns_6bavxNZT4lecw2wulBciPkBeNbTt6T8g-aq8utnxi8NLGX_dlNMJbew5Yu2JOpt3xH3zjABUjU1wlX3ronFaX-CVlam2zU8ZWCOvsKZOS_RGvk260_R-m3juBkuKaTmrzIIYMQlid3SnvYWopRl_KE5go9dg6wACw9Em56f2p6X6vhQhCbq8tM0LLq98HKXa8SmqpUzxVU5odn5yd0.NXYSlQHsWV6ZbhSRm-n3nA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.OHEf3ZqflmhiFq_DRv6csQm-UXM9KXYZoRBTuxUl81BRFfzyAJdwAH_ikjj2v1qhu4W3dT7rCgmbRz3MXqojNYLMfAUs34w35-rk7moUckiPLD_JL2VNMUCQbVNACHLj30TilxW8qWSBem2stA8Ca1pXH0R8yKjglXLCyh7b3-j695z9VDkq92bQkJ0cr1aShzXF2_bkLoOY3SfvSTFGYZaEBvtoOIr1sIn4qMHvIOnlvjyMXSUFiafcBwbXpYXOo2DdPBwYn5ZnIEzXA123U81Jcqfuv_qWJdNdB-K8oyAV4g4TcbhzRByRq8tjIK24g6hiNSBkYTdyaPtMFxny-g.6XPt3Jn5pGUcW9z9.P3_WCCoQZ8X5xR3yEptV2IBk0RehR8GQXMxcPIOmYIMn5_Buwh71bOTB--k-TjY_32Mb0nbsFJLfWK7xVu-4T_7s-ofuafom0yfpRBcVLjUvHQtOBw_FDmTvBtRQmwXBmqZEPr0rdXCOirzxWQZpMUMcokLrgHcHuqNA37bitVN5ZM9yWZe4n-WAnJWQzoiuWa_EfsFRSeTp4weAPvqyoTo6i-s-aJn5sCWr1EI._t0KrrsirMWCwjcZHIyt1g</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.eSJZZ0_VWBO-QZoaQPgQj_6Hw13DMSiVt9yRIKihJ5hSlgSqhYER8xO0IffO-kleChj6gR3fooXRmWg0x5hsN6Rq0RNzrYEA3AliALtNEkMpfI6heHqGwco2kSnbjMj2eS4WDEa06U2OkXv9WbS-uJLPVhRJZP_8FbdY8CEXHWN2IEA_Zdto4WKe44YyA5a3TKrxFoIySGqg6LoCep4jZFR7XbZMe5P4YQNi_nPLqfqrhqRWtI1I_MhVH_Ki7nvSK_VqNnR2LUsy5zTmEyR2yh5mfE_mdogxpS79lKRzngkgOfCey7VI2bHAqI3asaFJdEuTH7j8X-7BPfnbd1QiQA.MyHVGRcx81l_VEXN.Ava_zwRP_cIDoEDcm5U0jIJJPCriOg71tXuO-e8127GrThyA1j5aqjsbWe2WtRzF_COabXfROhXTm2lluRHSDtbvWGoWIrRLpp2DJbJ9mK2kiP8sfXEXFgy6vg0Jh4zQ_d1jBzceQ3B2ZUS2dyl44d3Uba4dwGHWfjSpqBVMPIjYcredfMItYlqnfmPVsDVG-W3escm16foVZXwVinQUpLBIaqoyMc435RcAnwXz.Elt-x_5zPp6W51Dk-5zWqw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.OXIU-xEi9WxvfP2Z5xby-W8q0nmIx4wTFYzRcPqUC0TXcsFUqj0EAwD99r6bqI6OiUKwgjRCZXQA3gcQZlXXJ6j1xD7CgLthFGqYD-7nb9xA0JcEa373QSfsBYEuP9PvswBoUZc0ivBWvCDBY5BJoPKxkdp-Cc2U_8y37qpr5Z21CHiSAFptFlk3j6KGpEusN4P6g_zOjw2XQWmmwLzPKiq77ghPBzyzuMHjFOGqD_gvY4Ho9r8TeNgbyxQzmhKwEGnI1LIdmI-mSA3teBq_tdfBAfgLEcYHpDR4rDWF3Bs_9GtG1Tl_vs6qUsbD3k5VYuynHyllzg1Oc2zUsTe1qA.X2Ewn2hM3lLFm6uH.sa2iy-W4TVGdKORVV5OKsn4YB518L24eYOX88eqqUshbRWTYiC1YGZz6rAyGTdjaQSpH5J0dWmipkUFdy2LQk1a1uoGNNoWHnbqfr3IAaz3gjAHD17nksBOqb0aVwl7Ql8_MK9hMuWxJKX5aUGT1a2hpta0h_m5qhvfQy8Y0JKWzKhsDLuNMYB2YU6psHt7V0f5mQU9Ph6QjlF4BoRJdRH_GvJZTxDt39nLfkKv2.Ia_l_s8gVMduSfcvy_IOAw</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A100000005308968183</t>
+          <t>A100000006290989839</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>e127c201-e9f5-4ba2-a120-bd4e7efde8b4</t>
+          <t>4055c5ec-eb8b-42dd-839b-e8b6ef71ed6a</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>79B93E40-5DE4-4DDA-B700-6B85347BF681</t>
+          <t>6067EA3A-F835-4F65-B1EC-0203CD9F5CBB</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mehtpoirkvxt@inbox.ru</t>
+          <t>prohorovpetr.1989@mail.ru</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KXUnR0CiNT9mSrEAyQYM</t>
+          <t>EDccm5EV5n2g22WQscrW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJmN2UxOWU4OS04NjMzLTQyZjYtODJmZi0yZTUwNDVkMjAzMDEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2MTgzLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjA0MTJiYWM1LTAzZmItNDhkNC04YWViLWM4OTFjNmJiZjc2MSIsImFuUCI6IjQ1ZjE2OGFlLTZkZTAtNDMzNC04OWI3LWUxOTM0MDJmZDJiZiIsImFuVSI6IjEwMDAwMDAwNjA4NjcxMzkwMCIsImNhblAiOiJBSUJRc3lNRWZPU3FBTlZzcjU2Rlc4R0hHWWhpSTEvbStvL1gvSmxMTkVSNTY0NmVWYURJSXFLQnVIR0szZUtHZzd2aHpkSUI3VXNobk5BdVJxd3J5Zy9jbUU2ZjlYN1U1TDkrTEFuWGpFM1dqZ3RBRWJ1L0NxcmR2b0oyOTI5RHJDNWFLS1cycWZiZ1VjWi8wK0E5WGFPVERTc0hEOWFodzVPWVQxaDYwRVFFOTV1NXBOdi82dHNGdjlxZTduSE10S1lLK1g2blErcTAwRUlCeEhWRFc2Mjk5WVZFZzE2VzhqWHVpVkFJcjVVSjh0dDlLMHFIcjdwZDFFTUFyWm5ET3g4PSIsImNhblQiOiJBSUFLcXR1UjY2WTArZ0RWbXRzT3dRZisrRlRsSWlOOVp5dDVtQkJxRmhTNmdvNTV0alNVU0dHZUlFOWFOYXdZK0FMdnpkY3pJZkVzK1RISHhqdEdJZzJNRFJDSHI5ZWs0QjVseXNtNFpBMy8xaW00Zjg3aEYvVUhZajFrWGo0TVQyYS9CNzNtV1FpSHdJTkNtSTdwV3diWHEzWVcvOUMzSVcvUFVEaFpOSzZmKzFKWDRObDhDTjEvL3d1aW1HTDIrcEZDemRWWndJQW90M3BreDFESUs4aE1ra0xZV3pSVm1sa0Z1RXFWbFFlRFYyY0FmeGcyOTQ1c1R2VU9oV0EyVXZRPSIsImF1VCI6IjQ1MTBmMjJiLWJjZDUtNGIwYi04NGM1LWVkOWYyNzg0MTVlNiIsImF1UCI6IjEwMDAwMDAwNTMwODAyODQ2OCIsImNhdVQiOiJBSUFWelc0dkR6dnJ4ZmpYeXNsUlFodlV1WnhGNzRSMU9zZndJN2VKSkMxSk0zK1JvMkpCUVJMVEpic0RJTW8rOVhTQ1ErSjBrdll4cjB4bEh4QWE4dmpjbWRhaXJoaFdua1dWR1Ivc2t0QWdMTnhKRnRaQ0ZhOCtDb2JJOTdEK1VpaERrckJpTzk1Wi9oM0R4aEVDVlVEbXJvenNhS1ovbUdsMHVqVW81M2RvVWFaT2lFd1pDR2RLVGtLUGlpUW41UDdWc2RqNloraU1UWjJnOXFXUGdraTlDT3FQRVpSalYxSzBmT3FuaE9JQk5iWE4vUVd3bnBrOWdPYURtM2trdTA4PSIsInYiOiJWMiJ9.MNNv3zvZ1xmMbwJ-mYki2wPDmtbQtarSfIoxYmbfMM3LIAQ3bSEoash2L2NnvAXTG6Wb4NBnFQm1uqbZpv2SHJiWiDnAmDOvqjWqZGv2ryrWwi35FbDfTdRR_eE8Ss-rql2eF9p118qBXwgI3CQ6p0PtdvWa6BMKyaQYFm9tmlPfXMywqjdgkLThhmrnNmi5d0h_TScLtazjVdsdnrRb7LNy6BYi23fS7w8ZX4wYQDeNrsX9WeM1jz-9T47rbT6rhknZe4yDDim4amjaPkOQkggRd1wyGNDgADL41hNr601ZlyaDDAYSFPrnXvj4qbZccus6qsYGNTcSnslAYF80cg"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI3YjZhMmRiYi01MzU2LTRmOTAtYWFjYS0yOGE1YTAyNzZlMGEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTczOTk3LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjdhNDNjZGNlLTA5ODQtNDE3ZS1hNGViLWMyNzY3YzY2Njg2OCIsImFuUCI6IjIzM2I3MzdiLTBjZTItNDU0Ny04YjA2LTM3N2NiY2EzMTEwOCIsImFuVSI6IjEwMDAwMDAwNjI5MDk4MDM3NCIsImNhblAiOiJBSUJ0OXpmVWxIcG51Q05uazBETStsNy9NU0g5alpsQzVURUdMQ1cvZ3h1YXY1V3B2Sks3RDJHaGZDUVJ2bmZyS3dkZzZQYlpCUElCSHVNN2dYT243M3NsTHcxVDQwTVZhQitvQmV1VmwyRGhOR2FsNXEybnErL1k4dk5xbzhqVzNuL0hNVExlRWZqaGZsRWEwejVIVEdNM0FvWUtMdHpCREE0WDJ1YkpPZlhON3FpT1J6Z0IrL3NIcHZLN1I5RHU1TURUSzNaTUxLYUQwaHpkUHVxZ04zR0xrcFJqeEdWUFFCWFNINGN6d3lORm1wcVJCOTNCbkZLc3lRRjRjNUV4SzlRPSIsImNhblQiOiJBSUJiN3NxM1JwcDl1Skw0WDlObzRja0kzTTNjQ0ZqWlNsV2Y3WWJyWGdtWmJ0czhsY1hteVBmTHZoYjJrVFB2VElvb3MyK0dhWUp2bGgrZis2aTR6b2pxOXNjUllBZXRuSkFIN3YyNDVTdUFwWXdYRGhMZU9pditFQ05Ea0wvVGNQaHZlTlkzaHp1T0tNQUpPTEQ0ZE9oM3ZPZHBjcjFQR2tsVUNtMjdvMUlLZlUyR0JMSkErY2oraW1tK2tFM05JVmZjM1M1SVRpcmQ3NDVZMWMxWU5ZTGI3eWNobUw3dXNkZ1RPdDNOcWRFTzltakpxYXBxbDhabFlMRnlRb3BmbWJNPSIsImF1VCI6IjkyZTBkZjUyLTRmNWYtNDBkNy04NGJlLWQ1ZTAzMzZmMWI3ZCIsImF1UCI6IjEwMDAwMDAwNjI5MDk4MDM3NCIsImNhdVQiOiJBSUJsMEpsc1hzZldJVW1LTVl5djlvYktXcGVrb28xYlI3RHlOVjA2YVg0bnVydURTeU5oekk1a0Q5U0NzNzFHZldKUTQ2cjF3NEpIUU9hSXI0eENWZzRxRTVIb0F3VlBrRnAwUjN6bmlyd2t6MFJHUmNUZDkwMFVMcmE5QjB1c0VlSnlVcW82SDVoa3g0ZFVocytWSzFiSW84eTI4SXNaSThEQ1RzTHBsdU82TW1PaGRTUHRiQ3hMbFVsUUNSV1g3OUlUUnlaZllMV0VqeEVWVjhRS1VpQ3VBZS9ORjllNEhQQURjMVVJM29jWWJlQ0lKMTFxZkFlZTVmYUh0R1RlbkxJPSIsInYiOiJWMiJ9.b1MeCjQXckvYLl6EdHnBkEvPYUi5uHODwrZ-kv3Ecd4_sIdKl33qFyElAj2aydROq5bmvT_77bWg-UlI4lMWuECYdg699xbpDkPxjowWlLgMPS6bbmdSVA8ZGTY5AVHqnF_Nq5c_A7mNvqoQ9VeMQrI5-HJ3UFPyiZUiuhQS5ex47sWamtXIVYpewwyeiNA2A-HSroStSAxChIWcWmmW99rXWhR6mow1i9LS7RHw2hHPK61ek9cwEq2H_KllGNKpnJUW9HTLGQrI13p6C9z7QhjMZaBWQ4iJzdafGFZ_9dwmg2tigFcdi7LAGXear3_kkLo1jUSqPhhttp0RYvP73w"}]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.QTSZoMvmzH6gJ_7ibzrkNfAVQg0ybYo1xUNst_y0JIj-1Gz45sS7EWtjaFS1cgOzd4KzWqJGCnEvIDNU0nr8upRHu4U5SS4UCTFgnR7-Z4VgzilkFsPHcmGLaqTKBxpZWqTufyEqD0bbFB0beU7aWJe2-XnqPbrEkM8X4m3gzu-VMVpNEjnkHkvHtqAPb2XPcINfqWv58z1s2NoBet1I1QnY-yBIsaKW3Odp7wqHC5AJ4XwiPR3d-70EwGO1azrN-Y9xSmEGa2o_vWqutk7wg1x21Nr6tnH1RRrq9lPV1Ca0cfsnS40PepdCt4ETg20Z_C6Oy0smi_bOOgkeNSTbcA.LD7iNXzFwPJYeRUo.2JPWXRGCSF-krUR6fEnYO8kVLLnZXGcGlTBzA7tE5DNOFh4OEwFyO0PJl4N7DF2tKK_VSVuMZqsWRoQmmLp-Jgee3wDoOkyFTwb7l8vTb9A_CSzqcY1lFij8gJTY3MrA6AghGHWK-zlIMsvw_FJoxNoL3q9RQaS5M7etx96R5vKtromVf8gydI57aPOVnmP-HzGFOsKm8jItmOObuhbNr6Dx160lnirOUOpb_SE.thOnB6x7ykwsnA4K-uj3wQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.HPwtexeJALbESTqeRrWQjrGA_SO59eu62jcoETfuFqFpr4bnYrto_fj6e4Mw0E20P2330kSnrX0cLA1gU2V-FWOjKCFkiSUHijhuVDLIJ6I7qN4dSVcg7ecBKHQaLwVN7iUFLAffDRa3RDByg-cy9h31WHUvpQA_C3Ezt0Z0DWi-8JsIXzHiD7iDvoKw5SjzZBNl4dkktNCCTdxg6Z_y2Z3thJU2p-ojkOdK6DSLslsDr2ia9HNybS_6U0tH2M9t8u8ludTaFnluJJQsp-8vxK7k5rt1jsbpxQT1FWoqr6JDcIVxHeCu8rYxAXm_-frqKFvVDAHNlAyRa2Jp_L9Fbw.IpcA8NovBRjL6ipM.y02fo5HfEHQ8Tbp9YIR6JOEL2SWjEvm6PTUERZb3N4rKJk77HeaimiRiVfXElYWV3p2WVoa95-cVu0VxdvF7Y12HowspxlyWrbbgkDw-vJ7MfHn6RJ7dSPWTNov7vJdwiCT0UuwY_hlbY1M8PryAtBtJDNkWx6PgE1qRjBqZpLH3gIISIyAaWPUm1eO9U_nkIGlIp-bdEXBXSTt7SrQo5bvXJ5Tu-ZNIISUZGR0.bojl9d3lQVvf-WFcJz5YWQ</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.SpMIb1npelhreTaGOF25VbM6GTek_fx_1d71_-Cq1bqeeaRHCdQnLF1zpZAc7l-NsUK_P-3g-sMFZCbRNsQ1ZzQMXyfhWGNdpEcplR6Yy6xZnvW-bBXFYepp_HyplQw1HudA-EgICPFtc3lgYSxvA_wL-PjH_XJVk1ihuo9X7jH-AssbMbJziummciCjeMtN6mnd64Dqx5kSWmGPfOgdCLUBmN7iSI5exjz_ccRevk1S0RNq_feBO_gjwz4fOGzZ6A5E8dTQesJCQiwLGCunyU02_zb5_uFq4wY_oE3DfJsRFtrLIeELDXVFkigyh5bjRiLeAwICWuYUsLP88uJaqg.3Fq_D11ng8ERcPMu.sR0p9k9N-QJVUu0PcwRMcmnUHEceYhMobsbV3BsTsfTx6q16V1pVp71Ie4BP31TVIRtZCbjB7Dd0MZSOWNm1jOLYsphsQ9j5TEEWoAh4hACjct6vBGIbnMQ4nRlZokIETYUUxNXU1bvfmnZOX0qlulfGjWHQB8NYVEEcmtjCbxreTwnr6rpmUBohAKOkm65uztKfd4kkJvbWVpfOxPlp0ZqH84KNhgJAT40_hdW9.6WJAg8t39yJa_R0UKZv3Bg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.KpAROmN8GjDN5p2M_VTbGhlmBW7b07_0_3We98__gBtG1ZnQVPnjY-Wgeoww7aFbc8oc2eIU-eOKV-0yTXdsv41nm7gs-vxiLd6WOydcTOybu4Bwne-vzCVLx1KtU1ah7n2z5PD76rVqZCFPlDSdQ_7YrIartqOqb4il5VkhHfi9GZzLsL0EKBKt4FGvZ1TVRxQs5zl1ZUByVaNHiK221hwmJo4by0Sv0wQG81DpRq4v8SK9D45I312wa6xr2IOzK5EJQVB26UlGFH8KlTQcMRXoUlfAhmpmKpHXcAWhrcaunmsvLti8w4s6jeg_AZX_ychskuAG04pVk-T6NYGQOA.Ok3xPAAGJxWxnxW2.k4RInQFANsRzfbYuFn6NnSzTY_SHDMgIsjDskg3Qb88SpX23IbCtXE7yq5oclc1eGspWlF_4ZEUZ9JV5J2RvoQnG7ukf8DikgJ56UfNWgvE-7TAdo5owdNAZRE_jlXs2XnXLIIIN9_-zotjoJu_6Exlx_eIFNFdVl4LXdOYOdE2Rq-T1eF2eLV3EeodSdgLQozGFUnadHXjhIYCcLVwThVxETtlnFawr85VBHBsP.qfnwm0NHINXdmylJw5--EQ</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A100000005308028468</t>
+          <t>A100000006290980374</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>f70118b2-80cf-43d8-bf8f-b9ce6ebd6609</t>
+          <t>6d32c957-ebe8-488b-9c7c-118d8d11c4cd</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>223FCB7F-8B8E-425F-8E99-9F43CB36B03F</t>
+          <t>867F5904-E435-4E7A-B4CD-795906B37246</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>voqwkvhzacrszv@inbox.ru</t>
+          <t>InverPopugaev@mail.ru</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JBVpBCXzPWzsh8bBXjNv</t>
+          <t>6UVyz0yALdDxgwGSu7hg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI0NTVhMjFmNC1jNDNhLTQ1MjctYTJlZC1hNWYzN2QxOTUxOWEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2MjM4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImExNTY1YzkzLWE4NWYtNGYwYS04NmE1LTAxNGY4YTAzNGUxOCIsImFuUCI6IjVlZmY4MzIzLTFiNmUtNDhhNy04NTFlLTFlMzRlNTE2OWU2OCIsImFuVSI6IjEwMDAwMDAwNjA4NjcyMTE0MiIsImNhblAiOiJBSUJZVEkrWU80V2psOWZMdS9CRTRqaWRDQ2lyemNJYTM1RFVtTlpwaWVBTnpkMUVXOWw0SDZYZXVQRHp4bkErZnVMRHhwZHkvT0ppMGpjZVFpT3BWOHdMSUI0VkdLSFhkWGdXdUJNdlBVTFFtN0FsRGtvMUxHMWtsc2k0WGtGcEMxZXN3OFByYTExZnhWalpnNEpBOUVSZzdFeE80SFBySDBHZ05MWkJkV1Fta0xiVk1IcVE4ZGZZR3Awc0RBOU1tZGFLQkoyNTBLRG1OaTdsQ1FxaXhSTFd2NnFRalo1d2FtWGlXMWwvb2paQ0hTNEg0bmc1ZnhVaVhweFZEaVZXd1Q0PSIsImNhblQiOiJBSUJtVzJWTUVGNmFtVzZMK0pJRlEvbm1VcFVSYjdySy83bEp4N1UyeHNCY2hMTnFIODhXc05yUXgwYXIrRjc2bThYaklKdFIrcmlGMTdhYVVaR2ZzSm5MbSs4c2FjVlBkOGVhdTdYVjNlRlRwVzNEcDBIRTViSE1WdGl5MWp6S3U2by93bXZ5TWRYRVg5LzRkQ09BakNUaGlUeDNSeVpvOTBpQjM2VGFlTGZRMm9QSDZhWWNYRjh6NE9zT2NPOEtLenhxSWhqMzc3dTFMcE9Ya2U1eS80ZUhtd1RLSkFzeGpubmNWWThkUzdzTEZOb2FoRXY2TFM5OXliMHJTa3V6d2FvPSIsImF1VCI6Ijg4OGE3NjY1LTU1MjItNDcyNy1hZjU4LTY4YmEwNjAwZGZkYyIsImF1UCI6IjEwMDAwMDAwNTMwODEzNDA4MiIsImNhdVQiOiJBSUI1NHhxOGxRMzE2cWcvUVZKWWsyWW1wSnZWSnV0MWE5OThxTnAxYW9vR3pMZDlueE4xZzBDa1EwOGgySk5vZ3gyWUhPZ1pKQWRXRjNEcnhtTGh1WFRnWW9NTVFHZlNSL1ZrRGVDbXVyc1REckE3b2dCOWhIT3ZrTlk0ODMwaTZTanFYazVtUFZlams0RmthQ0N1Z1NjMFJVbDBzRHdLaG01YzQ2TXAyMHRXdmp6aWVpRGVDRUpkemNlZ1RyZ2tpcjN0MFAvaVNCQzNDOUVpVWpxUjRtZFpOZkkzUERBWjVCUDFlTlczMWp6b0tEWmd2a2dVcXhqYndrTlk2UDFhbkxjPSIsInYiOiJWMiJ9.T9rLoB_h5waz0gzLy26udENrONjDWxP1K1qwr0rr3Rko2kGc0yQ28cT4uaU1_9jRhirG7ZyoDACrbAtjgpBKjFIwV5DmqD3HqqJl0HrQV544J8AUOoD4AmDfGhFJyJQMAO5nPLcKc7ngy7CL4yqK7wL6Ti6uQKVorZ67k2K_JNkIaPCjHnvhCG0l4hJfySID_pwwYMt3iQF0Gx3s6-W2T3rPkS_qpVYiqMr0jWDt7JoiISqI18_kSZRweWX58DuMsTWRVFHTQydDEyrNdRz7RCW2XFE0VxmVrKBTvXBxhzYUuMwkwud1KBQ09du5m3ruYrHDralEO2wabZiKfO5Tsw"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI2YTVmZDNkNy0xZTNmLTRlZDUtOWQ0ZS1iOWYwOTQyNDZmNGYiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0MTkzLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjlhYzE4MWI0LTBhMzEtNDVjYy1hODRmLTM2YmE1NjVjZjI3MiIsImFuUCI6IjJmYTMwNDg1LTIxN2QtNDhiMC04NGU2LTMzZGRhMzE2NjM5ZCIsImFuVSI6IjEwMDAwMDAwNjI5MTAxNDEyNyIsImNhblAiOiJBSUJVbHViOVB5eDNMWWFLRU51aWM3b3hPVHlYUit2VDR0TUwvU3hoVmV1elhjdDA5aVNHdEI3eTBESytDYllOV0Z6c0JUQ3ZyY09PdFN4NDAyeUtFWnQ3YVBtc1pYdUpDWGpvRjlqcE1NbFRXSHgxbG9mL0NJQW9VRStLYnZNd0EvcUIyYW1iclovVVowZXdmVVB3QjVSaTB1N1hLN1Rub1VCVnlXSjdRVHRPek9qODlyM2krWGtIVXk3TG54MDhUZm1lbjBQd0FabE9qQ1c0V0R3ZTgwaCtrVFZUNmFPeFo5TmFHWFNITm5aRnJRZm1PSFNMRzdEVE1JSzBaQjNOakVVPSIsImNhblQiOiJBSUNJUWFwdk8vWFZlOXhpTGRVOW4rbnY5L1BqMzArcDBaUU1hcmtqSHQwYUdyTG9zMGQ0RnJTajRHVkpQdFZBTlNBeHBheWFEVHBsL1NseUZlSnNZblNmSUljNGZReG5kSUZ4OFhDTytaNVZYano4YXJoaE42bXRuejFQckVScjZicmZZc004eGw3VWh1TXhSM2xubklpelVwazgwSFhSeUEzbEhscjk5dlJ0SnlJZkJLbFRFUHRJVFFzYThmZ1NDK3ovbzB1QWd6SmZ3Z1JFeHJ6MnkvN0ZTL21UUzdweU9ZSFdmMkIvU2VWcEhDc0xtM2E4cklRWXVkN1ZWRE1UMTFRPSIsImF1VCI6IjViM2IxYTBmLTRiNDUtNGYwZi1hOWE3LTk0NmZjN2EzNWVmZiIsImF1UCI6IjEwMDAwMDAwNjI5MTAxNDEyNyIsImNhdVQiOiJBSUJFNkwrdVl1aUE2SklmL1U1aHpINERoT254YzY1a0F6MUVZVGU2UzE1Tk15SytTazBMT1BSRml3L3AxWm1VUHRZNUF5d2wzWU9sdzRmMkRRU0JrblcvOW56N2I3UXMrY0tLYzF0c2ltUnhGU3pndlkyYzM3c251TElBSGdHeTd0SUY5dk9GbDJ5QXhLNnltUGxDcitvWW4yTjdEOURSU0hkSGlqRkpsR0dCRThmaWVJdVhaL3JVSnVUM09Dc0YrNGVGYW50ZS9iVjdtU0NvK3hSZStGUXd1bmlGdWJCL0RLTHhxVi9MTFE3RFFNZmxxNGtualdrYk0yeTNIVjRCVHdjPSIsInYiOiJWMiJ9.lt9TE4JhQ9B-PxvXv2s3VIrpE-8KpwlxBj_9X5WNgbP0e9B3CYXertji6P1Nrih8mUoRcS-vzL5EJhdZnExeSnmM4IU4pdybRkSqGyj5b2WblTeaStvwKk4P3eMtCuRvqUs28jqk8dUHNORFR8KNwQGGEiYZrSdZRU0i9-XPY5ksRYq6gcGTP7WAypfUl8N8YgWTKm19KzZ9QJ6h-LQfdph6ztA5KCWqqX3plLR7RcLTP2ZAyM-X_QizqlXerXKy4B3hjbNa_NsqgdcI3E28GIne-Jxub6b03Lox-LD-XZzgR-8TAo1W1MqrYxT7zegNQsIDccSS5v7liepHmIgPMQ"}]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.f2V_lbAQ8VTBWGveZDfhYfR63Qv4kLTsU-xUAdnX07m3sgRPsMBHRMKd-gUoS_5j1YP97wTn9bLEpmlFid78DnkVv0QnfjtT_ATZ-Pu_x55Ow1fLr4q0azHryMF0KMnegSVwph-lMZUBIC9gbPUKpyrPQAzmmXzi9HqTKs8lT_sCGGemcWhmSzSIFnte09yGiMg3A2soRD3KK6CMvrElbDhGPcIXvmNCSHtxgv15t836wBQNZGd9cbjgnKwPyyU-jt6f-VJ5ZUCkYRDjuxaLLU5vRJeYL8aloIN__qR6T_bANTWOXHD0NfeclV4oDDJRvaw8yuCpGwVN62iV8i2G1A.v3_RTfkVfUk33zaW.rMoGVskOub25bZ5x6_Y1MYPHJ72mv6IynstMA3ViSZVsqUTT2pHC_AyUpvCqZ1qkzuereaucaiGwOq6H1Ytb-p4g-HA5URH_sF9lZ2fl852E2D3MvrxbTIRQVz-XyHjM1Bx8nrkiUF3kysdfTNDxrMNjWjeyJJhfvU1bGDOcBNp5-IdoyvKE1M_dJRswmgnD3ITmRYwneJtEE7_sazxPxWPtalSIbNcB0-jGSgQ.s99TDn-ha-Vvkzv2wZwQ4Q</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.YoKk-SPTE9k_fdPr9AbH8tIuiIuvQKzNe_w-6r36A6ihHDjr4qy7VvftfOO7kGfWrirKjtfYS9G0By_2VBCBwuHMB8Sdy7QbQpTzx5QScX1ZBhVFrXByQ1HYSLqGY7xXtW-opgrc4UGceYTyxQvuR2iYizQL6tJC5f4RKcNTQ360_S6K8HPWQ6SSgRiPuNH9Tp83o0h5YFlVGfggOvfh7HNWoDY2xPrp2v7edokf9dkzS3iIc5NddLWKbtvTnKBIkykjzoLs-U3ajixEUwV1Mc57wo6IIQeQ24I5qmp2Q8mka_qMoIWtwcU4NgTtDe6RQZPsIzcOExLn_aysNxWj4A.G605sQrJsxwq4daS.5XO3XpBPuRAaeoP_G2w6UoDivzLbrLGom3TW2z5E4JK6jYeViimOnlt7G5iQ7q0tVxBYQnW8CsQsKXpIGMSW9VfxdNWbUIxEoK7FDwGTaf6s7xEUH4f-UsY8yxlyXBOtbPsPvpTD-COpuBV8F3rT7sCp7B696zrHMrVRovtugmPaqn-VLMu5FBsezORb41Rbg-bXDxA6q_MT79OKaUv-iwWNFkpdpYgArMncLLs.HnhHqVFtlT8Ct7L4st7j4g</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.LYdya57e-XTG-q2Ao5ENslUqu1bngF2Qr3PnBwFjUAsNxhFAvy5qEXOYl4iKJYB9DKk7KT77tPTOqpGu7EbDPUTDrVst5A3BMMDfddAwld5WlBZZq0JlIWwqAd6OTZuDyUYDpVJz5WoENsxCO16RBGIJfxHDX0OeZAn44S6KYicFB3rgDLs9UkYFOoTcZ8BmaBYPN9ARtOpuWdOC5X8yf6tVqSwo6ifSaykGnFUJajumBafOOr-KSe3MVZKXD13FUgdSK5BqcW645oJrIzJi3ZMRLl1UTFN9NTx-g1Ka-hjC989iBqXpNcf3wGMnhGYEna7yTAfsZrW4T1Qck4h_vA.EEhO3UwGns8rPaNW.e1LkydcC4vuCTm_oN0EVOIqpp86nqHwkSG61XgqgchFzPmfPWOys1-Srs40GFv2g2s0dzG0WM0vthW9YtpH6qIrLY39HjEngF0bXNbgWLUgJx9l94c5JBQlpRY-BFf0Upo4okjdszuaBVS1dW0SQgGf_OaXKs4nv-C_leV_XL28MJ4HIK6XNOU1uWE5wg5CNWFUnmf-fdcvoymkCJGiHD4cQ3VQ59TVRDqCfRmHu.W78eO-CwopfDJT4Qqcky5A</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.bk4Q_TYo68Hlr8civoppkGrAoSdLgDsM1MZ-gEXu89NhGKJNu29Q97vglz9PdjBPP0hYXWTScuXxTjsXqwbOSsKXrGma-9KS65fmm3jrAB_3mbHlnlGOzSHnoECg6ae2rPQ2T8C_LiJTqW10sgk2X8wto-smUIfJY0eOktB4kATOFZ__L26kkDVp4cay2TlFzzszpzvTI5IfIeew-YifImi1XxM6AEnvcadpTtBpXH-X0LICDg0edA9xvlU_t-l22VR6Tv9Y8rqLpO5K0CybuvOT2dKVxL8J0CDHMFy57d4uF6E4-D3vPl0fhMv3UYmmxuyqTtzVMiVgwQcHw0IQDQ.BhtVqHiChOjDKdi_.1tJ-fqGtH_Gy9Ab8I77Dx0FfiqgS6ruxU4_a47EOhO-LcRRJ35SFdqdxRVrs0GFY99pDBG6aygidoX9dohhmLfKoB60rjxNvldeuLsN5xKrILcfBwsXOhmrnKtSX0nhHJG7mx1aZCAjsq1SLTzS017G6BkC0EEZnqlISXltk9QLkoS9M12m6DtbvmfqTe4GEllOfDB4ob5ii3bzr-GNj9k6dMRIt9c9qpcyFSxRD.JXRrhA7UeF_61s56qIKn7g</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A100000005308134082</t>
+          <t>A100000006291014127</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>624c73c6-be7e-417b-b4a0-3d80c9c19bf3</t>
+          <t>92e63b7e-0388-45d5-97bb-703d50838129</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5FA709C0-421D-40F8-8259-5A298F077DD0</t>
+          <t>E308D653-7555-4310-9138-F7BFF283E8BC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sgydvib@mail.ru</t>
+          <t>GorodovikovIurtaman@mail.ru</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>846su76aNc5W3jPnJ4Z9</t>
+          <t>HQ8GpNbCuysp2nmM58Hc</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJjMDNkMjhkMC1iZTI3LTQzYmYtYjliMy1hMDNiNDJiMDk0Y2IiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2MjA4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjZlNTA0MzczLTgxZTYtNDhiNi1iZmY1LTJhNzU2ZDg0ZGIwNiIsImFuUCI6ImFkYjI4YTkwLWVhNmYtNGIzOC04OWRhLWM2Y2RlZjM5NTdkMSIsImFuVSI6IjEwMDAwMDAwNjA4NjcxNzMyNiIsImNhblAiOiJBSUJNdzdsZWtROVlBUlROaEhpaDROME5hVjFDYkxSQmU0aVI1bWRMTElsa3BhS3k0cWVHVVlaV0FRd1JMOEc1WEd6VVlyUmgzZC9jN09GTXFHeHFha0xSVHl5N1FWbFB4cVNsZnBIQWtiaTdmanNvTEtvNEtMbERERnp4bXRVWVIyWnVCbEl2WmQ1VnBsMytrZjk1T2JudEdFdXBrRk4zakxSamlKcXhSSDVlR2dpa2NUWFdFYzNCd040WTgwR21Sa04vK2tBd3laM2hTbnRWTDZzbjN4NmsvK0s1dUdPU01ucHE5STVVb2NxbzNtbGRjd2ZkaG5qWksvSnRsUmhxWEZFPSIsImNhblQiOiJBSUJONDEwVk4zL3JaVE9iQTgzd2xxMmJvRkhYQWZiV0RFM3ZranMzNHVHRmhZS2tPcGozcEd2dUJ1QTBhMjhONjk3dk0xeUQvZmlwU2ZXVVYrNTJWV3lGS2tYcHhzOXZ5ZXVvcGhHMnVjMHVQRzg5N1kvTldsU1ZvZW52NENUdEVPYUdYS2k3ajlQMEVpTFIvbnByb0pyeTlQOUxYZlV4c3F5SGc3ZC9WVzZWMzNmVHlPdW9mUGhlZUhnejk4aURwbytjV2dsVWlPV2d2UGhWRGtkOHBnNElTSGg3UmUySmpldnZkNmdPOElVZmVEa3dZZXlRYkQvM2lYbXdIUFBVb1FJPSIsImF1VCI6IjE3NzcwZTViLTdjNmEtNDJhNS05OWEyLTc3ZGE3NDIyNjgyMCIsImF1UCI6IjEwMDAwMDAwNTMwNzQ0MDYxNCIsImNhdVQiOiJBSUFGbUVSaTVWK2pGbWkwVjJydXZ3MHU4M1VOWTdFNXIySUtpZlpZcXViVmZWODE2RGNZWGpyeFc5SkY4R1lPUlNmRElkcGJjOTlHc2NTQ3NQZW1SdFcyOVh6VkhvVjZQcVQ2OUZRbE1vczVIKzE1bFNNYlV4UUZ2aTY3d0R6eTlrTVhkeWFBNnhJN2YwejdJb25HNEZVOGo2RHdSclB5TFgraWhHKzNpWDBUYXpMOFcveldBYkFRaXVyRzVDQmNNRkROMSt0cjVDVE9yZzJlUUlEMUZwaTQwK1M1ZGVyanNwdjhzV2NMYmRBeSthTW9jaGlJZE1oNzFWVzFEbGM2OHFNPSIsInYiOiJWMiJ9.mj75je_TFJpU7MCQ7nNrPiyK79sKtg8UCj870ouKB6h1sqEY5AO__RCLRtXJ-QyX9H1Hr57f29ls6-raRxfNLcPdLmj566-uea5t572jaQJZSmh5zqELyVWJhw-m5xCsDXBVz-LRNxkpiix1l67Wf0WPzQ0Qy8hGhhcJiXvwfEkVeCSohTZZNuQRGxLVGmJX7kl4f5kQ_vmtUWhVjuWt5qnYUUkQBjkuFWoaBLypmcAt10wgi6eZIWeBmpcRF1dCnTRdxNTfcmJlkhp3cO9JpmWJAg_z-DmMStqFLI6HpdhSxVRJShfC7QoydryiMuaXKrblhsasD3MEfXfWbw13Pg"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIzNzQ0Yjg3NS1kZDlmLTQ4M2QtODFiYi02MmFiMGFjNTkxNjEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0MDgyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjJjMzY5NzdlLTNiZDctNGFiOS04ODBlLTNjNmE0ODk3YTFhMyIsImFuUCI6ImFmYmQxNzlkLTI4YzgtNDVlYS05NTQ2LTYyOTMxNTM1MzIwZSIsImFuVSI6IjEwMDAwMDAwNjI5MDk5NTM4NSIsImNhblAiOiJBSUFiWXRCYWlCcmY4eWhUUlhkWnRkSkUrUFdzSXlWYnRINWdnZk96OTBBcmRTM08yZ3pVN0I0c2U1em9uZFJQRnN2emo5OU9aaGJXL1NQSDFWUnBabTdsR2ZTemJlN0UwdEtrd0VZUFNHbHVnemZOS2p4NloyWUdDaDVHbjZLK1R5RXJ6ak4zU0U3eGp5Wkd4WFJMbFQwV2Fvcjd2d1UwUTNFMW4rcW1DcVZXdjBKM0d4bW1PZ1FwbUJKOGJpY3oxc0JlT3ZzNEtHZUZLaWRDeHBHNTBZbXlyY2VjanIvcnovQi85citJUEk4Y28zOXFQbFZDQTQ3ZTAzVkpJUk5WYmdRPSIsImNhblQiOiJBSUFneTU0eHF3VDJEWFo5U01CZm4vVDR5aHlXdkQzMkdvOUdVYjdrOWI4QUVsTlZGNUJtNDBhWDczVTZBa2RYMDBoUjdFbjRybTdUSUFyb3pwVmgvREZiOC9ZZC9PR1hJK1NuUUQ5NHFHdWxaWklOSWVKS05FZWZpandoSEtNUTVjcHF0eFlIalk4eHFCWVN0ZmpDS2lWREFUbTg0b281TjJ6Z2QvR0xCTWxRdFAzYzZ2ckxKb1c3MlU0K3U0TEp1QWN5UWREblFuWEVDT0pNM0xYM2hoOGZaM3BmaTlxZnBqNlVzSVVhZmV0YzZvdWVEWWF0ZGZONVoxcXVjMFp4TmxFPSIsImF1VCI6IjE0ZGVlZGFjLThmZGUtNGQwNS1hMDE0LWY3MzVhMWZlM2M4OSIsImF1UCI6IjEwMDAwMDAwNjI5MDk5NTM4NSIsImNhdVQiOiJBSUNWbnhCRS9GU1U0ODBXZmp4eTV6dU1SMzZqMEFXTGNLL1dJZ0k5aTNVYTBUZ1E2OGpGazNiU1pPMG93aEVKSkNOR0pNS2tEUWZoYi9GWmlnc1RvSE9mRlZ3dUJsS2RVak0xQjdRa2l4TkcwYnV4eHNBVXF5WXVYWW53VHRibTc5dm9yaUcyQktqaVpMc0FQOURMMWVPRGFNSmF5RFlkbVRCa09HK21mVThBWjZLbzdYTkljSUVTNFFEaVlaN2ZidkEwbnFVYWtsaStjdWlpK2dLSk5uWVByaE4yZTMyVTZubmE3a2t5Mmhhc0Fha0c0d0xwOFdyNTYxWmEwV2NjZERnPSIsInYiOiJWMiJ9.V457OhwNAFYbsOJL2145icQNikwFVZIX8tX8aMA4N_3RAiTK-9yfNdkrYMisjRPkTyi6gzIHD1Hb7yqa2QFTVNbCt_toWrXjxoYaCJU3Bj5R8UBZCNNttBSiaquROUqAKyQBI_om0aXD3sVZRF69yws5pNUQiMS4g_wJWwrcjNVNC11Z_BvuaZOdnKBh0z48zQmAfu3x0QroSiNdG14qVomqI2rPlcwNRT1-SllG2xshS6teaGG9Zm0OOYkXWHJHBgIs5LqWZYf4VHjiHRQ13PH3ay8uq4e0vyImIL7ZPOsU_79eVaC7w9Fzn9lf_5LHafm5W-UWknPBvtW6aomW1Q"}]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.TCIB8G_gekT24ziK3CTXsYfG9vEFgdxyoIB4eqBeXxTfOq3BqNWY_hmRzqV4Hrc4qWlSpIjO5U0aJzY-N27rQBsv7-LI97Mkh8Vuz5tClWwFKiKIB87rh9XzSttg1Xz98SgaVVAncNeS2hKd-K4fb3T5X254VILCs-P7sMbM93_GoS_FABvVii4i3ShuavGBU3chHmajfYmEUQQVIKu-J-0MyhiZeFFw_HyOpoMSAW9ZthaEVc5SyQNpxS3XVa4xL1tJQaV_cSIv1_vFOtZSCthANGlwrgrzzWvjHpmYSUlFMSzeJg5QJmQMHWxvKtQf4fmonnupAas8kHQ9HUz-uQ.CTJNip52xb4c7Ifr.nv5Y_wX_jLddFYUAhZQuJlCbWZ6NbKgmhIn7AaNKI_JmvmHpQJb5hdOUJXeyU_o77Jbyew7dFYvFz-Q7BcEGScEMNIi-aezpqEKcUffUTcwDo2FzDrzATN8GsrRA8gJhi41j9gWyaJ51asLgZIO10POJdbZhSlGWlZ2sWKN50mqx-5bcLT5Str4l6R5pCwi2JguFq5MCnRKKnwBmuyW5Ue8JK5M4uQ9VxRWBTU4.psxPsAkFYGilohtYpqNqUg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.XcNO_1VDUB_fDZ474XNQX4WRtvKvTap3ZVmv3EwvYgRIojTPMYVFdjcLAUsRKtraaXpT8LBanNZHkenNxQnnX7T9TEihVGc-s_WkFjb9IiuTCq2xQ8T63WTJdUHnXt0QpabpsdflCWcLWfTeKBw8_PXJb7PP9H_fVZxn59UzCrXzf7csRtPKUy5A777WllJK1phlhVJHw-W_rzc2EaSxgGnmZqPnKP6U65Zy4ZJT2Nkm6wKVQYAOQbOVAVTX8rqkkTQ7v2aieiFCdm43QkiIfndnexTbwVv7oK03I1xTkPFGYhN44OhhBfCXYtfxR1Nkuktwy422cYgpAiBSD1nG6Q.dbMLFQeok4Ky4E82.4F4kj2VOhBQS7f5OsYUqLA-MR2sGXCc0kmbVIAqWnohXJPty7ugy1BH9tgWEbPbH8wLKh-PFgKlCyzkqoMh2dYJnKgp_MfxG44YFjLrkE6g7-Ii3is7fgu0XZSHfb74GoNAWwbDX1rdgc2ajGbCzBU5xEIwI_YiAa5frXdA6FRt_7RZvb21l73pxUeYqXpm8UeYY6VpASV879OnpU1lQBzb9qiRPLn-ViBYsnrU.RXhIL3yRuPVnhdd_u5z9Wg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.V_2lM15gFNk-9JYYMkEhjleYclBqnzLEPKirxDKfm99jvtPMd5-VzGBvErhP4BXtpCVdM7bC41UMh74mlyiGCJUiHUPBXnAGlK-IFVhSzVkvpcsrdcu0IaRz_lm7m-rg99lGobrtHSpYzTdv3ISZzKqsQILgx-wnmaAFDoHawZ2iD0YNfCJCKytUlpzkFe5EaEXcE0s1b2tGIntjqddY23YBnJHxyOnvXJm3TOVQX7Pj8BKeVQfmD6cG_XwRE6-Q2uc0a_A9xmssMDEsKOuzOYKtY1qsFzxb6702Vt1a1IOIrDRNFi1BkPREYN_Mug3y0Jop-suMU69Da74ayEfG-Q.ab_vsl71qVMp6Q0k.XzwS7LKOXP9sHJvcAd_J-uultFIGg2suTnHCKz6DRgrQg-jYAZIdZUxLW6broZLt9HzYZZT8ciCyUVdJKeB_q3qj52NBjYU0hzau4fgU5r7Rp5z4Xq44MtQdUDBfKu5ZgZj_JUEDTBRZYjrtnezRFSKT3_6GDIRENSGRjydyvolnoKzs6wLTIZbvy5HteoflDmXJ05TktfDgIale_GCoivSD7KW-Xi8iVx_nVyMH.5tSf8iw5g4ji4QhrlA-k-A</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.GTQBMpMpAuHxRnEDwgvel3mOlOswPxZdIeXVWEvseVHP9tyWO1ICdhrk9uVpGEKgoc5hM3U-QJ_XJPA764ppBCDXtbtAll6Qy6PXL0nerhxf6fuGdxfNZF6fhMZ7LzwbfX8RD6JqkdVfUU6ct23dfP3s09v-JP-lnBnq0BfeiO9p213ekqAeSopdl24F2BK_hluyGl5E6BuKArb-r7xC2RFiecDL09jOyam1v9BTBTdsEuZ-T6ShhrSbiChCdCiyJauUHbkYp8MbypQ_tNd8Io_K8OyC_x28gSfCi1cjyIfB2kSrbhnRGVnA7AAeabrM-Rfr1bAAMRmzL2Pg3ShQrA.EjARKQKI8m338kcu.EDnT4T4rxm6K5y84eXT1Bof4CuJk9Aq0vFDNQOKZz4zcSvnr9XSTYvyuDXyqUkLJknSMbGStu-b9guhIY7-0wO5jHYv_4tFOy_p85umw3-nz7pG1KEcr0tw_JFyLaRbtyRk_gaxJshlfPKVY1PeJc4CAIPp7GZalMCJjsY4OVkBDeouu53-MkKOs3Kr8St4V1vt2KlvjRnPEyziWuL88o5AC5W7YuDCzTsAoi4DS.zWNEqZnO3CwD5CqFEnsltQ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A100000005307440614</t>
+          <t>A100000006290995385</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0e0ab1c9-c6f5-4c05-b705-3debff4a24ce</t>
+          <t>7bf62968-34a0-4fcc-a393-ded7814f3dd1</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>C389DB64-E542-4EDE-9846-BE2B91FB706D</t>
+          <t>2636D0AD-45A9-4310-87B6-5CEE56405C44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>amsmb4421@bk.ru</t>
+          <t>glicinal.472@mail.ru</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>G7WhzmfZ2ACgH5Gaa4y2</t>
+          <t>Eiehy52jQXJ7mqatNjQV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI5ODg1NWQzMy0yODliLTRkMzUtYjQ0ZS1mM2EwOTQ1MDY1YjkiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2MjQ4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImZmMDNlNWM4LWM0MDQtNGU4Mi04NjdlLTU3NDQyNTE0ODc5MCIsImFuUCI6ImZmNjFkZDNhLWJhOGYtNGNhNi1hNjc1LTI1NGQ5MTc5NzM3ZiIsImFuVSI6IjEwMDAwMDAwNjA4NjcyMjU5NSIsImNhblAiOiJBSUJOeWYva1YrQXMzbjF2Y3hjYThQOW9vMVhxcmwrVWI4ZzZCdXRMcEZoZW1FWnNBbXN2N3Z0V1hCd0MxcDF3L0h4dDBZZFJjWWhvaWEzY0lDbGI3cDBuaXVNSUNVTkhpM2xueFZveXViYUtlYnJ5WHFndXFjc1hGQUJuaEcvcEEza2wvR1Q1ekhWUzg1djNoQS8rN3RabFNQcVV1d3dwK01oM3hPYThMSVJTTUNoazBEaG92MDN4Slg0ZzFwVHM3ZFQzaThJNUFvK0tFNzdSUmZxVGRaTDRsdk54Z3RlNUw3VDdVc1FvdGE5NFIyYTRaMm16SHprSzlrdDhzTnh2b3ZzPSIsImNhblQiOiJBSUJld1dNNDV3NFp3Y0p3SEdZYmtBanI0M2taLzRJcWpjazBlU1NGUEZXeE1iYlZ5NXdZc3BPckdFWGtGZHBTWEJzNGpJNEhPaUxyTDdHbnhYWmE2WjBxd25jV0ZodWY3WDBwaTJlTy9oOE9IMGw4NzhHbXJ6Mmo3RzNkZjBLOXNDVzJOcHZadFlwVFQyYW1BWVVnN3hRTW1VOXV2MnVjUWN1OTc4TS9KUnlad3l3NnlteEV4cTFOUGNLWXRLMDVyTi9OdW5FUi9MMTlHYm5vSW1XOUpkQmpsRlZXSEIzeHo2MTZSamFzZWhZVmZZcElTWEFENzdWM0hYSnJtNFJuejZJPSIsImF1VCI6ImMwM2U3MTNmLTlhYTQtNDVhOC1iOGJlLTdlNDYzNGIzODgwMyIsImF1UCI6IjEwMDAwMDAwNTMwODA0NDk3OSIsImNhdVQiOiJBSUJYemhYWFo0RXcxNTdzVlFJYXRsWURnN3owV0NmUWdvb0hnZFJXNlhwais1QTkwMnRoVkhsM3I1aW1GQWMyZnRvdDBXM2FMU2xTcG9LYUJSN3Fwc3gwVXhCSWJQQVFKOW0zUWRDNDNjSFpYK05XUWN4dFRnRnB1SEFwZE04U1Nxb1F0dkFxUFBpMFNlWDQrQ0tNREpQUlpXMEFIZ0RSWE51RzJENFFkeHYySmh4TTBuRnJPQ0p4K0YvRU1KNmhRd0Y0U3JaRVFtOXExTnh3cEp5T2J1K3ZGTDE5QjV6RC9kallTL0pGUTBPL3poK1Ardm5GWGZNNUtmU3U2Qy9FUlFBPSIsInYiOiJWMiJ9.k5s0omkRAvPUVGrbaKxORX8iFBrTAZhrOe_NQwl5xhX8rcofVT1V963DWdzoS4ACzEy6gNsuE2Ldbk_5CeGlWFjB5IomRJq6n4_IctUbvMUHPgRaDvxvWYvUz9HERYf_hslIUcC3Z7SgEDKgTZtOxqTZK2cJ-2R60bG2XZU_ZqG-VA7uUdKyrGzrd6mXscNc2T2bB6GG1Y-2Yfm9PRCrnMONWxtt85ivwTBUzXO9VsFBl3gWY8OM9x-nAK_gF8eEAt46IyxsBf3f-cG9mLLDx5cW8jvqjSQXCOTl3J6C_4eKD1IbPsqH9MpA6P2-nrtfuo8cowQIQZd4E-2YjeiPlA"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI2ZWFiNzkwYy0xNzlkLTRiZTItOWZiNC1mZTUzZjcxMzM3MTQiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0MTIwLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImM2Nzc2OWI3LTMyMTktNDg1Yi04YmVhLTQ2ZWRiMDM0MzBmZCIsImFuUCI6ImFiNjQ5MWUzLTljOTYtNDNlNi1iYmJjLTJmYmE2NDM5NzkyYSIsImFuVSI6IjEwMDAwMDAwNjI5MTAwMjMxOCIsImNhblAiOiJBSUJ3dW9zQURqUE9lL2gvaGZCNTU2WXNiS2d4VTR1bWVnQjRpa2swY2RWRG1CUWQwQytzUk5oOWRCOExNMUZsd3hSQ2JwVjJyS3huSkNidkdBVHZ3Wm4rNVF3ODBDTDAxU2tNWUxHR2IvRUNQKzY3bFZTcG9xRWdwU1dsSlNCUGNNMWVMdFNGYm9VaHhhOW82dlNLQy93TGsvVTdZNVByOWg0MEhqeitPVHM5MzJWeVovNWozOGtOUERKZE9ZOGxwcS9Nc3cwZmU1S1UwZ3o2Kyt6cTRWcHhUMW80K0dMWmRHUWdINmEzTDRoSE9oQ2h0M0xlcFZDRjROcmhQd1FYNWVrPSIsImNhblQiOiJBSUFISWtPY0VWaHB0Vm1KVGpzT2plOTNyTEU0bUR6TFVSaXJTK2QyUCtwMHByeU5aYWZYUHk3YUNHUDF6Yll3NmxJa0ZFMnJIeG5YMGxSc2RYQXZVTXNJOTRFN3JxYllQU3dYMWk0N2lJYUkzWjY4QjAxbnVNNVNLOEJxZkE1ajhia2JPazBqSElMSDRkNUVOUUp6MzJlckVBZ2pvd2VkQ2wyOHp3a1FTRTdhVVFxKzBkY3o3VVl1WHlpejFBVmhhbisvRVhQdUJ1MTl0Z09DSjRkV3NBRTRMbG5WVlF5TnFmeGZ2Snc3QmRoS3BKbkgrNFFEemE3QUFtem5DNlV0V2trPSIsImF1VCI6IjcxNTM1NmQxLTAzMTMtNDNhNi1iNDk4LWQ2ZTA2NDI1NzY0MyIsImF1UCI6IjEwMDAwMDAwNjI5MTAwMjMxOCIsImNhdVQiOiJBSUJyQkRYR0xoTzlqeGJFdHBwMGdPOGJ2MmNSbW4zV0NEdGtkaWkrZkk2d3VZTEhCNUp6RzZtd01RV0NNWGNxMXNxTmpjbEdIeVE0dEQ4VUNXeVBHLzczM0tTc282akVvYmE2bVM1VnVKZlhTWkI3VlEwd1FuUzhoMmQzUThJVkRlVWs5OFZyZ2VRb0s5NVVGcmtqdGMrVHRNNnVvSEwvc2g1T0JlVTAvMDVXWkltVk4vVmd0TUF1ZG1keWlIYXJuZUNlYWZ4TXUvd1hiT1BpVTIyTHdQd05aUjhoL0E2L20wTEM1SkxOMVB6ZGQrYTg5WlZjU0lTVGtWSElhcWduMFBvPSIsInYiOiJWMiJ9.OStmMq8eY_tKe3fkK5NoQk1iJE_ZkcBzrlTF8miIEYtLoJZAYiWZZhPYeXWV9wR668M4qn-bfBt09CUM11PRIpfxQYZp-WN0N3w8zN5Nl0JortfoSbtALGhyrkkAONe6M9lH92PTs9cqJcxMirsmu6Rq_G5FliAlFYecIE2iYufy_eqQGwnWsiAl5Eu07uXjCZMjypls49LPx1zf3UGSxETypJhEYso9PnfVp0n6upqDnq-8K1N9YeSHwIaD-2QvYLLbLr5E5tFqfnYKOYnVB3ZhSUPn7MRPOvUVwx_5zMiKdcDNQFJ5NntGJiw-MzMyKk1cpssAYSqWfvMNqlQaCQ"}]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.ZsL3MmYSU7ddPe381zu7gOdkgyhsJypeopHnCvTppGtc4lJtf3Fz4_oU7jXvK2zuRccwOKYZXPW9KyKiKvP8xR2thKxiOmCkH8uJC_oDPO1rBo1UjDHm4-_3vANVN1DEzj7XRI4nXvxikwXg_HcfdZe7ICDWlB7s7q3wgxfdtjmjWzDaWiiSwHnLtNKKB0he7GGbVv7nETrJOICMxB7hhmjXcjhX7MXzePE34jReaaeRIAU1z8Vl_6XUout2MG5Sb5LYoahQGbCkWiGLwFi6-ph_NDbk4Fu5wQV07elF3KkxPdNzFJLViF5RD3s0lliaOPL1r1IcPbhaO32fld1maQ.MHdFvAPtwQqJhEQj.aYJpeCndv46oKYwzBfYWyUnIkCMRgEERc_jRVXtCOtWprgSKEWI3rCgvmdj5AJtqcNMoNeMEP4sCBMFmKmxf56_7NjcWLTScbPWYBqdTcMkxKWy5xp8Efp7UiNadv4K_Wx9HLU7jCCcqyBeVZ_YQztENaWZU521GwlU4aFK3Xus3giNqQVxyixhLbjS8QI99ZR5pdHx_SXokiDzay_IGW5dBTmf2Fbi5oi0U6AQ.8bUgqHO15j7lTl11rTd5Bg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.G1OBppDPCSSkfFVqaDWeMR6vxNdl8nHfyL2tkR2CXkDvXCt2wTkbvLYGfVMfj_sb4mCHDWJBS1VrnmvI4U4VV3pAxpM9AClgTg6AuV9syE6KfujxUAVdrIReoasnd-2Rz8mFjCSUtwwk53QgcK96xx2MzcWiPOT1732KKyeZ6AR40RJl0xPrsn_gF4TKPoxZ-8XtlKtggOBGi3RTK3Miq7JCmlluBZzx8gBziSjPe0EIiqkIrUfWVRTsWTW7UwOKWOI4gU4xW8nUQTe3vqKDklSx_o0-2md2lhKLydD41byGm4D2583BK1CNvFtT1cYj4wAwDp2eMXqA9LCVlSrIXQ.jDHPq34hdh7HyyFT.x2nM-ndsrN7_EEk4d-exD0BMtdlzahK-h_dTXA85AdYbZ2RRSoTSzlvv-gunjJ-piYNxsmhCWt0kufX0noMMK663N9OcXAxE9zOBKM084KrDzwixyLEia5u1og3L4aQJPOGQZuO3iO0B5frferSV8he8SR5MbgAPJXoqPq2vj_4uloffV7md_bgwuQ5Y6T34-Y-lcoiHAv8TqoRrn9AozaXuRkocSE1bVlvOPso.PcJ0VA7ZroMAExTuaGF46g</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.dxWtZm-V4S5ErWAt9xSwot5G1C8uc9-S2LGAxcn0rc-Pa61W_3zXdTBUpy3Debwu47Egh4hwaK6AKxe4fa56KgFg6XIPbgBDLbIEEQpKG_hvgf-O5JoCbVdtgZbSe3oJineVWXualOI7FCcgmTCJdIMiBDrKIfx1pWEP7kzMOjPoriqZXMYLbh2bVkwCgx2fOG_oOdXegiWeFCqfyPd7XAWXaVmiuPYqsR_hdZj86QgbaSP-f5zdmji4yGk2feegtVwHjcD1UC6AmSyVjjWVKpdn40zcDM3c-hQ0Xqpvr0LVV9AaS25s98UawEY-nA22XTveLDhog2IKFO38UvXRoA.Sm1gqK8tuAVyIwfd.BoxYy6JLrMIMt97sThOz0xjlS59sIVdq_7pgdfAXAdnzLRLpVo_MXIXLdyQrWA1hEFPAAa7GQk-nABQCraam7f9deMbA2bFLSZDY32gKrot5GcJNgT2-n3eFJ1VEIDuRgn1QiBQsB0lat0QFyYAEWMtr64bbztem5QRjEBocoMaf1vpO5sHYGCbFNu8S3FErvQEc_vhfSYrM18Ddddc2urrf3-SJIsyCRElwaXGc.VPS7U_Kj2jhWh9SpIh7y8Q</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Egw7HjfjqF7UMyIVT571Fyux37z7OoWIsT1TJ9MMxxxtKvGdFz83pPsCcLOPDXN_VLFDeFsDb5ckSToKvJiqqmO1BTPFb3WmViQrB2DORWqMqka9nOmJHGEDq_xM8onxvgRqGJ28gcrirFDOXMQiRqJEAKacj26prbSxeX8WC85KMBJqDhyxiw7BWOqRgPzwtH6X7VahX9ExKwbx8wn0UYhwitfX7f0D5T1sRkrsUupWbSC0HpoWlbdSShDp6sF2yKQOLhZnrPL0zP1VqSUC4elo9wM_Dc_-qPiBxF-p9Kblj7tUeFMimNIVROm7294RkQpf4AUpazhvosDf0gfu6g.qS-7D6vHLJy8twuF.oWf82_axFcxdbsygYVzqcOv6-6A0gSp3oNWdUNC_MEdu1U-VUUfaHXJnZYoiI9nRu8eGYq8KNLXSQSVT9ZH9v7BSW-ptdLZUWcEsshULYwp97fCyZLwyq5-XqlA_-DMgH0zct0q2AZRoMsm2kh42k8Pmev_mhjXYwlGdmpaEDQNHbXy2SWmzqS2nxmbTQCKBOKRe4RYHvD2cpkzH6sWLznbhCG23Vg4P_qrWHl4R.FGMqAmamyfPfGC9hRJz2Tw</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A100000005308044979</t>
+          <t>A100000006291002318</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>092ce73e-8610-4f65-b018-192b8b7287ea</t>
+          <t>ff04f71c-37ae-4262-8e61-b04f0a58f0bd</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15B0A335-BBB9-436D-8919-E9B9A12C99F9</t>
+          <t>011441C3-1AB0-4C46-A11C-AB08014B9BD8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>gufhammkpb@mail.ru</t>
+          <t>riavulti.6614@mail.ru</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>qNmUSUzA6WarDhG2MhDm</t>
+          <t>r2zRGpup76ySivva3sj7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJjNWQ2MTAyYy03NTdkLTQxYzgtYmNmOC04NjdkZjI0MzliOTciLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2MjgxLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjM5YTMyNjAwLWU0MjItNDZhNy05NzU5LTI4MTI0NTAwYTJhYSIsImFuUCI6ImU3OWFlYTY2LTZlYzgtNDRiZi1hMGQyLWZjNDg2MzQ2NjY4YyIsImFuVSI6IjEwMDAwMDAwNjA4NjcyNzA3NyIsImNhblAiOiJBSUJRY2xSQVJhVW50R3Z6dHhFbHpqemkzTy8xRHNCSmsxbHBMaFF2cmxLaXVaSDJqRHdRWDNMTkxjczN5RHRIMkdIM0FoeFpvRWVCMmVXc0JaalVNV09LLzR0bldxUUZsRWluWlk1TEM3bTZ3VStiVnBRdDFBU1hSeU5WcFdVdW9nc1dXOCt3YU9DNkdYVmlUcUV6TVhBN0c5QUNXTW9JVWRneHZSQjdscDg4NUE4UDhCT1ZMZisrTldRQnN4RitBOUoyM3B4S3BmK092YzB1SEx3RW5qbm5XY2pBdnJBMGY3NFd5WWdkN2JTanp6ZWdDNCtxK2c4NUJ4Vm5kcCtqLzVZPSIsImNhblQiOiJBSUFGTE41TEFKcUEvK0MxMHZ6WFFjNVhDVGpYM1A3ZmJQR0NpWHJRZE13ak9NRjJ2NlM0M25NYWtxQi9zTXd1VUFKQlJxNXJ2UTdHVUNKcDdZWHVaajlxR1VHOXkvMTQ2NWpaR2Z4akEwdmNWS2NUM01GL041ZmtDeXF4TmJGV2xwTHJQNUIzTTJ1VG1DZFJ2azhLYndUdXM1eUJHVVg5K3YzRU15bkFQOFVPOW5LcWJreDRkU2tWcU42eDNNS05jWkUzcURURUE1TDRGTk9jWU41OUMwM21BMEtCdisrdlZmUVR4dlN2biswODY1RjlucWhkaU1vQVh1UlZnbkgrdXMwPSIsImF1VCI6ImVlMDk5MDc2LWE3ODYtNGUxMC04NDlmLWI2YjQ5NzgwYTRlNCIsImF1UCI6IjEwMDAwMDAwNTMwODE5NTUzMiIsImNhdVQiOiJBSUFDM0tra3RJdXpJRldKUGYzR3BISVZKdEFlNk9MRmJzZ05JNmNxckRhanEvS1hXd284OWpwT3BKYVVBMTBjU3RJTXJMYWtlRzJDZVpLaUIzY2dRTUdaVU01ZkFneEJUa3FHWElkT0N4VVpDZCtGeHd2UG1wYzNBVUlDYitCdjMwM2MrcEdwNU41NGlDS0xYZGJScmROYjExZG13MlBhUSsyRkxTQmlmMFZhTm5xOHd6aEFnNXBmWE9wcU9UcDBzaEhIL3M1Mmc5VnVMWVRrM1RLVXo4NVpsaWdpRkdOL2hKY0plRUV6ZTFsbFBjVm1LMmZMWDFMODc4a0Q3UGdINkhVPSIsInYiOiJWMiJ9.PSPGMUKkbbAgsK4wA0uQP2f8VdfrBgJVH8qSYRPLs_nH-KuxF8r9NH6iqYjz0SM8FBa-6pVTsLaVRdkdNqOLsckOpZ3nVGMsue_0JtmvuM4aZ5pKQtzknrvuxHrwaU0sm_KZJaOzLw7FXHx9BNNlojG5C8HJNe8CgsQ2KWerQZ5n4bQsxomKtfje8I42oh3Z8zXHFYGzSFqphInlXvHM-qvpm2ghNbu743VwgmlkpOr5DSrWdzO62mLyiMN4qGNQ6MolO5-Pl2okHL1B1nBVniwknGELP8kJ4uUbhLUqVlhZojiQ_ovSJoGnmxvJ3ahBRvG8hu2EJWeS8pDVhHu3vw"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI5NDU3MmVmNS1hZmVlLTRiNTAtOWU4OC1kMDM5NmJlMjk4YTIiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0MzQ2LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImM0MTNjODg1LTcxODEtNDNhYS1hY2NhLTBjZTkxOTEwYzJmOSIsImFuUCI6ImJlOGMxNzY2LTA1NDctNGEwZC04Njg2LTM5OWY4NTAyOTdjOSIsImFuVSI6IjEwMDAwMDAwNjI5MTA0MTA3MCIsImNhblAiOiJBSUI5N1hOZDhCTUVHTkZnVEFTSFdTOU9YM1lneG1vWHV0SG9BcDRSUWJNbzZvdTNnQjQvY01JMzlnMkxaQng0ZHFHa1J5YjB5eDlwYVNlZnRCOU5SMEhLMFRGcWRreHBMbjlSVmtpSDNWWVljcTBBOGxqM0M1cHpvTCtQZzY5Z0ZhNjBRWm1VSnlhV3d1bjhjUUNrOGc4cGYyek5Ca2orWWlBcEZUWVhJMll2YVJFeTRZaGZoVW9qN2dJQTdaOHZkRXNsc3lwbGpsZDBxaE1ZTTRWcm5zTnN2MFJCN0tTS1E1WmJ1V1hxbmNuQkFUdTh2NE93Q0V2RjVhMVplSm00UU9zPSIsImNhblQiOiJBSUJBRGZxMTJkUGt6V0k2SlNWUDdGMTFiaEVPQTRkU2R3ZjRBdjU4c2NDSHdxUVh1QkIrWDJvWFcyVjVMNCtFWGxiWHNkU0NMN2FXS0NPRDgyQlVwL1MxNFF0M0NndmFXSHFQSjkvanAvWnNYc0RPUDlKN2duL3R2K0hJbElteGlVZit1L1JJMFlEVkVuUlYyUDlMODg4M09pKzd6a3JPcStvUzhqbk9CNC81N3h3RjhVb3BTM2FyRVdoSzBBVUYvSnczUTNVcWp3Zmt6UVE1S1l5NXljbnBnOGVvU3lWSC82cHVKUVE1ZDhadVc4Q0hZRXp3ZitmVDZvOUV0VkY4QnFRPSIsImF1VCI6IjQ1YmY3YmFhLWI1ZjEtNGEzOS04Zjk0LWY5MTg1NmY4Y2Y2OSIsImF1UCI6IjEwMDAwMDAwNjI5MTA0MTA3MCIsImNhdVQiOiJBSUIrSG5zRWpTWHBkd1NPMEM3S25ZajhGekltRWUybnJmRHpIUmRkbkx6TnBObm9uZzNhcmk0bmkyZTBLMXlBNHI0Q1c3L2UxQW1QaFRoQ0RUQUVxNGZ2K29UM2djKzZ3TU83MEZZaEdkZjFxT1VQYWlwSm9OY1JvazcrWE1GNFpTeVIvR0FKdEcrQVFJcExkNmIxUDd5QTR2akhrOXAzMVpkZG9WaVFVMFZBZHlTRExTQzg5NDBsNGZnbnJqS3dKMG1ka1cxTWpUQ0RxdUFpQXU2R1lsR2UvMVlvUWJNK0FBeXVqc3V3Q21UZHorQ0tJS3JiUjJWTi9IbFVkY092Nmw4PSIsInYiOiJWMiJ9.kyMY3m7QTV8KWDQf_XX5pJcKYKPT4_QRoZ1S3iF31PuyENNYssnXqbPYgd8fmJ3xXYh-xOj-aRlO12Cwxv8d7G497kdTFxrF2K-Yg-vbkwRPSi6VW0-opCwtR3r-YS4vay2JVZLlqyjRGhVtW1d9W0OoruyjCod7FHHZblErUJUogWYbwAZntd-JYbo5qxUZldMH9_qMujHhjP7yG2oUk6N10nrfpnSkUzytI9kzb6BrZbQKgvJWui3gOxztnKjGSLTndOHOgL4Kaax-RXKw-IoXvAiW0fBCbgBgsNG9Kh7yvvS5F6P2X4I2qrEYEw87zcAGQxETX6ozEuQ0Ewwlpw"}]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.b88MVZlrS2G5v3Y5AbrSnLVS6ShcxS6bA-RDo1RVz2_2Aw1UhG0QmYneLs4jyOjHOrsVMvSpstFUCg95w3HIDlgWFxeDMwW2GKNmoxFWxhCevv5jFy_-dn0JrTaIxCAOHzIDoCaQooEY_KfH-K9ByWhwty567q0hDlZf047aHD2cEprvHiYi31sv56x9OPaWSxnOB0XQ1RniyGh46TPoM3FZeman4RNIMjPHMiIqFVaruu1IqhVU9GwgAjIX5wtRlYkqkcUUb3rVUA09XHhd0d7fIAKcg62TNFJaTLSQ94M6swLtHZCdN4oCybhKe-vjKMIDZAqdWhQhkotOJ8B-PA.81XIsh3QsL-o-fC-.uCfHzus11VB73ymh49YTBiVL1d8esSuyYArs9rWVbjo1rYYiTnIOIbMz09aaqUX3rlqtOJADmh7MM_m_NC0wAtpE88FVlQFHw5DcryGs2DrWGK0FF5Xr1L93Z0dWFpwCdHCbTaBphXezYQYSp3HzSq0z0yJePfJWwGc8RqnQaUH1UsPEQCSolkg-6ehm-3s8RyUZwjYiE0c9h2KUSSRs6P6i_r14asMPFNOcsJI.w3y8OhthnQQ09EKVmtqa8A</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.agFhUErEuAllB8BCSIVXaf6ZOrrWJA5GQh3SgiLU2oMKqV0podkd2Sqn4CvD93hYDOxX-QfhhoSigje06rQ4uqo01avJecDF-SXVXEDA42vS17m3rdpatN1iTP9hgOYqhdxDuGLEB-8EzadIpK9daanQ-Qsiry7_bIxj3zEHZDx2DyL1P7mhaQTTfJ6EvrF1T3zhR658UDJ4a8IsowS-KtIShUeYbQwnw_k8PDLSAzCNmugKtguM4fMpftcqpS7ntz0LG78-ioUEffL1Qb5NihSk2S44nkqWmv8GNsXpzkn9XuFsOOBQYaFjLCFW7-X0WBgCw_wtH9bwrxkHGvO5DA.LIvUO5kri2B8NoTK.kXEknhCjnpJ-oKTjwMO2NN6VMxtlztG3djsNOG34uFHdOKFUKWLD1O_MdyrF-eh-q7T1rRu5ZIeFqJAvdPcR74k4J6gWnWWO3-X1hemd995kpO3veK0oJGPIy2hLv3M0HzVn2vQtWWBmaUf9ixt2Ho9tgPC5ne8AIezW4UnfC92oxZE6s_D91TeUiuE1rG1-HfHj3HumGkdsl3IJmrWbPTuAk1xei1oRcjQHfts.EdwlKEpcYV-P7LjsxAVD1g</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.DxWBDDaBkv8E54zlVzHHi7VBG_zBBrtdNpk9MPVtkouGQMa1aQyoghoXK6RpcqZrf1ZQUcS4ZmvKC9cXB_yDr1z5805WhVE587qeb2ikDGMhJWzoK-ePBx-cSNbZ95mAGDo08RaxnaCrc8S68DPWxtV1yOO6tgIawfpv_AYrO_RTHVqV6QCKOifZ8tDymGN7PK4M-Rn4OULa8Cvnm8nxvgPVEHjYHK0_dbNCesR-5Xn8MRMCBeHuqT1q53qWWjo0Wog06isT1uzjy2gdyl1fOTQ7RrbI5mhEfHXASiGI0tONPzELEByfQuEQlUDRR2akeuG_sH2vneB19H1-k2Dz1g.OOlWVf9HYi1nI3h6.HL4p7sM0jOxZ-VOOAl_SbhQY2q-sKPuG7rpqu4xERfD-U9R6JYdgfkvF_pXxd8BAaF9NqlSqt8tQkDggJD-JMxeg9IPpOPQ3S74LjGEshDVU9eMZdb6CKALkSEWvu8Jx_EKXYf9H2WV47U-FJkwd_BddA6YZflTd5RlSyuVf1pDtiui9rf3xGoAVme7Dq2gDIgQGETTMXoc9eNGBvt3_8giAl-yomu5B9ZOdd-PQ.sNYU1sFbQ-tiBqF_-RQq0A</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.E-VUMSFke4nlCW7pEMZpvpjFuzgId-cuZHHkz0QxC4y3QHimbd2MUanDCKdr64bTZ7EwFQhZkxk4R0yvXfFrvW8sWLA0Ksm_f1ESgr8rIsN2YOQNgyAWng0m6F7wAJ2Y6pTv_bBwWVG54oPtInZtyqRKGFqkuDZOL6vAL8wSFMyN5D0COZeFGH-rGkJEmJj_MwBC3ib-PRwYE7I8cG7_a9mYlwo4o9vR-FwxZsqm8op0ltaMy1wjtNYl4YRcSEjoigaAVkL_sL1ZN3hnwvkRxr0z0JSeKg0fvIANDOi_zvCG1Tvsn1qZja0InNBNVG9UCbRqM0fq8Q0Ol1m6Z9ABcA.k5SmikVva_6fm1dz.sX7pywz1I0RAXi0tpxgnqQ33ouDt2lS07m4llI8fua1yOPhtkoeO-EOOlw38O3VwU7wE4gvl6TFYd33okC-_BTrCR3J8ST0QsU_48lf0-gv7MXfoIggNTRUmx-RunvfDjafkWR5CUzPsuOaabQ1Ki4cjnFCTyg-vZKZJy7y2dnWW5N29jp9e2U8WrSkxsrpKmUNh2dz7Ws3mHOUPkCIczRi6gF2hWu7bB9j8Ymzq.fjk7fMdz334_pJm5ubXHmw</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A100000005308195532</t>
+          <t>A100000006291041070</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>e7caf3ab-09b0-40ac-a4f1-58fe56a4444d</t>
+          <t>12483f4a-37d0-437e-96e7-b0981c573682</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2D9CC14D-5093-4346-8887-897B316D4C33</t>
+          <t>5A901C93-F715-4D5E-B924-EB01A04552AA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>knyazevasana19758034@bk.ru</t>
+          <t>gutvrpqhtw@mail.ru</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>m4fFsGA56w201HhfgwDW</t>
+          <t>G9DCz0fPJgQdxda7AGaH</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI0OTc5YjMzZS1lNDFkLTRlZGEtYWRkZS1mOGMwMDUyYjFlZmIiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2Mjk5LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjIwZDJhYWQxLWMwMTEtNGJjMy05NWU5LThlYmRkYTViYTY5OCIsImFuUCI6IjU2OWY3MDI4LTIzZWUtNDc5ZC1hOGRiLTY1ZjQyMWRiOTNlMCIsImFuVSI6IjEwMDAwMDAwNjA4NjcyOTM3MCIsImNhblAiOiJBSUJyVXY1MXNXVm03QWhISCs4dzRvSWs5c05iV0pFekVCdHo4SXFpWGtLcVczcVRSOEhrYllmMHJORDM2TVBZVmRMOWpSR0sxYXNXS1B6TnNwdEpNN2JDak13VGxTVzc1ZFR2OXhjb2dacXF5ekJ2VUpTTjV5N3VsSGNwOW1TOFB5VjFtSzk1ZWtxRmx5WDl1Z2J4WXVJaHVVbzQxVWtlOXlzSXJJTmY5bEtNYWZZSU5xc0Y1MmJnNFlsQkZZMWowWFhJMUZjcXlOTXMxamJEeDI3NFBFQWpybEU0bDhORGJmQmJkdGdZL1ljUHdsMzJOSWk0Z1lWSnkxc1BOeUZOSlgwPSIsImNhblQiOiJBSUE0Yk1jMEdzaldIbUFueEN2ck4yOUtzbUNVV1kyQXFXK2hHVjZ6RWhaZklueE9oR2cxczFpYnd4UWs4WDg3N0h3TFdFNGVxajc5RU9hbkZLbURqYTBjYnlQRVlQeFZrNVFtOXJQaUl5MERXTWt0YzhwUlZHMXlsSThVUjluclJHc0VCKzlHaXFaUFd3SVNzRVV6QWZYblNtZzhXZFRmL0hOY01QQXRUREJadkdFcjhKc1pUVHdTZ0ZiYzF1R1MvRDhTRE84bDZlWlVvSGRDVkU5WE1PUnJuSG1hWlVraUFxRm5td0I2ZGxnTHR6ZFIvaEE0dnh1bUdvdjlaZ242eFUwPSIsImF1VCI6IjlhNGJiMTRjLWE4YTMtNDFmZi04ZDU2LTYyY2FlNjExMDkzOSIsImF1UCI6IjEwMDAwMDAwNTMwODkwNTkyOSIsImNhdVQiOiJBSUJ5WGViZnYxYUhNLzRsMkNJbnVMY3BOQ09Zb3RZSkRIRzYweWNMUE9tWTNCQkMwR25UanR6ckxWRE1YV1crdW1uVTNxa05KM2Vob0x5U0dxUUVrclI4RmZMalI2eVJsWGhEcmN6elNuT1VYT0FiUWZKOWM4NUFOUytXZGVicWlIcjJENGtZNkFpZFdhbXFPYzFJZStNSU55YUM1emkya3dsVHVRZmdBSUxkMy96Y2YzMHRNT1JzUEhUODF1OUNWSjFHaTd0S0VHYWljTkI0bmVJOVZicUZVY1hNL0xwM0NpWFNPZ3BBSFhWZE5lUm0vTm91Umk2UTdRd0xCUEpiUWlVPSIsInYiOiJWMiJ9.HUWyfykYBaEqoSM7tpZC-IqflwDG-av1s3MmIuNdnCofiI5x7OvZ1rA6-lhqNua2SzOvu8ajIcTe2rmU_VmuOJWh_eMO-oZWabpVLT2DGlS_92j-7ZTM9WhkDtY78AInUX9IQ8VDztAIY-ImBGzwTjK6ogCs5N-Dv-i6W_jT_NYjuv2IUuvNc3J78lcIu916QlKEE5b4Nfp6JpeW6-SCAAReWZy8bliqC-YHSmGkcj-pqV5fK1pNs7k5cZz2Vvwf7vDqZQaJZ_fpcvFTmRp7D8L5PZvnaach9663CyEEiVN-7bbXOcEyrfSft7gIxX5KBqRhPUZhlXMLMrsB9_2RWQ"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIwODYzZjBkNi1hMWUyLTQ4MDUtOWU2Zi1hNDFjMzM0MDIwOGYiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0MjMzLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjQwNzg2MDc0LTE1NGYtNDIyNC04ZWJiLTMwNGQ0N2ZlODI5ZiIsImFuUCI6IjFjY2VkMmM4LTFlZjEtNDlhZi05MDYwLWFmNDdhYmQyMzAxZSIsImFuVSI6IjEwMDAwMDAwNjI5MTAyMDEzMyIsImNhblAiOiJBSUJHQWV2MjAwdVJrWWZESUVzaS9QSmE0N3U0MUpQK241b1dTNTRxSU85OFFyZ0VBMXFjelFsZTVnemRCYXo1US9oeVZsQkxFMTRvVStIcENOaTk3OWZ2eW5BOTlhNnF5Z3pCWTlBWHF1NjdaZ0xJK08xbVRoRG5tMWZNR2w1UmUxc0QzY0o1YUxrU0ExU2laNEEwUkNtVHFtVzZhVksvQUR1QWlYZVd6TGlEZm9WNDkvdGVKc08vdUVLQmdwbCs5T0ZWWU5WbGxZRFdPWVdsempqTnVUSWdRR3VmbklRQXpHQWo1T2lJZjBiU3JaRDdieUFjdTRGL0F6eXVtaFBkbmRjPSIsImNhblQiOiJBSUE5SmJnZC9tSkZJY2lSTkNSeURNcFpjbkdMMTRnQXVuZjA2Vm9BaVJSb0JmSVNuYWhGcWVoN3kyZW5vVnVidUNUS3hmcVM1MUR6WVhuUDhTOEZObmpUS3NJZXBRQVUyVGhNNXZpRFZnbmVUTXZlL0p2MEtuN3E5aDV4M0ZwYldla3JNUHRodDBpellrNmVFREZXMG9KMEI1TnVyT3pzVG44eHh1Y0pRWEhSUmZFclYzUnRtbExYLzdpU1hBeVNwLzl3cDh6OGNLN3J6TVAvbjJ5K29rT3NHNUR2S3ViVTVrUUp4V3RXTFNCeVJaOVpzRTdvYUI4UGU2NCtaUkpWcGV3PSIsImF1VCI6ImNmYmMxMmM1LWQwODEtNGJhNS1hNDRmLTEwZTgwNmI1MTNhZSIsImF1UCI6IjEwMDAwMDAwNjI5MTAyMDEzMyIsImNhdVQiOiJBSUNENHg3ZklyeVNrWmN6dEh1akcrMnVJOFFTb0xhRlpFSGZYVTlZWUZscWt2QlYxaCtwbzlxeFE2bHVBTXRpRUZGR2FUckNiVElJbHJnc3RJNHNtamVaVWt2QlBkWU43N1NndWc1QUR0ZDlCM0pRTzRna3c4MUpOYllhWktXMWRhc1pQN1FhZzRIc0NRYXlVb0RHbzREMzBmZzNXNlNhb2VFWWRrSll5NWhQNitSLy9qSjB4eERtQWJ1Znh6NncxSGpaNUxaWHN3VmNnMWx5RUdGSVNlZHZXU2Y0MzFlUGhiMm4wWUgyZWp5RXFuNjk2Ti9UZEFaWXNwTFlQUThQUDQ4PSIsInYiOiJWMiJ9.m00MOxA4nM7fmcjd-clb87EDTP3OcmzNz9Mc6XfDVJ17FGtAAAyWO6zMGEo3qFgAcar5l95eCpL66l4aLEI9LVJllUimdcvbquqnRlNjmBVioPY5I6olxqPS3eaaoSb16E4sxFv0LwBxBJIPWZWXK04UaLAwaewYUVi-e2SfCfuuK3mDPNP8mI4pOV-UiucAttPPibz0WXSdB8U4EUtmXlEqZPRMsNVBoTYvjS9d3hV0Y8Tf5hsjZZDabLj-h4bzvhn4ZuUyd8W6MFXlLHd8j30XakF5kJ0djF42VbN5B8NorQQv2UDOrmoanJvUSuRewECopgd9V80VBUc4xnyTuw"}]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.WE3clXOEO0U3jMikfR7QPKg8qZCVrhq_-FiqFW4bUCUyHy8z8bwK08ZCnMI_P_VeRNB2jsdzW5-oDGVCWCylfg3kL6QafhHsoBRm6slakibaJdfBVI62Ak-FYz5bDhQ3XVhZXc8UXO7how4sj5Byxu2nZVZ9ouleA_Con2hWKZCj71dOCgxZH2I4aR-rjZjN-H10GrWKtwb5DfG0uYjMvX9MrL9hzlU3SzVegps-AWT3RlI6cXSGvgrmygSbfo5Lo6PDfH_mt8G-SBtoW54CjzUNisW32ZLkuNPiRdP5GOFwJXQVqExEIqPHDhCAcFZMMg-8Iw47sm1u_V4lRWrLJQ.Ay8JMtl2nO5xt-Bv.v0_EIY2yRMyszSLerBtJFsKVVfWfKg8KQNEkH2nSD0GJUcKh3TqY9MzLwsqmg3RVv43cLJDvvSwIqUrrEd4UrUo57PHzjHxy3j9C9kqt_y-k9aR5v07s8W847TU0_lmEAnlWeF8ZS1ElbBaCT0rG8tH9TFag9tvw2M5BRefGyTrA1-uclLqa1SbvknXKsLq93K3UUP4sn-WwmG9E5Ag5n-YxDhzled8PsGJN0xk.MNjrTko6_b4ZJU1NCek-gw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.UjL_J9JkzeDXirIH6aj1S9XQqRWe9sOBHcA7icem3v5UsGDnQRQhUJg5svlwz88iKGBlBG4v4Yu92hCdAb3as463PvKHSyX4gyFI_36PLkodPW0QqkFhCbkVbNvNRog74R8yiUaem3CiQj4g4pt51q09xluG0IyInzAVlUCbvRdfExCS-YYarLd7lSsMEfN7K53q06nzzqGtf5-tGXU0r-Q_yJf5OneoTpvRdZvPULlrhhBPFH0IJKoq_QQXPfRR0gu5isYWZNdMtlEJPk4vIVx7OiMGBcurb1OEA2yBWX9yBQcVTgE9pxLVk8FZ6LcscsU73nTCVGdQlXkKA2lV9A.wYhYrJMKpCV-sUsT.CQl70RHIHSGsThMRw9R31JbJlRTZoHz7i0I7xwGFyH2kAKcGOy3PBINXG3otcQfDjVnXMdrz8omej00yiOWDhWvb2cc4XSpQ_T8WyZU98aXcvLrLof-IL-40n-MJFcD-3iEeLVtF7v16mCYGeX_UeFnEOYyXXZS7CeusEki3vjC32v5TwC46GUIY9QHumu_jqyV-0FuImfawi6jh_ga1WVpENGc8t2tpgrq0iNA.Iqt94curYpPierXauDA3Bw</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.KYwTM1o_JPWPDt4NUQ0yA5B4ptfd260VE935YTtdNAuUSZlmZWgkhxLl-YBFwzVW2X1FO8gPjlfI45DnYccwUkR9Jc-LsuR5YLaVhe9KzNSgdIUphXMu5of-8qkGoczdvgq_QPb635ruRtuW5DteCKJOUeO82cwzlmgJ-4TV8SGRybCpmBuSlR8wq7d3z4266BRVSjOf0Ah6Lcaq5qN5khzyN-4F2OO09NiTlIRv5uhYGmTF_IYj65W_xh5gUESGkl9ltFj2bY8TYOEC560arnkTAiMa4HG2kTerQty56KLJHdHJAGDQXPpi6fkMdmaIh53bF-JPREcQ1MHgbQpQKQ.99TBV5cp_IT54b1L.94c4o0SFU8NUBoYx9wDb9JiYGngxny3iSqr5X_vpcbO3sFMIi7ipf0MyZeZY-zcPiOxnTmuVmrZ7v0I41KU-T-ndmHZIRfS_0LAOjbgiNJcbQ3fFsbHWE3tNZaqqLx5NxH9y82PyMyVv8I5T9hwaNUYJSw_tCdlaU1P9qAh6Auf68_CPrXmwny4ja8mYpCuQ-30L284yMbOegSO4MBV9twbbr6FUeUJGa4v3LllV.vfswlqaO-SJNLebYAEuf9A</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.PjdEKD-69LQ3yFzqqQ3_sNAPa3Z3jQ0a-aqhFJBUYUiE6RE8amvgihs1kXpR6j6Sf8iJDHb13PwUbXF8kqyCPoS0ilTagbvtmBRBTWtic6ZwSo8RFr9TTSB_F_GnlO1oXJ1P0pbwtfDy1YG_wylWYUyLR_4_UrDpO5QRMZMHjE2a8nM_ImsT_6241cT722ceo9PA5TwjstBX5vM0Eyo-8QINP6zgm5cIS8BC_Clgsth3buvBxQyMX5JRvpaPG93y0i7QpLUl6EtzfwBaNuQn-vgQucHa4WMFYFmDVG0ojgTc5qxjy3X_b5mPwypKjzaLszusZ3X2HQQ7xKm3fTjcDg.Xp4wLGKpjsg5nKyl.jw9lXgM6Yc7jRDX6gqxfVueoMPFng2QAbtY-UlwKSpkxjilYCcliFrBe1LYKmMqXXxciZSqUE8MjlxAGsngusqotQKUtUY3zS5MCOIL3Pn0lPR6CUv5n1iZB2uilywFh88j6rl2mOG92dYIKlDFzRCsswAWSBk4het434riMnJfEnyKbVLbzin9dZJn0gWIFRvkW4ClDZ2PtldfvjwX9xfuieICpbiguC42w6hNK.-oO-HjnCKhIJpbiA2Nw74A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A100000005308905929</t>
+          <t>A100000006291020133</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>a325bead-1752-4d44-8f46-9d05a757fbe9</t>
+          <t>7391896f-0f0d-4465-8109-239cfa7a48c9</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>39ACF7C0-09BD-4C7E-9A03-FA3E61DA3035</t>
+          <t>1239EA3E-1AD6-4F58-ADEA-CC9F72AC51CF</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>eafesgz@list.ru</t>
+          <t>magnanor.07@mail.ru</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MC4V0izvirTzUYqSDVZT</t>
+          <t>EkJyM3Nh9w26UribHd0B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI2MmM0YzUwZS02Mzg0LTQ3NWQtYTE5MS02N2M2N2I3YzQ5MDIiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2MjgyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImFmYmUyZGM2LWVkMGEtNDAyZC1hMTFjLTQwNTVjMWE1ZjBjYiIsImFuUCI6IjYyMTMzZjQxLTU4NzMtNGIyMS04NDg4LTJjMDE5NzM5Nzg1MSIsImFuVSI6IjEwMDAwMDAwNjA4NjcyNzI0NCIsImNhblAiOiJBSUFMd0VmVXAzV2E2ZUNOOGwrV2xqV0lMNWV4VmtRbE5Zc1hOYmFUM0xPa0VFa3V2R055cTdBYWdBeEE4diszRmlVMU9kWUE0UVIxblRVdWFqR1R5cTF3RWRWMXpEK0FSOGZaOWpRaGxReGhLMDJRWnBJbFE2MUdsaWk1T0dIKzdLdjhLYzJCaVJteVBWOHcxTnlYYy9ydURTTHJVOE9JMXd5OGV4WXlxdWYxMTBBMUJEVk44Rk1SbEJ2Q0Rzc3lrdnJqVWR1SUwxa1VhMVJOYWdxaGoxRnZYbktock1pZ2hWbzdHY2V4UFpOYUNuZ015UHQ5Ukc4NGw3c2lPV001NWk4PSIsImNhblQiOiJBSUFXYVBrdU9mZTlLME1CODVSMGxpaytpSGYyNmY2b0UwKzdzbVk4alhWWTZtVzdQaUNvS0hNZTY1YzBOaVdyczdmL0hnZWxYUFpDSGtPR0RUTGxCTnZjN3JVODBVdW9oM0tiQUVIdURHMklqMlExNU1XQ2Qxc0VRcmUvYWZ1d0ptNkxGT0JrTHFYMjNOZGdRSHNJaTF4U3lOdzMzNGIvOWpYOFBrOW12L2hlYWVLMElBUlpRL2VZMUlKNVNDYWJaNVlNY3d2SWIrN1FaRXdwTG9vTVBzekg5WGVxNFFTOWJxNXE5R1REMTg2K0lLUWFMOVQzOUxRRDk4STBNR1JOYUhJPSIsImF1VCI6Ijk2ZWY3ODVlLTFlMTItNGY3ZC1iZjU4LTMwYjQ4MjU1ZjM0YyIsImF1UCI6IjEwMDAwMDAwNTMwODEyMDk1NyIsImNhdVQiOiJBSUFhOUZHUEhVQVFLVnJVdXRtR1JqYWUzMXY1UkhmbzE0MUJoOTNOQXd5UnMzMUY1dWlDVUJncGtDRjZtZjBwd3BUUWpUR2FMeGFHcFZnTHRuRkhyWWFKUEJBT25EaStSSnUxSGV6TkNQdHFYUHVCZE0zM01uOTVGaUN0Z2Y5SEJpTURvSVU5bGNHd3hFVHIyVytqYlVzRzhoRmdQWDRneXBYbEhZV0tucFVFb1QyMEFzUTlvYnNkUUlCWFVDN25KOFRXMDZYY09CcDFHcW9YVUhDd3JjcDVzdDBiTEZldytrWW96ZFlBN1pBc1M1Q1N1Lzg2QklVMXo5dTRTTE53K0FnPSIsInYiOiJWMiJ9.iGifQ08njg9jnoUR-VH8uIuJYTgvS8rKxsvQ4EW1edgWKUB6MocW60K0LUBQUPoQFJ6ekXo9EmHvdA6FUZAucWMTOnrOpugbJAq7uTLwk2YL9R6NGTzrXxu-867AYG1o4XawOVdELcg4bZ2Sz3c15D7A-oD7OgErhndzj3er8bPvRL42hTTV7gseDyjzkiFhQkRPudNDVz4VvD49gKTni0x_fpEY0cAwvroSsQDMpLoEGpcaZT_cSjvXw_LBzoW6eide1LhBJvqFEN0B1FEwDi-bWehJuW6-ZQgT422ayX-lRpx1nY7wXYv7a-b8LVOfHgnLKFM2BEQaLHA8noFiZA"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJmMGE0M2FlYi04MmRmLTRiZWMtYWI5ZC1hZDUzZTk2YWE4MDAiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0MjY3LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImUwMzRhNDA5LWZlMmQtNGVhNy1iYjhjLTJiYWI0MThjNmFiOSIsImFuUCI6Ijc4ZmVmZGNkLTgwNDAtNDUwNS1hMTI1LTBhYzkyYzU4MDIzNSIsImFuVSI6IjEwMDAwMDAwNjI5MTAyNjAyNyIsImNhblAiOiJBSUNDVTZCNTErd210VUJOMmpickMxSHV6ZnBpUWdUM1FSQ2lYNEkwYm5UYkhKSDh5cjdjUVlXc2xqSFhQNWpiZWx0RHN5MFd0WDBGRlRyZWR3K2FXNExCOTNOM2NKNjV4dlFlaklzdWF2aGxObElnSzhQU3NkWHNidXlINCt0NFE2d3FlblErVWVwdFQ0cGdQVjZVdXh4dmNYR0tnSHVMSk03aHI0ajVqMVJES1hXRjhJclA5OVZNTVp1TEFOQ0NzcGNHUnROU3VRaUorRGNZdm1GcFM4K3pwZE1DenBmNy9NS1VRYnZRcnVnVGpUa2pKSStXeklSRmpManpEeHpSL0xFPSIsImNhblQiOiJBSUFDREpnbkFaNE9vQjY1RFYxeUdXZEJySEV6ckY0cXFEbGVLNUVpb2picE5DeHdiUjVwUUlOeGc4TVhuNjUxTWpMZ2tvQTZ0WUQxdnFEY2dKSFpUdk9FVXJ3UFFYNjdlUDJibDVJV3V0YnUyK2Z0eGtNUERiLzVJTEx1NU5zMHVIeTFJQTNMVU9OU3RPMGJNZUYyODErSk5ublh5NmhweTdCYk5ubFVYL3FVRW5telAvbTdaVGRDWjBKdlFhL1pubFQwNjN0L0w2T3BwSnBUMHgwYWJTQ2gyUzlnOWVKS0U3ZGdTQ1BqREMrRlBMOC9kcVlaNUlUYlVnSFJmYzNkdnlFPSIsImF1VCI6IjcyMDc2Zjc2LTY3OTMtNGUwZC1hZThhLWY1MTQyMzQxMjJmYSIsImF1UCI6IjEwMDAwMDAwNjI5MTAyNjAyNyIsImNhdVQiOiJBSUNTakNzRFcvTVFpcXdFZC9KdktKbVNHeStZMS9JdTBsVndwRUJ0dC9LejF4SGw5cUN6RmlUdEwwUXMxRUVibGhGcWY1aTJza204QkJsbFpXWGlmZUpabVp4M2FOMmtVU0MzSjhrNG1kNkthelpaOE5xQmRYUCtjUy9PaGFCc3pzZS9ucHZ0VzZvOHhKOURYUUYvWlpkdTllWXkzZkxkSTBha3hSVmNwWUpQNCsvT0FKUHdwR2lkc2pldUgzZWl4Ri9LQ0NKOXFwUGZpU0I5UjcxMWlINkpEaDVGME1sNE11RHpxb0xzRFhIVjdYb0JPWngzT2FCcEpldEt0Y3R3VzZRPSIsInYiOiJWMiJ9.Zts_dRfPGkj7mOCYyx16-Oz7qCag00-qIiGEzsuyes58q06H95iZQHcGRLTPFplGcEYY184rBCPQ2PRqZJDb7_pQQOZDJjz8uOJicwiHHX2RamVr2bKmn5jJNNSKMRrak8DQ6lK5v-hcS8x-wtE_6Bfrm2IzRnEtOT4yZnMrP5YJnyl_e58ynrlzZqe7IGUiJHve3fBY1wNpo4dxl41FQqnE5cIEAfMAN5glZd04TQ_44mXZfA1OnEpEbA7gGSaGeIGyX4dlud5Fr6JFYeuXtlY-jmqfhxAkGwQvqcTrTQF1Ru6SG3PWOaShKB2xdCdhvBRLwu-B21N26xLHp0F-2w"}]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.DU2LbVKfBNRHU3ICXtSqoUqQrjFZUbjDj-HXS5a5gaY7IjIlqqmgV-uuuZo4XiyhSA07Y6-1ul5Yl_333FpR43s1u1LCzn6558eIKCf6qkqA14HJszSCdVZP5UzpS5T7r1OoAJV9rFxJoVVdUlj7V1VgEABBkbmwQz4SWBjYRw7Yr_ai7GUjHPiB_1KswrlTLp4DvdVB5Xw0pNRjnT4R0uNPlfhMHDE6ClfPlXIS6YMLC0eOJCHYL6DaLLgh0Z956wRUTWhQlsdBJMNavYUfjlwmABV1qn58mXOa7-iEtjJ_H_5ZgOFuo8GZd8uHoW1-TmBe6H_htwKFYwT_XltUJA.4Dsg0k6fufqLLwVN.MpmBJCRKDiUvVkuC2l7NQXsEP7yLLdPUda5iT4FLLBltp848fZTpWNK-ePBHnd_3RR7X5BLDkjnKkdlWHDcEwH-wyhjI5L3jqVgOG66atKFEP3_gIfbrVuXYwR3ZMjDA2e6N9DgW57TB8a9JyjD2NRsXfE9TRqxOXQjj12QjDWgre_9J7U6rS83JRpfa_i8Eoz9z4uxzWo0trhlDH9HXekiadIMRuwqBM3fUptM.7boQWiU40LE3Y426wcMkKQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.XtnKX8LuEJXDU8E5ra8atDg7V8q2_Tn5kF6FX1MycDUSqKWfk6A4DAQK5PmkQwKXac-vkDs4tYCs7TzwyKWBh2mSFMDsk3Kz5bJ9CRat9C1GVmhBAYk9VO5XVmd9rcJgrz4SJ-w1OcaC29mQ6ztYvrT0urG8ylg6oa1aWgBhPJYs3-fO0IOLyQuK-UIzCErkIX9oXBqoOxMcqOqaKlA4IjD_R46RFBtq3MYiyOx5pxy2HPFLelbaa6sukTllAY3PpirBQkiFy95qAEsPuIWcekQYlPQUG8eXIo4lAaApU48YEuvg4suW5NjbLJFpJ3X4s9gC-TltROWKvwLRUYUYKw.g_rRAo26detb5b-4.d6RK-O0F5iqjuCg7t2FfOKw4xu824J5vYxGkSX4crMK9ax6hCi3v-psp-jBaEYsN1E_ZsoD_RXqxKO4RfQHEewbLJ5753L6MlYYaVghSPx0tjz5CW6JGiQOi-zMBB_ZKP6LaOEO1gY0sZGOKIsGNjOKyChvqLWcGaW0ELNVOnJr7H19UxWedUzulmj4T-5Lh1KyhiaUALgci6A_ko5iJ7kBUL_5T8BIpn2GxJr0.jLt8_pkegs5yvKlDCfXBWA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.bqhQKdim35H67GoKynsWfLICx4YBMcm-lddLe1G4uxGwLhiGl-ctiyUWB7LnPxZURkX6BGBNR1dc1q49wZviUOXujE5TesmixXsfc-imLRPoiedxOpV0krF1Dsp-J4RTGJL-qIzmflTVGD6usxrAplYDMSlhX-3cp2kSAA_SecQSwBCAANgFbImRCgnuRXLp2DyX3-2u3o2sv1bY3ZS4ERJLiq0sQhSVLpIDg1c_KHvOpopGtzRCZYsxaR3w7fuIvzd8c9mn_xjL2HZOqK4l9GQet2WOrG77IFP7Cv2XhESM98z_BjNLDFcuxN-rxMpxAOopbbWrM3Qe5wRti-tNWg.AvNf2SxlAijsw94S.oM-HJc6ukmCQa1T8k2rdggzZEXDhetOr3u9CJ9UvfMaa0C79JCJ7KluyyvtUZY-M7xv5b8cHrVsXB63yptBhnE5zW-Q9emyooUKflbwS48DvU6l6RdhGNk7NbQuS5WZH6lcIl75YdPBTz4H7rAveHiihMzBUoVJM5KZ91nCXctwca9cj2al9jtqNLJ93TzJiyukSzr55y0fBS8QLMg61zw_JEsjS9AtDoMYi-z8p.Dhjo40ipenfuRAVrI32niw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.FeWzvRT5bNhXeJ1cJOcd5b2V72VGdOvV-THXSfJKIojOAN8Atn8MacXKubjyF6DFAPS0J_YT2tsez7PpsTBrgzzniV4oF1Pi-aRL-CC3-b_uKmaa-OFxE-auzgeGZSVpZ0bQ-kzW_SnGRCjv7wb_WcM11Pm35fhx7FD9rjIBBOmSOemN8qAfQ-rnY7b6mIapkVC71P1P5jtcHscsX19aGnJAIslwVsmr7WJw4ajrRUay6YW8Td_7P6xGzCGNmio8OJ_dfJ7uAGyKQvh7TdOS_S17n9VHXu3rTgy0l-sIC8ZWeSMb7hSHLjUzRMsXx_NrdQzLjN6Z_o9Db1lnfPVUTQ.PuYpvGHFECuYM5cj.DxBNsK4AZG1z_SDAzG3Xe2DbfCx_BKPaqOlJ9UFUtopzSbneelIY8iYlbe2jauFuzOYhP_QBzbtP9-uLfYsLF6OLOveVteSOfWSG7Trd6xm5T2-8FcAll1u-VQkrNkxDLSpBJLeXrpXycbzngZP9jAHUCEdiN0Exn-rJ4FWDQb7rnqsbE3GCxZQ1tq8rXbqbVNoOl_3VLMOwtVerctSwmzBN8-wbc142eojfZC9c.4705bC7BDtiywWx0N15Iww</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A100000005308120957</t>
+          <t>A100000006291026027</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>c1668128-920f-4c84-a84a-4913e003eaf6</t>
+          <t>2d63ff9e-146f-424d-99d5-3e8033cbafef</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5F2F7250-90DD-4D0F-BF88-BDBA3CCCF69C</t>
+          <t>CB33CF17-70D6-4531-A75F-3900178CA6BB</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>uthve4131@list.ru</t>
+          <t>sasha_nikolayev_1989@mail.ru</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>W8XYKatgDqr2tkpC7tKy</t>
+          <t>QmQcBRZ0Yn3n4RR3YkWk</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI4ZmE3YzNlMS00M2Q1LTQ4ODMtODhhNy1lYjQ0MTZiYTRhZjEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2MzIyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImYxMThiNmRiLWM3ZWYtNDhhYi1iYWE1LTQwMzVkYzJmYjBkMyIsImFuUCI6IjU5ZmJhMjhlLTg4YzYtNDgyMC1hYzllLWIzYmZjMzNhNGMzOCIsImFuVSI6IjEwMDAwMDAwNjA4NjczMjIyMSIsImNhblAiOiJBSUNDbjFtajRiVTRPWVBzQ0RWanFlR056MkV6STNiREN3MW5rWnF5WC9sUFB4cEZuQ2lUS2tKd2N1RVJSRWFCZklGMG82dzJzQWJOVmQwRFRIbVMzZTV3SWVGYmdRNnBHUXIxTlRyUml0cWxpWlVZR1AyWHFSeDRSVkEvdGtBTFFTMlZLMjlBNlVTOEN4eGRSWUYwUmcwRGg1RHhqK1NVNzdpdm9QZjU2eGxDbkQ1aGVBbndWTi9sRjNJV3BuUms2ZU05amVNNHhFZXJ3Rm1nNm05RnV0YzJZMWhROGV5cXFyb2FtdjhZRmlZczJrTXZzM0hzeUxURW82UWFDS05IU3Y4PSIsImNhblQiOiJBSUFGcE1OZnl3UmZNRjFpc2o2cG1ybklQOW85VXE1TjlwVjE2MVJKQ1BvbFRtZUF5QUs2U2p0YU1tYndUK3lha0VTdFdXT25MNHVUWE1TQlNyVVE4TkNoODRMTVRRRytDdlZXL0p1bmxqMlhFT0YvdjljM1Nmdkx2VEJ4cWl0a3NaMk1wSHQwOFBRdllEa1NEMG5xbmt1OW1Qd0pvYjliV1phOVNpMU50N0hVWXlwakduVWlZRDZTQlpkclNBNjVBTkRRbTlRUDhpL3RRR0ZXRStwb2FxZHhNWkR2dGtlNGdmSFQ5LzdtRFBpaE1TL01DU24vbExVZ05WT2xtR21yL1RrPSIsImF1VCI6IjhmNGVlNmE1LTc4NTktNDUxNi05MWNmLTJkNGE3YTZkOGNmNiIsImF1UCI6IjEwMDAwMDAwNTMwOTAxOTg2OSIsImNhdVQiOiJBSUNNc2NiY2h5UGhIZUVYQXloTmgyMnZWMWFKMEx2Wkw3RHo1YXh6cjF4L0dnT2xJdW9KVnVCZHMxRVA2V3BMV0xRK3VjRWFrV2pqbEdhTVRtcktRNE5WVG9zZEppY1F5RVNPd09EZHBZWU92eUtjc3BPOEZSSDRPZDJKSHlhYTA2dGptZUdSMnhobDFyQjIrRkpTTFBCUVVvWWE4SkJ6MlR0b21sa1FqTUdiemtUaWdJb01zQnhFQnMwT3pjbE5zdHVxUUZvV01ldWR1eGF2TG5rS1ovZ0VJVWtSSGxXUHRrZjBQM0Y2MFJ1TGJ6bG5JQnR3S3plMC9IRmRveEw4NWE4PSIsInYiOiJWMiJ9.KBh_p7Zz4Po_TngurYu2Y8Cn_gp4rEuY4_38Zt7GwcHJiWVQ47zCvZtknzPTqCZTJ9qD0JdeGNB2Fi8kOt4QGQUUUrh-sgh92dFvlJM-Eiubw42R2AWZUZYRHN7RwJRw7JNvhkH9YtfKQItA0iO09ldTaV0LBsRsmt9YhIG5FpicmDl2umH5YbC4jXTy9K83m5UsDp65Jm5titOOPgSe0yw6uYw0F7u0xl2f-n08VnI_ZKnA4vV66d1T_IafiTZ5vqFdv6ZX0uoBgf2kTITQHxJHTtYMUTIRqrOiB4X61Ot5ajCiRHA8KaXqBZ9aHitdvnGpFrZDwk5ZlwiqUKoACA"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI3MWI5MzBiNi1kZmFhLTQyYjEtODkxMC02OGFmNjA2ZDM0OGMiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0Mzk0LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImU4NWQ5MDFkLWI2MTctNDRlNC05NTJkLTc2ZDg3MTFkMGZjZiIsImFuUCI6ImRkNWEwYTg5LTYyMzEtNDYwNi1iOGI2LTQ3NmQ1YjJjOTAwNyIsImFuVSI6IjEwMDAwMDAwNjI5MTA0OTAxNCIsImNhblAiOiJBSUJFd3V6MHdvR3dwM3RGc1dFbVp6MmJyZldWNHI3OEc1ZjRRdDJFbW9PdUFvblE5TXdTU0JWUjhQWmVBZ1FWK3dzbXZ2U05TZWI0TzIranpTZkdvL21CRWZSeVJ4ODJ6eGRTRFI3b2JtUUZHU2tjeEN5K2paR05Od29oTHZ4cWw5U3JlcHlZaVlsNDlFcFgxdXFwVWIvbGdhRFAxUkJhR3R5YTVhdTNabnFMdmlYVSs0MjNMVFMzSVd0YTZHM05PZ2hUdFJGRnlnTE9GNEdJdUV6cWpmd21SZjRMOTdQenJYSUltcTdSY25zVUMzT0IyQmJPdG54S1JHdkUwUHJKQ24wPSIsImNhblQiOiJBSUJDc0p5b2JwMytiMisxTnNCemJXODkwdEJNNVgxMU9Zb3czWHZZVmt6WTRiNWppREdaWXRKdm5KOFRzK2NtaTJhczl4c0lVaEJId3VBNkthdlpGM3QvN0M4VlpYa0M1YnBzNG00ekxWZm9SU0Z4czZBTkxqWU82YnR5bWxoUTU0NEYxRTBjNUg4UFI0NHEramNKT1lEd2M5bk1LZnBHMTgrclJxV3lzcWNRbll5ZXZOMS9TYzVWa1MwNEVFMWZLYnFYOGNrSWJpdkFPNW56QWJDU2lBUEQ4QktYeTBCWjBsYVMyYS9sdGFsbnQ0dHZmcXE5VnlFWTJXdXE5ck5sYXdNPSIsImF1VCI6ImUxYzJmMTk2LTI2YTAtNDJlYi04MGY2LTFmMzRkNTE3NGNkMCIsImF1UCI6IjEwMDAwMDAwNjI5MTA0OTAxNCIsImNhdVQiOiJBSUIvUG0vbGYwU0F4aGt3cEF1OHZLbFlxVHhLNDF3WVljcSt2WlJPVHArK3laRWtmRlcwQzlQYUJiTWVmSlN4dkdZUzhGTWowUXVwZkpkMnhMT1VKSisweDRkYkdmSTlySDlSdk1ZWGFEVGdWdloxVnpycTdCUmdsZHJjZDY3T2xrU21kYUkzWCtHYTFqNVlabWRrSThJSStodHNiTjc3K1RMYUwyd2FTOEh1SzZtUzlBRVRpbnM0RTJ6UGtIUTZrdWhYdXRqdE1JQU5JOUpUN1pUOCtMeGsrMjZocVZndmFjVlVIMFZySzdrckJ4WWJWbFVFTlRpb0ZrQllhMG1jSjRzPSIsInYiOiJWMiJ9.cQRSKvchpBlQXg_2Da1VCsDZX3aLFVCWIfk6uysu9Y3wUGVHt_0hI8bofj5Z7zwgc5-RTn_quIPRBSw4LMJHyOd_7i7qfghWs-hdmDU100zS7azhGRnTHHcQdjnD7QrRDCCJ4guskIGcOYYCWj66ZNjzJZCY3FyeWcUnDljtnzj7Wf7H_MHDZ83ke7kgeHI9uOtXJNgpvjM5v5xChOxWJ4yK6WXvoE2m-TQHgh2huJj-mXYZTeiGDuZx9d9MfY2hJ993N_Z9RiAnRxjOwnFfjKeC49M_TwnwgGBqioSV-OdS0AeA1TLZkNeBTac82FsJ3SWumjGNF5eyDVAzgTT_Cw"}]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.JVuSVbmSgDN71L2fmBYolJtaS08-XNmjRf0xQSukB107xUAw9CSOTq5OQ1fa7InL1j7nZrEDwQt0E0BdLIJ-jSa7PXn5tCh7IEptHqRlOr07ZjDt5-02AawgGeOQMCaGURO1bmGx93Sb1j2IyU1yw8w2MC0UKlzYZR_h6JSa_Sh09wphYhlTIM4JT_KS-WAj_TtkoQDnjrFowJt-p41B94kNt2a_md5oPcNacbY2Iaa8MqOWYUTCbtSa0Z9jY_g-GmyvKUE3aTrtjBb7OivUcTun9xPZjSaHm4Z8v-3UqEAvTlv3ida9E5cV0eVXrq7r9B0alj2Amltwx2IOM4Dc4w.NgKJC-9IwQwhSH5m.InPfE-09sPoW6xIu8m9ffLVmtUaa15qDf2q6yP4zzjWE6UE9hisWVvAfgLrPgecIt2Yv22Y9gBU_Gv3CdHcJOeoFE1iunGs7gfbxrbo8RtVchunfxDZ33TSV03diZEymQ4gfph6LNqY818hztJeIuUqcNIoaGXP2cKqJQczlOofDJBqADUbiBIYTxZU18jj-QvdzdxneVQU35dYFtq5TJKV4lSZFd7Znq9CYROM.hi46aAJxC4ThpEIryxQ_Hg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.HJreAv5NApvTrGEDD6f7nNuarUv7C3bmZ2JHzgumtPQiHrYknKC9a0DT8vfW0X-6HVyCbWwekbm3scvIs2y1RP9O8ftRerhi4OMTFUg4pfgo4TrnAz3M3kUbCl4jmBerjHXNt4bDqAhbmL9J33p4VbcPJ3kRIpcpi0GZirW-KzGlatM1v88tuU8bw0ls3KKHbaIQJ3d-eN56hSdntfL3d5jUsRIgnH2UAUrbr2gLFhenu3hJNNZQGMXE2NoX1dckTeS9AMyJAVyxmDFrmIvbbIGeM4KneQQsQ4WEuWPsAAx17JwXEkqlUpYCBHgQYDJ1dVuq0d-qLMRi0u9_M2z8uA.jDWQ7gzGu2vm60kn._ILsgHiz6JzQDuKb1elbfrADvRVl1lF9CSNBb7Wci-1YfQ51dB1OzENVFJll4uamWl1G3MS8E8OGHs64DHyhWGtPpE60bbGRpFlJH5Y-b2y-ifQef2niTNE6V9rH05O4o47T78li2mMDlXd3uWn9XZTqupnjrt-AFDcWG3yg29UzHPmG8oprGbnecCVKS-n2jwvJTYuABwePBUiukOiYSjxkmmX4lscf3kHy-6s.jBDNbnk0P_ZOOd4M_Ipl8Q</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.QPSji75LkXVhhPQ8k_yqMwrJmLXD2noQZTYZMROgtCuE9nEJIbbpJ_JCvDOXplP_UqPInjUe96zUrgGGFLP2bVKZbxhAWM_0WJ8tJcanhdTdp26EQlI5a1mHGw2EfavD89nUy3xV_oiEEsmojtu56V4lRLN9-0JEMUU-KlOR54q5MwrBwu5UmLUNbKXnHMVAcQZlnay_tgst4MhpUjJ11hlGjf0w4kRR4t5c9oDYt8b9mUwm6Q6vBhQnEbGa5mGNBcubnrfgqXh1tJwsTpGgNqiWd0iv7XnzVd28Geq9loiuZlbHlej5urUQYOvj8L5aUGurufi7eOSdZ-z0x8jhMw.OkXWeGlUm4K_6ule.ZTTMnTkGrI1-0no1l2xe8FVoGu7AUCnpCIjqtLIMC35q4oyN584n9x5io2SBhTVTVv6U1rur0_CxqgqiFEUuW-gyOEC1SmL60jT4Kv6oezoedcu-l0GvHZ4bjvacDwObWyh5qZdrw-F0c4NedIkyS06qaGUGq9q75vyIu2a55zJ4UxEnPDVSCZ-oGyMo8ecjxZLrL-27iBrNSppNGDVMJCdnnA3KaQiYrpJi4Quz.o6SEEm6k0ui0GB1BA0ST-Q</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.ARGxXqPvdsLkzm-g7Ztm6q29u9tBlDA25lkWhTOjWsj70Yjk7Rm6gJscZ2zUqhMpVb24Ci8s6yjF8Y6ENq4oSpij4wLOFrzTpMglagcfuc17Q09Jebg4YLsu_DxMhe8uCfQEd3TqmwGDIG27dbw3Cmj77KEdd4fdKRI5z6jZfWmAO9U8nJolsMEzWqnqXN4C_goXMrK4S0t4to4SfmecpoCRHtTE3WdOLMKkpRrFdi87v7n8LVZ6XrpmBNxFThsF10nzHW6fgK2JpTUKEpkTcZNBGNUpqvLjwKo20FQoAiLI4PGwwbHbWKHEvfRRB0Hzij5oauNebb30fUJKcA3Lkg.sXyyY-c7NEjLAHXA.3r8PZriyXhfn980xbWCtO0Y_iequnUCuAYkPo5LgkcZa58qCtpGvi4ri-Eh-_Db4VH8HgMg9BbrL4npAdYsH0PVPO3Ow9rGf53yb2kRnXol7SrR-Igw36J_TbDEjL0caeBk6QVWb1TEiGPsjTTwQ_IUUHca2ff7JR7nf-6nn_aCyRFqnC2e7yW-BmcoiMINInyyizha-FELtXXtkuiIUOkmDgPExUqXZjWmrKDmV.W4ARU3XnM7voyA7B5x6Hkw</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A100000005309019869</t>
+          <t>A100000006291049014</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>dd1001ea-a15f-48ce-96a4-fd04996b38b9</t>
+          <t>835a1b1e-28a6-43b0-8aac-1a8c3d4d3b14</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>C6F47B6E-6959-430D-8188-52C0DB9C6A16</t>
+          <t>023AD853-CB6B-44E7-9498-7C6C90F8C417</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>avramiisazonov2879@mail.ru</t>
+          <t>ElevertovBrekhun@mail.ru</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>W5inujunVkLZr9rJctwF</t>
+          <t>qPuMBL1ZWzL9N1kpCCwt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI1YWFkOWI2MS03NmQ2LTRjYTMtYjhkMC0zYmQxOTg5YmZlOGQiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2MzcyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImJhNmY1NmQ3LWU5NTItNDExNS04OWM2LTYzY2JhOTMwNDk1OCIsImFuUCI6Ijk1ZmZkMDIxLWE1NGItNDAxYS1hNjYzLTA5OWEzODBkMjRmMSIsImFuVSI6IjEwMDAwMDAwNjA4NjczODYyMiIsImNhblAiOiJBSUFuQ0tSY3phRUdYdjZPYVM4NGZwVWg0Y0g3S2NSeE5DY2dyUUQzSkkyY3AzNHVCQVpQUkQ4eFJCbmFLb1pvdC83dFlRRGlZbGkxTnBRY0xtSTFtZUhaTG1wMi80SFpQQytEZThZOFEzQTJFOXRNdUN0MWFuak1xUXUzV3YwV3FiNXo3S1gzcXAwZHUxNEU5OGZHT04yY2V3N3BVRFJYbktDOUdsYVRQL2N6OEJraXNoK3JHV2k0QlhuNDZmblFpSlZ0YmdWd3U0em9xZXpxOTNNZ3MzZXRGOFVnRHNIbTVpWmF0ZWQ5VTdXSHFUMkk5emtOSlR1d2NaQnI1STh4ajlnPSIsImNhblQiOiJBSUFRb2tvbW9JUm1YNUFqVko4VVJmRnlIbnRjQVg2UFk2UlJRaVc4Sk5TV1FCQUVXdEdra1RVem1BeXp1UTRuTVF4SU9xaExTSVJ6Nzc5NkU4ckVJdTVYVFphR29JaWJWY1lzYkw3NW12aFNXdHlHb2pBekkvZU9ORy9Zb01tYnV3eWNkeTk0UzV3d0ZLdVFyRVoyVTJseVJVODgwZWMxNFpMVURVWGhtN3UreHZ1TzhxTFZ2NFhDYk5hWXY5d1g3UFN1Zm1YWmN5UjZNcmJ5SEpwcjVIVlhZM2R3QmNtdkNaVXEybWREYys4bkxvMVFaUXI2Slczang1TTZhdk91Z0JNPSIsImF1VCI6Ijc4YmQyY2Q2LTBjMTUtNDZkYy04ZTg0LTcwNWFiYWFlZmE1NyIsImF1UCI6IjEwMDAwMDAwNTMwOTA0MjkwNyIsImNhdVQiOiJBSUJMTFEvdkg1Z1NsTHJ5SWZiQ2NsV0lsTkYxZmxBUHhEZUM0YzRDc3I3T1dJcnY3S2hpdXNwOVBJanMyYUliLzJUc2RvOTVqQlhmZEZSVW1aSHE1OXBtN2NNcENraUExc1NZWDM4bElmU1Z4d0F2SitNRnFPQTZ2TkpyWGhTYXNCalovWVNwNFhvREpmQm1tOFE1elRBdTN5L05GVGl5bW9iU1VPR3RuZnFiR0p4L0tpS3lFSDQ1OW1IUDU3ZDhUaExXMDFJUzJNS29LcXgvVGFWRWxWTkZ2VXBMT0Z5YmNjVmp0VTNCaHN4U0dpZFd4TEJtY1U1V3pRNE9iL21CbFZBPSIsInYiOiJWMiJ9.Q7tUTurn7Gk0CAGIP-Gcu4M7GdDllP1ziQ9VOLnoWuB5liEyGCS1LsYie982ZrTh4AwvEol9MKTVDjEo2ugw0940qlGwL3JVAMUR4BbjlDYqwSt-rno5AzufuwrYskfVUHhCQNWg7MEfS-ltsvtuHnSL9bpXogqzJeUFOnFYk6IsEXuj_S8nIxPX_UWUD7jXrbCa6frSrroYeIQk6VC7EuttgeFtSiwQN6hoxD1yc0ZFr_tKtdg70dt871Iut--0r4t6PXp9v4Qvlj6k9XLghAe6xBefImj92ZD2OMy8cZk532W03u7mLS_7NMVOPBoR77Fg3D5seW_rbxqjWmwm_g"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJlZTU2N2RjYi05NWVlLTQzMTktOThmMy0wNDJiMTI2ZWQ3MWUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0NTU4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjNjZGNiOTM4LWZmNTEtNDJhMi05MzI5LWVlMGU5MGFjY2NjNiIsImFuUCI6IjFkZGUwM2I0LWJiN2YtNDliZi1hZGE2LWU0NzAyNmUwNzU3ZSIsImFuVSI6IjEwMDAwMDAwNjI5MTA5MDU2MiIsImNhblAiOiJBSUFlZkVvaXBkZnorMFJuVFRrY2N5amhNOEd6Q3ZyclBobVo5ZWV0TlhVME5TTkQyVWxMSFMxVlp0ODg3QldCSFhEck5UWDJMN0lqOGJ6a3dmSEZtZUl4bk5VQmFmNFdza21OR3hLdGxyd2RKRzlDRTZqai93d1lDOVJySm9ZdFhKYVdiY2tvZUNEVW8vN2Z1cjkyeFZMS0JId2VQQkNuRE8rV3haN0JTOGgram5Mejh4RllURzJmVDFYK0FYOXJwdmVQM3ZRbkxWZ3lFZ3lQUnM2RW1RS2pudE9OOFZIbkxwcnBiZDZrWlJsTW1kUTdyY24vV1l1OUlqdmpVREpEUmxnPSIsImNhblQiOiJBSUNSdzIveVJPM1lwdzZOQU9VWlI4c2k4UGRUT0xzRk1IaG1NeXR5SjVTRG8vQUlqWW43RWcyWVVlWjNvRXJ3TTNtczRYdVpIOFc5dnBtUDNITEFaSjVSck1kdHFoMHZEK3NuNk8wWGxBaTAxV3VxOUw5b2s3WVAxbStOYXhNa1E0aGVRdHJha1plaEYwMng1QmtCNFhGZW1GY3dMRmpIN0YvSW9wenVzdUJWYzJuM2tXbzN5YXdIWWRoS0tVeWlrcFBtKzNDM2dqYllSRVl1MysrbVF1YlZacm8zdndYTDVuNmlsczZtbXhZZWN5a1VZbVFEVjJrY3JYN1pMQlJFdE5FPSIsImF1VCI6ImI4NGNmNWYxLTk5NmEtNDcwZi05Yzg3LTg4ZjM2Njc2ZDlhYSIsImF1UCI6IjEwMDAwMDAwNjI5MTA5MDU2MiIsImNhdVQiOiJBSUJWLzBTWDdXeEdidUR4ai9IbElBK1Y4YkpqUi9YaDFkNmNIcVNTb0lETVA1c3h6ZWtKN25sR2tDdkRkbEV3R3VyWjY4dnE4akVSYjdES2M5ZXVWR29yRno3NnpGMnpsVVhpYlVUU3pKcGw0VlpyUUVteUo0RE5QM1VLU0M0b2lRa2xOUFNraGZxQmVrVXVqOUtaQnF4TXFFcFJXdWJLbDNibktiTG4wR0F4bDg2SWY2dFpiTmQzZDFxNDB6a0RrditRNUZHaE9iUndrU2MzUnRRem1teHZsYTYvRCtuUXhRN1BZYjlJak02OHhUdjRNampaRjhYUGZ4WmhJOUphS1FvPSIsInYiOiJWMiJ9.HYAZbnW85fYLxgnIDv_0p6cy4JHARIkO7OY_ZtD0h8RjHyr2gVSkUpkw9oso2MVMV_3K8lxPsHrQCyxYxJD1WHSyPfT6mxSIDw1p_EDsQ4kVrpxl3ToIyYVLDB902B4F4-ez19iA6Qp-JOXlSKGxj8Tmi9F_L5TI8vbzFBzOrOUaDYhmMIUnYQo_Wuqp82AyNIheiFH5kED2m3e795-ekB6rVhJPEPdc8OzW8QC_PyT9ks_SUgn62mz2AC8o0Hsm1Ywvk1eim1QpGn56FcFh-wgSn8GP46EQdrrD03aBrzC2a_wX82_9OYPMNH690BNEWZOlm_S0W5u4F9V373cnBQ"}]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.BH9O8lPhCbqjlkGdKnnC85w_DYdYiH9-eTdPH8r75fEM0tjq4EpnQGLr7jJBWJm_Y-GCLAF_Rdj4-H_knvMDE3FRVkwOgQz30RfMbcdzaCutPhi0zWmlb2-92gz9FbZAvwehPl0yRMKzWrSBlSuIwZ5eEthwxdZ_LG-cCfb-FGVKiYKuQcXjHaBTIDs6zhUhMmc5z9r5raof6Od4sXhYxpDRPbziFUNpdbUPWnp7X_G8iwN6c7EerNSY-K92sqSdihilJR4_YXifYGGtYs3AEPbH1KMhEjolNtRdLTBd4VxKNNUibcs3JChYBmEeah9VuRBpOrJXL1JnPcUeCWWm2A.TBSJjIf2pXVlIrVh.LtOI7Zm1XxyDbInw8fngJGV11LBmySsejGo5QLxZa6Mi-m55rwkBVoQlBp-3gWL9OpZbFh5pxOV7QJ2ColMmEr_Eh5N9xOXfHnmBOz129ccXFccBz3OZ4Wvj_u7-0WY2-P7ob2koqwS1oQVyQIQVmlCzgjcNx4PIX13FONmAuiw51AaeMgT0OrLAIeaNCl7NtcJx8c93HLbGkCqMKWSHqWCuTslmd8imMpDwQOc.B5dEsZIlN9ausF_QYxNHqA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.L-L35Ekc4Ja6q2GAB5XWvEiJfpe_bvT9rpNT_aT8bPqS_OwTGLxhL4WjlWCUkb91ghT3sWxH4K5eL4_n-3_U4RFaQuBfmmtd6tXf5xWMhy6EUrVOsvPWWnt2g1c6Ci4B0SwdyP7FUCcKfwAeHYG5kD-N6TFBmwpEV9Z_FUj2PNBsXypggp8yIb0hAriXfaURfFCCFBpmd_onRgEPOyt5Sok_Rv8EDNslYS5dWofH9tAthHDTLRy65xk6UuS9bvUpwy7xuzKeWxObOaUUbSCIX8ZmIJbMYv_yD2GA2sd-Ct8pxEUZW5uSsXla7yWGT6LUw0ctKa8yEDKV06mmI_JdYw.mKQUl5obDWM__NJO.210FyRo-I5yXpssrICIRwcV361fWUG_jBcZ2bcz84DEx05D3qWvxbwuzsB1SZFChmvbRArEEhUKB18HXpKkGSmrvTNI6oBFWvvDIHvB3QKt_qGHfp9KIpq57gSpWMmju38eNrPFuSvuc1nduyJ-30zTdrVNPfzi9QVR8BcJ2xG1j-Xd1ZsxSuLOeI12BGSFN7C3hMFH4ObeWfBj1SX6hpOJrif4Tg8MYfTSpfvM.T6cZmM4z4RK3k6zPHu1EOQ</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.g32bQz345CmPa7fgDTosY5ryfMhAGxobPUrxt9McWygIfPLqGU7lqjKxhl45Js1-XXtqsc03KeDxGtodDHyeXQCA66WfU_zCv1eg_Ufi8dbajpA99XVW4OLsW_e0qneQ-7Q9tRN-2-xKkyn7n_7ZbCCmff3nZTC156KbuRennaikxWmduyvJi4qFlcGmXeyzqQ2OVPG5nK-9nCeyV5eF4HNwKZL144fzGXxH2Zamaof8F7r4lexSbh1TWFIc3r4Sdn7b4twVECMsAtt-7EFN9-Kw8u_U3GzEx8AhDLQHQ5ha8CsXKNpCSSB7HYu9diFoGQL2zH4DN3m6luqNgEV6CQ.aw1wwD7G-8W8sZtz.FuZmdsCLOpqqL2v6kAXO0GjJnb7IGg537JN4feWykrmJI6oZmRsUOf50cAs7C5iDfNREe0JTZA_ndBj1R-P--j4XbjWgqkJ4Ff1epgaL1uDRkt6X0W-vk_k7UgasRhHo6T0sM0uvLJNz03Y-XNmktwW6cFrEuFgfm1DnoC6AK0yCJsjsswdj1xlPJW2xUwoghh175OE64SZBXXDQfa27yEbNv2hv8hDBBtVi-k3_.p9CH4E-qo5XVUOiLX9R_sA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.ebvAEGe-JjWYoZm6aCIlwT1gNBx01XvQ_El9QHeoQBRG9QiSBkwmtnBWLQTDQUloP_4w8l8gsyWz2xL9G30RbtUJqiYJAuLM_aS9J-d8FUNAdFpTiqojkY45vTjrT_5g-I2ngHiqhLx6KUwRItUflkzb06Fp6969F1jUhpPzSfUAO41hKtNAGKjiKiGeEXHN7EO5sLjJy5nDNt7ECYv3SuClOBbzq656sZxA4Y5H8MYl_CWxRhpVSL0o_z7IKRrCChEtB0IW071cy74s8aVFEWFQ-bhtuDuWYZSbE1cvFl8OfDo1C5WhM1XZYmwJibr-WLT7q_W3u4Xncg3fiVfDuA.WgtmGMkzFSiAnxYL.IDGypoNplbxs-XXA7LMx6wne8EBhojpHZ98ZxoSSodYHZi8rQ5CckfjpR5lIKRFhHfBVLtOOyZd1DmCSGtLY-IMDf-OyQtr3U2S6g2xAF30G6-ehWAGqg6LXDrZ-AM4OBpmOHxUCS6lj-SYT6Z8ptc9HitqYgm_i8vsQ8SJhz0mZL8sZFjKq1UAbQmoh0fmzLxIgnIRvnyXh7mm9enH--Vi_aAUChwcMUoXjGNB9.GyOoAPUqXFKUWaI26R2x8g</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A100000005309042907</t>
+          <t>A100000006291090562</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>814305eb-2b2d-4c77-91c3-8fad22cac395</t>
+          <t>197bbbdf-064d-4a66-afa9-b853877a337c</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>998EA205-6D61-42F9-8A9D-4FADE7B111D8</t>
+          <t>55774477-7236-4525-AAAB-238BE7AAA255</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>seleznevaninnita27@inbox.ru</t>
+          <t>agotthen@mail.ru</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>keW4iMWPDYRq1UQMa0W3</t>
+          <t>YSQGseJCwdVwrJA5M4mP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIzNjk1ZDdlNy02NjVjLTQzMGUtODc2Ni1hNWM1NDAzMTcwOWUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2MzUzLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImJiZWRhN2M3LThiMTUtNGQ5ZC04OTNjLTIxMjMyZWViNTBiNSIsImFuUCI6ImNhZGY1MzdmLWUyM2EtNDk4Zi04MGEzLWI5YjMyYjlmMzk0MiIsImFuVSI6IjEwMDAwMDAwNjA4NjczNjIyNCIsImNhblAiOiJBSUJDenR1UXh4cldCNFFkSnhlN3dMTjNRdXZJcjN5Rm5MM00xWVdRa25OQTVXRzNoSlh5aEdXaHJtNERzbExoRCsrcWMxaUxRR1AxaFdqMlYwZTYxbG1tK3Y1SDRYQjlWNG13cElndEg5VEhXUXZXVTJ3Umpkcm8xUmx1T0RsdldlV0tCWEtZd2tWVzIvdkpvTFlzeTFUOWE3ZU5RYXVDaTJUc1liNGpNL2hka2dFVW9mNllHRVd0SEhtQ2twZmJhZDlLckVVc0ZuT2dzazJUeGdSZFVZa29EMUFqTzdDdVBsL0QwR1gyTDVVdGlXdGgvVGRSN3dzMk9UT1BnRjZ6UW9nPSIsImNhblQiOiJBSUNXc2pheWlKL0tOK3lsNmJKdEZHVm0rQVhtSVJoZjM5eDNDUTB3S1ZnU0RsenhpWHMyRUZ4NFo2LzhmMXhHNm00dHFsZVlDb1d5YXhENDlzYjBFc2tOZVpLNmdEanFwb2M5Y2c4LzJTbTZTQVF0WUczYjNybXVtNW4rVnpieGR6b2RISlpjTnJHU3MzMXlhbDlscWMzd2tSK3IzMjJCcUVSSG9lcVpOZVVOeCtCZzFEVWRlWE1OSkRtQjlYRGN4dHZOblYyaXAxSUFiVmZhc0R2bWVwMk41V0w0aDJzTXZocjhsWFoxSzJMaDlUTThWaDNrUHcxWTRON3Vqd1R1Q2N3PSIsImF1VCI6ImE5NTE1ZWI2LTc1OTItNGFlYi05MTE3LTBkOTkwYzk4ODM4MyIsImF1UCI6IjEwMDAwMDAwNTMwOTAyMzcyNiIsImNhdVQiOiJBSUNFdFdjRjg4cmNVc2V2OW80a3NRbEk5R1I4RE5rOHdaQUVrTXBHMGFjejBhYzNFKzYzTUp5NnorNFRFRGpEUkR2NGlaTVA4M0krRGpWbXNJZENISWorQ0pwc1FwbDhvcjRidzBuOTlPL0VLNFl6QU9JSjRlUFhVMnlNczlDUHgvUTRJMHJQcnpaT3BDWXEzeDBXalZ2TUFuTjh6S1hWQjF5T3JjZ1hIUUgwVzFvaDIrQzBRSk1EcjdhWTdMMGI3b0k3OEYrRmtONlpkcGFVdHlVdUVWM3JRZlpic2U0UzJEa2VhbTRBdzNRRDIyU21ER3B1aDQwQlFaSVNVMlQ4U01RPSIsInYiOiJWMiJ9.IkoHjR2QdmqJACOqRA0_RvpD9Nx37QDkQU5khFIlTBDFd9F1Gbu3FG2Fhv3R0JT-W56rHDzLllOf0Fwdiu4vR6YILrtccVXJVLJyX3l5MLARXqgA3HQRIsQ--DHI40H9BbAswWhX7f2NS2PkaXw4dzBn7kjJqQWBybSPFmqDd_XveOyWxIv5uFdWkvZcdNWCM3dXwynWUsqtgZRFAFAsHVhXY6WTYGYerfJacasTm5uEJHy6FOS4Am7fjZ64Tz-DS41O2wE2VnXdv0WAPnmQB8grTq2NKK51HgCUctykinJQVzb741PIBlCCmBe2AAieG1xhcMlVt1aEzF9fv3hAZA"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI4NTA3MTYxMS03NzQyLTRhNWYtOWY2NC0wNjUxOWE2M2QyYjQiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0MzM5LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjIxMzc2NDJiLTQzMjMtNDRkMy05NDRmLWE4MmZhMDIxMzZkMyIsImFuUCI6IjM2YTY3ZDI0LTEzNmEtNGE3Ny04NGJiLWVlNDM3ZDRhOGUwOSIsImFuVSI6IjEwMDAwMDAwNjI5MTAzOTY3NiIsImNhblAiOiJBSUFJSWwzbElCNFRjWE51YzFhMXdSZm9CU1UxM3hVWElnT1dRamZaZE5oRzM5cysvenk4ZVhhdVA3L2lyMVB0VVBCanNFaUJEdmMwalJuS0YxME00M0N5cTJaWFVYNytoamhhMVlNU2tub2thbTArRTIwYjBRN1U2djZobkN1VTRnV3M3bW1VR0dFSittWmpVU2I2UE1zOE1ySWxRN2pQd2JOYWVqVU0zZU9ObW1SZTE5VGN2VEZTRzBDcWgvb2xYMHE0RXVZNXVJbDh4YXA0UC8rTGVLVkpqT3dSVmVyMytyS29RK3BCWUYvUUR5blp0RFR4NHNjaXp1VmxMTjZWUW9vPSIsImNhblQiOiJBSUErU2hBYzNaYUxGSnlndjQzb2xtblIrTmNzZUdRMjlZcUo0b0ZSWEl1MVgwblVydXJibUFuREpSZGZZUm5MU2JDeFl1akVMb1d3aVhlS00zQ05MSjJhMFI2QUNFVWxybEg4cW9XbG1wVUsrU1FkalVpdXZsemNFamxGQnJ1aVpjSW9tQ1QyTGZKbGRRb2M5WU5Bc2xjbjlXV3kwZFRPWWFQNTRLN2xZQ3Q0NXY5QTJsa3VtcXFsVU9GMDREQTI0eUlubkttUWdBeHVOcTlZN2FSbkhJTCtJakJzcisreEtPQUU0ZGRGUGxQK05FcktjWmYrcDdYcVgvOVR1Z0R1cWRzPSIsImF1VCI6IjQzNzVlMzk4LTZmYTctNDFkNC1iNDFkLWNhNWNmNDE3NGQzNyIsImF1UCI6IjEwMDAwMDAwNjI5MTAzOTY3NiIsImNhdVQiOiJBSUJBNk5mMklJNmZhZVBZQUtwcVFRS3hwYU9NRFAvSWFKbGRZQm1UalF0R1p0Qy9reFYrQlpCMDNpeEhaY1cyeDdSN1dBRC9TZ1VNbjRwclFpVGk5bVFYS05LQ1hLcm9Ra240ajZyU3M5THRpVURKYm1CZWswY3lzSGtQSVppbkd1aU5VcituR0hkL3NualkzMDNwQ2o3Z3ZXQ3BWWndXRi9vMUJpTkYybGRNQzZCR0NyVVVDamgrY1ZocjNiTXZwVU1nRDRIdUp1UEx1NjFtbS9FWitNdU9XRlJmWFYreXJjUk9vRXBEeE9KY01Cb1ZIQlExcDNIcUUwNGpzRWhEanRNPSIsInYiOiJWMiJ9.AplJLk3lIHKJw51qONhcTM746bIGBdq5oFqCKMlOEqYPX6tul5hKHkZOCHMy69aETpQhmu5Jdrh2WsZUu_jXComRCJm3stFAMMhlGTlP0jl4BZxadvuP9N0FnJhEFZGEOyg1hz00jjbAdMG41VeHfGXO-eRHMGw7Oh8p3tRIgNO6bY6pg4FUtAqmBf4kW_X4DsLZznOBlJPkzN8w2j_TbzhUiuyKdLsKNE6vmglDHTmJ10BQVCo1-7Jw53pVomc0W0nAHqurKQEzw2e8xwVs-Topd_5RtMwI5R5WjjtZ5p7ZfDsEeo4mg9_Y8XDa_Z1tPUMIlYVdHfIy7pR-uv85nw"}]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.O_nAmOBnOKZZ3lBPy3iZ6jMgViHslTdukmgWL-DxKaI4_ANRrdOCmfRlkaJce-SYwFc1CrPW_3yYFP0B6qm1hh2RMfD0Rs6VOz_sM97bf5Q4z7k_98EylR35SsT_ER1v0EiqW3iN-ZUqwzf4B3y9rExHyKf9km77N8b8g5IHpSXWUv_3N2C23ArEgHERGcJfWr1My0Ocf43m_8y2G_IPB0--n39evpQPgiiaq_wpIfm8vUSwDCAXSn_zt9S5QVrv2nZAVT4lpkFCiU5QqNftlszGzGv9xqERcg8zoyAzKcqMQ5y49ywIeFgETyfCwzaP2VCCl203hMtKteFWE0yOWg.I6WvmV9c6IJX8VvV.zMDdhVfwCW3ObqkebgGevRByIXvG8sduhq8LrwJFRnUhFKKetP1vDpSXvOHgil9xNMqRZRNkvEU0NEyr3IIK_IuYaDTPEffSiSoFeKxyqmASX42Om5HXEJnrOiuoAG7Rrc-dM2YqsUmsZlFi4TP0NF0ZWZtlA05a9chcUhIbXVKFijRr4c6r7W8ICPqnlcBSbKCfVXN2RNqH5Z8tQBHlH95SyFaoucHzbFeqSxo.LmhWDE1B6sr4ASsUTXpDUQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.gLpZ-x-yDLaC-ELn29N0snZbOH5qxfng_JkuSRYDUdo3oW16t6FRdRExLTLWi2CoyKMVBC57q_ZbZGgwlQ1wjfsn-Lfi1KE2wRHdBTM__CKyvouSl_mgg8OmtdqKOOFSAnHg6CkZk-z9ssKkRZSwG-csQv9HxMHtBFuAKSz9ZnwNdFpLm9pqpkitjvKyN7PoVKWwaz-utGVCmoiJ3cuwJhU_JD5eXWwEYdpmIYpDOsds_K624Q_KGr1myWPAWOYQz45KsyJS73NX6OTUpPsRS2M_3Z2sKvu_OEQbk-ybWz4Dzcg68-N2yaFhtwQT8bNxdXNZ99m30hQ75bbhYLZ_vA.4isGHcb2Ufm1TrAO.aavWlQs90MSoHcSd5ZmMYpevxDj92QREWIqncxl6pdoZBhMsruXzwOobtglCDz-3bSCEhhbABL5r0n0Foe-f2YNVhz47VjIwHkICzhETsL7WbiomzLGRmo-t4yN48Kfo78gvOVwJU7i6I6pQwGiP-xW_3tY31E6f4EDKhmWjd_74jjdxfxOSgqAN9CBxYD3kA-3H8ItD3w1KsFXqMC1CmGZBTyLmYzWoeOAYZM8.ccXhGr6vLZm3tUs4kPIuQg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.KFbHhb45HG4FAziStId_nGwtr45LmdAHo7rCU2FwXZbUnGG_YpdniWBND-9YmOlY9CBBe1OKE0LyyQg6BPwWQS6Pw04wDhG6nha--XzUsbyb6Lqyxr27fDE1sg3LxyaU1M0KJMF2HGhM9VWBG8KskU1jZ9_5FpOaE2tdFo2X_vWHeKHLk_hEvy61WYiLv5yKdPPPX3xLdwlKmNsOhzclGja2LzZZ7RrzTdHaPsbarCigxGtOHwFVDF-d3yyY2201xdD6XO0gkfazEG_WlLx1G-H1dmkwSNg-vxEMr2VJNaHJMJTv_ooba-KJHNuMw4HFBBYg5spQ1onAdr7CZnW9sw.UWR1pY5U0Biog8b5.mlnM7j-a7hPEtJ05exRPcMjOOCHqWWO6CHmu4Y4_TZSnf-DU8p-R-JNV5DtDk-BikbKp5SHmJ5P92l30l7H8Q7HMdkkstmeQs68uHapHLMxq6f7RPv9MmzjhE8DjFeeRCIF0NobY3ruYK6JuhU3sE-v0yeyWT6x6G7L-CMvYuxhIX2x3-BvOFcyB91559C51UzC_bHJZwUUF1g3dXKw6DjFZyPnSZD0fSL-bQe0O.tPDqB0Nv8qbr3ztA7uPcLw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.IXHLA_J_9utqkiWnX8d4E10dJE7rPnIRmg8RCSGuY-7WXuYop6xy29PjGkHrc1g-7g-DsGAy_av65FQdMSXz3hzoBu75EW-8FNFSmza1fO174wZVAwQsgUuBa6TD2i09J1KImRUkjlwpQ38pkhV7UaKafFEXVbxPMOV2ZObdplke61nNh7BjiaJCSZ3_kGQ5Vfh0AGfLNX1I5-Zdte2066sbx1PRdbgVRghIzM6SxqWh9z_B7hFCRxozcTPZxidk9Q0LJ2omDMCKSMMQUXs4PLwEvNFlujviZS-DW_JfofjRpdca2gH8y_EhJQRu5kMBcPNdBz6uIrBCp4TMb2riyg.yTBDmRXmK8CH2bYT.1t1wacwHa9eKgek2dSCM2B_rqkKoK2-w0wshwpuhD4SFmQQyvgZo0U0W5xPag4L454DmlDOsnyh9P6ERNWTJlaFmUb176Otj24JK2eTNVNtmXFAV_9GHJP31YKxGE3JcTKNnydsMxtHwHzeKum_x9PfWLTJYuleebdHhbDZyqHGTfDLWOqDrEGPHvtFp992SfUT3LHCuYGW0SsClhyDiV3h9TppgeXayHF0vDnjp.lX9C472jqbe-99lbJw0Z9A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A100000005309023726</t>
+          <t>A100000006291039676</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>185920f3-ef61-4a53-aaee-259676efd593</t>
+          <t>29798b30-3f7b-4c59-814f-dd3eb8a112dc</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5860DC6C-77E3-4AC1-A0AF-3DF67A70E656</t>
+          <t>51424566-13D7-4D2A-A61C-0BC0F3BA00C0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ewgez3096@inbox.ru</t>
+          <t>cuncfubasac1982@mail.ru</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>yPDWv7sEcXvyFjgS9u5r</t>
+          <t>tVFt83943JzC4XbQ90DR</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIwNTJmMDM5NS1lZmVkLTQxYjMtOGY0OC1lNjQ2ZTgyNmQ1MDMiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2MzcyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjRhZTdjZjA5LTc2NjEtNGExOC05MDkwLWZiZGEyODA5NzIyMCIsImFuUCI6IjZjMzRhNzI1LTMwMDAtNDA3ZC04OGFlLTNiNGViMWU3OGFjMyIsImFuVSI6IjEwMDAwMDAwNjA4NjczODU2OSIsImNhblAiOiJBSUFnUmhlYlAyRmdPZjdqUmVKT0tMTklMWGxhRnczRktIVGRlSTVzcDFwZnAvSTNQc0F2Ym41cXc1YnJ1Vmo5azJiUzhPN1hob0czKzUyNHhxN1pzbjFVTzdXallLV3dST0dVSGVTc1cyYUZPdmJqVko4M2NSUWlqblhlTXhFYldHVlo4Wlp1TXFEMzVXczNmaEhsZlR2UURoYW9vL2N2OTdPQXlQQ2JldU1WSGdsbGpYbnkrV2VQbFd0K2djQmd5QWw5NGFnbThHNEhxaXhDNFVMTHNLV05PR1M3U2tqRnRvQ2pkUHZrU1JJcU5hTWdLTXg1Ym9uVTFWVVRMK1JMc1ZZPSIsImNhblQiOiJBSUIrOFFYN2k0WUI0MTJOVHhsN3loRy93VHNXdmhFakQrM0dmMEZSTnNCWmxSYTdpWHhCUGNYem5SNjI3aW82RWYwRFJ0VU0yS24zYm1tOXRrWFpNbCtvVnUrTGVKcU9qemMxWS8vUDBIZnVscGNMV0NqcVFKbldmMGlRSzllWEU3a1Q5UGVlR3ZZLzdyRmNHMDdDV2w4Mi81Zyt4dkdFRmRDbXlBKzBpWVNLVk14Vk5uYnNydTI0YTRzVTFpYk1VUVhRa1VYUEVMRlNnWUNhZHBjeTdaTWFyWnl1QkgyVnEydzVEbE9MRkdwWDBXVEFuM1o3RVl3Q0RaNEtEQ1FURnM4PSIsImF1VCI6ImVhNGRkNGQwLTZjNGItNDI1Zi1iZjYwLWYwNTU4NzFhZWE4ZCIsImF1UCI6IjEwMDAwMDAwNTMwOTAzNzE2NSIsImNhdVQiOiJBSUJkUnVoSWNIUXVnK1BxWklVWWpyaTR0bHVCZHk5enBnc3VvWEJsYVBrVi9ycmp5YXBpL0VWc3lLUXlNNTlnc3VKY3I0dTBIMnJNcFMxSlc4a05EYjViY1U4bkU5Q29xTFRYcTAyVnhMMk55L0tKRHBnMXpidExqbFp0VllQQnpUazltdm1vVGdYRFp5ZHlPejFuTXBJM2hMQ2x1bHI4YW5KTkRxcHZvY3dKdjdnVEkxMlFjNlFBem5KMkZlVE9iWVUvYmtyc2FaR1ZDcWhtV1pFZ1ZiK1EvNDZ6b2pxV2NCMWl5MDI2Snl4ZTVRY2hCc1h0bzV0d3NIOTRCTnB5djVjPSIsInYiOiJWMiJ9.qwSuajsapTxYKfoCicMrKwNp_52g76h7n2nY08zMt-CCic2iOYpWLrPxH59CFRoPkORQfCHAVoZfLj_QFkJrYLnNxY6PcjU12R0hnIo-_Q3GH_XG6qrsEmsqmyid3xEZ_NETLGhF4tFubOUX4hNq_YazUKtQPXJ8PcohMZEEqRztneeNmJmCCviSabfK69U5GHajATQN0aZVhc_3cwA2_q_5K5wD6iacU1ofbg7kZtUGMtqfkrhtVKEAx5u6Cu-EUvcERyZfYDpwYQuYS01k7YQuO45vuqCLtM1KC4Q_gk1yUjOwdBJyYEo9heO7h1TEOLgNqf_cYaKEKfth8aeLtA"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI1ZTFkYzBkMy02ODNlLTRjNmItYjU4NS0yNmFiYmM2NzQzNjMiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0NjM3LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjdlOTU1Mzc1LWQ5MTktNDAwZC05MmQ3LTFhZDYzNDRmZDQ4YyIsImFuUCI6ImM1NTg1YTJlLWM0YmEtNDY0NC1hYzRiLTU0MjAzMWJkM2VjZiIsImFuVSI6IjEyMTAwMDAwMTMzNjM4NTM4NCIsImNhblAiOiJBSUJEK1dPR3dBdjdMc3Qva3BXc0JDRFFwdzZLZDcxL20xcEVoalRYY2JUVkd4VEZFZ3dOWHZxa1VZOVc2T0s0a0ZjSkxmSjBqMnpsTTZ4dzRXekRLdGFQbjlVZlVGY0FtSldqS0pYUCtmbm5DSEIybXJvMXozQUdSL3pLWDRyUFlib0NlNGpxUmR2eW1yeWp1QnF2a3k5Wm9Ia2lKNUlMaGtuK2tUWjZpZ1JVZXdRVVc2bnhVekx1WTFmaWJKSlNjRDY1QU5sZTY0dmdBVFkrYXdMNWFJaHdjc0E3a05UbWEwaXpnQUM1Q0ZJQm9WS2w2dkN1ODk5bkxpb2tkU1ROaEhnPSIsImNhblQiOiJBSUJrL01GV1V5OGI5UjlqTjQxR0FrVHRURkdoaHkvTm9mN1d5ZlR0Q0l5djYvTnRZOVVwbXJBdldrUWZPaXRTcTBtN3NEdFcwcnRXVFlCU3djSDc1elVzamNTV1d3MWMrQlRmL0R4SHQzWDREeTZNTitXdXJuK0FsZGo2eUxvU21YZ1ZGSzhzV0VUdjVrc0hrSHQ0NjF2dS94Q2J3TU16SlFHNmNyMjgwYzliUzV4MVB6RmpyL0VWYlVSTW1SRERZTDFKb0NMUG9ENHpBWGZxOEE3bDc1NmpRajhTZHhmNkY4QTFMTlpxNDY4Mk1QeHk1ajEyQzZMSEsrbmJybEJhOGxBPSIsImF1VCI6IjU5OTQ0MzgxLTc4YjAtNDI5Mi05MDQ0LTU3OTRjYWM2MTAyZSIsImF1UCI6IjEyMTAwMDAwMTMzNjM4NTM4NCIsImNhdVQiOiJBSUFFZUJLVEZsaWF3MTRlcnVpaGIwZVdnTVV5NmxZeUZIRDVtTi9UZFlmbnBDbU9GWVV5NnF1akNIQVpoS0M2K1Z6eG5OaHc3L2k3b3N2VTFCVEsvTjdPK2U1NHE1K29iK0JXa25lZy92Z2FFK05kZzAwS2F1em5TWFArbExuTURNSVVzS1ZLMDNnSytiTVRXMXJwdEVLdTcwZ0VBdExMSEhpZ2ZGZ1V5Ykk0QTlpZFVJQktuQ3pJbFRKUVQ5L0gxR3h5QTUvaEp1ZkdMN0xtYUVaOHpISDI1c1J4eDlHd0JSeTBLU3VweEhiSlE0S0plM0ZsUEkzdldKVmgwTytweEhnPSIsInYiOiJWMiJ9.VCJyoIUQcI3Hq3CFGzU9glByEqcx2Vu_mQYzvpdusv_OA0bhmXYu0Fb_8L4BAV7a6PAxK5iiwyGZMMpfKkzx35bFecvPWjl2CgAIFOyUn57P5qAb_87ma0alucoAgSnS4O_Xeax1YPdB-hO8lXNqI41DH0zrzZQkMpydrY5FKMcCPV6dPkPvLmilP453ZmRhC5_BOmKMIW-B26dhGXZv9OWHnRHKTAm2F0JgAAgIpAzT4F_OikmuZd5zEs7QvXKq7iDs-y4y5BxMFxHBKbUaId7fahap38-oYQzvus86iw2Maq95sXhKPgGl5mLd1SjbXmAwSuoOj8ETkZOaofoKLQ"}]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Ny0mVhTjS1-J0drDpbUhqqKqaaFU15qZB01X2GymaUgPm-QozYh2PzRtE2nA5zN7mCT1A2NCn-wjUjRMpBSYILHsXCxpsXKJSE5PWUzXagMqKfVHE7ORQDTesep9-aZxYADyk4SvzwZ9UeFNb2wqwMsjEeXYJwS1RhjDVJXxVAtzuvSwov2Ho2rWsIO-1mvs-x6rNqZg2fDpKgPEjMc_X-Tm73M_f7S2HnP1j2y3gn9n41XtLla0eZE80aqBA37RimkUcXW5qReFdWH-0IqmyMxI0RSc_hW8iztpgma1YRTmnmvFYOWG0Smd0HO7d9MbK8Ux-NqBRNfQ-JbcIdMVGg.8gNdLyol8FQUZJX7.gYTBWzLKuyBj0NcT6joC1ECnTaPwomH8rxfs-jZbxTV6424-R6bBsO7-MemriMVdbF_KyUbQ_7X-JrjTyjaE4NtW3sy2wPfY1Po_b9fpku66Skz3K1WK8TYPnZG4lkw36PVn27P-whbSwzprHugbb-zGAYYupHLobDuBJ6tJRm0MRfKeyMPe8h66DznZHS2vvwhl_m1RRPSTOT6pS8qHalx1ym7JFGSNVP4q-p8.C2_dOrdV-Pdf5xP_ozqSMg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.WnhQKjY4IzllOcP2SZAQL6Vn_D_sw88resIz9F7dMz1ZeNZ3oiQVWf_GZuXwp7nHQw3KBYousV04UfAs7YjYl7mhXLBnvRnaZ2ZYIhFzeskXGsAqBTLig5AhUQ4ejwFOQhvPQZI-AfANZ_gm3P4HKPTWLArVwad57Uh7_CsOagX-wmg5Ybr7veQmVgm349vyLgbLAnktjXcky768M9jt0jztzOIFSdrgOfR2kVfo4ciWp7gGRUQu6930LQub8IFViCKnx4mW6I88yIJOa7kCVe6QMDOfXO9scOCPsSk2VPtevO6_P4n381Q5yYG7aejJU_yY9LClDdMIF9Fok4vKIA.wlQskgwWfG9vkruk.91wuqUzHGeodF-uvgNx_mAfyH6cGh72J-t4uZoXhQ_cIBefxzwKF5vJfIN9fmvSYype6sUoUgcFQ1-KTMEQn8n1bdMn5WdbKgk1HyYgx4G8NFmSjGEzpRTmgPiIXBZPhG7gJmzfo51KqQHU4kjczkh4_El_NIC6zKEPYJoXvzitkLT02IF4UoAU73P5YWpQu7YsdifcblfzaAPRq9_IDdplX_m0H523WP-fPoYg.IatZXCuMgsyRdSup2j02Kg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.N_qE8PpYOoMkpTUnRfmN-TAV5ZQQLMUcr7bFLJm6cMhyarRCcZxyTbJJ4Bt9RNGe56lJbFbxdcv-dQ_JAwCaQsEPFoH1-JgWKKkTaLRjeA7CB9XfLT1OyrV-0yrTHzn6tdiJKah86stl7X63iULOBlGQxJyYcvusd3sCJwzgvEYRIE1EWUhxXqoUP9qfAmHA8KYu1VcdZLXVBWrNwDL5flUVJ0r6IMpAk89ayXm8B-HO18EsyBHPUBX9RDyPXlFczARfCI88nRamDvCmgKbHl-Z28yCqpPcN7bgxUOWFW_6Sd66bcVoxdo16aCHT7kx5wYWXh7Rkyu8PJAc_7YdRZg.pEgZoznwXamMD0je.upoXGTrEA6mpMKe5apdjGHqtBSDm7UYHgA3tB8m5iOgrK5AejyRgON_PNlmOy98E8j1M527BLXP9KTxhmBsN6iH5EV5eo_1t3DX2Su_FiVlnI5OYavMkcSTWPLU1XuhH4KNqdW_bR1EyK4YfmrGmA07L9WoBlQpUVx6dDU2MjTfidMONs1Ea8bsM3rv5UH684C_1uCfCRCyR9Ta_A3eGRC49ydYKeagrDGKWt5z4.KyyKYHjoUZTixfvBeeY3gA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.YOfBZVswRRzD0ebdY3ztNj7reHY1jEwN0ZsAUm5SkPB5vUts2SPyYaTOkojVGhbFGOL9qKLk7iqapt428WZO8EZ6fPuxg7MqDOtrTdzqKg78xeTG03p4ox9hjHpwxvyjwNJtm-lAuDAgZlodEnV90Z5vORnTgwHonVGOhg0jwCVcnD4BAAAh9jCljg9L4FPc73eVDZeJCyFpD7uIOJdZmmxbtakh0ew_6zHn-tsrobCm8uM0PXyrqt4YyGuiHokVb9pl_dAie-9R_q794rdZ0QDcuWAoTuZbZCQUFn1GDJsqm7BGiMkpj8WdaHTfdWbpdEf6Bysb94j26MedNQ-tRQ.Flqq9rbXMa127vE8.B3534Z0G0-4opfeTa505j8xfG1eiNiw_Sr6iSW-QjWqc-xirHz5is5jb_UVKZjO1K4Y6n-gfNFIVbx-ZwicSQYuolSHZIhfGFP08aO8xF_QhlqCsRZcJghTlzB0eVbCVK6EGbm70kBhSFkAUFXVBWjt52UDpb0dp4GToFNk0JTTndlFgnQjJT-siMc3kOhiFB5VIfH36iwE_3a0fLVRpEFkLYKlcVWAe6pjI3PYv.-53aEVxL58gyAwtTIPVc9A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A100000005309037165</t>
+          <t>A121000001336385384</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>e93e635f-e4e7-4de8-86f4-c40fd40e54f4</t>
+          <t>71c354fb-856f-4304-8c74-abe35e213cf2</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6A5AA0F6-0230-48A3-AC49-F1DD14075613</t>
+          <t>8CF9F8C5-DF9D-49D1-B6FD-99A35386D7E0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kihiw318@list.ru</t>
+          <t>lautipecle1986@mail.ru</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>g1qhE3AjAv8n1AW73RLm</t>
+          <t>Ddg9X8nuVFmWh9ryBLiN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI1OWFkZDI2MC03ODg5LTQ5MDgtOGVlMC0zY2VlYTYzNzdiNzUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2NDEzLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImJlMzcwMjQ3LTBjNjUtNGEwMi04ZWI4LTU5MGRiOWQ5MGUxNiIsImFuUCI6IjkxZDBkYTAwLWI0NmYtNDc2Yi05MDY4LTg3YmY2YzE3YWI5MyIsImFuVSI6IjEwMDAwMDAwNjA4Njc0Mzg5NCIsImNhblAiOiJBSUJLdExESXl1bzBvdFFMZkowRnk3WVJHVVF2UGtTUHVQek5OVkJCbUpOQThVMW13Q1ZNbEtEZWZKbmJBMC9rZVZheEVXVnFGeks0aXhVWXoxRmZNQnlxU0JwaXJOTnNMWGVoU1ErN2hnbjl4bTErWnpVWkNhcHNMRnRlNE90Rms0SFF0L0Jpa1BPRmd4NlJuTHhkT0dPWDhmeUxqN1JLRkRETHVkOUJoNW1ncnB6UnBlbHl3NFh6MWhYQjNHZWhQZDVLTEZxTmxGZU9xRElyTGRCdFpZS3RaQnZJcWJYNFdvVXh0ZmdLM2E4SGpqUGFDcFJBaytKNmwrT3NzRnRwanVZPSIsImNhblQiOiJBSUFwTnBZVTEycFF3REV1MVRZWlg5T296WFJUb29XdlhGTGNKVTVBT0dQQllndEI0S2g4d2llV1VabjdhZDdacVhMTGZlSms1WTVFZW9LazFPV2NhbjFCbVpVK2lFWDI4K2MxOXhvNWh1SW9BYyt0dmFodGwxQVQ3TDVjRmpub2xHajA5MDA1VnhyTnc2UW1mdGhCR2VFMFBXcDg0MFBDMzRYOUlRM3RwZUl4SmRCQTB4bS9CdlNuRGJ6cmRXb01RbkFDdStFb0FGRVRRcDFmWmFHVzNNaWRCNlI4Z2Y5aFlTZmtBclh0U3ZjbGRQZFMxb0ZBSUFlTWFhZXBJa2FRRnZrPSIsImF1VCI6ImMzMzUxMWUyLWY0ZDEtNDRkMi1iOWViLTYxOTAxNmI2ZGJhNiIsImF1UCI6IjEwMDAwMDAwNTMwODA5ODU1MSIsImNhdVQiOiJBSUI1VDJnU3FianBLcEI5VmVnSURwbkpSNElSYjFQcnZXa2ljekM2cXA5b3dHSnNrZFJ0MzNnNldpUlR1aWNvWTJQTlk0aDMrOEpoVGF0eTVRcmczUzNnckJKOWFtTml1YmZ0Mlh3dlpHN09mdTZra2NXaWRERFBXWkgycGdnZEs0MjZFQzRBWHFnVU1rYm1uTUFCZXBiVTBOYW9JQU90Y0dsT2NKalp0ZHFWeGRqSFRxM0lIWmV6ZVNWejhQZGxtdFdnZVdHcWZabzludkhQRjd0Tkg2a1Jza2N5UjBYdGd0Rkh3UEpnSFlTUWVvZjV6Wk5nRnVIeTNMc0hlNlJUTDZJPSIsInYiOiJWMiJ9.AVKtoxjngfkYZp5jAf81ySoKMQyqgJIiBbzHXK1XSj0EVCoNetwqc948MY9vEDXVoI9fwqkbm0m-EPaxe5xnoce-d5t9PYl7fv9whHIXz1mRd3G1J7lmtV_aRSo5eAsF2Zou1I5662jRp-f4qh1fakB03EM5405rMSo1_ZqWJGprFTLFhEAntpFzurKrwSkkyERzUXT_To0wcC56hJjsN1Cm1JhL-S_zA_oLa3LSBuxDtGtisQ7tNJzEYQ4N7shRb8EgPRyHCXj35nq7D55VIRkAgyHpgoslX7TdRdFCHM36WoZmBQtfg8VazdaYxadwmOj3NXfSj9rRK7unxWtXzA"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI3OTcxZTUxZS1kMmZkLTQ4ZmItYThmYy1kNmI0ODM4OTUyODEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0NTQ5LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjNhOWE3NGNhLWFjNDgtNDhkZC1hZTVkLWNlZDliNmY2MWY2OCIsImFuUCI6ImFhZmQzMGViLTdiM2ItNDI0My1iNmQ2LTE2Nzg5ZDU1N2YxMyIsImFuVSI6IjEwMDAwMDAwNjI5MTA4NjMzMSIsImNhblAiOiJBSUFvWU9vemlyK2p4WVdPNkR4MXdFeS9FZnpia0RWbHJJMTJSWFRBeXMwVTgvUzBzbFRHcDMvbm80a0NZQU9RMmxGV2FFN2d0enVzMFZ0N1gwdk0xTFk2U1Q3WDk4WExhWHVNZmxZNU1STlF5dVREcmx5UGtxck5kdlVuZnc0WlRiNE5YUzhZRnplWHY2VkN5VWJCcmhIYWdPV2JCZkFUSUM1akh0RHAxVFZuRTdMcFM1ZDAvR3NpdjkzWVdIRC9mSjFob3QxN3l0QWpCbGxVUGFaL1JPbkNiL1ZxbjYzWDBXSXNTUUxFS0RBbGdZcytqT2djaUwxUnNUUzNIYXhvNTg0PSIsImNhblQiOiJBSUJ2SCtrWHZDbHkxVnN6SjgyN3ZLamJpaHNxR25ZRUZHcUJITVJHQ0tNaHhWYS9GVkFqemtTV0gxS3pqWitFdnhIVnR4RE1rdm9tZHVOMWtsRitkRVJjWmt6OXdHaUorTm1XNDAvdEEvZVVqSXQrKzhOOFJOQldaWS9ReUwzQWNXc3owSDVtWE43K0I3SkFEbFZXS2YvNENmRFcwVTBIcFRqK3FhaWpVelFJVHZKU1NjSVAxa0NnczdsdGtSWmliZlR2TkFhZHNSWTgrUjYvdjBMaU1hVXQ4amkzZlU0WDQ1eXFvSWVwbzFiWlZWb1dXa3VBOFRwaVduTzBxRUYxQnJjPSIsImF1VCI6IjZjNmY0MWRjLTdhZGEtNDM1ZS05YmFmLWQ3ZTkzZDAzZjhiNyIsImF1UCI6IjEwMDAwMDAwNjI5MTA4NjMzMSIsImNhdVQiOiJBSUJGalpBTlQ3amtTcXRtaCt0bXRVMHRqTHdERVBPU2tKMDlMVDE5ZlBUL2xTcTh6bURDbUdFMVM3UmpjTGxza2xKM3JmeENNazRvM3V2MEJZVVh2M0d5dVBBN1FOek1aUjN1cXdLSDlmbHR0QVpPelNGOGV4SFlEYUZ5dk1UQ0JnY3piYU04eHVmNG9QcUkzSzJLbWdiOFhmUUMrd1dZbVdHME80dmtmNjB3eXIwY2Y5ckdyVDduOG9KYTM5SGxtaFN4RHNZbG1SaWFWSHF5OFVrM3J5bTNZNTNiUFdIOXRBZ1F1cUlrdmFJenllRmI5eXM5anY5eFNTeDA0aENWb3JnPSIsInYiOiJWMiJ9.lwZtVOjZgxRLEPkbPHmW2l5UFtKL_HMAkpYwoGeA2UK5_pBxoCGMFAkRtKB9l_dnlZJshzZJt2wC5aC9d044sddjsUJ7bDcVDB4Y9NsVt0g-X7rCJ5RIm_MVkjuDNkxlmQ5rcUtvYC7dCnDvyuJwJdKQWaCBskM1s-yZzzBJu0PJGjEg0Ojy9GD2EvEKuCRcXCeP29Y2B7J0bQ1125esAcKxGaqQsxI1tmz9TalDBkaN8aI8Oa1-7HIfT3vWsVWmROm0RTo3_AD2__2VkQsU3f1f19VKg6N36RE69r98_BXygPp5izZ-W19AUAROaU1etG2HeAzFxHWzn8ihYI1B0w"}]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.elL7GFhEIprMG0iTm45OpI0DoeGQWlLAiPDDsJKt6558upCdcQKKt34gT-sq1nJ5uX11guJ0zG4q5Lcro-GOGETEFAmCnMpr26W8gO3MDMGcoDS2uDiJ0c56CbUK0Mq_R3fdO-aw3I2byYFVmXyAbhvALbm61S5cp5SpjJnetf7Ck48_W3ijRzqhpNTBw2ID3iUlK4pgX5jsMqk-9CFF0nc3NB7KOYS5Z5iD-0YfuKRUqZhCqXVZ9TLblhcgcsfKjsZ7h8s96DaO1UpP2tdwRJzzr8TwmU_usBDsLHk5wnkgaTblMkUrNzQqEgkimAMIgyAtf9dHsIJ6nejtnhnKDQ.BVLOpFNU3kmpKBHj.I7RNvqxCgYX8tbL0VzL5sh8Zog0fKF4NHv_A0fiWqf84qZhWagzVVIQje2gzi21Qd2UBMkCw0YmO3GW7ajsSGbxKoWye_V50CsfXsBlQ2yU9eARAIwbspr3JfP5RE_iGuisH5z_CnV-CC_EtWp7msM3F1F09dnSpIGP5DAwlxbZQmabk_jYZhb2_t-yAxz3FEK1EcaGQcQNg8Rgo2o3lTUjbfiMEIkBPCt6Qw8s.wu3ylWHImmgRq9ip7uOmwQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.CXqkJqAaKEgKVF7lR_k54ROqdZ0RAVWiaZMPioCGIPMxnZpom3X25jMN1_OuJIMHj_Lu2wVSEvVLlTB-K30lvIgTcGB2rsxB5V_2S1kmp19yWPNVMRQYtol_lqapJABkKzuFffSNxnaEb0MFZ8lsyzLJtTH8jTwFilzEwBszhzByShPJSCWhW2jT3xm9ReNpTTM1m247Va3LdrCsVVWgtEWV5tiT4bTlyv_xO-eKq9XRhG2wpwjs0tx1qnsEEwCoRU7LpMpy7yU8KrtXu_ktNhT6UxmPnkE2xsGWMzNXGGZn5Erzy4qC6WNmNBYET7cS4_wrmEFn_2ui5tKqksgxmw.hKSS5u-j-t-V7wNx.PudDOl01AbKNMNcq6X5QF8K8H8BJ7F6f0wTH1QHeIHrVrNs4g4iuMzUE-E8o30Qph7IHXD3mm0Ai49v6KpGi4ub1Yd_yKpH6gJ3DZsRljtIJYpDS9bsvZFinyzuqNh02s55R8YdhX0tPqNkvxrrZu2wVxxevtQ2ec-IjAcVdGJVkrreR5kAPTx4q8ZlTpq8Gwl5EBfRsIB6GHVePn6bR0FzcU1fV1ZmUlRqU08Y.N_dlCAIewcL7yZTBOVFI0A</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.ONMuMNGgSqle7oI7U44K3AsloD7VPQG4qC4VuVHJCrSh21zUDqA7t6NFQjN7rVfWOFtMiLti6QlSF6_beYZ9gJPwSWmHffsCXORzwxMwMKSBj3DThrl0O9CqdK0Sl_KPJabwXTML4r_ERLum-M0pWBzQLl_EE2NP3aEXo7Qw31lyI6hlU7_gGXblTHaZxqgHkHnfBJPDTNWI2CLPMC16Q7K3MTEq-qr2RgtSykHPmNZnBjaRJVqeDnnsJ_ZftFuuzw6VYTY7u03WfMXl2BF9FrXhpJz-NCoa3beaNnv_R4NeDJgGV44y7Ng2RVbgt_Pxw-VBmpZUka8IKw6v8f_kiA.jq_q9egiIHetaiW1.irtoekqKD2iB9Fd-Wx0yXFXZXngFZo8cwk8QKWq-ptHTjftjX3_KjjbaFHT1sgnnS6gxxqTX-zsbr2zlKdXTPy3fkORruOWhxc7SHmmoZRcL6o2YvajGcC5ag3ii0Y1mrnOqxrDB2yscc1MSynRg4IwV4j4oIodCS47ppaXlxbY-UL51S4tQXj0mSeKR4tth0Uw2klKCaIsIYSYpn0hG0hwWS5gwEhW22NxeaMk2.3BkH1W-Mz80V1z2cxhvzGg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.HInPF4rcBVQEZE7PaUewzXSx9-rEbuwKya7FZfwzsAVLj75nBPrgTAM3f3z93jt7jxBitH_cOGUc3wQOF3wuAtKehZUZPT71yg8l68t9M6411kMaRaMHPhdobJUTFGmsqezbEcuBVUiUDMqL7Pl6sxUMY2J7hIjJg-zR9oRemRFUD-_kFs_pC83_Bysn65pEWVGSUtvRI3wqTn9KwCbC3NqYMcx6n5vcLuOY-JQkwH2KdiuFtvt5I8qPGJatpDq1y1gYvG2xuzPvEorHwKNPcCNZEi0aCcENfCZbsyIc4hAFC00BXec_VdxlqYw_V5QRC6_ydvi_zroeon48Dzm5KA.GigWYscXSH3ZBCEW.XEpTHJxfNoz611sE1yBodclEt9TzotTfq2LetRTV6CctE8-8-aXfRcMGbxBFKQ7too0Bk-7rHqU-GocVz9E_7wp8stGdzw9j51BOgWE1RjmAesRmEiH6hP8ZAOIayVc-3yteVD8Pa5VIC3PZPQxmd4DWCUY0glChZTiiogre1ICdLxrD4XM6CeB3qKtbiM9nqK2fr-IVZ8JBSDKJXvNdXdR93Fn4zam-sFY5ftK1.wKkbmiyW3i9pUNRVp5ObhA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A100000005308098551</t>
+          <t>A100000006291086331</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ba1f5e78-8a8b-4b83-9e4e-beff3e3d4a35</t>
+          <t>29b668d6-8219-4647-b30e-58e7b0e3bc0c</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>953DA735-5058-4289-BEED-4CE89DA4EC99</t>
+          <t>EBB67CA4-83D2-4925-8116-80B1F2D7DB54</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>seleznevadolf1989@inbox.ru</t>
+          <t>lavonda.spingola30430@mail.ru</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ZTFQjaWsY0q7fz6KLy59</t>
+          <t>fiW3uqVPkcmPzi17R2cf</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJmZmRiZGIyYS0zNmNhLTQ5ZjEtOTg4Yi0yYjhlMDdmNzQ4OTUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2NDI0LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjI2ODUzZmY5LTBjNDgtNDg1MC1hZDM2LTY0MThlZGRhMDQ3NCIsImFuUCI6IjRiMzcyNjk1LTQzOTYtNDMzZi05NmEyLWM4ZWMzZTMxMGFiMiIsImFuVSI6IjEwMDAwMDAwNjA4Njc0NTI4MSIsImNhblAiOiJBSUJMTmw5M3B2YmQ0T0J6Z2NLdTR4OU9sS2Y1ZitKcXRDcFp4Qmd0d2p6aUJzZWpvd0IzcVY1cXM3eVJ6U3FjSUVubkYzUVJuZDFiQjFOWnhKbGdzWkJFVFJJRGNheENDL3E1YWh3WmdLeTFxVXhYVjFYanJ1bUxLRXlNYnlteXVET2NUU2x0SzBFNGc2alNjZndoWDlCU2sxcUl5NHhuVDlmdDlzNGRGaHlEMklTekFVamt5SDhtU2IzR1JlZzVoQUI0VTllUmVVSFM1MTlxSVRQcVRFQ2JjOUw3YVFReG5KMHlLZDdPdEM3T0tudDBhR3dCbUY1OWdnaDNocWVXNlEwPSIsImNhblQiOiJBSUE4b1Frd2RlaTF4WDdnSXZ2WFdjWk05UE1GWHRaQTB2cXhPREN5VmJzdEVPOU4zR2dzM0s0OWFEbElCQWd5ZHdnb051bXBuMnBGdWJBcm15akRzcFZaUTJ3WDl3bmlQWE51amxBVmMrZ0xMUy91RnEwWTRtei8zemFQUXVoUkk1Y3RtdytMOTRNcjJJcVRSK2hKMDlKd1UvVWdNUkwyUVExalVnWDI4cDlXMTNXQ2l4L3E2TEx3a0hhd1hnZGh3Rk9hWU5vYW1BYjRhZHhyYlpVVjlTd3hiR3duOWlKeENrQjVsM3NZVm5RbmpJMzB3WHg1SElkSGNHYU5zUmx1S1dnPSIsImF1VCI6Ijg5MzVjYWM3LTFkOWQtNDBkMC05ZDU3LTJlMzMwYWYwNTM0NCIsImF1UCI6IjEwMDAwMDAwNTMwODg4ODYzNSIsImNhdVQiOiJBSUFLdEc2NzdvTjY1MTkySHc3Y2dhdHhTSDY4Y0U5ZDl2THB6cUxqTFdjYVYyc3ZxS2RQeGdFVnNpbnRtd05XU0huZndHSzRVRVdnUUhyeWtkQTJFekZUTG0wZXBCdmlGMVdndjRPajgrNFJZRXhOVDh5ZUdBUjNnWS8yWUhpMm5BNjc2UzRmWjdsUUlmdmFZTGpkQXpmaEd1NGdsVGtJZ2J6eXR3Y0k0cWw0VkZjS01HVmI0VTc3Sm8vM1hJM1I5TWxMKzFHQXNlWlFndHRONE1JdjZWQ1pZMlp6TW9keXlOWHNteXJyL3VXTHUxRWl6S0lRYUpQbFhqeENpbmI1ZWJvPSIsInYiOiJWMiJ9.TgnTId3mqEiuKUDra1xYGhN4rVgT-EB-ehXvDJ0LJVk1JpPId4OUj3cNcWfC1zZd6orm4M9APol3-uI_942az9bjQ9iS9l-Yn8-q0mZLAU98o1Y1ISYRCdxmAHoAkMVzc8XhahSOCUV_25P8g_4c0Qa3zgi1ELbaWiCwYD-W6uJEW2AFLLB7JLATecZzSZ4pYQSxfUOKc9OADg7ho3ujNfMMbQCYWsecwucMCUsW0gGAdH_5CqICOY9tL75nwcrfwRl4wgNyHcMXsaNB3booZTF8pasoUE9cc5AlygZd3YXWejW_O5FabFhBsu4I5ndjz4KlVhMyZjQ48AaCdCjNqg"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI0NmU2MjExMy0wMjc1LTQ4ZjEtOGFjZC1lNGRiZmJiNGIyNDMiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0NzA3LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjBjZmQ4MTE2LTgwMjUtNDVlNS04YTE1LWVkOWI2MWZkOWY3MyIsImFuUCI6ImIyMzZmOTc1LTBhZTItNGUyZS1iNmNkLWFhNzFkMWE4NzgyNCIsImFuVSI6IjEwMDAwMDAwNjI5MTExOTE2MSIsImNhblAiOiJBSUFlNG9uZk5Lc21LT2NOQ1BYTW03d2wvN1N4VjROOHhhbUtMa1dLOW1UdWUrektGMWF1Q1VvZkxmZlVVV25hdTRGNC9wck5aZXFQMFdjay85ZWVBSTBuWmhmTExDNHhvSUFOcVBlQWRqVTVNNmtuaWRjYzRUVlkzYi96Vk1BTmQ0UThhZHN3aHZ5YjY5ZWhucERVY3lndmFHd2V4dGJERmlNZzgxc0tqcmpXbHdRNHNnRHFGcEZhNzVRVFd1bkZrbmx2VGRIUlRnVC9PSUJpVHFYTHA3OEp5WEZ5cHRTbkk2d2d1dG94WHRnQkEvV2tyODRrNmZybXNqeUszRlcyYXdRPSIsImNhblQiOiJBSUI0aklyN1R1aldBdzB2WWY0c3d6SFdjaXJlSW9ib3VZRERtaFlmVE5tZUp2OXJOSWxKdGxLanhhYTRLTkw5Q1V1VGNsS1M5bHN3c3JxckV4aWh0R2pjditCVzh3UXUraDhqb0YxVnJwL3UzQVo1V3A5UGxaOVlSUlJ6YW5sek9JaXJCdGhBdjdJV1VDckxwa0FjN3E3dkxhTitGUzUzR2QySVAwWk9HZUd0VnRpSU9WQVY5bEQ4K09Wem1MNklkanhRUHI4YWZITGpGdElqTE95bC9RRU5NVTNFUVZ5YjRvdFc1bWx0elJmUG1NN3l1bnhVRnJXNElGc0JhOFFUQ21nPSIsImF1VCI6ImRiNjU3NjA1LTg1NjktNDRlNi05MWQ2LWQwMThmOTA3ZGFjMSIsImF1UCI6IjEwMDAwMDAwNjI5MTExOTE2MSIsImNhdVQiOiJBSUExTTliNUNvbGtsZS9ZTG9WTmZCWDNmYTcrVTlaZWR0QkxneHlobmxpMDFOSFhHKzE4NXhFcDh6ZW9pNmVtdDRCZ1ZHUHExeDVienZtbGJ2ZURLU1NYanBwQVh2ei9zMHkvajdlSHNVV0xxZUlRTS9hSmhlNWp5Yno4M0IyaGdGSUg1bzkySUx2RDdMd3hlZmVua200YmtSc0ZFVnNobGN2UmRhV0drV2pXc3BUWTVyQjVrV2oyaVErTzFoa1ZZUFp6KzdHTUhOSStlVHNsL0JyeHV4QTQ4MlRGeUNyNjlseHpwa0pFU3E4c0tTU2JZanFWczk0bU8wMk1SS3ljN1g4PSIsInYiOiJWMiJ9.AMB_Q1X-a8EQmJygzM3n0XjUFHvbaS34Z15J-yjkbtQsE6J8ZoPrZpNhPhEn1vvMF5g9xyqP97wCeMHs8746RnqJ2WuLJtN4m5YXNOYnPvKLpd5qnL1Qs7VSvfE5A6RFY8jHui6gLhTav5hfeijvunahiBs-1lrC-nKc8fHcKSkcJPB50ERqFKaZc-mEUzqFa-6_R09woVQZroO44ChRMeSvxGoRG5dCa902h_Fq-036Ag7iug8qDdy4qx1C0S5SYieBeSrFBmwE6XhtVurLtHOpG7_hRl88S29UJbagOW1H7ucTA1zDf69pvv4rmdr4n68IG1AP1_rEsQtWBXAnOw"}]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.RMIBv4RUkvrC2W8s_rVLW1eT3OTDvf2eu56lv1PdPKJpGgkydIPjuBBwN7D_C5zriv57d8Z4ZodlDfp4fjy5MU2H0J1LQ7G14soiTXKMu3JHf903aA4xaSc5yHIxOHtbodyzJlNmBZ63cJTiupC_fWTJlEB8J38z6mmVo8Folqwav0WWb44BlOLIlhiFnX7EeOf6Pj0x18w0jk97TCApZZ268hoPHhOBdvFybd1qiCFfG_9uZAzdaW1ynxRskH9a5z_ZmT2-_XvlT0JdzBEKPFGFPHpzSUHRj4ox8MuKCOPEiKQwXo1Zv8PxG_xtw9-ys7FRmm77vpNLJPALcxET1g.WinbmbuuCdhKsOYM.SekAPTgzbUzZeiQV5__AgZDPhTvAP9tkK0KAf7ekIbkw75GXmdpMB9FmswmhpkSQGk9VhImD6m5ZT2ndbmnwcp4H6NO-WEuoRaCzIJO4adJ25k2n0VxAsWHCznAIF_tu-j3JreKAyxhdSBVDvStB7Cox1Hb8B9aobDXHNfSHhr3RjWbFZp_IDNSOrVbNRX7IH6tmd42K4cnw3j9FVZzvhKvb9RM_EuDFSqvZ8fc.q7uZSRIJOl3w_7zKvwUH_g</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.IQXpKWsyC84G9b4uZ9sOjXIwzj7essbGq3W5wqn2bg9a7oAitpbriYlPRj1adu-x3gBPYzWZA-zoWvfAum9kIp-OstzNWgn4T9h4s3Yh_GGL3b6qqIvlUuliVBcQDAw01drPp_ztbAOovMOs3LI5hsnuD_Ij8nWeCKzWWAjOXnyZRL3rOEyUielpTwOSaKS50fSurrbEMVG1-LGvHHVaAPPdcs90a6CjagTMuIRm882cypNhf3y1jbDaFdDQzEWbV2jUAw-EvtcGKMIHY-eTNJMPVS5ey-sDwkZba6ML1IdDODgxhLx4KnXMXs-FonviIFv0Lci8KWvGuu50x1dlsg.txXsTlXnAYVI3y4X.s98re_f8Z9GKA8TjTnuWYtCC3sxijk-AT3fvEvaS3m74t1pmH8JRLYrdoGYIi-Uwnbu0oCDEe6jNFivLoaUieu3JG-e-dgPt3pzLM-DGOkyzqhGbtTZtGeaK29VqnrBgpDMLL6EK5ysF2vNtCzKvSXvSnhxWEIc77iiD5JSFaZStaII77x0kSRLdBKBYFu6LRSex64gYxpMHmUvZad2_MR98XBFwwCDldyx3GdA.y8zBWE5lZJ4xHBLV-CUYNQ</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.cvI7pzzPa0dplIdjkMk74U3XjIe74t3blO8e89OF6Tt5Ogc0XXvLARif3icxi0TcSOZwLHfByBtJ5u3vvkioYpNsu45avylMrT5fBZoERELX14JcsiqB_NeK-bK0y8vlmT05-4-SYZ8TaZb_UL9JIhwWgeO1IPcaA8rzGO0h8wCqXd7NJb7QK3xZ0C-bWfUX_A5AqQhKhkI-J3519uG3xb_m1Y9mDrun0xiykfM8YLa-JvV6Y7GDAeu2FO9_TfN-r38moJPJ15vwCbNPpAoAtDOmpCquh4cHG5WwbxxmneU6sX0_fkeXM67Na7oaE4NjyalYFjHBtFnKnQv3x41ivQ.Y5Ty6MBAhrQ6szvO.Qqb-zFMvHBOJg3QDd_7IUc0_WNMU8M506Zp-xy3ZA28Cwq-_z30246nHE155QGCQucW_t5-BHfwnnh16Ed5mBFiW0zCLRjOTOzTBtBtzmsAqaS7eYiOzCKto-v1Nb7kJe-ijeZkf8XVEPHyzhuZO-L4RXSKEjIHAsNHIcV66i4jREk8YLquU8Zdh8jS5LjTbbyxujU6PgKu_S_QVtPHvypbdwI6h3IJiUiTXVduv.dShvb-fThhNCL4HyZIPIzA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.JzM05QpKrYQjnaYiEj7Lr-xn1AlDawdT4463QI90yu046byl8DZl2LoX_tLl3o_Vo4ZGH4nKIWApzUTs9sLChzRTDt6Q4wnaXzbR9Uh-jyPhzsaPjRMCpHD0OTld4oLXa0M7T8kFy3jaBSCPHBw8m6PpQRhcHwL7pfkdp8NdB8Jmib6XPoqk9UuHC1E12NMmBNv9hxzXtWngJT9f37f0PVBjHKFe7E9vUf5YBmV0yFR8TsRTtV6InlJNxxi6Jhr8EQ1lfyirxuQPh4ahhwjA7ICgAQrH5voKt-R7laLvuMuk_UwTp9ZfeG-9tRuBM42LG1CMhZJp9MLMDABZHb5GcQ.cqrbIL5w9epuGXFG.NXSNGBQC9FMWqHtRkyJhia_b0iHFalVG8egvlmDwnjo3CI-2gDZB9Rh_-TODGxaZU07tKTBYZbUqyw04jOJO-t9BzZpXQRp7yWQUKiXr3q0Z0u_8PAtsMil-6nBCwGJnKcwNka4lC9hbtVCpi7F96BGeZzFr2hdhhEzpRlrWy30QvLV4sHZ0aJ9QhgGHI1XXoUpr0wimZMMWb7QGQHgzRBKU3-_x8x3pymZxr7c5.u8msEBlX3Z0qe4edi9Ad8A</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A100000005308888635</t>
+          <t>A100000006291119161</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ddfe8112-def9-4c44-ad6e-60fe4d3c3574</t>
+          <t>9baf9d3b-9981-4a47-a1e5-cf0b1ab6f547</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9273D7EB-835A-4571-AB3E-858370C48A45</t>
+          <t>65DAD515-3277-4921-9745-9A6D9FDD29F3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jikl3gr@mail.ru</t>
+          <t>compvitur_331@mail.ru</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>inXCQKTQbRHGQELnm9Xn</t>
+          <t>qrE7cRFnqC5184e3DBvU</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJlZTI0NGFlYS00NTViLTQ4NzEtODE0Yy00YzZiOTdjZTdiMjEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2NDM1LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjVjM2I3ZTIxLTE3YjItNGU0Zi1iMDlkLWUwOGY5N2Q4OWM2NyIsImFuUCI6ImRlYThkZWVmLTYwOTUtNGZlMy1hZDM1LWVlYzUzOWQyYTY5YSIsImFuVSI6IjEwMDAwMDAwNjA4Njc0NjY4MSIsImNhblAiOiJBSUNPMmtlMWhFVE5uQTBVd09Vdm41ZnRNZHNlY0xXb3ZVM1ZEUVIyZU82UGkvd1M5cGh0dnl0Ly9XUnhiU3pJc0hxY0RLTHAwQnZoUUR2L2ZVUUNUdVl6QnZXMTRpNGxRdWcyVDlQZm11SER6M0tNRWFaWHNueUYwd2w3cjdPeG9uUW9FdWNnZmtHMnNQTU5KL2M5cnFaSzB0OTNubmh3a093QTlyZUNoc3dmOHRKQjM0ak1ZaS9pYnVuSTRHWk4xLzVBZmYyd24yUXpQNnJJWCtDRmNjMXJEVlFPY2J6eTdFL0FXYlM5UzRNZytDQjZvVEw5aURtRTZCVm9OU2djYXVvPSIsImNhblQiOiJBSUNQa05hbzN3cDYvd0k3d0dwMC9qTHhWWlg4YURqRzM4aWRaSVlnR1p1SkYzeEsxaUliNTNnZ1FONnAyZmlBZVU4MklOVi9JOGsyUmdGV1hBVldFTEZyQVdpM2pjN0NwYzRJOHd5MWU3SWRyS3BVRnY3bWdORzRGMCtVVTFFY1l1NXNFYkhCVTNaWldtR1VFQlVpM1EvcmFwUitxVHRscEc0c1pOYzhmVncxdGx3MW1qNUQxTWREaVNKQUljb0cyNG80U0RYT01RQi82OGdJTEtqenFlMWs5UzFqU1JLV1B2a3dCUU5VM1BjU3JySUFpdEQ1NUMrSUNWNW1hMGxsMm1nPSIsImF1VCI6IjE1MDM3MmI1LTFhMGUtNDNiMi1iZWNkLTU5ZTg4MDc2YWQ4YiIsImF1UCI6IjEwMDAwMDAwNTMwOTM0ODY4MiIsImNhdVQiOiJBSUFvSWorZGJYMEJFQWNVUmp4cHM2dXF3dldpZ2VLN1Z1b1luVXBVRU9kMUcwS2xxeDdkYlJZbHR2eVZCWmRscXJGYVFTTjlONWFsRWxuSTF3SThiR2wxblRYbWtrQWNhYTdTRUl6QkJQK1BjSWRTSWRzb24yQ3JkSW82QjhNNCtrSlNWb1MvOEtaVlNMVjJDb09YaE5NeFhTbjBSdVYzTU5ESUJFN0dRL1g4RnFyUGY2bHJSbklvTU0rZzJ4N2xxZzFYTkJ0RGpZalR5bEpxcEhLajZ5ZnpKS1c5MXJvV3JLTExYT3IvYUlCQWZpT2VrVXdiWHNhUS9kK2VOU2lOSis4PSIsInYiOiJWMiJ9.jB7SL5BIChq1-HFfqr3oB1CsHS6mqClHR4EeX3xOaQ42U7r2osJ05z-GFy31pgJv2FnLzXEU4kr4S5ZXA9UPS-MK3pez2HEzFvNtNQ0-kBqnT-7vR_S_4CtUB2bDNvYoANLfc-WYwzU_evufE90GPVVxf4MbWanRSUpvTIP7mN7EntDC4Rk--xunmswwVm6WhVxmTqoKTctPNCO6Xdk7cQ6ExBGqiUOvH-xNuWfl4ZMltSln0zBS7JE3eyleAYnCOteyS_gxu7qyvuDmrGqAO02K758eYLQLF7K58lOvqCaWrC83G_HgPV3IKI5xQMUusejnDU21DQccjNOViI83DQ"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJiOWE2NWFlMi1iMGU4LTQ1MTQtODE4Ni05MjQwZmNiNDlmZjEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0ODczLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjJiMzhiOTM0LWU0ZDAtNDRmZi04MGZjLWExZWZmYTQ4YjU1YiIsImFuUCI6ImQ5MDkyZWY3LWJhMTktNDVhMy04ZjEwLThlMDBkYjZkNjU2ZiIsImFuVSI6IjEwMDAwMDAwNjI5MTE0Nzk5MSIsImNhblAiOiJBSUFsdnhCMzZMUkZGREhBTkIyR0JvTFkrNDNXVEdFbTdOSU1Db0lReWVhVHZOa3BuL1FTaXkydGxkeXNCckFXTkltZE9MYXVwMnF2SWdlb3dKT0xZYlZ2bGlQMmJGVTcweE4venpVdjFqWUpGWkw5K2JVMGJ2d05ZYUhQcXg1SVBaUVgzZnZMOGl0S2Y4R3lHRSt2bFA3RlE5aWFnT2laMmlBYzJFVFZ1cHJ3MWlvWGp6UTZlLzI4QWZkMEcyRExXZmkxWkNLbFhqN2xwYnFYNSttbjkrMkdIV0Rna05oMS90V3lOVmdadWd3cWdxeW1VeTU0UDM0Y0UzU3hpdGplZUc0PSIsImNhblQiOiJBSUF1OEVDYUdsVmFYZ3BwWHFKdkw0ZVBHYUJUQmlYc1VqRktqcFNQdmg2cmFac0NtTXFRSk9iNmVrdWtFUnVZVXR5MUdFWU5SRUZramtiUFVNK0ppZi9nNklqZnZRa20wQ3FXT2RrZnRReThBNVZ4U1dDZTZUa1Nmdm1GNVlNZldEdnJxUXErN0tuYzFDUDQyUitRSVhaMlZ1V0pvWE1RQWxRWDd2SC9kK1JHNXNLbjkvamNpMHRRRHZBQ2NVMVpIbXFqcld6cld0aU9pTWR5elF3UjBPbmdqcSsycFJKckNwTExXcGgxMmtSUHpxRlk0MGt0Tk10TlB3dWd0ay9rQXgwPSIsImF1VCI6IjkwNmYxZTI2LTQzNjItNGIxNy04YmQzLTUwYTU2Y2QyMjQyZSIsImF1UCI6IjEwMDAwMDAwNjI5MTE0Nzk5MSIsImNhdVQiOiJBSUEvV0FyZkV4Z3lPNm0rTWFOQ3Y0aUk2djNIKzc5Zkg3aGl3LzROVnY1eEkzcXVVNDhvR3RMcGI0QWFya0t3RVJUbHRtT0ExRUJ0N0RBVjlvVmRjTXVYeVF1THFoZ0hpSDJYRnc0MGdDT3NwNThLKzhxUkgyTHIyZ1ZYQ2lqTGhwUjRSenZlanRWN1ZvQUdnRTFLc0x1YW5DcUN2a2dSSTlCdXF0ZE5USjZxRFZQdTFEV1VxSUZqbnNJSmpRODJHUFA5NTRaRXFrM0F5Zm16dDZFb2l5N2J3a2dMcGFHNU84eDQ4c0xRaDh0U284TkVZZng2a3o2M1pNK1VHNnRuTWR3PSIsInYiOiJWMiJ9.A6kdMpeFsoljkTxzkAjB6QnOGON7obBcsLenmHkOuBvJeoaN3OS7hsHqXugteWqY7kFGqSMiomZUZHrvXWOL7XEheWHG8VoFmm1PKHzivOePG_pIiVtoWBGuVxDq4vAn4liwz2lVq9n6ggcTUFaj5FcJEgm-lEqffixTvGZNB_otsasqv0oYVWkyd5szrq1KsVKMZZaddamIsyduQomikhoLtq5tVv0dg2IYeA-e6m36Y12Chr8LdeTvTMuuikofVGk5rLLFcfymjGkYbcinTNMvzSJ5VTgARqpBlVJsAu9sIzoJxHKE3ORcTgN8WjUVfjnKvtURZywohkc41r7m3w"}]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Y8Gptl-CkEJQjzKL_AjcNljM-M2wwGFkNI5ujzksnTsoXX2o5h5OszSuHQvv9LpZWaTtpGejJwtPzkUZ59NISUy5ZoGj25MOVotPYkV4sCNtBzBMmAqHBvqp3Vu87tlAlQ7H_OYq4yhe2DfOpitYmTnTpHIhW7SOHe5KuFVEzkkL4C7NdbRT9jWehwTUt4yNckaxRwWEaj76Ce5TjS-6dr-5Zq-DuCOo-2vI9fB5KXSPbTMoMNO_jiZLO04KW5S_JEw5p-IOFY4nWo45__DIPZxP6wFoopIgf-g7uM71dyKk0mDOJANz_-sxcgO4cc1Ji-Qw3GGhxj28m-PK1ydj-w.pze-Z1_qZKzRNc07.rkWHpO7E2OxKuuemG2Pn0hHkcIyFtLDTTiHkxgvNEnsy5bNJQFsXnP_QGD9r1O2TwIVypW9uvpGsIYRyFe0_OSBXE3g6rUEWvAensEXQUuWrSIXbrS440b49NVFHqgeWr3L_ELa67HldskSe8_U_F43DK_J1GfblxTGwFWRY9mSh-tOFqOL9XtGwQVr5wyuHUelrLUtvSte737mYpB9FSZdrcc-MBBzFz_OqPR4.PQiJk8U5yvaqu1jVu2Dj8w</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.dZvk1pPEXiTS3DfHbgdP62JoNneEq1unGC4EmfE7pns4aAX3S5AVh1EryWT-SkfMKzDxNwBicK59vSTrnB52K2qCU_Q4hw20RhZ3v3GBmn8nRFDQevywkEZT1sLVb6zJ7MAsi5-JLdJnNCjh9KjHAb37XhLxDhqV4srOq8LfYJofrv8H1z57HebxVrzu6BnrdLQdfw8NdvbJFzwlWCjuktu8HWdB1Xw7e_eDUXIeI-jo41dWAg0S_hctbvOTJazEVOCB4f076vIH-aYEIuO2s8Y0opRIR2AedugCA-nvbRR0qDvaWBAfYFcyVj0q90Qq8AeRXC71cPu5Mo-6jfGErg.FxP9DNx7NIEVV8D1.4KynpLXWoPmrGilKJl5G7zfqqo9zhWZlm6i4dGk0k4HGfNpCBPe7wQJCVvtpZ3wkn5v2cXYuifFUCiQZ1WVkOJhEZunK5LNPqzZw96zi2RtBHzdkkoWmaqgUzyASY9zBmIG8O_kastFQTn9x1Sa48gQxut4_MDS1OgBsnXVx8ZukziPQxQfdHORVQBeTze_FY62nk6_tflQzZdR48MzBk7b9-PFSPignu1HWwqo.l5p_7dJxdsGBUa6MeLxOKQ</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.DMBSRWslP4vEi3YeOB-9hhsVDaAFroecK8xGC28pkO947c9mPPkO7fbpxHFvJzdkEnIqr2ngvHst3fPNgxftAqisW2DKwG3iWyegqqZXtqEGOr0JHMY0fVmN9ZYsHsLvQi5mswNdheMJJoLXhhfrhNq8kjDFTKAlXpvzRNmIQLeuyBEas64JO-TWdRwuy58v49E1q6wieEHCIGdCkrrnP9dXDsVd3awtXl_87oqAbF_sIDYakw2ZIqS8PLcwJmG_cBT2ClnNPiyvXwbMcO1tkHy4X76oMVzcMHuzGuGUf1yadl5o7lLA1AvGHXVSAc3w_TMN60UtDwhQtgn5fcHiTA.8W94Zq9Sp6Gw4g46.zrhnGls9iZ5syVKcnXqPbuuYiXcL0SNp5EMb8VL65CAERgXiFCEyojc5nI30yrLpIfVchW4v0BhcNoTajtQLS18PQoKDPp5f1NR9n-dKLK_c9mu5xKwGFGfqm_CsYGnS41stYDxpS1dmRCEUHAqCqvJIUpipsEloh9woNS0d451balgaIxZDluri5AIVRJ4Hisv5lDuE34Y1enMOh8uFzRGSj3Lol3ygc08uczYI.5ffbkE8WAsASNzcobKkM-Q</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.JIIOFRVslKNAylMCbau9EHzbtoQzudgz5Nmzd0il1lIz3Hfu_3a4JqxGAHlf9Rg7GE2RJ-NQquLcYDllq1i-JIuAOO5sNI5jk-z2W6KNPPc1spdrKza438zneHsVYbmMOrJTMjYMustvR4hWryrZXhczUKbHd96-Qkol0U2VWXM6q6ZplcUdcwn0vUnm11mC12MwI9ES-YyId5o-_ZDLjZzAAd6Pqw_8FAw8XRfB_vQwxFgwpfi6ktLWE92cFLnsm5KvAfvSRdT5QGi78Szwi8iCbF6rWVhs9tnyAsR_RAZqKh3iXE_ephJmzRoauUB4d6QZ0WLGQ8H1HW-Bj422Kg.7anKgtarDyDg83CP.orsWk_mgM4XAdgu2oqRlMGrugzveQbt-CM34rN9VUCxaellxbwL907-39qae9BHvWpzUYtvzQEodxii2KJ0S4ZXpmtCfQuptQIcqlN7wyo-VJjYQs8IAxqe6JfyGfQ7BRU0P12jyI1BGIec2WU10JGzBi2NAi-dKlqSQY5sen3qijl0sCEgpyGXg_wGvz48QqyyYHreIjqI2ENEPkHJVhECMZnnL0rKnPsI_3Qad.7uktVA1McRD8PacYm2pWvw</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>A100000005309348682</t>
+          <t>A100000006291147991</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>edeed055-02e5-4b94-9200-1f33827e4c29</t>
+          <t>73ad9707-db5f-4467-a730-593bcb7089ee</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>5F0E30B7-4475-411A-BC9B-B13C50714956</t>
+          <t>CFD01328-B59A-47C9-8B30-3CE6DF22EF5B</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>krylovgaian90687@list.ru</t>
+          <t>nikiforovavidana88111@mail.ru</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HG2iSzw8hJr5ytpy4zKK</t>
+          <t>EnjSjAaEN5FKBntiudFm</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIxYmFlZDkxYy1lMGU5LTQxOGUtOTI4Yi1lMDgxNDA1MzU0ZDciLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjc5OTg0ODUyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjMyODIzNGIwLWRlY2MtNDc2OC05M2Y5LWY3NThhMjdlOTAxNSIsImFuUCI6ImMyNmMzZWY2LThhOGItNGIzZS1hMzkxLTBlMmJkZmVjMTFlNyIsImFuVSI6IjEwMDAwMDAwNTY3MjEwMTk4NiIsImNhblAiOiJBSUJXWXBvQTJBSVBVV2ZNVVNETDJnbUM3YXZvSUhUczNKUjJ5eHBBZmRHa3hNTnNDS0Y4bjcwdkRzZ1RaUnRHeVl4U1FmVmRlVEtjbHJtaVQ4MkJaWGoxMldpMFkvaGROTXBXWkZPNVdXU0wwbUpieGVCRUVaOU8xNW0yWkw3OWRFOU5WYm56U2NPOU01bFFjVkNXc29ya25tTkVUc3VLYjYydGxxUUEzMVpXZDB6Ynk2STFxUmJNNjJ6SlMweFNnb1NwTWo2U3Jia2s5ZW9CQ2lxcXNTWU1Wc1pPeGhWWjlSeGpyb08yMVRNTTFKdUtiR3d4b00wQktrRXYyQUhGTFBZPSIsImNhblQiOiJBSUJwVjVselF0aEdNWHdpYjNyUWo3QTNudkhoMUtnQmVuQjlDblNaN1huRUFMdHZqVCtMY3VIbXgxZDBjVFQ2YnZHQllMY0ZNakM3M3RrTHhHeHFyc2toZHpPWTlNUlFxMmp6aklDcWlaeUc0c0VraVdSZGhGWWxRNWU2Ny9pNlZWbnJsU1VTWXY4TEIyK0twMkZBcXNubE9uamNacXg5T1VseGZwTWtvTE5LcHhKS1prL1hpSnR6bDdNMkxEb00zeWFPa1hqZDRvbVgwRURESTcxT3dwQW82WFRURFUrYWRDdmxZOFFPWVdvL0ZGNk0wcERkOUJxY3NVQWF2dlk1VmtvPSIsImF1VCI6IjliODEwOTE0LWUzNTktNDkzYS04YzU5LWE2NGRjYzhlMzY5NCIsImF1UCI6IjEwMDAwMDAwNTUxNzc2MDc0MyIsImNhdVQiOiJBSUJIaHdHYjVhNnNMUTcva0lQRHBEbU9jeVJLRUJOS3hDSWN5WVMzL3FZNXVBd1M4VHdzVGUxR2JFTlNoZmRNQmR2KzF0Q1MxaDEwVktZeEl4SXhHWDAvdVBkZG42d1pDUGZ6V0V5dEF4OTJubHlBckpXbktnYnMxZGprb0tySkk5c0pRb0FDbGhoVXJkZVRUVEkrTHp1YkZadjJac25CRFJWKzN4a1VFNlNmTXNpM2RtQmlpMUFoUTZMVFNwdXJrOGp2elJZNHhiVzA0ZitKN1RoaksxL0l1Z1ZmeFd6ZytXUGd5Q3k5VzYrQlh0QWJ0bHc1cXBXMkVLcnIwUzNEa01FPSIsInYiOiJWMiJ9.dKmNh1XTvkC6BryXwTTJrtWiWI_y-jlfV3HbVu-u4EQQQz2uYRmCmWyDHT_LhPycyv8nV6ZXR927A37-B41aamuZkn8nFcgah5Irkq8T6PlCaoeTSQQgMpJU3wOnzqEEsYDNWdcUtfl_mH7tdV2l3i9u7EB9jKKvNwTpM7gUhuN7hKq84KRk880JI5wTbxm7hDdh08W0294gci9kzbZz3ttPYF8GvlkkLP84ufvFbwqJDLY4Eg2AfJaJx45WfZILAYl-cr1FGhihFCiF81pRWqbXahJC5fiwRk67FToIq9zO0PvKnyr6AG1QnVnTS4NeMxFdBk8VXYRG_XHEnRKGGg"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJiNTA5MmIxNC03NWY2LTRmOGUtYmNiMy1lYTdkOTA5NWJmNGUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0ODgzLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjE4NjNiMWVkLWJlZTItNGYyZi1hNmJlLWY1NzY2OTRmMmM4YyIsImFuUCI6ImI3MmMxMTMyLWEyZTEtNGJhYi1hZTM4LWFiNDgxM2FkMzFkNyIsImFuVSI6IjEwMDAwMDAwNjI5MTE1MjY4OSIsImNhblAiOiJBSUI2eTZVUkpDa2cwYnd6RExMQ0gzVEdONm1tbG9XclEySDA1L1l5bEc5UUhPZHBhd0ExZUNQZFZXeHQzbWVER0xHc1JiMXc4R240MEFCTjlLdTdpcHFaVWFYWlZFQlpHTzkxRVhHaFI0UmxsTHZha2xncnYydG5uUzFNWkNaYnVITXA1UUdWOEpYM251VERnZU5NYlcwMHBsamZpbFRCVUt4ZGNXdUV6cVBFaU5UenNkdWxqUGExVzVnYTcvRUY2a0FYMjNQU1VWV3NNNDVPRGpUZXYwOFQ0RnZiUndxVDNRWHRVQkJRUEtwcFBlSll0bXhhUms4UzNJY3Z3NU9SUnlRPSIsImNhblQiOiJBSUFxdzdQSjJHNDVjcDl0Z2pRUGpidTJWdmdNTDh6MVQ0dklFdC9xZkNKSGRsRmYvd1Q0b25nR2gzTmZqN0JFMmNPV3JMeDk2Z0RKVU5PL1pWTW1qdEFFREJGci91ZlIxb3NGUTg5dmZwTDduTEx5R0RXeUFSWjJYcDRzOXZVRmlpU01vdjloa1FLS2FyTzJkR2pVMzVtSWFyNE12dkdUVTl3eUFJbUxkWkl6UWE1V1VqZzlhQ1JYemZGZHZ3dFFwWHQ4V0VKcEFwNy9uZ0lKNGpXTWpRUXpvdTYxSnVNT1Jwdi9adHBmdmQxZnJLSVpWcnJJc1UwWTBreitmU243YkdvPSIsImF1VCI6IjQ3YWQxODljLTM0ODAtNDVhZi05MjY1LWY3NGI4MTM1NDI4NyIsImF1UCI6IjEwMDAwMDAwNjI5MTE1MjY4OSIsImNhdVQiOiJBSUJUVnEvZzR1eVhBL2FJOWdaQ0ZUUWkzQStsN29hUDdWeXRnWEFQMlFmMDIxcWhSZ0FReGtBcEY3WUR3aTlRWjI5eTVaUnVDeVlSbGNob1pIQ2E1eXphYWFnay9hSmRpUGZoa0xwZnBoMUJWN0pzQVJOZ2lCMnNWSWZBSjVTbElMclJNeXBFaVBFemZManRIblNIa0hXM3NRVUtSdTh2Z3pNSHFMRkZoM0dvek10TVE0N3hBaS9oMFBrRW5qYm5Pck5DSjg5bnlmcEh0NnNHTkxLN3hhWDRRUWhVZk0wcmpZMUo1V2lKZkxSaFhXOUxSRVRTd0JIKytEM0pHSzB2UVNnPSIsInYiOiJWMiJ9.MvWsOFXzSj9eqCxHTi5_OgaJmPd9XX6lSBx3H6uKgye_BHo4rWuXYUdEf9C1g_-D1FWPLuHOvAHNk97aFb6sAh6x3EVgswGvLLaJjUs32z0wpiorYIXSyyWnwwyjDtfS5He4FybQ89m1iULdkeDpzkoSKNqbUiKzCKZmgHW9Z5QS7SbqiXHc25hL8qtpIctS2lCYK9LtfCUaHuZs_L5wNdqV-ENDxijRykBDpJuoyjxvnxcwFic4hH-Cj-Lr2m9Xf7klILk-PMcjm8wRfUT1Hrr-nzhVQqhhtT1LsZwOD73JbdwtY9CIf5kbBGk7opM638ewHozrBVESMGWdv1tKpQ"}]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.fnjrOF6AHMl6cKAz0f7_0sPhs2uX7FmbNdyauQrhDsh58Xmbp2ZM234dApYy6yDCWtTVw_cTNS5UpUVtDWZ5X9XYFMVBB_jVWZ6Je0Tc-wHfgwvg2SE0S86q5r9OM9S-S04Xo-F0adUZrimvK4H3ZQScWVvNGHSIzxn1pzsMvtsocuF4LB_3PgzEowOFEaRpjVM9TErxZLSbKCnLN_HKfbCk6aVRYgkw2OyRYzCmGdFQwvp4ZHuWQkyx1HIUbeN4cJdnQUThgUqNNfT4u8SvcHa61byEg-nScZyy2kTZPI3qNv_3dhsCyIhggfAeMYQZZGMHkFJA0m-4FH4BnuOuTQ.xRiiD9x5ml4PNf04.LwqYsyLQ9PZyzvzgvSuGw9_JdFl4qvgjdXIHBQBGDtmALoRS-tJm2BGSV1AYy8q9N7agiagHmF192kzg-iA_HnoCibzWdLZEUYu2dJzs0wKk6C4ouoAJwbIcIg3t0FLov5orTBK4nVRxPNaFHF3yeib0vqxBeLOTR-yRLSbWPZefjKacmMFvBRfqEIRNgneyfF2GxXG80PPHI3fi1q4daQP-vr3N5n7Bj4NywqE.xY-SyaA8RMN-yZioIOR2zA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.UD37ScWjlbPCWZm6OTHatGVc19xAAarOHlCBTNhzUmaHUGHxjx0xDQDC9MYlDPs7RclWK1g9VysPp97ypQTe1xb8NbsGyczF_wVgN6Pu6wsTwQpoZFFfBGydDyGeWFnLSdsa6xtnMoLU5yAAch9vLqTIxsIcT8Aa4THfcfme2WK-LVou9fEWxpq1ODssNgD_DYdIeo72XNoiKU_ZN5iOPhXXtsvT0f3earSJwHhNay9607-KsiGE6HAf3hnzGb1222bJY584a1aj3ANfSkMLOwjZ6kGSxagpEz46FZm6-iBrano0FG_tkFJ9924AVbHGvcLEAph6l97RGbdwhGXHVg.N1GWxneQ52pmRr-x.lbCl0fFP3VQ5uX3hkL27SVotOsI_8Zz-sqt0Qn6R5vaGyEEewLjpw4oz7ihvQ-3iveCab7a-oJfATX4Yg157gHmg4ILQc247eemzu5-vkTX1a1cabgm5oAu13TPFktGoSd1Q__uzyce_lA2LsoMVdPJljeAgsmdO5zunfLHcyJi_gdM6ahSkz0yv_wLgBeUYHK6VEzeQ9WYhN2EB246_EmtcMPXmZBeBHoc9NCM.c13YK4qe2CoRRgZVwTNZHA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.dQhmvbOd-ynCro7tlc4QElz6nXjm6LqyqDR5KIoPcTUTyP1RNuaBcc5VQLTUwnfdMMxKyUMdo-7S5wMzZj71XKYdr0mHVi5XGM0TymcjC7suVf9usILUcS-2I229Nm0AZi8ucKbUw8VEosDbYus4S6GwqKWBokBang9W_Ag1bIqoNEnJo-Pjlo1TzgH5tlou8BOhuuui0zddalBle6-YjEwOf0Dq_nIS46B8oCDisjKNPCsuABm_trRfuymMBtrN1xQ9A_ULwTlDju3Yxvg7ndiybRshR6qCa-7loEtGqgRt0IyME0x8Ggn6mQ2c9qJ9ET7aulO44j5aEM5awI0BtQ.DqTLG0aQ6hVA4YZZ.4w-71R5bJ80QzMo1buU2dXhk72Ff3401AqaWRiJfvSAveVMfPz1VdabvE7k5dklRiQDqX3p8h1bq7JUasmzDtxve0Hyeo8-b29odreHXOuYLrkf9_7710WmOS0zHkwaNGTiEJwyfEZiBxBsZZLcb414dQ0WCazbpg3KzBd1E8frplMOg3UUlgaBtC5WK9uPLdGgQea0Jhpk_cWwEoO0eThefkwcSM0J_vqAeqVB8.TwU0FQhmt_j2XcZP1fpIFw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.dt72-xdhaSgfI67BkyaygDOXwHDe0yP4rckOHfVUz_3K6pn01JiTOeRoh_9Nn13J8EU6KhAuSwB2dzDmm0VgBmA7YQII__3oSn4ADR4hv5_Bd2X93znysC8iCUePW9R3_ZilNUPUWFIN0B-qHcuurI7nSo-vakQpQhUT6hK_swk5nwIog6wVi1z_rOg8N9-IGND7c99tUu6pzfT2u8JRuj9OuFvWQuxHnxcWwwlPWP1rZbbbKRTmFujVhxP8AS9LCtJvQ8aihehiSzwbycjSuMDJLreNJgzyEinXU53an9thgclkAHg1D1aVWG82s8gpzFhLS8K69_vxNaIF_M4Alw.OweXt54a2p2vqTGA.0JP-Dy1goVSLaj9sl0nKbHQy_Wad5vQNfEeu0wgSBCqFP8ynBXHjno1zgNKD0yMvDWSEEoOmqb6WxRTfF_Eqz3xJHb1GB-B0rzkKeLatRDrcvgQrERFkQxUM5dpYQaWTIHjR6Mq3hE0DD8jue1Uo5ir_lsn2r-DwY-ciaXMiUg7SNx0Z3DClRSjlW4UDAiRA3jRCKddpw6VP4TvlY3aWDUrQgh5mTjPV4V8K4KzG.77PXmfdXviZeFC6L29yjrg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A100000005517760743</t>
+          <t>A100000006291152689</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>832f9eb3-9eaa-4993-93dd-4c1c12762813</t>
+          <t>daedbef4-bc46-45e3-9ada-a0ef5985d519</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>7741862E-7642-4DB2-8C33-C46F60ED95FA</t>
+          <t>4401E693-4B44-4816-8C6B-4282C8DB4A0D</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AvgustFrolov4600@inbox.ru</t>
+          <t>anisimovaanjela99@mail.ru</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vRtcnxw5Q15z8HfEi17g</t>
+          <t>bRHeX2JJFTKgFEgDV8kb</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIyYzBlODU1NS0zZmQ4LTQ3YmQtYmJhZC0wODAyMzQ2YWVjNzMiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgwMjQ5OTQ5LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjFmMWM4NDA3LTk5OWQtNDgwNi1iOTJmLTg5MzY0M2JhZTE5NCIsImFuUCI6IjM5MjYwYmY4LWRiYmUtNDdhNS05YTg1LWU4YjdhNjk2OTVhYSIsImFuVSI6IjEwMDAwMDAwNTcwNTYwNjE1MyIsImNhblAiOiJBSUI1aytkRmtMSHBUekhzRmpoclNNOEpSeFN4VnRGc2xOYjMrL2JIVldJalIyUXBRNkdSc002WmtSbXp1SVVHOVhkOG1xTS9vaFk2aS92N29zUFJ6SEhrUVlHdzdCaWswZzE3KzFJUmtlL25paTlqQnlZdE9WLzkyQTZ1R010VlRpeG9YVVpiRCszNjhSQTlEMWNxWndBVFBSZUVMRW9xWjRia1RmSHNaUlg5dDNzcDBOQTdxWFV5eC8yUkovMlY1SnBIZFdBN3pMZDBpc004b3RCYnlQVUh6b0FTUTh0Z0EwQkoxbGU5eVFhS3dMMEtKdUk5RG4wQmhEZElZUnhoSlZZPSIsImNhblQiOiJBSUJYK2xGVXdyTWE5MkFNMkY0dUpiMVVmU2tjYVpDL1hKL0dTT25malRnajBCOThzZXppR2Z1dWs4S1NtRXBoYlM3c2ltY0RLR1ZrTVVPY0YraVhKRVpnM1dUSi9ESGZuRXExMXJ2K2xvVlcxYmZWeXlocGZOQmlHKzUxWUJ0enJYOW9hd1MxQTBuUXlUR2x6QnBSaXdYNXZkS3AzSVlGTEhFYUR1MUJtM29rQ3JKTEtDRnhBMU5JWTBzWXVXR2syOWhhN0hoUlRCeEVTZUNucUVQSnB2cEU3SnpJdzA1ZFhHdlRKRCtZazc4WXFDeklaTEZsZDlJRlJob3dYYWZCQ1c0PSIsImF1VCI6ImQ1OTE4N2QxLWY2YzAtNDk3Ny1hZjBmLWY1MjU3NDExYmYzZCIsImF1UCI6IjEwMDAwMDAwNTUxNzkxOTM2MSIsImNhdVQiOiJBSUJjOEJYdEN4eWNkSUpCM21DeWlKUGZZc1FZSFgva25SZmRqTjJXUjI4TFpoYklOR3YrZFdwcitHQVpwcXNyWnV4cVZQdCs5T0l2ZXpQanJ5Y09Vd0Z6bW5UR2FWbFlKb1Q3YmJ6MWg5ZVVwTExxRTdPZEtYUnlzbWtTMVlMMUlnV3YyZVNGN2RUTURibDExWGlZM1ZUUlFSN1VBdHVIY25wK2dXSGtGSDl3UkZHczNHRnVRRFZoaXdXR0Jub2s5Z2pHdDFWQW4yRlRNcU9TcHdRcWUrTlRuVDFIMThLRkJDd1R5U3dRTmluYktBVGdrTkQwbFBnMlBBbzM3eUJDZGkwPSIsInYiOiJWMiJ9.Ek93ES6cu0xkQYLksTcQucmG087QuGoKZS8w2qYOU1_bidDhaE1Uj-xucuOZ7Asz28-z8gbjrLaVTk0NVUG2rK0LAcmCy10rERliwnB_h4_-9hU-wtO0lKsBsCkBhvmpjz4M-yfimFFDlVrBwji_AwgpxS2F7sHWy_jBDVqP9cuScYQWYZ2zgm7gr6k_I3WJG_0hJbcwJs2Sd_japRChHLOhXm12lm2uscecxhLTUuJ8uxBwGKRXMbcbu9EQ3wOy7x6M_YNjJTwLgPoZQUTbzV7g_KixGXRK5fzBu_8cZzE-3PAlto8xurYkg_IYB3YEoIMY0WDbaqzO3fMYbp-5Pg"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI2YjA4YTZkOS05Y2I2LTQwMzYtODY3ZS1mZGI5ZGI1NzNkYzYiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0Nzg1LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImU5YzE3ODgzLWU0NTgtNDhiNS05MDZkLTg4MTdkNTMwNmQ1OSIsImFuUCI6ImMzMGY3ZThjLWJjZTItNGVhYi05ZGMyLWM3Y2EzNjJlNTg5ZCIsImFuVSI6IjEwMDAwMDAwNjI5MTEzNDUzMCIsImNhblAiOiJBSUNJMVA1cnZVQ291eFIzSzlzaUdkS0VRTU9xbmZNY2tvbUlFcHFoWGxxTk5CeERGenc1NFNNSzRvTm43dmRlT014NTZRRHRJU21rTC9UU3dJQ3ZNM3hmSjJrTGpEQSt2Y1pwSGdzTmtVWUEvTWZVbGRBWjNjSEg2djdWTHR3SWtUUkp3ZVNDR05WZ3dZeGRHQXdjYXBLNWZZbW81QlhSdTBsR0h1MVJnTk80ekkzVWNvaVRDcXFwNFRxNTNHTitPRmJaUmJIMU80YjBxdDlVMnJEdTU5Q0hXd0RhOUZqNHVMMWc2VW41eDFGRUlEeXU1QXBQVGxxd2pnQnFPZGs1cm4wPSIsImNhblQiOiJBSUJiZngxUnFsc0xoOS9EbnE1eTU0SWtwY3ZyZHBsVWV6eTloOFNNR2xna2IvV0xqWm9xT1VZNXZwbFhPekwxTWFDeEVsUVAwZW1saWd5bm91MmxUMTZFY0FYVjA2MW5LRHoxV0sxcHZoaVd1VWdidlFOdDdXYU1pd3lrVyt6L3BIY2lJR1YxZzl6V0FvanA1T3VhbXFqTUwwSkczd3NLZHhZT2g5WVlhcWpvUytMZkFjZ29UMHMvMTBpa1RrbStQUG1XWmlISk1waCthenUwbTBOVkFsZ0RQem9JVkpCVmZWYkhRZTdyMW9kSTlMUFhDVVpWMVpEdmFFR1UyT21mWFJnPSIsImF1VCI6ImZlOWI3YjQ3LTk0MjUtNDA1NC05M2Y4LTFiN2FjZjVlOGE5NiIsImF1UCI6IjEwMDAwMDAwNjI5MTEzNDUzMCIsImNhdVQiOiJBSUIrVWdkQXc4d3VaOTR3K0NOaVhTYnd0bEVKZlovN09qeWs1Wm5WSU1laDFLTTh2bUpmZEVqUlBKTjJrN2twMWJQYzdBdlVBTTRoRGtqdnBzSzkwZEE5cHdxYVJuL0IwUldCNHF3U3RMOS81OHRESVdqKzNNR1ZkcENnV0ZvWkZRd25IbkVOMGxkV1lpK1liZmpBSmVyN0MyNWVOYXFwZTVQMi9PUkFDZHNaWlpVQ0ZwWjllcGU2d2NTbVlna2VOZXJybzA2YmRDT3loendNeW9xMDhtU2dsY0M1MkI2Q1lTTnU2SkJZZURaVis4K3ZYUHlDOG9UUmU4L3A3ZkxQOXprPSIsInYiOiJWMiJ9.B3ifKdi807Xr4SHYrlOemuumzacH_tvwYGLv2Le20RCVlvsYiknrnKfMBEqxez88eqVdVG5NmIAf_L0lsfkt3SoCWqhJ_XpD7kmiY_4AbBMsc7jzEHi21tINZ6QNSoFBXNt_xSraVW3J_mtx9ItkBtIMKeuSb0mBz143a2yZwBwLyUR0wHmy7w-zJGR9BzhE8NykfvGTK6r3-vt2Y5tZHLy6sgTy0DQmJHmlzI_0COZ33v1tWEfpfldJF9r5XKGmqnd1cQ_zlnEiHqLPMpwW6QzWkXJRNa1wSb3Uqq0TAgkXfIQSCWIePMU6B3oSlV7OwUSPWYxVQruJNDNq-9vL4Q"}]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.CK4L5o1kcRXsd0fa3iXvB52FqUW5FWX7wDiAVFpe1OyhdHDcUORTJXojN7N0WN-sAKEr7BzaQY0FKO10Neckt5PGrsyrfAiQJIo5YaQbeUuxQg-g3LWFDSI-7NeR_j3orfQSKQF58OWF5jpaALVaKcfIqUYNOeEn85ByfklXvUX5AyoQn9DhlYJacFb5Ua7L5zZMpeG5O5-p0sHfHsY6JbpuDqyUD_M59Zh3fj7YEnPGv3Gx1uOo6O8CsOU03YlEm_YCy2YS0i1YTBAFeQm9n92lU2pHxH1Yx-1w7tXIdBHyql_jAhF3DLT8ao0L4m4tnHX24cu6Z6sglD-CLqTWLA.HL7QR8QihcnKx1jr.tOWxt2jVUhOuBgylVdjgiDwOkplCp2SCoCN0ZFJDk7vt_qHDFrcNOAnwwmD_3tBhwSuLZaEnCi7iA5h7E4gY_dmMu0cbuSVdGzm-bjS3WgnBVFd5xwJEiJ53fzP2sGGXWTybbPuHZI4iMh6XFZGUcU9wm_2-JdZHtXVkbsWqO1X19u8j5d1QzDkb7uRdnmSb1eyfRu10mHpQdw997H0hWtHVrrr2U21UTXZScIY.5-SFhxKukSWVg5aoprVGUw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.eyLiDewXhHi4Qbo4kSrD5IJpElDGGXcXziDtm2WDYnMb6ZERgS8bhe8P30gvglwkZsilHwvnwzSCEOstw10fMsUbWaCkixaLh3ump1HwPV_e2RMsnEjSaPhOMHMp0tC0pnV6VAXuuUSmn_dQBsv5N0ZIG7iFMPjjz7kyeXcH9SJqQEZ5XREdHEyjLnNnpNUXkhd0wevJwwvLY83R4nOAWvQVBbP4hJ3PTGEUZynx2_f9aKO4eelN_Fc9nu07j755cwTfqwLySIbUTSHi-h9aPetklyHwJLxVPcOuhKnoN9ob_XETjocJ73cLvWyYqiJSLGpIWEQ_5pKu93T8CrxyIQ.qmNfc2-YnefW-4lQ.4X5aP8KZyyqTzUBQGyRuCsimwwcfM6kYHuTlkz_Wi192oQfd_Wv_7M_SFb7xlEFU9eENgWuLA0-AwjvwTCrIESV98Z_HYSpU-WeakAXj6ZAhMvCek8CctRXWXCu5_JIfovgh05ecPsxW6mBASm0xnmqqZDZSx3YOhoH9YMsBf-23nvzg_hSLpL7zWC5rfesRF8Qn6yVJfQU31O6y4qEG1DsMRAbt_h8HhgdwhTM.oCDMlpUfHe4UGPC-9QnfaQ</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.dsRL300Xgl6ifX3UGIUWQK2YaNkOJZYuZIvravN-Pt9rrgqzJg4GGyWXFuqg_pjFfcYpF10M6MKtcGsVHdWnlUTNbt2qU1ykNl500rmW6tUEbZ8iAzGTd8utFLKOVOOgTbI4GEEVio9Q33H0GblG3lOwR7XvTM8AdoBdezjyts9RdVVRGiEX1Vn3eJu_Sv69LGN3bivYw5XmJwOY8KdIPLhMm2ALjfDDY_dnwwcpjjEEamLgO6sbx-5g6qemOAJKhG3nZnJZpQTiji65-W38Jd-TY2Yc2_yeYA9DGIKkIyZKpmq96y6Xc31aaqCTqVkDKNv_y-ZB3iN6z3InLeWxng._ddA-1AYd5qLPIQ7.TN0pN5km-fWspmJjQFGUByGLHIHClLPYtxK6kJaUk8_ZrVSNr_CyDNRUvUsoYShrbthM6k6rcGYuPD_CWxV23Cshv_xRjqeLR7phs4yzl8vmTbiCYyNvCVmJst9y3UQSwWaxv6nj-YLgK-txWujLraq8UFTpMCI035Yae7mUK1n98RdcLMjP80OSorV4UrI3hbBKb-qeGT-RJaOXYZIExgrKyVo0rPhIAvdQs6C-.WVJCcME5-JTikPjIxDLDBw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.aFp4UjvEXKJ0EM6YpwZgkzRtpK09Ot3d7_B8Lpr15khlhYqfNR3nlCEBAnIKR9iXmc4QjutXHEgaH1udu66W494K79qlaZN-3zsykQI5HYOIqc26IAZ3BSurIKNxmC6HOt276N9O_7Eoftc9Mcv4T6Dy2ldUgKanBm9S3RMlm91GVYJ-iyB4_2yh-aEPS2dZLIgz_AE1JqvOOCpUMhN9bJkhJicHVElmPRms3g-qw3QMl5ARkuHC9yRs0FVhRfdQkEDHDGA867Gr0cDG2iksGBMCGAnNvlyoHOBxxa3LdlN_4pf6-2yq7cfC_AnvqGYhf-9A2ypaX43IYV1NaA9ndw.uxe6Aa0vtCYsky-A.8Hq4aNmqW_4x0Pv_Qm4g3DUSdg_E5HRHJs9y-4s2ZoVt9HQ3cAuVIY82Wpz3FNme2J6UaFkP7wf5CD_TZRcDdYjGS4fZz_mqt9mtR5_3WXoVD88kqgsFFICKpY3n7mZLkBBzK-CuqbzgV51nCkAzrLOkz1Td2lh5hRL8lqmkmku65NKFVwZE7e8uZoOlUpA5Ce2lzFNDHecDc1GG5nlszXaZELMPDZTSGo7T-44A.CkCVuUsZrkvtn-Ny-sm65Q</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>A100000005517919361</t>
+          <t>A100000006291134530</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>dfc19467-43d9-4ce3-bdde-81de6da406cc</t>
+          <t>4f56513e-8252-4801-9484-ccecc2000331</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>A92D5D7E-DBD3-48EE-B933-224BC7A3B4A9</t>
+          <t>48032CBA-7CD6-4BAC-B735-AF21F4362D24</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bgaghe6o@inbox.ru</t>
+          <t>sosurtaist@mail.ru</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AjfQ4Ck9JQrtR0PLeb5e</t>
+          <t>6JEiMuFGqnxePLqcnY2v</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI0Y2E0ZmYyMi1jZTZjLTRhMjktYmY5ZC1lZGExZjU5MzVlZWIiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjY3OTI3LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjBiYWU4NzNmLWEyODgtNDhhYS1iYzYxLWYyOTljMzI1MjU0ZSIsImFuUCI6IjI1YmFkYjlhLTkxNmYtNDJmYi1iZTJjLTdlMmI4N2JjYjA3OCIsImFuVSI6IjEwMDAwMDAwNjAwNzExMzM4MyIsImNhblAiOiJBSUFhbVVRSGN4UTF1N2xzMVZJMWl4ZGJoNytaQWlhK20rOWgyTUtWZzZsTzFaY2JCYkJneDMveWpVd0Z5SGZUUG95R3FLOWxpZDhwbXUwQk04RkRFZnczTzVrSDczQTJsZmFPSjY2SGtWalphQWZDcDJtTXlEMzdnUHNNUyt5ajRmT1dHYnZZTnJidm1oa3QxeklCdGVrOXBBcndabHBaRWFrQWF6QW52NlBYeUxWSHhVSGdaVTlselpCd2xSUklBYXhiZWJic0JySW9Kd0NuekN4KzMzaHpyaWwzNEdhODM0OWtpakUxS3dHb0ZjVnhLOHoyaXdQOWFNU3hWclRSb2hRPSIsImNhblQiOiJBSUNDVjhpWEdOSXlkd1VvZEtlQ3h6bURNRXBuR2ZtYUhWY1BqM3VId2Z0THlCSDRkNHNZR0d2RENleFI2RjBGWGZwWjJZQU1yckNaK1NvOEMrYkNwcGV3QmJLakpLN0kyN3ZJdGdPVFdaZkRwQVp3T0RwVUJuVi9DdnhQTWp5M2t3R3ZwQkVIR3BMcXFyczVsYWRhNnJua0RjTUViVlpmK2UxVGtidkdOdDNFalBKWXZ4aGVZZEs2SGNuMGhWOS80YXBXRG5FUnNqRlo1eHN4SUV5SElsK0NVRnFFeGp2cnlsUGs3OVVCbUxLcmg0cnlOWEhNdlh3Q0t2VVRzQVdxRmZzPSIsImF1VCI6ImI4YWI4YTFiLTNlNGYtNDlhZS04N2RhLWExZDUzZGFkZjY3ZCIsImF1UCI6IjEwMDAwMDAwNTMwODA0NzQ1NyIsImNhdVQiOiJBSUF1RWJBNGhIUnNpRmxrYlJ6YzVKVkxSOXlLNzNJWFoxUm5wSkw1NjduWWlGa2VkUmh3QmUxcjcvclc4clIrWk95dEVrT2tLTGdZM2hUSGVZQWlsV2Q1Y3ZZZUc4T2lxNGw4MDNoc0VKTlhrcVA5SFppRDZUbUFIWCs5di9xcUdKQVBFZnZDS0h3NW9pb294ai9zVFUwRlpOK1VHY1JkMFVWUGQ0bGczdFJuM1Y5N0g4bWR2bjM4enB3MTBYdGszd0tlR25DZkZ0NXhkdXBMS2tKN2JNek9SaTRQZU5TZGFjRk5IVUl3Z0JtcWRNRjZva2ZSa2lTVUdwOWRPN2oyTGw0PSIsInYiOiJWMiJ9.oi3VnChQTfIJhcMZrQee2B83EObztD5INUmariv4yaBXY0a-rHy0QSidylcqoFGq3OjwIuSTmml4CnVQe2IQD_g1_ygRnTIjdJ7GrHzU2j9wuYK5zt8Ek_Qf1sPecCqGahHSWTrSRLxgM3KtyWZP3ZDTGl2xVm84SIojSTIn3TYJVfZyVjGI0LWLYIxLHIFnblTAQKk1Gnbqv9GvwGxSCvSX4HvxQQzUi3ahWLhljaS9DIhX1rST1-ncrWTbhwGdb9rFYx_NSm6aJ2wHZ8LSAHKJwSf3gBoOuYiLTtwqakZLhtqDuaqS8Us-BU33fU5q2RK3EUIQybRVtd8kyf77Fw"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIwZTFkYTFhNS03Y2QwLTQwYjMtOTE1NS0yODllNDNmYjNmY2IiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc0OTc0LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjEyYTJjZTZkLWYwZGEtNDc5ZC05ZTgwLTY3NDdhYTczODdlMCIsImFuUCI6IjI1NjJlNjI2LThkODUtNGI1YS05N2UzLTExMWE4OWZiYjliNSIsImFuVSI6IjEwMDAwMDAwNjI5MTE2OTUxNyIsImNhblAiOiJBSUNETGJjRlFBTE1hNXZlZ2ZpbW15Q0hONkNSSmJtNXNlRVpBQkZOM0R4QUxyZWVOcXJQMVZzS21LdVlIUFVkTFAxNVJCUjZuNTVHWWdlc2pWYWE3SkRoeGlYZGpnUjV5L2UyNkxxbitXNHhRMzk4cXFMVVRhU1YzS0JCWXJPR0VJRXBkWmkxeWo1ZmJHcHpIb1poWXVCdnBjaGh1RkdZNHZIMEcxeG4yYjI3UzNQRGxsaU80WU96TStlN01NdHdNMWoySjBhMWlYMlpxeTdCb2NkaWxVa016bHJ5VUlpdE1RWFE0UGhIeWNuelZaZHU5WUJiQVI4T2UzeGtBd0syT2RNPSIsImNhblQiOiJBSUE1Tno4M1pybTNua3laY1d0dk5PVW1sS0dxYUQ4bnJ4azFVVGRJZ2xhOWxuYVZTODZad2QyRUlvZkxnWTZ2WG9hYmJvUVB5SFZrUmNjS1lYY3Z0WDFVMFU4QTRRN3EvbmtleVdLUlVMaDJNcER1SGVXR3h6WmhUSUFYdjU1aE1sUW5MVldCZXhEVlMzOHd1L2g1VnhsamhRcFc1OTB1ZzhOay91My9CTS9NMjVUN1BQa2xOc0R3K1hsM3IwL0xldTRuMEZVejJ3U3N6MTk0dmdMZ1JWUFpMRE1XakVpNEhEMGdJSGkvdFpwek9mbzkvUC82RGg4N29DVlpBcmdBL0VRPSIsImF1VCI6ImFkOWEwMTkwLTRmODItNGRhYi04MDE2LTdlMDMyNjU5MWY0ZCIsImF1UCI6IjEwMDAwMDAwNjI5MTE2OTUxNyIsImNhdVQiOiJBSUJsaTNtWnZ6S3NHR2U4NjE1a0hnRzBOQWZCR2hYMCttMEVweHFRdmU0YU9odDVGWm90eG9TY0FDUXRSQ3hwNHVaUnI2R25YUFltL1hpU3Fma1dLYlJqR1l3SktzNFg1c2ZQeklKem5oNFhFMExIM3BkQkJyQTIvZ0RpOG5lQkZWMzljRzRlRkEyQ0Y5Q1E3UVhHenBOUTF0NzczUmw4NVhPN1lkUFhUYzJ3RjhuanNoTzJSWUVab24yaTZLUm9UNFJTd0F4dUNhT0RFUVVZUituYXVLeUhvbjNBMlRhWk9vbEZuQkh6KzIxMmw1UTV3TmR2dTI2YlVHR2R5bFptQitvPSIsInYiOiJWMiJ9.TGbO0eqMDM5UPutABv2fVbBESzN692THphEISzSORKajQlwgbOyzdY7fctyjVfKOXhc3hDkcxof4D2X7QOGBWgakcaK3eUAuWIy-AlVA88wDoMHt_bvpnNYcuGJ7pRih9uqnwwUyD1cBv7hZLZRgcOWRh865jaDM9J63NmC-JQqbjtj0_VGjQtt80ook9JfN4NXmDoaWzesHYpu-7hlPMBJEwdDyuNTEdscVZqbr3VJGN1sMur1sVDyGY376CC82Rs3dsluG1oz9k-D-jMzG9TAzXHdU5MOYvNifDWkaIi5dOLG-2WXzVOPcr9lWL4DQcoEDucdFqqs4Y-41ApwiWQ"}]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>БАН МП</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.ATM0bukalpc7cC8-DR9YZAOqjor6yWeLeQGlzZaYdvl_v6tMsXSlNlA4Q3mTiGqFJLTuLZnGCY0BAMN6BmVLWqFtnsjWBYvhgh1hZzfwHo6EbfutCoMRP17PLhPOzKdREq7-Zhfr1SKsBOmSRvFVxTTamfXkk8yYUxQMJLTEzPXPcwaZPH4G0hDdJjecSdAbqxdrQT26b3OZFHpaw8s7DqHPrVFCDSvWcZIQN5RABGmDI6E_208h2h-WL9TNVkyeQ6U2owZkx4Us0X---tpAeqwJ6G89YFweyBWdI4OJsxBYizK-OW1BGRuQkBLbRtx-RKA0b_amE_YU-nWGSdppcA.yKwXOCFOl5RZ2UrN.Y2Kl0Z6806SFmbgYKUeeLdRrIZxxforiq68N8nt7eas_UqvJhnx1QHRdEDnesG7EKRg2maeIETUlSrfK4vx65ld9QWVGDwQ23bEaEbsSbOValhHbbU-vObN1PdVZt3Orft8VO2SzOsMe9s-M6nsBS0NPtz92tvUCadW2QecOp1gLgSf4bTEz6w0QEtbDK0rPgJ__TGqv7il3grSxTrurmk5PCLMciWA4Yndc2_I.qlEULBGnCbOX9y6D3acLRg</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.NSwnpMI3tawMC0l4XmdYMBBZoYiSIl_xMC0BWyXXEEay1KnRqErybh-n8rCCoptV63bIN3Qnw0aEhq0VeK-luOnOwWZXSHkVAGG_UzLU36Lezu2r1f5OwVzQtJgzMmmvJhgWjoJppS9Qkh748w3LYaqDsmaC07gR6qqenp0rPCZogTDdWKQ7YthDYOTMfLp9gm0ZCZKVFj1v3lp4_UUVgiynFB2yHXa6lIWMSPF9dm7YiEugJhTz322WIYFdwFRCtiBcDzicRmRKIZ0O7bynLQfHxu6DXa4HNWL3G0rRaRi_sW5_0GooW-G5Dh9sAxRHTOXG12j9FwTxiRRgX29NwQ.D83HKQ25gv5PQW5O.oRX3uMpk-kzPYnlMxha7-1wAEFrigv6Sf7YeOb12d1OWs9x8_xI0VQ097YOdQ3sicWeRvHKuDBdmCfJODdoJxO4x9aemLwwR3yQZRjvGk6hazEzFPAJdAnU7zleJi0I46oUgoxAX6k8Ihdb9IckHbvWv2zM_t5e7yfCe39RfFBNbPnglhVrznLwzRTxQKOBjSDrxzD8ZMRSE_zQVsAeU6eSgP19AVplh1DvRE526.sOTJ4gxbMW0RvLtrS7iOEw</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>A100000005308047457</t>
+          <t>A100000006291169517</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4e324a05-0982-4fd1-bf12-e26dcda1003e</t>
+          <t>5f809db9-c018-4184-bc57-6b6db74261cf</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2F456FF4-A904-46A3-92F4-43B320353460</t>
+          <t>45704B0D-65A8-4FCC-B3D4-7920F390A476</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>xdlsx4061@bk.ru</t>
+          <t>myrrtadino1983@mail.ru</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ZD1NKZ8hkVY1FykPQtZV</t>
+          <t>MhXjZ2HieePaSFrfU3D8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI4NTYzNzRkZC0yZTQ5LTRiZDktOGFhZi1jZjEwMzJkNjZjY2EiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMzU2MjA1LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjM5OTIxZWE2LTU1ZjctNDQ4OS1hZTQ0LWYxMDU1MTU4MzZiYyIsImFuUCI6IjFkOWQzMDA5LTkzN2MtNDIxMC1hNjBjLWExNjc0ZjE2OGI4NCIsImFuVSI6IjEwMDAwMDAwNjA4NjcxNzA0MyIsImNhblAiOiJBSUFIbXJua2JISk1vaVBCK3hFdG14OEVJemNucURKdmJ1SUJDaG1UeTlZelBoQWYxNnprN0wyeFB5VjMyZTNSbmdIOHJjbGpzaHdHRVdpNE1YU2FRZjVHOEh3TDFLNWNLbUo4ZGhDSXEwbEtKcnVmcDk3b2lObjRpUFFaeG1DdnlXaTFqUVZSVEtkNVp2cW5kTGNEMTBlTnZ1b25WR0V3NTdVSEpZcDBCMU1lMzg5dkE2N0lHd1p1cTMwbTcxYWtyVzlGeUtzV291SEU4WnlvVEh4RDVWZ215VEhDeEZmWFEreEFWTjNlZGVjbVV5aFJhSWYwTk5WTzVxTlBSL3h5bk5vPSIsImNhblQiOiJBSUFxNVc0V2tTK25nM0IrcjhxRGNKZHU5UXY2V3MyeFFiVE9TUDlqNjV1eUIvay9zVXAzU1dPK1dQcHkyaEg4MVhRdlQ5N0lIZExvbG5tdkVvN1VDaEdRY2pIZGRnelM2UUw4Zk5pS3VZVkZneEswSTNpZ1I5ZndaMnE0bXJVRXluYXJId2hzYXVtMjZoTHNTUFRzVHh2cmlUdjlHeGtFK3FETFFMK3h5c01mOHltd1ZETUNZSzdESVBIUVBsd2ptV1YvOHVSdm5TaXJyYVhyamE2WExMZGVURDR4Uk1zVzhQTnRXUFU3a3NuanV0T0tmdlYzMmYvcW11aHBGQkFMd1lNPSIsImF1VCI6IjVjN2ZlYTk1LTdmMjItNGNlMi1iMDQwLTcyZjdlNzA0ZmE2ZiIsImF1UCI6IjEwMDAwMDAwNTMwODA2NTAyMyIsImNhdVQiOiJBSUJWbm1qckp5b3ZDN3ljdzRyTjEyT29rb1JzYmFDbTRFYnZqSWowd2tTa1RONzZqNU9xQWQwaVE5VVpvZDRwNU93endZMjQva0NnR2pvOVRxdXlTMVExeUxONWRvbUhrWDQwNWFpWUcyWkVxS1NuU3F2cm5lZWhvK3ZQczF4K1BhMW5RcURpeTZGWnJneTErMGFKZmUrbkZYZDhPMjJRSHE3YStuZmIvQm1LUDdtTjgzUjAxOEpDMFg0RlJ2RmpEeFNCay9qc3dJQnlrdXBEOWljVlczV0xVTTZkVDNnRW40anlyKzhKcnVKayt2ejU2VTI4aGZYU3FpRmduQ3J3NytnPSIsInYiOiJWMiJ9.dFCyf-oj6JG-1CmMggKsKO0ofQzP6IrJCVf98ZAJp312mQb6RfXna0OoqT9yeYMlTZKci1UX3jKbhM3Wi1sdV8qJt42gRGEv9O_PaIOqRbNU6cUJUyNX_aYeP7UxHT3q6mi3KVaeWISpe9O35UoUSmtW5ecCPouYHnKy3Er2KhjBzDa7bu2uaWWm9HLhAk9bscom4ZT1YqxoZ9IKiD5RROHZJ7hIX0nCtk_8DfPJvp6HrER-iHYiLVb8quuuQueD-8_lMMrqhJp5Lk4U00m5BZ9WF0QbixnFStCT8kRN_CFPq_1eA5gcfet1VGaoPuZYHLvdkTzXMhwGd4ZsygB8hA"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJmOWY3MzA2My01ZjQ0LTQ3NDQtOWUyMC04ZGM2YmUwNGZiMGEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1MTAzLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImVkMDYxZTE3LTYxZDAtNDQ0MS1iODQ1LWUwMzc4ODU4YzcyMyIsImFuUCI6ImEzN2FmZTUwLTU3MjctNGQ1NC1hODRkLWZlN2MzODAwMDdmNyIsImFuVSI6IjEyMTAwMDAwMTYyNTk0NTM3MCIsImNhblAiOiJBSUNEY2JQVTRQOUFtZC9kRnRlNTlqazkxRUpzZ2lBN3JzNk1FWWJKaXMza3ZVWi95MC9hWXdvNWxnMW5aVlVTVkZiTXZzN3ZjRituYmdNVk52MlQxSXk0WGduRE1sdnJxWXJaTGJJZk42Qkxod2RvL21ScUtRMXlkNy9CMWd5N3pLUnU1TGtBVUZoWDFuYVJvVGJUbUhDS0JzY1hWYWZhREdncTJqQkRlSTFySUUyUkpuRXBmSUtITGkyWUcweUU0cVd0MXhsejExbGJSNHZBT1JCQkhKTHBjaGZtVkVqa0x5STkvSWhqeGNhZVFycVI4SllUNjlqMmdtRWd3WGxLSlRnPSIsImNhblQiOiJBSUJVUzVkcitYcUFzV0Q4ZmREWjltRVJIZ3VhSXhvUDRuaFJkVGRIL2xhQ2dVUlVWUlFUcHRqc1J0RngvbTZQVlloNjhhaGNWZ0x1SThlTExFVEpjTFNWQWRxR1R5aTl6QXFQN2w4M0p1d29TVlVYZGNtSWlOYkZVQVlQTUE3aTFEKzdsZjliUnIwY243QzZMaGdsVHQwY3BkNG9tVnIybmQ2c3M2dWljSkZIRWVmMTR0c1hmakZpRGVjRUV0RHl1YkpWTHU3ZTBib2ZoSzFpYVFlUG1LV1NubkRqbVozeHpRVFBjaTNtVG84Q1N4NXhGeVg0MU1uRThUelpmWnBnU1FZPSIsImF1VCI6ImQ3MzFkZTQ2LWMxMWMtNDQzZi04NTQ2LTA1MWViMjVjNDhhMCIsImF1UCI6IjEyMTAwMDAwMTYyNTk0NTM3MCIsImNhdVQiOiJBSUJLVHhKMHoxODdBdld4SnExWlk4cWNxQU8zZEdWS1MzeXhoN0lrS1VsZFl5ZWVPcHFOZHp0QUJlTkl2Z0k4WUhrd3JYUS96c0NMc0dsZVNNR0xLYmFxSDAyUHBpazQ4Yi9UaExzWTdlbm5JTE9QY2FvUHV5OUc3NUNoKzNIY1lLbEU3Y0Q1aEFFQkdjTzNSQmt4eVo3MGFMZGlmVDR5SFlFOEJBNzkrb1FYRlk5S1M0NjNXS294cS9iREJEUjJXa3NIaEJULzU1THlGdXpaM3l5bTVGQ3ZpNDZDaHprUXEwd1FPRE5aYjVIbjhtdkhYandLcUxiZ0dwTlppblFURVEwPSIsInYiOiJWMiJ9.pZDU2p2c9GtLwq4QBGCxZTJmY4OApNK2PtebKIpq5Kr_fY1NtUYY1oJZuvnCL7YN4gaXZ7BB7LnQ-A6DfI2zQwSmm0aZnj1brS98rYi4LB1COmh51OAV7jfeNgTjbBjodaBL29i58_5rhMin-VXSMcpEtcNTZh9a1fBf6tAYX96lTSY4kCB-C6v-hdNXI4vCi5YorHtOgeq1Gfax2R3kCgrw5kKvEY4_r3Ah4L74X8qtVw8YUfWlLMb4ieRJ8WHnXZKvkNCKdNFi9yblxypqDuWPp9lnLTTeVawX_SWOADWARQeu43go0_sMEZULkt6pArXWmD4kTwAsOWasdoT9sw"}]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.gvFPF8atpr_V_GMHXj_uvVKPmOHcVMzwmaDaiiETR7NVzaEwx7D7nXTe9MNT1HTImdcssD3aekMpEaGagNyVAjq1JH_c2MQVjTySSNLLy5P0EP5mpjG14lRrLSoqUj0ntB-Q0KuGswqp2EHu0gUpd3YMo1-m8Jwxsv3sKJ028H-ttBjJHusIzTYujN3HYdGe4qI-YxQN7tzhgFQEU5T0X686bFyrIgNg0KcmABW18f1Zbv6ZLZo8ZYCr0TgNQf9Mfc2G9UPHFBIabKAxiowhyPC5TPIP4O2QHt_Zkf9oD7l41oVGLqHcxhtAbQh17vt8ywdf6tUPs27xNaQcf-Q46w.hMa-8xzK2gf90WJa.Ss7K1UhFr3cTXerVXDdkzoCwhRUGqQpmgynlRI_Z1hnvJ_m4yEpitEf-ItYutyuBEiZSzwlE7tBV9SFews6AypdlI6-dH0rDl7JAJfgeGqwO1lgvsKG2q2RZPuI71IFxuFvPiUWH3NBAZ76HzVlZ5jFFRvhURGC_Ym__OksPXwJpgW_Bv395Wth0DeGMD8Lse2maG_NcLneKOdScmJuO-euvTesyZ9G9kEKHi5Q.4HFp5iIloYT4BLLvm04N0Q</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.JrllIGU2iHygrHuKYoOP_C9PUmzBePROKd0AaZCKSUnjxtHWWKwlnKuar5yCK2Ilu0SpWQ3_tWdIj7Qm2BZL-LgWZ2MkKroWxOA7MHQn9Y1nGUthNO6H4gJYnw753QaC-DOfnDHalKnbJDuXwInVKtbU6fGYncVQ7z1h_9R0U9TJ9RPwHbHDmySiMLQc7WqdPOH_h-cipPbcy0u3uDADJQx6JB_xPt1Z_2Q1lukpN972Zetcp6nLDmzTqZo3BiZoH6ma-reDcaV5Ra9ueJlZ_ARmDeTjTpkSZ5K7rqMUBsv69EaP-KtV6ibEtzPbhhT7jGJE0myvMhRiU_MK30SfjQ.buL4h9RtGNb_8e3M.ifeNgHz52tgJ5zt4EXQY8KfVlis8X2RMEG1MMPEcdfBUWvqdExP2EayjMzm8Qb9sKUakccuZWayAjIVZoR8oooUiFVdeM6Yto9Vf3rBazuqOm_wap8G4-sGqfqEhPAzZVg7F08tq_Rkn1tvbnsgT-3oHNuYhfDNvd_15m13pcnXX9tJcVLBUDWNcBWdMVCelOgCZsFeqXWiXnDnJek3xzamyJkXH_pJWWyNbvlA.RuD-PpWt9S3Kj8PC_FMQJw</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.NuaOVpy95TRN3FAkYweOqgetOJmW1Plw4eBEItbFZW1IAi9wOltopyWTtNWswIeqVSv8ofjslKqqlBStI-ZpoHur24txiGuDEviATk8BRpBnMLLgoJQI1x9-QRJnKUpAbuA4aSY_p2zP4SpsbP-Dma8x3qjycb9T1a1Tch8ivKo8AONdOBw6oNILWUzO12bn1Bs-kD4bwfFxXKgMiTzzQjU8QLn5jRWXV5unljxfCcFwq0FMplvWkQlxszsvMlQJKmmp6QKicMTUc8ZP6BU90hbxiajROpxHXwivqWpH9oWgn01_YBfjgzaPSW2lrvTsBOMNvXGCqxddaKfsiD8ZPQ.IvZNBzTDvLwun0tM.K1Nrr8BXHwhA_b1pT4v4pDhj-1xZfh4j-OrpIOt99StvykD3ruy6r2Li2xk3RbH83A05HfK5iRgwVKCX11qBFPmzd7BH1cdJ_u74y3WvQB2ProcpvXuuiKfo3BldGGszKRw4hN6afRm9vYYzPwepQYW9BdWkQkcqP2SSLB4huWZxXww_4gE22-GPLtyU6cV8MjVqAzUUp-thE42ICMgakPfW8QHAUEgrCuRj_28l._wPYW-jEu0ETZTAO-dTCUw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.PyUk8pbCEPgBDRgFJCqJe7XW41ot2Ns55W9DKzix3VtjwmSxBeU7dPTUosVb29gl6-M2zUhiC3Fh8-xugKVgtWwLSE9_cp5qWhhvFw4AZ6TsFbKxUFaN-fsLsLSzB4Xqxk6XJ4gBx9LmyxbGtzGeOtQXKk2h-JaeJmV_BYG6rDBnNcDK2o7KqB-pu1FGalkpZCVjLk_XwJtDyr-SqSFsQa8TeIyTA5ZQm25mH8N8KOTM0Ms3H1tVHl6BBHFBSZayMO_O2oFlY2E3oanGyDctFRjR8JrLJrWR8gb1ZlByjxrc1yuYSO1_WDtsk2t5tRbUHiq5uC7IR3n3dJKMDH49fw.VrCjTNFDUrabDXt9.xpv5MU9gh1nsUR0hYFJqa6sSL977pmp6M0jJ7n15U4dRdqcSbn5BSjhpc9Kd0DLeWtsmcgQusNLz7t4QMA5Rp_MrGFPj7UAgrue6rIleMTmGipVWWf8ZATJ6h3ytFBZyvFDE9MKDyasjuZhrlVzlEr0OlQdPA0AyoplMd0ec_zkW1cWeF7NGv7felET_ZmJn76Xva5ry1NhPPXqxH_tKDXSi4PqX1_cK7zE9urY-.Ldvkq5pfSJfpttuA1X2jgQ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>A100000005308065023</t>
+          <t>A121000001625945370</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4b8aa9c8-cc55-469a-abca-5d1d2447be11</t>
+          <t>70836357-2810-4e34-b440-e558c8b91478</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>02346F95-F4D2-44BA-BEF3-552449C4A3DD</t>
+          <t>3DF166D1-ACD3-49B1-B8B3-51994D8E9688</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>merkushevalga1994@bk.ru</t>
+          <t>GurevRoman19772976@mail.ru</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FYZqF7APL7bgr3hFR73i</t>
+          <t>qRJR5LhcspvVWJAdzeKP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJjNzkxNGVkZS0yMWE5LTRjMTMtYmFmNS1kYTkwNWMxYzIyZTMiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgwMjQ5OTUzLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImU0ZDA1ODRmLTc3NDEtNDM3OC1iYmI2LTk3MDkxNjIyMTE2OCIsImFuUCI6IjllYjQ1ZGM2LTY5ZDYtNDIwMS1iMmY0LWNmOTMzZjJlMTVmNyIsImFuVSI6IjEwMDAwMDAwNTcwNTYwNjYzMCIsImNhblAiOiJBSUJENnBNWDh0TnFZd3lOKzVkMnYvUHBlWmxmN2FXV3phTVlQVjNyTmMzNFBGdnhNalppZmlYSjk3aGNNOVJNYUVlNXE1dm1QR0x1VC9VeUYvWGQxTzgvUHY5QWZQOTZYbEVyck5jYXNPUlRmMHdldTNJQVI0a0U0bytjcVN3ZkkrRm9vZFhidm9aZ2hEYTdTMUZ2L3phZGNxK0xIMGwxWFcwOFVHRmY0TU83YUVaWEc5SDlTZ0MrbWVoYVhQTFc5WVpuNTBNdEcxa0hjUUMzeEdxL0JZaVR5M2RnSWhrN1dFTG41U1lLejI1d3RGdkNYSVBBSHRwMWFGREdzMk1FdUxJPSIsImNhblQiOiJBSUJxRkpuSVl1MUJIc0ZIUHAvcyttUTY5OWVTbXZkbTZSaHREOVMvdW9xRWZZNmNXT1lEVFFEK2tYSDROVXZ4VmdPaWFIdzFKYndtbmwwNDU0QjhRVURacmYxMWZaZHdCckNoK2pxUTQxRHBtTm4xYnU0NWhLNjlQWTlzSXV2TUN1Y250Tko5UzdXaUc1Z1ZremdtbWg4M01zdWxNbzF4S0M2S2lBVnI1eStJdnBzSlVmUDdvZm4zSXIyMkNCei92NWcyb3FLaWVHOVJhL3ZiekZmcU9LMk9TVmRTdWMvZmdQeGg2NHhLVDFPRDdyWEtQUWhmNlVKQzN0MlQra0FNR2xjPSIsImF1VCI6ImMzYWE2MDY4LTY5YWUtNDYxMS05ODcxLWUwYTIyZDY4NzBmZSIsImF1UCI6IjEwMDAwMDAwNTUxNzk3MTkzOCIsImNhdVQiOiJBSUNUSWROYUV0UmgxMXV6LzFNWlVRbTF3eSs2U3MwRjlCUy9JbzhjbGR3TzhlUWtodHVDNE9vRzI0aGNJYThUc0VGUGtDSVhoMVlHcks1V0p0L3ZMQnZLcnZ4alUzWkkxMHNEZUdxVzVuM0hjQklPZE5obWVQVnlxVlowcDlzMklab05QSGV4SDRwVnA5bHVEdUcvK3NrNFplUEZ1QkNUcjg3V3NXelBJM0JReEl5eXhDMU93Y2Y1dHJtejVxWmYwUmhWeVczRTBQVzBFZWpKRnZvU3BlMVZwdUxCNlk1VTUyMnFIVG5wKzF2cVJReVhraXhhdUVKS0o0MmRiV2lzNmFzPSIsInYiOiJWMiJ9.c_6F9bcZrR6hiAkieDbS-l8U24_Xjn7mBatZL_WpPSKyVG4RkGexIgsmvcfgDmcqty_uYROFwrZmPFX9tKs4xuy3fPiFA5mWxSZa_gxbMZ0xKj3ss6dfcPMeJvHRc_FVSZ_BTsDutF6vXL54JWRUDmvh_a_e9AOzcuFnHcdShfnI477uLkOZ-aGeckZ94iH8GmAb1jMtVAXPuCGYc36s7fwLF0foh4dvXsm2Xx4vZKzQiKAqTaI6PgxpAM31wybAyHrj-lNU7wI9F0cEyaq9PZ_lw7acfeFG1zPxvCHXnc18OlePqdB0xkA403q1V8PL3eIx7-a_JnZqHTBNzVdW2w"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJlYTZmM2ZiMC1jYjY5LTRmMzQtOTU1NC0zMmVkOTBmZDI4MGUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1MDY4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6Ijk4YTFmNGY5LWIwMzktNDcwZC05YmIyLTJlY2NkMTRjN2M1MCIsImFuUCI6ImVhMDI3YTlmLTRhOWMtNDAxZi1hZjU3LWIwMDc0MGFiN2JmMSIsImFuVSI6IjEwMDAwMDAwNjI5MTE4NDMzNyIsImNhblAiOiJBSUI3QWdsZjdxZmFYOHRXK2FEcENlaVVONGtwbEkrTnpHMHQ0SENHRFhpYTBXeUtHR0o5eHQ1L01PekduRFJKSkJuTVQrMU00NTB6SytZYnV5QXFRRHdjMVZ4UnUyNVBQL3RKRlg0NFhjZUlnVVVLTmczVnAxMVpDc1A0WFBtQ21mT3NCbDVoNjk0OU9jVktGalFJM1BPMVdLOWo2WTB3Vk1WL1V2TCs4RVFReitmOHJOa0tFdmdLN2VGY1FTQ0pVQ3VPOUUzQjJqb3RKV3I4bm9NTERUUm1xUjJDVXJWeXdNRE1MLzJ3aW5VNG9ja1lJWlU5S3pCejI5WnRSTXU0UDJnPSIsImNhblQiOiJBSUFFb1RIb2FCa0FaaFl4N2hSdjhMbTAyek5BZGdHOTlwWDQ5RW95TmluZkJxOVMrR3Jlb0hpUW51NlRJZkVnYm03allFWjJhc3FSSHZQVHpORFZ0Y0swblh3Y256MGRrQzQ4bGh0SHJubzVzc1JVek5raWdqU05zWThVcnBYRjhiWURMQStHai9EL0ZuVVg1SjVoVHBLMFF3VTAvbFVOdnpWVjFlcDZmeG5wc0FNc25mVVY5NzZWMTl5MDhvM2JOeE1jTmo4TjhJYjg2c0Q0SDhRUEk0a0tHeTZ6S1JDOFBWUGtzcHV4US9WZkE2ZU9IUnNpK2FmaHFpK2FCdzZza1dvPSIsImF1VCI6ImIwYTgxNmJkLWZmYjItNDViNS04OTFlLWZkZWI0YjFmYmZhMSIsImF1UCI6IjEwMDAwMDAwNjI5MTE4NDMzNyIsImNhdVQiOiJBSUFWYVh4YVVXZVVPS2NwblNadUlkbTk5NFA2STgxQXB5M0JVNHJXN0xsM2twa1lIS2E2aHNUMW53endnSFpnOFBEdUFHNnhWMVkvejU0RTF4S091VVBLWkxXODdYODB0RlhTUXJuaWVJSllLSXFoMUNiemJwOUFFMWNGdU9zTVh4WjdQTzFkcUdENGFEWnlBUWNYWjRtNTZSU3JyT2pOaFNyUzZhTXBuRE4zRG5MQ1BFUTBKRmwzRjJFbERYZThsZXpmcUJzWkoyMUhuaW00YkthYm5RMWYySnlqZnVmcXQrNW93YzRubmFyQldWai9nNG1uMmhwbVFhZjU3aWV1SC9NPSIsInYiOiJWMiJ9.hptT_VbTcurMOwdvfmv2cd1k493C8NdOIq0AkUlf4evR2AeiI08SC6thcDUmYVQfDtL91TeST0kvj7mkqsa13Jto6qAgHHF-oEAlV7poOljBSxWocapJwLK6MOIl3NiWABFdgQCdYNchUrywJUvZG9HGFCY4q8_ZVWuRGsInsz_o3jyJatTK6FZh2vQBz4HuBs-h_HBTdMpuy3V-7GfMri-FA_a27iOarZZf5qjAYMYaBr8fhcY-3A1SfpsxQ6UTHJwILAQAntk7FM1e_FKfJ-WijEfrT88C_H53qM5qgrvBOvOmqHkp0bjexKbiODDSurOAMWC3B9kgHilDDIYYjg"}]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.IUkDoHhZ5S52fR1BjyC8KSF0zMbfSBx3N-FRYQAk8gjpDifESf64UxKZd4d3RWoc1exNul3J6N64lKbnwuVg8cEPd7BDUZLzViJEB5IANHDzhuQdFekooyoQ25ncml1yFYNWDKNfr5ks6LRANKxhdSU5SpewUr3ZIFppx8z1C7RoqYXDISqC6IZkVmzbLQz6icVveDLAxegen1GfgDE3XZ5qySPBVHoId1BkCsn04hn_qfkCsaA01shljPgKJl9BqQXIdesauw5VL63ixA3McAgLhhDgvWh8ZcomOM1mJ9YJ9SfkT9tMd2yuvXOVqoU7hFsMLxMLpMyl6crF0Gn7Fg.3A40huPFAXNX0pfp.wqFrPjA_YPPPHnCrsdRIKCJsPhhBM3qwTA_2NIcUqReYRNWhrNSkHT3178TXYcfDQL2BNPf1GlIIvgXhxecZNcyYuHbKByeQwm6bKV7irv0pJ0IJk4OSKVfcgYcGgODFNS7wFZ6oiOehuNdon0yQrsXoXx03AKH6c7lJIa-3UconG4aFf2_cw4Ljodi4z45lIBTAcatBv_454jng7S-ESZdFDwb-amocmTThYF0.KZ4ITWbasCSxNnfCk0GLTQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.U27HMh32MUJnLKxELFeod8up3Cr9ilwp0kHydm4ZNrHFtzLgtCBJMUamnVn-xXqKVzYoJ6ZIGPz3OoZplEL7lvwT_CnoagzZw6UUbUDecwVzq6xqUkIqAe6D8FFlD3zvpIe_QdbMJ-28H1xu7Li9vnXwiIf96NoKH9n6ncTuCpNPpVKc2xoTSPZaL3kFwyeyWhWFwte3FligNGqfzjYS2jBXRS-HqEpAF9yXW8l14JN1-arSKo9mC0eSAccrPNvtvMhLUMrkPtl78WgvjYSv5Pl-F2VqfF7oWbGKR7i06POM9k1BtH7BrTtd7A8aAOYhFjERkPLqJJF9AV3bbepcDA.86mnGG3zoVpmM2yP.EjrA_iujk-gAnCauwIn2IlCi1xHHSFSeaaM55zOOZfk08XVzAtcuzNVpZK65rMxP01i8QHa3jwp2uSsKgOWffg0bNkCSKPFkG2cestP6HW8SPuep458b1-TjTFh4qVDgU-msMOd9L6vdj6wQT9D59w73v6lnQqUTOl0rwFgfwxnaLVl_bu1HEj8UbtDWCQ1oIkMl06HAEuErbgVp3_UetSvTm0JkNoz--GP4H0g.Ec3OFpenHNMT2_jVX8D6sQ</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.ZnZqbD7ZK8XlR0k8KzBCSHnDeub_3iFTWUOkYrgxXAqACmpOnka6WHLY_K2xlvuIPGdJjgxdzwj828CkABlLTikOUZUizK69VsRF6K5WJND_4YOccfwIALWLJnuIRumkRNg9s4ej1iZzER7xNCDRMi46_IUJXA5-JQN4EykCGEhJziKuc90ss2s3Wy6vXpjjENT_A67MWXkDw5Zp1YZ6WcUCtYK0--gNsIW75iQW0kmfd6-LLQlFIQ96Bwn9FKnh2n8a27VMG-RvVnLvnxUkRgZ4OPUcaV7xCwpDfyMLqsP2EXvqdXL4EGc1HR72ZeVASI7sN55gV1xB5tHCIwG85g.CcZiibGcT1O_yEov.vk-b-hkgCPwxNe9zqwz-VyGihrw4P3Os3OGbOiFQYsKnK0LhmvtTBNoPtxXJVzIVYNScMX0VPNd0wbJbJzKiWLm6ZyyjTZHM60FPmnDLs3OoK8T1jnVxOhLtXL09v_ITJSUHOrOM1DC04sIXqqZNZ68ZhjXm9cvLnGlowaTACi7NoUQYp4sUo9t2H3q-bQqIZvnoKH_ZvCJ5PChP8rAYj8iLdOgjWAwJNmk_gMXG.mZjnBGWpJVXD_2iPQJQUHQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Zntal6nhR78TGKNjZZl5nZlq9Tue7SgNp8iBHnhbReJWuxHwLYEC-l7A3MT9JQ9y3TsEEhNrPR3zolFu6DenhMhgGAr-Wtvobn_JuVLhBWdWLu8imUBOeDC4TaLO33tfVMjWfOashV52wFWHRZrdaW8CEDW68rMXyaO0JuPKQezcoobijps4d20dVgxgmdznpBj-mEeyYx92iQOyvPu0F18V_TQaboNo6OXNRAu7R5GC9akn_jzVitFXq_vTvE0G3s60r9fnJE5eFWFsjyqeSfINaLKyYMmF4NLcDkqlUFXZMgH4iZW_YEww3JkdiO5vclepWine8gfXMWg5jTyvGQ.pfnaB_jb2VT76o9k.o_1wAPrDftm15CzKU7iOvKppadJWDfU0sBtFEmWb8qJlgX5RNsiUZKFYWROLyY9ZuBVA89-Omfps0TFfITG6YDUx3Rwfzh2lIF2bUhUFezXjDEqr0lb6Xym4QKEJCwh9lK50q-fUoIHFCGMUtiZi86_C74aJojc4eDtclkLC9aXyBo4YiBlzNxlAIgE-YDmRhU9wFhHsun4SV6JWNRDjE2LVRy6ooIhYwue5QDmg.o6tBNuN0uNUylvtEQHPULg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>A100000005517971938</t>
+          <t>A100000006291184337</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>8fc686fd-b44f-490d-8b1d-b71bf204b6f1</t>
+          <t>e3c47d4b-b100-482f-9bc7-4101bf1d4874</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>148BAF52-EE7B-4687-949F-EAAED1C14A0D</t>
+          <t>E46E254C-679D-4297-9A63-E532415F626A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>dhfhb883@bk.ru</t>
+          <t>KorolevAvksentii4389@mail.ru</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bC7jV9QycBXSvwR8sNSE</t>
+          <t>TzeDB198b8GrB2BbEj9t</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJlZjFmY2M4NC0wNGI2LTQ0YTEtYWY5MC04NzlhNWMwZDMyNjciLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgyNjY4MDc4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImI5MDMyMjM2LTg1ZWEtNDVkZC1iMjFkLWQwM2NiYjYyZDk5NSIsImFuUCI6IjQ3MzQ3OThkLTA2N2EtNGYyYi05NTkxLThkZDdhYzRjYzllNyIsImFuVSI6IjEwMDAwMDAwNjAwNzEzNTQzNSIsImNhblAiOiJBSUFFRGMxZyt0aCt1MGl3WWczZUJWV05ZN1dWSW53U0swaUw2R3Jhbk56ekMxVVlDZjZ1Q0ZLV2R6Ukw4WDlVenZNNXRBWWhGWHRhNStYSFk5M0NvWWpSVk53U2FwTGdPOVU0dzlUanBEeVpoSlpmQkNxaFBtOThVOEorNHZuc0Erck9FTThtZDhPRTU4cTZYUWVoSCtFVXhIRU0xa3RXNVVoUmJ1b2ZySE1uYUNIL1BkOEludEZmczloN0dvK3Q0cGFXcGRwTlNZVjRmRGE4S2RnVjNDNmRlR0hMN0d2ZlVuT2FLa1JYMlU3VXg0M0NEanNmQjZLMTlVNm8zRFVuWVY0PSIsImNhblQiOiJBSUFrWWE2OTBuR0dMa0lqK3FJMVF1VTEwS25zUmhHOFZ4K1d3R2poWU90WHBYaFRaTkEzQWJEZTZhcWV2Vnc1ZnBiMkE0eUJpaklUd0hqQS92ZVc0MWVUQXpWNGwyQkVDOWs4V1U0UUVjSk10bksrNDZnT2pVR3U1bjBIUC9wYm1kQlVnOHZSeVVkNjNlZlVBN0NHbDN5ZlRWSXIrRFhFNWRZQk5KbTR0cytlajdzRnR1cVlLR2J5SzZBNFRVZjBhRXFTMHRFOCtVRndZN1ZlZUZyMk52WWFvaWNqSVh3L1lxdmgvdGVqcCtkM0tWUVlvbHFRVGtUak9vL1RjT3F2cHBzPSIsImF1VCI6IjhlZTZhYzZiLWFlNjMtNGRlNi05NjBlLWYwM2Y2ZjNmNGRiNSIsImF1UCI6IjEwMDAwMDAwNTMwODA4OTY4NyIsImNhdVQiOiJBSUExZk85S1BLYlZva0pYMVNzdHNBUm1OeU1HU2VtWFVYZEdCdS81M1Q2WEdlZmZ5N25telB4b2JyVnFoQmQ3NzdtT1k0SXVab29vZm5jWFI2d3QrbXY3blBjTm4raUlqMEVVa3FyUS8vSTFxT0pNZTlVaGhRVTEzK21EYWJsRDM4RVJQWENTSG1PaSsrbHRHUlljeWlnZmRvb0dwUzFZQ2V2NERISnRQZWtxMFZVVHlScW1KU0w3NDBhQjU4dDF6WCt1Q1lhQkxsZHYyM29zaUo0clB1ZUIvOGZ2RlpZSE5UMTI5ZVp3U0dZd2pJcEN3WDY1d3hJVGlrTEFkcDcySXRvPSIsInYiOiJWMiJ9.IasJ4tjpckkXexdrNWVJESaXFMkUdumUP2xbxerPe9Xf7V0alhznGQStrUW6Dif_Js1iwUjINbWat0fqRJYykIStwpV8f3oYq3coO0s6mvvLUuKM8G5VGDdofHfbs3riCkec0tXsz0lxIDvuMuwdWiIo7SIbzkJP8Dwvaj4tPchnqKSfkUUVdayZ3Y6_xwQoLXR-I-8bPsw7IRwAJ27rmCy4RfnXTnh-NuAIFSLO42joKWLJA0QJeo6B8hdGsUU9-QnwS72y3XN-kMWcUcrCp2mOv_EnPmLQ-QscbRlS6dzQb1MNMVL8mfwmcsohfHPK-y7MBK-xd8EvFvbTMYeW-A"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI0OTU3NzIzMi0yMTQyLTRjZmQtYmIzOS1lMTQ2ZDgyNDYxNTQiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1MjQyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjQ2ZWYyOTI4LTEwNDUtNGVmMy04YTRlLTc4Njc2MmJjMTdhMiIsImFuUCI6IjhmMDVkMTI1LTA3YTEtNDllYS1hYzFjLTRmNzI2ZGJmOGNkYiIsImFuVSI6IjEwMDAwMDAwNjI5MTIyMzgwNyIsImNhblAiOiJBSUFCS1AvQjF0QlhIUU1DbUN0SnhzQ2RpVTNQWk9GMmZGcFNleTZRNU5hY3NHeWkzMmw3UGI3UC83YmJUQ1RsQVZWcDVFMmNrU2lLbDJYS2VCamsxamdqcWpqZjl1d1ViekI2VGpuSTZKN3RyU3pFYnVwZDNFZmIyV1Fjc013TXlITGhEaCtvdlBjdGdia3dPVFg4aUxodnFZbFpMSWZaRkNqb1NtcEhaYXkvTDI5cWxvcUQxa2ZPaVVRMGJmRVp3bkx5YUw3MHF6WlowQXRNOU9kNVVmZEFhelR1alVob1VMOFBkTy8zKzlCNGxCR3VnTE0vZDFSRldkaXpQSk1SUnJFPSIsImNhblQiOiJBSUI5Nmo3Rzd3YUFVQXA0VU1TZlY3VEtMQUNMODhMb1VSK21NRmFzRnY0cnRCcmZPbDVPMm9DUjJyK2RnekJWSElhMkJwODMzSjVsUDU5c3hKSzl1bURvYkFlcWFJVkh3b2tUZ08rNDdVWmtNVy9XZGxGMlJJYlZzbEJ6djMwNDNuYzlvZThPcmpaakFFcGVjcUR3bU1Dd3h2T1Q3cTE0a1BYckNSN3hxUitSUTNDbjBaY0ZHei83VlQwQmJ1VG9LNVZ5bm1JNTUrSVRJTXVoYnhaRE1SYnFjMi9jdERpRjZ5NjFYb1JhekVRekY5bTlDcmdROGRlTC8zNE52OWt2UkhrPSIsImF1VCI6ImJjM2Y5ZGVmLWQ3YmYtNGIzYy05YzJiLTQ3ZGQ0YzM4OTliZCIsImF1UCI6IjEwMDAwMDAwNjI5MTIyMzgwNyIsImNhdVQiOiJBSUNQRGIxVEt1Y0xRakx6MUg3ODY1NUV3MTE5RjNFZXdaRUg3QlB6N2xSUDc4aGlmZjBwZUZPeS9MRHlMei80Zmx5Zk9Nbit5NmlWRHowL0U2NTdyZklhQmExU3RpZG1INFJSeGxqaXhTZDdRTjBDZ3FxM1hLQUxZaHVrb1RZWkNvazN6b1hnV3NrWU13K28zeEtWb2Ftc0pJVGZDUDRiYWNHZHJUS3FsMlBJZmwraUhsazVkNkdOMUQ2U0xBU1o2cm15SE1jeHdONVpJWUl4Vk5XVUZuckxzR05sdXUvSkljVzJKNFc5YTlWRUZGeWF2UGpQWE1zTGIycnNpTUlkdE5JPSIsInYiOiJWMiJ9.oCB46mAK0GfXuB8juOrQThy9lhPkFhimNSwqDIJQoy8JvKW2pUQHT6csqpyACN3riq93JocZNGn-jKexI5XrMXr6YToCkApQyDyhHbLlbCzs4FTGkFmj6nSDDRiS00Pg3w8p5fTxq6ZuQHEgUEiilNlfPRZW_I3a2ba4pNuS7Se-N_mxC-u6GSX64iZVBL_9TfjzSnG9htw6fYGOGOXTe7uFi7v8rhb-b0xh5-FfKMI4KATfVh6HlBYB25CGoEZMmGEzKNl7ycEzVLbTDmrrOZLIE5199XT7jdBSsC5gjNJgJvWRiCgUgKxbQu16J9Syjp1tYkBR0sJiqjNlh_2fNQ"}]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.fv-5cdu7Q8kXvMeMiAsaggDj4Cw_iswp4iLJpm9__rLOFSAd2mSRIeAKCTjs9gl-uZ4ADSzIjhgX8jEHWNkxgw-GOirlKQgwepm-j8XdSmIkLtVJTYkprgVhgdUmA1v2x43Ll1PBKFIEYW7hPoUY_nUMSpqfGN9WtINOPeOtKH_7E4bns4Q0aeTH-8uAFb58DfiRJSSPxyyTqch8tao1slVXr5HzvFanvzgTyqyEtUb4wES0rMsXRkUnHU9NPuz1JWFenVlY5dCXQYegxw3FmoeNdYT_XFdyk1NWxl2NbPzol6tFsSFJv9ZB3Xy1v7ykNQmsNb5xGEv_I5PwC1FeYg.VkLGL1htAkyBqRQL.gO8t-bh3mX1_PA4Lfumxw3AacXfW3LVwst2YboadB17gFoEwHyt3qX4tmfHU6cD2Yp5_OLF9CLBr7RtHSGEB2afdp11AVkF9NBXo-KK6GwyCPggkbBssGNNhfIyymQ2nkTdQbl0DeT2UiePPORcCGIqAa8iS6YDYd1Jpt9B6akChrC6Zplkvx9c67lhygqSmb7fki4-QUxdbPzxZjK2ALJg0x3nMsganr3NPIZg.j-ViS_91IG1C79XFYE9Z-Q</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.XzrlU5Z8OJ7mnRHZbSjGyvt0Kx-vjFTUGiTwwFm2Njyxs35aTHZhDe7m2pmoWCou5Ja-nw2VjkObqkweqtu9lxNm8QdambE6KQ-9DgBTMzZU422VY5ss_Q7sL2MDG7Stlc0wc7Z9COVNeUFnBVa-wWUcCjpuq4yqJh8XuKw7d9nWYll5tnZYPhtzxTlOsF2kS3tK2iUUcj-IBx1WWzVfVI-sgVrjIgIQVrnQg3COT5sIcQwty8VW2aA5a7wxI-XV4Kt7cYGCMsr-b2ACE6tBjqcpMO47layuyNGRD99s-VMgDrnRGp-itd-dorIsbj_eiXHJe9mgrnHjYFVwYueyaA.KDNyz5IgsZw0akF2.D-3L4eCB6EYQGoaZsDfQdLyGMlFMyej2MtMWXlaoCrHDCxssLNWxxVOdupOGPrZQf80ib3RXljcqfKO3DlOelkIZSUb7GodxmfLEV7MgmdFgWB4SoPHGpNuzoG9LX1W-tacBbmD_ChIiAs2-71cW8SFrVTHYW47hg8tzgh0QrU6eHQrEx5OuyZFJW3iWALUpQMAVOYjMeAyXfYHz6pmo8N8PrAuzfQNEJ4t_nA8.OGNYPaHMSkJC29Ja8_nXNw</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.B9y4cyzLpFmB-eh6K76gWJUU1GAeGvYdZgVF4z67vccgoulHeeisDfwBTqri0hC8UpZkyv-zZwmJ47XleSMYAHayYSfBEiRQ5uXu4NRSohcjg3chRPUv3rKrJqhj6-ouNp9wk4-_gZk5KGjv3Q9DW3V-hIgoXdi4OExQFVKD1hNOK4PkVhYxp-Sgwg84F0PX1g9QvtOzdB2AYLLk49tp1NrGf72qzjJSqS6Lgmott6UFMlp8DhybsD1r5E4KlbvKNppVtn47vB_WX1ukWEvPxPGyNlXdCbXAvHK8W-uRJg6v8Bf3HreBeOHc7etLvsJMycSva2kbEPQOOx_mhLSpIA.EQPdGvI6ygOsqwwt.7Ff4nnaliYNiBvplH9UkeMZq4ZNhT2wincB8GsBOCX7EgAj4dHHEiqiqtYTSPxodsCNA1wBJg8wuEpmeh7Cp1w4N1wCq9egcOEWFBdIEt7AMkz0f-O91fbwd6MWeD72GUj3iTMWusLLyWBDx3nrvAA8Trvp4eCImScZShG7BpR4PALjZQng6q4hSEgLJWvzYb5Aq71ZulAoosU-Uid2dwPex54f0ybCazjg37m8e.4Vkt5Gsm0_EAYkQVvOWfYA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.S8v8mOIq06FTWczqyPmAhe-JP0_q_FcYn6neK7HdXWhxxbDcCGfEwHhT3ODKaTKRaPUmQbiRT6te-qqPdZNsLPv1hjvbdpRO0VdQJQljpAtWYewhspe5GQ9fWzu-1Mvc5-QY1kYX5bRzqio6A8rhTMF5e9GFa3Z-KdQIjrvJ-PWGMCWJmUjzTGM3xfmz7xyjWeZlX16TwALGe_r71rzZ7crU6EAn4_3TCBR9REXVKvtu5g6wfceOGXNGPlAM62ilxEewbRcSKlZFkASkmztz1M4Ht-jwICiRLqtVOXtmlPQEBGTCg5-FAm-fdvZjEO9WTgDbWXpmldNSv3__zjTyeg.s45KO9xQhm-CiAp4.6UtBN0m5EaqWq96hFpWZsqHAe1hjpxJFVDqbAaMxN995igX4UxhM_KkU1SqZVmtQ2CI3RJ16QS6xqGOEH4a2mEpznyQoI8UdQGkfJ46dD2m0sKjbohG2w6GNo--wNZubkTkrcqN9n8MogYmY1d9FU5l5k9HoO0qTC6N-Hr102CewWibXHn6LVt38TaTzxpzGjO_7xpQhtfSbq-nEZ_slDHbpG3jn4Ofl8OnWgKY_.1Ff9cDzAnnizqgtQfHHMkA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>A100000005308089687</t>
+          <t>A100000006291223807</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>90371850-a5ee-4165-bfba-cc18eebbe601</t>
+          <t>5b1a4603-b60a-4a7c-b6ea-23a1a80962d6</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>BE8909B7-4F2B-4F97-AE2D-4442EDE8A0C9</t>
+          <t>C4113B98-6009-4907-BCF9-7FA1B62CFCA2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>zalenshina@mail.ru</t>
+          <t>beatrisapochatovskaya5324@mail.ru</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>dQhBcfmrPWBAKF3gPBtg</t>
+          <t>N3kPsYKUHcjvxUaT0FwM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI3Mzc2YmQ1Ni05MmMzLTRhOTItYmRkYi03MDExMTFmZDA4MmYiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMTIxNDA0LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImI2YjBmMTQ5LWNiMzQtNDBlMS04ZTBkLWJiOGYwNjNkYmQ1ZCIsImFuUCI6IjMxYThlMmNiLWI3OTUtNGRiZi1hOTE3LWY2OGE0NDI1NzhhMSIsImFuVSI6IjEwMDAwMDAwNjA2MTI0NzEwMSIsImNhblAiOiJBSUNHaSt3b3YxZmY4a3I0T29vZDZpdjFQcDBFd1NkNjJvVGM4YTVoMSt4Sk96eCtsV2F1UnFtUTc0eld0bkduM214Tm15SU1YNnJBWU1VN2NsWGdhaGJPcVZRaVA0QW44cEFlRHNqSS92eUU5ZzQvVWU4aUp4blByNytNd1I1M0VmK1FNdG1mNVRjaFk5UnNVM0RhT1JSdHZqMXRsOVE3WUQyNExNTUpwS3M1N0t0UWJFazhqRDFFSnR3RmFBRTdvNkFSQUdNMDJMWHM1eUw3Zkx1SWpMdUQySk9FNVU1SU1MVENUM3FFaVpNQ1pDUWptc05lOE9uTkRod25uWHV2OWZFPSIsImNhblQiOiJBSUFZN3BHZnlJcDhLd2pnTmZEWlNuK2ttbENnWUxzaFJnbkxBdS9EZ2lGbW5MUGxSd2N3R29FamVFV3JoYXhIVW5wa1dqM0xjQ0ozbEdQOEJla3NQWGhhWG9CeXBYa1RRamtKdjZtS3JsTGxuYVFpUHk4UGh6ZEFubkRXQS9OcUViQ3ZIMUJhdGx4alVabitmNWJPUGJXWVpGa2YzcG1BNWtOTjRmUHlwbEZsWVR1YjIrZEpmVjlWRWJ1K202MjhISjgrTEN6UHdrR2MwL0pzZVdicTFqWDRsSVBGcFFZb0JNcHAzN1pmMmVDYnpXUE8yTytWMk1VVHRXK3QyNUpEZU9VPSIsImF1VCI6ImM3ZGE5ZDhjLWNjZTQtNGFjNi1hZGFmLWJjZjM2NTFiMGM5MyIsImF1UCI6IjEwMDAwMDAwNjA2MTI0MzgxMCIsImNhdVQiOiJBSUJyWG9CZytzTDhld0p3aU9CUGpMZURiZEs4dWRXZEdwYlZiS2M4YjIzbm1ZOUpmV0xwM01FbmFROEhRZDdmS2JaODdOc3ozOUpaOGpjdTFFT1NtS1F4THhBcm0ycE9NR1NYTFFKTjBjUjJqcnMrYkh6TjNtUHF5V1lHbWo0RWJPeHVVaTE0UmlMVXR1OGZMejZ6THc0QW10L1ZZQkZuVDIydTlPbHd2Y093NWFvOFQraDhsMmFTMGgraWd5QVlOVkgwa3ArVHVYMDBablNGZTllbWZrdXNNZFZBaXpKMDloSGlLeWlJeUFKRnJnQ0QzOWlOSStQcklmUXpKc1VKMEpjPSIsInYiOiJWMiJ9.p6CXxeyz2La2olwTjAMwjBVt0xpWcC-l0CXWsV3nZQitYMbhsiMqUAR5Z0hWKmwyw2aaCqON1WF2S-FJ1k6xtYTeRqO6K2hRbEmetS3TCsldACj8fxuZs2TKPSnBItZf7rxXFK31UkMWOySTf7btsdVPmcok_KPFD0N7gomWR_8JEM93UrDDIRl71cS3pT4uBMaiTQPcsNVb_JhtSsGEI5ll66rnco5H26bp_gZv9bwiesawcDCFy9U4Bso5MmpXHtUgvrW30yZfxNm2-zUkgmFUQVh820dn_wONWgE6rQnK4bdrPYrcIa0bkhQamcWb4n5HSpOojqHXcmjIl-q2sw"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI0YWZjNDI2OC1jY2VlLTRlY2MtODM5OC05MWM2M2ZkZDkxYWIiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1Mjk0LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjlmZTNkNDQwLTA4ZDctNDE3OC1hMDg2LTQ3ZDZiM2U1MWFjYSIsImFuUCI6IjlmMzA4OWNhLTVjZjMtNGUzYS1hNDdmLTYwMGY5MWMxMjI1YSIsImFuVSI6IjEwMDAwMDAwNjI5MTIzMzYyNyIsImNhblAiOiJBSUNXYktzRXUrSDI4NThmZllRQThJV2p5WmxVSnBPMVRadU9Td3M1NUg3eXd3TmRZQm9BZXR2RkJseHFsOWdjQXZTb1EwRU1aK3NiKzVsTUgxYStjbFlwcVdqU1VPTDVhWEk1NnZoN0FxU1dhcStqcVY3ZjAzL3BWSC9tNGd3YjQxdlI3SXc1UnhGb0ZEVWpKaDNPdzFDTWRseW0wQ3lXVUppVjB1SGRra25VOStjMnNPL1QxRTJGcVJxVERKWUYwRkVZbzhSeU9qWnFIUEk0M0pVeW5rRFJ2SzJTQUh4eGROV0VxSHR1U2hDeVhabG16bEhwWWtJQkdsVTdtcWVaYXNjPSIsImNhblQiOiJBSUFiNVlIeVpVRTUxaDVqT0ZKMUVBdEhXcWlNalBrWWRvdmxBV1ZaYWt4anFwbE5FczBqYkJUUlMxc0NVVGVNVVhqbUpxYzVHMGVoNGQ2cUxxQmNaWkdtUHpyZW1MUnpOVEh5MmdsK2d0ZGJpUW5KVVJVWEsvekdrUHgrYW9JY3hmOTBiZzBOSjlXaEZMMnRXblhMZEdnNUZTSitYdEVWQy9mRVhqWTdVeW9iOEp2dFJJbi9VeWJvU1JNNlN0VldRQTNFaUF0VHk2R1JrQ25mZDl2UmVqeW9iQVQxVi8vbGJTbk1BblZLT1ZkS0lGazBIQUtGUVBxZWkwbDFuTHQwRUhvPSIsImF1VCI6IjgwNWY3MmI1LWM2ZjUtNGYyMy1hYTdjLThkOGQ2YTU0YTZlZiIsImF1UCI6IjEwMDAwMDAwNjI5MTIzMzYyNyIsImNhdVQiOiJBSUE3aTVWdXg4ZHBraFgrTmlUNVFpMzd4TXorQmhKd09QUVpzSEw1TStoMFNHRHllMVVqd2tGa3RhVmpSWHdRSWJSQmtLMEF3bHJhTlhUMXdLL3hyUkZTc2FzZ3l3Q1NDN3M5TmQvbmFiemRId04xVDg5ZFNkRFZZUG9LcFdhRXh6Vmd6bWZOR1ZoSnpWeDZBenNlZkpQVFcwaWlOZG5BcVNzcGFiakxOWmQwQ2NhRTZHZlFmNEZxVHBIM0txU0ljdDRaZFFSc2licWdVSEIvbHd4b0w4OEZ3Z3JZSE9ybE1XR1FmeW5CZFhOYmtTeTlIa1FSNGE4VFEvOUVDQ3lTV0FBPSIsInYiOiJWMiJ9.RvZdkb3pxI5yfl_guMcu_GTqRNWYWNZiF7mqjLHbMEljNQEdhPQ-V6jmWWoiFxB738-MbKeKYCSG5FiA0EwbYK24MZg_qgaylwTsUaieBeCY01YchhbwsAL723K0-Rs76Sqh_thuFE5nYN53WEL3L5rogNOSRpoFHDMNb5x7hSDTjuQNFJSiXThOFvVbDQPHlC2gcPLqwLRTVgZzthW3Ec3PavQ0Iz_x9wyVObkZqwR7SYn-khXJQwulacGx51fy0TlOnL4IPWQXEf8Sf8215FjCKjlv_xaa00pUGg5tv_U9_giJkKijHiAFouKXtLVcKK-EEFLlX-LiWyOA4yU17A"}]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.cZMsnXIQ15PC_TKAK0fhHt5KiGR_R4yOupn003A02EvVAECKmct1S9rN70GhTHyLFNDTRwSm1a5XwripvqMv_BpdDKZYzHtfr_PP38BtRS72oyWa-7vUqPuusg2TMwVPixu3ezwTBmflx-zMFGhfx0T-FIGre3csREeOjI_TlOewtkNPNCqvWKMTKtD-MXng_GF1q00IotEYaUw3GnjAycY1tJaWi9uuXDABS9ZE0rVe2Au119D3qP_tMB6OGsFHs66C9kYPDcZsKcNu0R-Sg1J3lQ7quG8if_A5j-QBgf6I0gz_1QfQOxKxCpdcDYDcNnIRNG_8lU6TDiz6-_rFEQ.4SE_5MQu6wL3u1Ab.kikHG6dVqhM7Zl0I_eEHKf1utvf-yhwpku12BZ-ofbutKBnfjDsD350_13uPEKBcNmG2mkS0cLtFT22WC0s0-DDgLIFQ9VjFyJfLHjyUWohxDn-rS56ynYs0xCZXkkPDZ66gL08JP8HDwPwbzyvYv_i9lMRB9YZvxLFwZidsX_5NNyvXwKk2WxNHnIHGAmkjvu56xyffeIRY3MkqPVAq096DpGMGv_9lQfcX0D0.uGwaOVpq4rJ6xmm7nmeGoQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.U7u5g660T5rv_DALLDaYkiIpm-CFo4kEx8HU7RaJcMf1X9TXkNMor5Fvv2WwAksVTNA3qgDcU5uSH72i0HkVel7UqxJleFPfdJuRCETHwrWrCscyfWLWtbLob0K9aEgJLgkQuotvw_1uQ0aVEEBtVi2PvJd_QMs_zJzCkVAVAel5VYuHakGssQcgkT7CgY0JSflXMNBJ1OSKo1KMjSexyNdDLkET86HZ_CNqWlWoCuLR83h5iOfKOvHn9wSDmhCV_j8RcrtqsbbtARtJKWc8S_zeFO7WlIGqoyhv4-ydvmSPd9LbZM1w8h4K1ZIuh9vMPEsH2S7ahipHlim9XInd5g.rOmWMhCYtRAwhqv2.LJ3y0FWZ6QFROGfroFeW_FlI4y9Gy6RztRsGwUdPJlIbYm9PjhlIGHxOq-v7UPI6N7PzLkPTVOEhsCavmq_yWeL0u91yMBSu7vFR3abRQwts50rNwsXMVNhzKrAkf5ftFEsuJEzXyK0FDRqA_R6lSK8p8RbKICCXLfRDlJpUlQexpL1ASNtuNugy_gfQ6ToV4ah5ZVXqLs703ZzTZr8vtZLD8w_m9v6DaHD9Hao.0StKCOueF16cQfMcBnHZaA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Rgo3Ovsj68xAhfFrlMfXUzOekZryV6nCrI-EJxCMqKk-Vg0Ywizj_jSi3YeYgRt8L_LlaERWjSoCvlbo7ki24v2iJimHmQ1g8e5ko3eI1MbHznWhHMFuKrPUllsopZXvooZ3q8H21yNTTcoh4KD_OyeklmUoeq6RK7YsCQAFlXX31RCJcX95eJH36fH5S-1KPpNA1qIjZ9xj1yZsKDBHNNIj_Z_qiOweWWrI_v_M2rrqIA3UUOcbGbllBPrDIXqLs5g7NSaVVK0NAbsf9dpyCbCB_en6AXRAxrBt8W5i7xW33lHYn064-grhzecQGLH0k69piM5iQROzG8N1Of7gtg.YCW1tAAyZKnu7zXj.qdOlrSyfAzi8ACPxVB72ExqNyuw0xND06_UR3mN-mx-57juSKaCNO65MOwHgQRym8cM6DFAYmDnYENDtDnb5v_ll6JRvg7ypd_anxbL0GrLupCf1wPgtZcIckDIQHQylJdCg-VTICtI0h-3fQVJjilPMBJqS_AdWyXD3YLiDoIvJ-AseD_n2ihnKubzKU6f9DGauN_ZMrL6WLVhVt5E7N7Q0Af54BovtSI20sjSP.GsDhULXGJsoXchZXX8FPQA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Ry2uZMkugorizNxsaUsLgPMteLjINnFipv55x5udQwsDZcQRJipgl9uwDzPzcte-UFr6q7LeVK45w-cBaZ1RSIa5kcnDgCMDjW_F0Ed4GjeidqvrGzvf8ncZ2WQWWOhiz-wIsu7PYiGgj-2jG1PBrhAhZcGQX-vyQc42EJmr3vA7ZemrAjt-azlWmEXx0bRavpQlulATliDEoTFn2DQOje2xLDCnZ4cX114zs8JKbxw5rhl6QZTRyRqIgc4GvjlshDlreQUj2VWshCbSa__j5QY0MFzvbzFjyPucPtviXZfxCRkBnhqGYKtQWW_Wrf31JrTjwvR84994sirJkVTHrg.2HdXV_NrD9DTTEJN.hliFRpR1iLQlb3RHP2JJwMB6hOcEHqAVuQP3JgqGyanFF5OVuorR6HjKkR3nblHH5GwzMW8g_VeiCgzy61smnCgcV6NLS1cuer8dRohasVZiLRlQ7t8tOVs8qfCsU__bJGaCi00OCNNljeODrCdWn1lexsz4ZmN83Sge9evC42IcJQ9f2MtU_8ANPodHtczVdmdnhTuaWeuO--3uMx_XjJGER044640nwuG_BkKh.OGT36c0W_sx5QB4KeLqFdQ</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>A100000006061243810</t>
+          <t>A100000006291233627</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>decc4189-299a-41d0-97ab-1959f5e84ac9</t>
+          <t>57c8a87d-3cb7-461c-ac84-c84b938cd131</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>9B1ADE72-BEBA-4D99-8980-049BE5300ADF</t>
+          <t>DF80AD62-090A-4900-B3F9-4DB0FDE4CEF2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>albert.tsvetkov.5.5.2001@mail.ru</t>
+          <t>arii691vishnyakov1994@mail.ru</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NREXsZaqzajTfD7R37uE</t>
+          <t>k92ty0dY92gFyFdxMfRN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI5Y2NhN2E5My04YTA2LTRkZjctOGNhZi0wYTJjM2JmMTQ2ZTUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMTIxNDQ0LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImRjYzNkYTNmLTJmNWEtNDhjZS05MzMwLTVjZjkzYmY1ZmVjZiIsImFuUCI6IjNlMDkzMzA1LTMyODYtNGVjMi04OGVhLWI1YmIyMmVkNWE4NiIsImFuVSI6IjEwMDAwMDAwNjA2MTI1NDIwNSIsImNhblAiOiJBSUJ3MlJyckdFckZVYy9UN09OVFl1WXc1TTIrbnBiSmtuZW5mVDZQVElYQ0RBRzhJKzNPUHo1dFozTmNRWlVkcmhFNzNQelFNMkp5QmdLdWVueEU0ZTFPWTVKNmJ3LzhCUzRyZnpnUDJ1dy9zcU9MWnkvZHMyUHB3RW5td2VIWnVQc250OUQrQXhvMDBHeE91V05DVnAyR0QweTZ1bVV2MWd5cjRIc29vV0hZSEFOYm0xanNBSFZrZjVmYXhrZEExcWVteVlNSjJIb2pNNzVUaTZ4dC9nKzhVclNCYjFaeS9EUXloYXY2dlNLNjNNb2ZaLzVuZ0d4M0UzT0lKU0VHR3RNPSIsImNhblQiOiJBSUFaZVlpV0JZRlJ3QXFJY3J4MjVhelNPZlZ0b2tQenc1dVpDNlZUSG9HMXpYTjVacmVpU2xnZXluNnpjRnhrNGlVVkxzMWNoM3R6eFFiMU1YL1dFV1hRY2t0ZElmRFJlbkdTNm43MFREdVF6SjJWYXN4elVnaDIxNUxFYXBRNGljVmlhcDFVY1ZHT0ZCejMwZnE2bHhqd1dGTldBVkwzeVZQMXY3dFlPUzBZQjFPZXE4N2RTaHd4T2FNTjF2UjBpM1lFeExCVHlqaWY5WjV1SnVsNHVNVzkxaEFtQmxkMFhaYWJOVWhhalUyLzdlZWhlbVFXbDRGWXl4UWNvT3NhNGl3PSIsImF1VCI6IjA0OTM0YmVkLTZjZjktNDM3My1hMDE5LWQwYWVjYzFjMmYyOSIsImF1UCI6IjEwMDAwMDAwNjA2MTI1MjcyNyIsImNhdVQiOiJBSUNXeWJ4TTEyLzFHdEVmZjFkS1dZbGFsVGVCTHZ5NjBtdFZNOGtLZmF2ZkVpTEhTOHVwNTU0Sll6UDYyZWprZmZhS0hmZXUvMCtZVjgrcmtHSGpCZ3N5dXFJK2hNOEJ0K0laMWFhaEtDdTZWSGtRUjdoclY1UXZWc0hkeDJMd2tpQ2tlWTZYMmlHT3ZQN205UWRTRDF6YXhvU3BnUVY4d1ZSM3ZzTVR6ZnhCQnlrWFVVSDhNZWMvc0JPa001Nk90enMxZTBoYVFYVHVtR0diMnhkM1FHODArUGZGTlVac1J3RDRxMUw3NUU4STJMTzUyMDhQTFlQN3ExcDVnN1NsZmZFPSIsInYiOiJWMiJ9.g8IfS2SxqiaGUqBr2OuFC_RseEtB5Wp7_dkpUrb19o3X9KTCrE5oNqrgi2D3phjaKppKgjIeNX74CpbxQlivKtBcy6aKPX91q4kPoMTWdhSSbp5jW2OJFrSjGYcNfJF69gKJJxEGHcXSoogvCGvoqT5Ji17XGA22Stl_FIoF4c3yJ8Gm1cJQVjZwncLpEXScWtwapIwrRUaUFhaOoE4XcqkDdLVnepQBJoVWWfolfEwMzc9FUIlj7IP87q2cvpxv3pQrU1CO2q7JdSTz1IwP11M3FNZjhA0mS6ITPMOAnV7ZTDosGNfu04CtGmp3WKCEx8GvVM7R8u0rQdNjweMnVA"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI2OTJmMmViNy04Nzk0LTQyODEtYTRiMi0wM2RhNDJiYWE3NzEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1MjgyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImE5ZWY2ZDkwLWZjZjUtNDU4Mi05ZjA4LTBiMjNkNDVkNjc3MiIsImFuUCI6IjhhNWRkZWEwLTQ4MWItNGE4OC1hNjdjLWVlMzdkYzc5Y2Y5MyIsImFuVSI6IjEwMDAwMDAwNjI5MTIzMjU5NiIsImNhblAiOiJBSUFqWTUySk9RejN5UmlpU2RBNm4zYW5PckFhRFN5Q2hRRHUvVE1TUldHclR6S1lxRldXOXBJd2FJY2J3eUM4akRPT1pXcEpGckRBclE5VUNveEFIVXZSeS9xQ3U1L2VsVzNaYnYxNVQ5UGI1VXpLekVleUdaR0haeENaN21RU1QvMFRNdndQSHhjbjBEeG1QTW9oTHNpRFRGWWhwTytoM3hyUmU1TXAzamR5NkZ3YTFNMmErbTV5UnVwMmxxQUg3L1FvclBuY0lCZ0grQXFPZVJnZmVxWitCSStLeStFM0FOMkRTdmJvRlBHaC8rVzNGMVFHcStPQ1lqeVBRZ09uSE5ZPSIsImNhblQiOiJBSUJudDVnK0xkNHdPcEdKL1lkL2NmUi9Pd3lqdTVkYVpqOHJ4a0ZVSDVYQ1UwWkI2Z1pxWTB1STlkbktPbnQ4SmVxWEYvYlR1cmxHdWdRRCtwTG1iQXB2NmphdnBVK24xVDF4SFFSYXl6b1A1NnJsaHc3ajMwNG1KazVrSGxpUEl6WWNnVkx6UmdjdFBjYXRQWndsT0xJeUF3Wk93c0JveHhtbVFuM0ZnZk91MnZSYnpnWkw3REtsRGl3dk1iUEwyZVIrbTVudTgxNEhPSlBvY25JZGlUNHRONllXa0V0QllmM0kzdDBHMnBybUlpS0loQmg2Kzd0YkxVU1FWazRRdkhzPSIsImF1VCI6ImQwMGRlM2IxLTNkMWUtNDU4Zi1hOGY5LTQ5ZThmOWZlYTY1ZCIsImF1UCI6IjEwMDAwMDAwNjI5MTIzMjU5NiIsImNhdVQiOiJBSUE0WGNBMmtYN0FNUzVnT2tCOUwrN0ZGTUJzTjdiRE00MWJMWXUwZmdoSWs4KyswOWFHNFEwVTNHRDlKczdkZG9pRk4wb2QwQUx6NUNHQWlZNUg4RmUwTnRUbUJtOFdVUHlLQWlnSC9LM1BvWXUxWDZ1VjJEdjhrUWRBSm5DU2kyNVZuM1N5YW90ZDZUSWJkeXJnTFZZdjJSN0Q1RTBtWHNzTVdPU0p4SUpsbW8rRm5DSTVnV3hLUTNvWFNuNmRRbmJZdHY2L290dEpaMVpqRkROckJmeFVUZzZybXRITnFzRmFXNXZuTFpwUWVvRVFUcmVieGxkVkpNUzBTUkIyMkJvPSIsInYiOiJWMiJ9.OSN8bhZTwyF3qCZCDyrvTO7Zl_TPBzw7d6ZAcgEt60eoVf_6OHlPodbZkE7osNfelmOwVTLRxX3bcLZuwvZHxxJdkl04rFWX90yiV8jylyLz62h8ErET5ngmNy84odio0CVOZDNcgZPS0OBSmF3u_z5BvCf_Vekyx19B8AxNlQBygzZUs5N-TgUojY-BZ01N8uN_YQ4-yZw01eNROfzBmw7v1L4MmAmE4TmRz-ort_-FQ1zeTYltpOPWli1agVxTeKQhQPz4tzlSF2HzUR02_Fd3IDLqLHbPTD3_T7_O8lzkr05M_rUp9rM2jiaec5tstCvgNtEntlb4ft7pPGw53Q"}]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.gfJKGBmdjaDZ3UGQOymfuoxEFla7e1J6RdrfIBE6p2kaHAhdisCXGHwyN5MoS84qRMlgaBHZhL2TvqTbm6kVjYd1hvmRdJV2bVEPdDvMFBX2fILiLSQXQK3Qgg4ry_9N6MXCKOATtFpO4dMb5rnjmW3NDNkXPXvpzUvnQ1-afe_BfN0J_OwTIy2qXFJEv_Y2oUFASNDElXUQBocrQ_ED-qNH8ybPFAISSZKBsrp6SfnfvWlq1auGtz1tguNVkUVsC0hMeCRMyMaKE-FFWmkDCRfygjY_Gw7ZTiHi2tWWKVSBEtFc6SM7LTyW4CMhKx6mLaaNVzkSTZuSJzB8p9pycA.bNJvM4qvrK2HJo_h.lkUlUeKSaWXnEKscPziaF_Y0-uGF2aDfvWMwMKHNd4KAnPz7DSUHAPPOTxZ6miW4whwGOvwmFRIBxqAU5zJNXDkkg_ZfZCuTIrrDX6kylq9NEZrwtKYhYxqdzkFYM5FVFpR6qIqS3VKYkdshoKPNe2QV0-YCdOU_03iZYepoNCOpp6g4A8G28LXfSmNBoetcH5-4kZrEdQv1NRnEoKr7vYsN7MD7IaPDqMf0wCY.EJNYoxiotZfmgNUqQ-HK3g</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.TW2NhJ5HGRnkvfYsy5VQqANF2DLMx7p6PtQt1Ip3iBsWo5OZRGTh7VX0S-odZDHQz95f28PNC6yjIDlTAU7UPsQCFcfxTnh5D5jBR4z45wYBYuAftfODjD2feoRy1Kv1K-c4tivtKmQmzXsX3JhCXRbyew2HPhym0Hp7mtx_ekCLRnD2EI5GUc0YoUBvvvO9TYq6pn8hK4g_IXwPDO1ys5uGcHtdYfaP5hE5MFaHL-ZgRwkSjAJ6Kzgrte5MLJ8nohtU15f0MSyzuVUtJlrb1gHIfFPjgkANZYFZVxle0NuZr1QYPc7C3cM4m8DL_uoG_xHTw7J-clx_tnegrfGG9g.NWOuFY50vcGZNHZ3.kFiltV-mch5E_k_o3SUjqadTs55EE_l032u-Bw4md86YE10qtRkErXgnq1Ss7CjyzYwGI6HKlmoc3wozSVkkMmWv_FPNtJPo01S7ZcpbrZRcD8UBwzOVDy92OVJ3vh3tlic1TDf1mnGJwczxvWSeaiT2TzKgTTYKhxlC9rrEuKnS_ghyTWX8X9c3Cha0kPilxRQxhXHD-tnQbnrVicH_YqiJLORWGilIz5IWleE.dRLT-BgIa6QP6nQX-mMCyQ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.HjUCcAZug33axBns8DNZGH_vC3vBH-WNaJBB1OgXaPCEyEtrqm90oduOWSsoKz6medkigNX4nH8mJ1h1-w1T-RCTJySsC3nQi-A0Jv_JeUvVyF2S46CWMt2vq9kGWvmJyqhUCxoZwsIMTjs8nXwEv_MPMRQqGpJm8wCy1IV1AyCwm891YwLSIwCtx7kvZrt_2gaBGKXOIjcNF0Vdkl_cGbvg4cgLla16nQd1JS5sK3hke62e-ZuyNGNyomBaHtVCV0tgmndohz376PsEaIyUOJgD71-ddkyrIULiz9UkmqmZFM3iMzB-IvrdSPAsBtCMdeBci4h2b9jQqnbznxb30A.SxpLEpFqL6RJQv36.C3yTgBextddUciNup7Fj4iKnlOBzR2dMPSGNEwgEvLsqeXUw8KyVf140fLHccGQvlz3vj4JgPmm16YDHou6GkdPS88EogF-rPKyzgZ4JFp1vrM3jY1KW7uRXSxL0jjbz98SU9Byn1LTmU6eOekTZp3e5LTTe2TSVS_tXawDJBnV5rF5wt-1LnsR2jj5tjx6JEtNiqE52usPw9Bl9MlyUjbHj5jU2dVwtccJvX2zU.WKuA_c6uaIMk2bv6Duz6vw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.d9-DTe9HaUe_IiXZNGrTTO81-vCiuVylAgqGg4oA3x32WQIeKexdFojfnCbN8_-voEEvNwXvfQZ3MrkZz9S7siNqM2uju1wQ_ssUUUsvakGBdD3OSWkaRZQCufbcAe-IHJcUz9QlSH8Gp2op9Ni_i0hVppgTKgT4G01AR8eumMpEBtc8EG52GopFXRmPp0Y3gRBOFJCk77ZUy0er24UX4GNIVH8sa6RoWwZHInGhVlJJT0G8SJJqRI0LkRVJsGBbCsLQaqYL2RATe42e44AyVuXZm5CXZ85puE_i5deE9cnBsj57YL6M5wCypqY477-qIPYq6g_BReeTgR1TVzIHQA.OrpjycJolnoygejO.gVemR9j4VUxhnXZDLR1f3h6VZD_MNxXuvKkLgXF48RSh7CYURfkTx1W9BYnMP703ROSKdCyqFJVns1kCtBzLx54u5VpRqAlkst6Z3H7XTYPqO0GPeX4AcS5Y4Mpf8t-AwD53cxDI4ueRgIcnB0NI_t2vMD-rszls3ZJjTI7WqDO99tDyjuIc4wg311Q7dicl_a5a12YuPmwpjqzofl2mNsacQXQkZj7aHylOXR1o.eIDdaKNg-EYcRAJ3S54qpg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A100000006061252727</t>
+          <t>A100000006291232596</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>9d0e5767-5585-4812-91fb-7ae51bb6349f</t>
+          <t>ed2f4e14-c053-4f69-8303-df4d1871c1a2</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>7F90FDE6-0FB2-4589-872B-CDE18F3B9867</t>
+          <t>AE1CDBC3-846E-4FB4-993C-55D3C1E9F03A</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>fevralin.zinovev.92@mail.ru</t>
+          <t>sermihore1986@mail.ru</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>XdwuPfM3L5sxFwbS6zYe</t>
+          <t>Ydg1YEdGCyzZXzZ8a0SS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIyZjFiOWFjNS1mN2U0LTQyN2EtODU1Ni0xNjFiNjBiOThjNjYiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMjc2OTkwLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImIzYjhiNzFhLWIxNWYtNGFjZC05ZGY3LWYzYjJjY2JlNmNmOSIsImFuUCI6IjM4MGIzNjdlLThlMDQtNGRkNS05YjVhLWRjNWEwMTg2ZjA5ZiIsImFuVSI6IjEwMDAwMDAwNjA3ODcxNjQwNCIsImNhblAiOiJBSUNBSWVuWTFWQjBzdlBaOFR2Q3ZWamppKzhhVysvcm9ZemN2em1rbTludG12eFNGMlg1Vmg3eWxWYVlhWi9kUkxrdGoyWXFMSVBuQVI5R3FCNUFsNEVFTDBjbm1pMW9TcEdQTGh5bWZLcHJUNnNrZXhLZ1NIeWNXR3BOWmdQTzZacVZOQWd4ajFJcGlubWtIc2FCcXd3VEtXaWF2K3p3d2Zka3pVRG55ZUYycnBCc3hablA0a2R6cUY2L2lrSk51SnNvNTQvRjQ2VVNTMTRhc2hIZVJMRXZ3QlBTa0c3UFhsUWtOTVVTbjlsdW5lY0RkSVJrU05qelFaRFk3OTZFN2YwPSIsImNhblQiOiJBSUFORkV6T3Qwa1VTb1h0czU2RTVHZnlVYXhkUzhaWjlUTnFJRTdtM3ppU21vMWJoWlBIODRsYUJCNHNhenh0cVp5cVg3WEp4bnZFRU50bWZjazUxWXROeDVwcmhpNDRvc1Y3QUxGVjZmYWIrdnZ0WGNFVDZsclVBcmpyTkJ0djlqaGJ1MkMrVWwwOXdaVENoUFNTUmtxeWREdU1JR3FoTDNwaU56U0gzT295K21xbDRtVC9rNVBqYmFJOW9WSTJ3eGdzaHpMMU1nNzN6YzAwdnh0TkkwWFdKYlBFQnpLdlNTVHNTSUpxNXVTWlVNZEVyVjcwUmhRVGgrRXQwM2M4Q3JZPSIsImF1VCI6Ijc1MTAyMTQ0LThkMWUtNGMwOS05Yzk1LWI2NTUyMmY5MWM2ZiIsImF1UCI6IjEwMDAwMDAwNjA3ODcxNTIzNCIsImNhdVQiOiJBSUJWYzRtZlp5dmdrZ1NDVi9TN1R3Q2d4RTRnT2J3VHpFcTlGa2k1dmcySVl2akw4SWYzOGdRNUVzR292TGlITTA2VVdXaUhhZHUzcFAvTGhmY05ibkNlVm5WdzhoYnZmSU85UFpCc0pUMnQwanlDSUVPekZST0t5elBVZzRGdEpuc0xFRkx3UlFqSnhKQ2d4N3pkdUEzWXJOTXh4eXkrb3JVSDhUWUZneU9kRTJzUUlQR2dXamRFZG1PblJ5Nis5c0JZYU5yekZ2OHoxRkZuRHJoQ0xXM2JyY0dtc0trNGRWWXoyOCtsdDBWbnVlS0pkZFZRQUhBNjlweVNnaWlTemVRPSIsInYiOiJWMiJ9.XNuoe-rla-1_SdzfYDDi3kytBoEdbs4V3HLrVQD-MAvC_XTtsWVHi558jcJY8AxICo92oaJPQ6LodrT-7dyLfFhoB8lMzFeBuDwTq9VsvH5BSenoeaXAbEVXOnWdoyZbpO6Vioz26pH3LLqIvG3-bzOL0-BrHCotAhocqbMFIDKccNM1bd5peaIJMf2yVDzZwPElL7g69zNBBcit3ooVcVY_IgLwH57Hp8UT63CtSepoACuzqI_XpLD1jkUGXo1YR5_E2ROc7pLBpCSMJgGD5jaD5qal3gSr_t6OlGEbqfoAXuD8uEm4k9Wnnouu8-N_e3tzTaTkIyKa8BFcXTFWew"}]</t>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJkZWQ1NzdjNi1mOTY0LTQxYTMtYmZlMy0yZjEzZjE0MmJhMzYiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1MzQ4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImExMjBmMGQwLTA1NDUtNDI1Ni05NjA0LTUyYTRhMTdjNjBlYiIsImFuUCI6ImFmM2NmMDExLWVlZGUtNDFiYi1iMGFmLWZhOTc2OGYzNTFiZiIsImFuVSI6IjEwMDAwMDAwNjI5MTI0NTQ5NSIsImNhblAiOiJBSUJmbGhzd1pXY3Y2M2JMd3VtdVk5Z3c1cC9YYzFuK2NEc1kvbFk1N01BZjdvaXcyVnRtMkp2Qy9NbVNyOUhmU0U2VDI5b01YNU5zREhMM2VpYko0bGZwa3ZhTnJpSlIzNHBWalZTdkRtRUsyd2Z3Vy9hdXNkQTNzOWtFNUw1TzVDYnA4VzJIRkVuYzRrK29TWTNyczFMekx1UHI1cVJ2RWcyeUpkamRNUUlaQ2FrQWFHRFo4YWhXN0FydWtBVGVIR0t2akt3L3hlODJvRUR3NFlZUkNUcXlYbjVrN2M0RngxbHpIRU42UXM5Umw2bU9nREViTlJLelorMjNPNjV1OXNZPSIsImNhblQiOiJBSUFvMi9CVHNSN2tsODQycHZxMEZaRndCdklkR2RyQmswL3V0dEMrVi9DR25TM2F6M3JLdy9UMjlvT2I4aUdhMnF6M21YbXV4N1o4eU1QRFNPaCtNUGM2ekdGc0pqR25yQmc1bDV0MEcweVBLYkxkWFppNzgxVjhZSmtybkM1ZkFNVE5FRzJ5cXJqZmVKb3lOTGhvbjIrK1hSRUowMHExR3h5NXJsdU80L1ZZb3E0R3hLVzRjcWM5eWRBNlgvam4wU3hYdzhUeVJUMGo3YmlwWUU0dUNhUkJIN1pxdDUxUWJtMGpCWWQ5ZzRYcnBKZm95N0pSOU1lYUJ2Vzd1em5CbnNBPSIsImF1VCI6IjgwNDM5NWE1LWQxNzYtNDA5Zi05YmExLTNhMzRjNDgzMzU2NyIsImF1UCI6IjEwMDAwMDAwNjI5MTI0NTQ5NSIsImNhdVQiOiJBSUFYc1NacGVESTkvd0xSNDhISzJPa2VRcDd0U2ZGWjZhVk42YmlZTDJTTnYzQVpNQzJQd3ZaWjlIUEV4NEZyY1AyMG5IMWhBRVVkVkVxbUZLWWpDYnhFc3hQVDU1Ry9FN3lUODl0NmZzbkhNQWpHbkxDOTJhVzZkczFxQmFCbCtjOU1TWitwaU1ybFRxTk9pZUhMN1lqN3JrYm1YWHFmOGpMek5HeUJMU1BWUHFYUjFuNmQ4cmhQVjZ4OHFrYWhTT0ZUYlhnOThsYVk1MFI0VkJmdUZKQkQrakltSlR3MGpGRXJiVFh6OGRPZ0R6bTdmSjNlT3lRaHNhUmdlY3NtcWZzPSIsInYiOiJWMiJ9.F2eoPoRPkRTagrBwKIwLLFs68EYFW00gV8JqggpSGHP174VgHtfd5HgWcAeTZmh3ra4fB7UqCwkSwfwZQaQc-A4WoglKARpDnW_v4PR0tgx_RqAhzfkGx6EDfNv7doxK47kVPOKzDkdeNDYiVAESj9bXJTvHG9qITd4pg3_FEWe4P774XC5APlc6J2cx9ZeCcm0-GQdHomF76e-MT4R0Yjm-iLb_EUED1jReRikzeaH-2nePcNfwVMfvjIXL7rMQftVnIiNS2tY7vn1c_kmv75vn5LHRe5EP3EvyzIPRcf_7FonQoPu8qHv5kEfmiAoEJ8z1FQqIkzVPbA6OXfMCng"}]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.dlYPtet-huql32SSWQ00LSkozNfetkPXNYtNCV1dt2ypmrsAgXccvaScw5dxc4vMmX2r_NYj1xMwmbtedvzfCa-L9MK3Qb6Qs6T41TsS18B59LFazKLLtxzAyzEMd2BEjCD4-CnzLlFR-jkxag4nDX4LgntxJ2TUECO_rNy3Hj06nvMRlEddSF2aD1oVAR0-t0cT4xLBthnq8a7-06w4HZ7pNC9wSD7vaUJa6nlqZL71lnqcVtmg8Me5phvEfj4qSxU-y1wGql0IiyabhvCeiqAfFK7Ekaz7oIRk43RfAXmMsuQp3Aaa32bbdiGGpO5VRE58l5kQSAhePqrovPJDvg.ksuj5AGV-gUX1UyZ.GwOFaL5qFNpJs4tquabY08h9-p7059W_DZ-0KaHhqMeMFeGMBiFFmSm9cJVBlUzyWZaYbikLiNQgBzZbup2Ho1f9cxPyGgaplFefkC_PPN1qVEQySE7jTPYoUoG1be4aUe8bfW1T2aN4yd3UFTo5sZI-OQIQ7jWYi9trVJuxWLd6wl40SnW1OXOsLy9YRzxXiMiKvnOnV6fO0Ew10PtPBf9Vdj7ECTExX9jSjzk.jAv55G35mAZtg5ftAJN40Q</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.MPZ8ssCythCBdVyDHDM4X1L0XoBGJ2XJks9G4WaqA1NieKwwDSEg-mhFScCEF-DChrN604uxTSRDr0vrXQv0C_dfjnrT2nnwe8Ia4JncKctuCntUo0cxxXcCtYEM1hPnJlfy7mtu2p0en-P6JTAYtWTg6dKVzSFSVrXZdI25rkiMgQzunCAUPBwYnZujpdEGidy3_GVnvH7NJdF0UyBHqb4CJTuno9jhXpCKu5Ay1r5mlXmGilD0Mpn-ENY5jnvk3W_xrcaHr6OcA7KIXr6p35c69Uh7t6kre6B5Xf6s182hXDlAEJH1poKuEvwzPegJDqkaKXhAcmCZwOjxMn85rQ.Y9h0KoayzjRGSitZ.J8f__hWCKyKF3zLTQ_yXZJzCot22wota8u8hLv8oBccfyGNjATnOV1yvUSPl33zI4effzurYOXM05gdPZs1RwNy4c_xaFPTxEqpIvuf-drPUbwcK4FV_9wbX4hKp3HU_M8Yv2enEuKQOyT0MvCPqLOdD24mgYwtHUDXBmSPR-oqoKS9100FBTw9iUn35Zihk2sEgEr8VS23VTwjDZTLOR8bgjASy4Ds8jOa99xQ.pNYnB6Byey4RB-Rmb1dQWQ</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Nu8bSWviJSt8lEPLdRelD9OyGFrqDXjtXMP1bIxuiMI9Hmh8HFzxkKoru-JBOqnUpG-jNDVTklMZ0IqNxnmMoZ-HPyGilJXBZh8yMMwdjEbqsHOihenouUySx83C0tvIF09m4W4wxAQLDcOiOQcJxvN4x_d4hcWA39nGral3vecZLQxLycfPHYItO1Ru2-D0prE9_5Sg-OoIBSWIPx9Ft9KYNZzbUIP50I2ZoO0f40UZQDv_2Q93atOr1Su4F-Zp2t5S5kjY7K3RMWlOqSTtqxpWfX-a6jyw5G2sfNQSv-ddEv1KGYUy1nf7TXf43A5wHKdYZv-MifYfgX6oOTzPzQ.-v8lrIvnMPrEeppy.6YF2RvZmPliheD2xarSBR8n2-G7N78ExDwjsKxTNo6rRMR-5AELKqrFxZfipf8Zb2fBzZHHXINFsxdhOC3IyCjUMBhKXCY2GAafEznju7wbmGERL2xGEzFpIO2ESWf4DEQP0sG5zxOPabm26_s08st7Cs1isolo-8DVDy4x-LtGt-oRLiH8iJQ43J-k0YvTzAwP77orqG2g-MUJjvDGe-JRJSxNhmCDNkhMgPuLW.LcS53iCs8IkEVl-eLnvyAA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.BI5_ra8QFZ0-0TQsCfLVliRzoD7tHO8eomHg52PoJTQ_B39sQNdEhVNxxQPDi5771oLWssWRqQthtUcFQ8vkENli_7l1qJ_DKgdYowYhz8LvH3LSMbQZhPcPFuK6UX19GyBFiF3QttY7CBG9yNkCxlp4Pk_or2BB22AsX5kYERh1HeYrFLsvWWuDob_JQQEmTtWLUqIsLBWJxHGk2Wwsmf5naYpo0bEG1AYex2cYo05WePaIGif_lYVD7yyRYsx7yj4PuwNIlc5JPo_Hey50pWeYfgW9XH8QGE7ywTqX3Cg_U-Dbkoi8C7MkkPya5NW-F6B_BMKO213TM2_LjsKXWw.gkag12uHIh7AGYTS.STmzmJqSkv6HlzILU9kn3tQvwEtDZfYZJ4cGuxRRxr-o_tLIOcScgYsVUc7McU3HL318fdzmKEKwayW99DYE1Sta4viLZFFZMX-MkQR-dWaLqo8MttO1_8HTcBtzUv_8Ak84njiKsxdBswiIa9cxdb5dhq6nGtT2myzKBMdirml0fpf5yvdv1mf5_zgJE4YFUj7oyM83SX_3Lt8r-9o_utRWTE7q5R7c6L9On6OF.D20AQuHrEBKnEv8LP4G1Eg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>A100000006078715234</t>
+          <t>A100000006291245495</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>716bfa3d-bdd2-4022-8c9c-8ed6bd1e3415</t>
+          <t>8d7dee32-063c-49f5-98d5-9cfef21450a5</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>55AF0FE2-8E4A-405E-B667-37211EF2BAA2</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>EvdakimovBrigkham@mail.ru</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1JYdXRp1NQiZ4XRDbKEj</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIyZmQ3OWUxMi01N2U2LTRiMGYtYmYxZS1jZTY2MDNmM2MwNzgiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjgzMTIxNDExLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImZlMTljZmYwLTJiMzQtNDY4Zi1hMjdmLWM0OTk5Nzg2MTA4MSIsImFuUCI6IjgyYjdmYWJhLTY0MmQtNDM1NS04M2QxLTI2MjBkYjU1N2ZmMCIsImFuVSI6IjEwMDAwMDAwNjA2MTI0ODIxMyIsImNhblAiOiJBSUNHREhsTVkrNnlLWGg5MWh5T3RPYkpkZTN1YWtZK1NoL1pDMisyRzE2OVhtSTZabG9FK2pjUW9WMERSNDNEV2ZWNlBLQzhMYzJjemFyTVFEM1Z0WFpZY2c2aUJGOGFIbWZuZjJ0OGtzVWlaSU5FMGx0b21zV0xpT3ltdGRvaUhNNTBJNXlEZnFacXA1eWpEN1l3Tzc5anR4R3Fla2FjTk45NmlXRDg2ZFJmaThkVjVJYkY4QUNsS3VldEpvcnUxcEMydnNDdSs4QUlOSjR6U3ErdVlBRkxoaWRaVHJSNTU5L3B6dk9mMU1ZdkI5bldubUFTMElJVGFab0NHY2dBbkVJPSIsImNhblQiOiJBSUFxL3RyeXY3MWd2Rzd0Z0ZMSXlLVXJVR2Mzcm5CODdtUTVyY243ODQwZ1FXZUYvcmxqc1J4UDdzU1hvUDhiQi83VG02OSt6SzJQQTB5VG50bkZ0bGNOMHRYVnBXK2s4SFkrRlpCbmlKUHhNOXMvVDE2elRHQ3RMb0U0OWtjdnVjaVh0dVE3MHJEU0lMRENQekp0NzR3RkNCSjl2NFBEZmxMd1F4b0ZtenZLMWNtVUdGYXhaWGJRVTQ4QTIxQzNqMUZ2dXRrbFdpNUtNZlR0OGc3L0Y3S29GL2ZOWjkzQ2YxbFJ1dUYwUWNneDVTdVR2dWhjemJsd0c1Mm5NUEhlWWhNPSIsImF1VCI6ImNkYjY1OTliLWI5MWMtNGJiMC05NTFlLTEzMjdiMzcwZWIwYyIsImF1UCI6IjEwMDAwMDAwNjA2MTI0Njc5MSIsImNhdVQiOiJBSUI4QUFIdDFZcG5WVkRjQTdKdEI3OHR0SWVYQk0xaFIwdlE0OUEwQmwzRllyRHRheUFKWC91a1hMMko4VDJlQnNuUmNROFNvd0hrTkhSNURBVmpSSE5vVnZhNEp3NUVQRDI4ZEdaeDhRNE1zYzhBaksyUXZXYTlxeDFDeGVlbDRTV251RU5yRVJSV3ZLZVJEdDJBbGRVb09iNDRNU2drSkJ2eUs3bkxpamNZZmkza0lqUDY2RGxZMjY3eHRMdTFldHN0YmxWK1c5eEdDWG5WTkNUdEE4VVFobVVwSDlXYmtnc0VKZE5kQWpHSmVqL1ZhYU1uSjVxckN1OWROc0Fzc3FNPSIsInYiOiJWMiJ9.FjvKMmyZiEGVJ_krpwfrizY4y1SPUlrFCepvOq3M0RFnuSiMWBsIwJFfBRC10dhTA8lwt-1CVWgUpagUbcEY4KLBCOMH0EvaCLioZv1nXvxsOheZ6dAzdFqz6IG26TOpFzg0LoIswJGDSx5Q-0z2VwczxJXE0qW9-GYnXf2xPV7HnYqNzArUqtkWSlIalt86Mqp4JoGpfHsaNbESbjUzosgWwyCMFnwLdS52c-78ScE6X1IP3ALWO64FUMeP-DnIbYyR2IC4RA7hZFDomAK1S6hDh0npUvDgBsLKCML6Wfk6XXxuKUB2PcbA-rwXjnG_zS2gXvVQAkZbKYJdd0mqpQ"}]</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.SKlkUqQJZHuwfvhbCEl4wnhZDVMCNFWccTX45J8MqghmAzky_cANd-i6p4G0gZQUDvOkRwdhwLy8aS6kimTTT3JQ3ws9HzyteUXwx6yHTrmSX4tkEV6Nx519ZK2Chn9C-gqntUQfYK56fD26yizxox5ua7D05nYxTlmAZ_Y5mPq1w6EdVIpum2BahECFwCQ29aBSY3jQfSqpBxp_PnA8l0mnLrROVDupZpLeYuueW9Ba61EaTPhYhTL5UxIdG0FmhWPAyPVQv08oNE_YdR5mMPOt7pNFxWU3OoEjU3Vs21R_3d-g_UjLVi1KZUWPH5vYJMldyJCRSleD6JOK35YWzg.8RnPRmwkH2GINICl.niVzkkZNyrQtpTjINWt5-Dp_owdwo1AlECNYFJ5NjK2AB-1M1Xesb24i7p-bkM1xXk5nTUoWO2Ay2BsI64VYbDLQDb87cA42VUgJs9c5zwFbcZs-N-X2Uew1mPiYzenvTWvvx-lra6PzkYQ8WiNMkA9BlldQP8UMCe4-0pjSLuiUP8mhyjT0Ym64hyzeJxMxvNQ3BWRb5-yjRhYrwXXqZvQaM3uYvPcYZN2HIPY.7BiqTF3RApXDarIHrSXYKQ</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.JtDf14z5iZTnc91Nvb5cO43bQhNxESh_6MIPb_U2Midqa8_cAfXPZiWo2798J_Qi7CQ0lM7Z5Zz10ZVB5cCf2b59mKAka8WzmyGyqAbT9n29ilPvBrBc62NC2BA9iRQTdlKc867JMeyCY9QH2gbZVOhYahK4jyE9haPiAztZUp3UTirQrzvAi0TOG_CFAMWwqT7dzawIKrTX7TSKOZp8WcPOr4COOW_V3mjTWvs6psvcbH_UEehdv7MIHUUsPbe4SBsGryR66RtOsk_Yp2ApvCl3vu0laSlMGrlMWVVQwWFEEJjrVUHlCl89EecVv4YJE2N67K-hYgK_thLarySvQA.f9WfM-gCtLuq7fki.2BV7S3icT_DG3tIvCjVqdPCRwCYhNc9Ze3wW_6DbzsTX1I9isDM3OrgLrCFUHqrj6c5nrt2elodleWzXsD7J0kfVD6WxdudAN8vaRLTVE3gZCalXxU8bLvtY2fHYtultw2D7pdhlNceggxV7WioLiZC2Pe6-I3TyhxFpwB-Cx_e_xHjTz1bGGvzsXQcZ2Y6kkmb-_Yug0FnWzd6mddpSLJVgqX3FURATyCjf5t6T.ri1bngznyDMlbNO3gN-e3g</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>A100000006061246791</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>1cbc0e88-0a1c-44b2-a2be-e3542f592034</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>217BFBA2-B20B-4EEA-95CA-97CB9D84C70C</t>
+          <t>0E824FA6-1622-441D-A101-77B101311F22</t>
         </is>
       </c>
     </row>
